--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1313,7 +1313,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
         <x:v>42</x:v>
@@ -1342,7 +1342,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
         <x:v>53</x:v>
@@ -6678,7 +6678,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="G206" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H206" s="1" t="n">
         <x:v>18</x:v>
@@ -6707,7 +6707,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="G207" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H207" s="1" t="n">
         <x:v>22</x:v>
@@ -6910,7 +6910,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="G214" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H214" s="1" t="n">
         <x:v>23</x:v>
@@ -6939,7 +6939,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="G215" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H215" s="1" t="n">
         <x:v>40</x:v>
@@ -9175,7 +9175,7 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="H292" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="I292" s="0" t="n">
         <x:v>0</x:v>
@@ -9204,7 +9204,7 @@
         <x:v>361</x:v>
       </x:c>
       <x:c r="H293" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="I293" s="0" t="n">
         <x:v>0</x:v>
@@ -9346,7 +9346,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G298" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H298" s="1" t="n">
         <x:v>17</x:v>
@@ -9375,7 +9375,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="G299" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H299" s="1" t="n">
         <x:v>25</x:v>
@@ -9407,7 +9407,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="H300" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I300" s="0" t="n">
         <x:v>0</x:v>
@@ -9465,7 +9465,7 @@
         <x:v>212</x:v>
       </x:c>
       <x:c r="H302" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="I302" s="0" t="n">
         <x:v>0</x:v>
@@ -10625,7 +10625,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H342" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I342" s="0" t="n">
         <x:v>0</x:v>
@@ -10654,7 +10654,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H343" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I343" s="0" t="n">
         <x:v>0</x:v>
@@ -19003,7 +19003,7 @@
         <x:v>215</x:v>
       </x:c>
       <x:c r="G631" s="1" t="n">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="H631" s="1" t="n">
         <x:v>323</x:v>
@@ -19032,7 +19032,7 @@
         <x:v>258</x:v>
       </x:c>
       <x:c r="G632" s="1" t="n">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="H632" s="1" t="n">
         <x:v>340</x:v>
@@ -20134,7 +20134,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G670" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H670" s="1" t="n">
         <x:v>4</x:v>
@@ -20163,7 +20163,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G671" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H671" s="1" t="n">
         <x:v>5</x:v>
@@ -20276,7 +20276,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F675" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G675" s="1" t="n">
         <x:v>7</x:v>
@@ -20305,7 +20305,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F676" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G676" s="1" t="n">
         <x:v>7</x:v>
@@ -22892,7 +22892,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H765" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I765" s="0" t="n">
         <x:v>0</x:v>
@@ -22921,7 +22921,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="H766" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I766" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -706,7 +706,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I938"/>
+  <x:dimension ref="A1:I939"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1017,7 +1017,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>4</x:v>
@@ -1075,7 +1075,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>25</x:v>
@@ -1191,7 +1191,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>1</x:v>
@@ -1249,7 +1249,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>7</x:v>
@@ -6797,7 +6797,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G210" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H210" s="1" t="n">
         <x:v>4</x:v>
@@ -6855,7 +6855,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="G212" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H212" s="1" t="n">
         <x:v>6</x:v>
@@ -6884,7 +6884,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G213" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H213" s="1" t="n">
         <x:v>17</x:v>
@@ -6942,7 +6942,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="G215" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H215" s="1" t="n">
         <x:v>40</x:v>
@@ -20221,7 +20221,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F673" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G673" s="1" t="n">
         <x:v>2</x:v>
@@ -20279,7 +20279,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F675" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G675" s="1" t="n">
         <x:v>7</x:v>
@@ -21007,7 +21007,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G700" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H700" s="1" t="n">
         <x:v>3</x:v>
@@ -21065,7 +21065,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G702" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H702" s="1" t="n">
         <x:v>20</x:v>
@@ -21526,7 +21526,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F718" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G718" s="1" t="n">
         <x:v>27</x:v>
@@ -21555,7 +21555,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F719" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G719" s="1" t="n">
         <x:v>33</x:v>
@@ -21761,7 +21761,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G726" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H726" s="1" t="n">
         <x:v>3</x:v>
@@ -21819,7 +21819,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G728" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H728" s="1" t="n">
         <x:v>10</x:v>
@@ -21993,7 +21993,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G734" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H734" s="1" t="n">
         <x:v>2</x:v>
@@ -22019,10 +22019,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F735" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G735" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H735" s="1" t="n">
         <x:v>3</x:v>
@@ -22048,10 +22048,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F736" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G736" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H736" s="1" t="n">
         <x:v>5</x:v>
@@ -23008,7 +23008,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="G769" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H769" s="1" t="n">
         <x:v>28</x:v>
@@ -23037,7 +23037,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="G770" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H770" s="1" t="n">
         <x:v>34</x:v>
@@ -24893,7 +24893,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G834" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H834" s="1" t="n">
         <x:v>0</x:v>
@@ -24922,7 +24922,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G835" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H835" s="1" t="n">
         <x:v>0</x:v>
@@ -24997,19 +24997,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C838" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D838" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E838" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F838" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G838" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H838" s="1" t="n">
         <x:v>0</x:v>
@@ -25026,7 +25026,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C839" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D839" s="1" t="n">
         <x:v>0</x:v>
@@ -25035,13 +25035,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F839" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G839" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H839" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I839" s="0" t="n">
         <x:v>0</x:v>
@@ -25052,25 +25052,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B840" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C840" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D840" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E840" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F840" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G840" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H840" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I840" s="0" t="n">
         <x:v>0</x:v>
@@ -25084,10 +25084,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C841" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D841" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E841" s="1" t="n">
         <x:v>2</x:v>
@@ -25110,16 +25110,16 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B842" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C842" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D842" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E842" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F842" s="1" t="n">
         <x:v>0</x:v>
@@ -25128,7 +25128,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H842" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I842" s="0" t="n">
         <x:v>0</x:v>
@@ -25142,7 +25142,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C843" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D843" s="1" t="n">
         <x:v>0</x:v>
@@ -25165,13 +25165,13 @@
     </x:row>
     <x:row r="844" spans="1:9">
       <x:c r="A844" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B844" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C844" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D844" s="1" t="n">
         <x:v>0</x:v>
@@ -25183,7 +25183,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G844" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H844" s="1" t="n">
         <x:v>1</x:v>
@@ -25200,19 +25200,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C845" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D845" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E845" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F845" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G845" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H845" s="1" t="n">
         <x:v>1</x:v>
@@ -25229,7 +25229,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C846" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D846" s="1" t="n">
         <x:v>0</x:v>
@@ -25241,10 +25241,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G846" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H846" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I846" s="0" t="n">
         <x:v>0</x:v>
@@ -25255,25 +25255,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B847" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C847" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D847" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E847" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F847" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="G847" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H847" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I847" s="0" t="n">
         <x:v>0</x:v>
@@ -25287,7 +25287,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C848" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D848" s="1" t="n">
         <x:v>2</x:v>
@@ -25313,22 +25313,22 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B849" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C849" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D849" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E849" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F849" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G849" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H849" s="1" t="n">
         <x:v>0</x:v>
@@ -25345,7 +25345,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C850" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D850" s="1" t="n">
         <x:v>0</x:v>
@@ -25354,13 +25354,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F850" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G850" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H850" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I850" s="0" t="n">
         <x:v>0</x:v>
@@ -25374,7 +25374,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C851" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D851" s="1" t="n">
         <x:v>0</x:v>
@@ -25383,10 +25383,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F851" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H851" s="1" t="n">
         <x:v>3</x:v>
@@ -25400,25 +25400,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B852" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C852" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D852" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E852" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I852" s="0" t="n">
         <x:v>0</x:v>
@@ -25432,7 +25432,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C853" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D853" s="1" t="n">
         <x:v>0</x:v>
@@ -25458,16 +25458,16 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B854" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C854" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D854" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E854" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F854" s="1" t="n">
         <x:v>0</x:v>
@@ -25490,10 +25490,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C855" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D855" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E855" s="1" t="n">
         <x:v>0</x:v>
@@ -25519,10 +25519,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C856" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D856" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E856" s="1" t="n">
         <x:v>0</x:v>
@@ -25545,13 +25545,13 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B857" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C857" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D857" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E857" s="1" t="n">
         <x:v>0</x:v>
@@ -25560,7 +25560,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G857" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H857" s="1" t="n">
         <x:v>0</x:v>
@@ -25577,7 +25577,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C858" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D858" s="1" t="n">
         <x:v>0</x:v>
@@ -25589,7 +25589,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G858" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H858" s="1" t="n">
         <x:v>0</x:v>
@@ -25606,7 +25606,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C859" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D859" s="1" t="n">
         <x:v>0</x:v>
@@ -25618,7 +25618,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G859" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H859" s="1" t="n">
         <x:v>0</x:v>
@@ -25629,28 +25629,28 @@
     </x:row>
     <x:row r="860" spans="1:9">
       <x:c r="A860" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B860" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C860" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D860" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E860" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F860" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G860" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H860" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I860" s="0" t="n">
         <x:v>0</x:v>
@@ -25664,22 +25664,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C861" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D861" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E861" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F861" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G861" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H861" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I861" s="0" t="n">
         <x:v>0</x:v>
@@ -25693,22 +25693,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C862" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D862" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E862" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F862" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G862" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H862" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I862" s="0" t="n">
         <x:v>0</x:v>
@@ -25719,25 +25719,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B863" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C863" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D863" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E863" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F863" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G863" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H863" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I863" s="0" t="n">
         <x:v>0</x:v>
@@ -25751,7 +25751,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C864" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D864" s="1" t="n">
         <x:v>1</x:v>
@@ -25777,25 +25777,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B865" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C865" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D865" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E865" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F865" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G865" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H865" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I865" s="0" t="n">
         <x:v>0</x:v>
@@ -25809,22 +25809,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C866" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D866" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E866" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F866" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G866" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H866" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I866" s="0" t="n">
         <x:v>0</x:v>
@@ -25838,22 +25838,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C867" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D867" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E867" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F867" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G867" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H867" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I867" s="0" t="n">
         <x:v>0</x:v>
@@ -25864,25 +25864,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B868" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C868" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D868" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E868" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F868" s="1" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G868" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F868" s="1" t="n">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G868" s="1" t="n">
-        <x:v>16</x:v>
-      </x:c>
       <x:c r="H868" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I868" s="0" t="n">
         <x:v>0</x:v>
@@ -25896,22 +25896,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C869" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D869" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E869" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F869" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G869" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H869" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I869" s="0" t="n">
         <x:v>0</x:v>
@@ -25925,22 +25925,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C870" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D870" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E870" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F870" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G870" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H870" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I870" s="0" t="n">
         <x:v>0</x:v>
@@ -25951,25 +25951,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B871" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C871" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D871" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E871" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F871" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G871" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H871" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I871" s="0" t="n">
         <x:v>0</x:v>
@@ -25983,7 +25983,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C872" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D872" s="1" t="n">
         <x:v>0</x:v>
@@ -25992,13 +25992,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F872" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G872" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H872" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I872" s="0" t="n">
         <x:v>0</x:v>
@@ -26012,7 +26012,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C873" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D873" s="1" t="n">
         <x:v>0</x:v>
@@ -26021,10 +26021,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F873" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
         <x:v>2</x:v>
@@ -26038,25 +26038,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B874" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C874" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D874" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E874" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F874" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G874" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H874" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I874" s="0" t="n">
         <x:v>0</x:v>
@@ -26070,22 +26070,22 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C875" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D875" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E875" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F875" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G875" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H875" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I875" s="0" t="n">
         <x:v>0</x:v>
@@ -26099,22 +26099,22 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C876" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D876" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E876" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F876" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G876" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H876" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I876" s="0" t="n">
         <x:v>0</x:v>
@@ -26125,25 +26125,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B877" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C877" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D877" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E877" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F877" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G877" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H877" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I877" s="0" t="n">
         <x:v>0</x:v>
@@ -26157,22 +26157,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C878" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D878" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E878" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F878" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G878" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H878" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I878" s="0" t="n">
         <x:v>0</x:v>
@@ -26186,7 +26186,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C879" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D879" s="1" t="n">
         <x:v>7</x:v>
@@ -26195,7 +26195,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F879" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G879" s="1" t="n">
         <x:v>1</x:v>
@@ -26209,28 +26209,28 @@
     </x:row>
     <x:row r="880" spans="1:9">
       <x:c r="A880" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B880" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C880" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D880" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E880" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F880" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G880" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H880" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I880" s="0" t="n">
         <x:v>0</x:v>
@@ -26244,22 +26244,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C881" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D881" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E881" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F881" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G881" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H881" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I881" s="0" t="n">
         <x:v>0</x:v>
@@ -26273,7 +26273,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C882" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D882" s="1" t="n">
         <x:v>0</x:v>
@@ -26282,7 +26282,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F882" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G882" s="1" t="n">
         <x:v>2</x:v>
@@ -26299,22 +26299,22 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B883" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C883" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D883" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E883" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F883" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G883" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H883" s="1" t="n">
         <x:v>1</x:v>
@@ -26331,7 +26331,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C884" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D884" s="1" t="n">
         <x:v>1</x:v>
@@ -26357,22 +26357,22 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B885" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C885" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D885" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E885" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F885" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G885" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H885" s="1" t="n">
         <x:v>1</x:v>
@@ -26389,19 +26389,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C886" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D886" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E886" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F886" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G886" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H886" s="1" t="n">
         <x:v>1</x:v>
@@ -26418,7 +26418,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C887" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D887" s="1" t="n">
         <x:v>1</x:v>
@@ -26430,10 +26430,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G887" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H887" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I887" s="0" t="n">
         <x:v>0</x:v>
@@ -26444,25 +26444,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B888" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C888" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D888" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E888" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F888" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G888" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H888" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I888" s="0" t="n">
         <x:v>0</x:v>
@@ -26476,7 +26476,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C889" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D889" s="1" t="n">
         <x:v>0</x:v>
@@ -26502,22 +26502,22 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B890" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C890" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D890" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E890" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F890" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G890" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H890" s="1" t="n">
         <x:v>0</x:v>
@@ -26534,7 +26534,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C891" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D891" s="1" t="n">
         <x:v>0</x:v>
@@ -26557,25 +26557,25 @@
     </x:row>
     <x:row r="892" spans="1:9">
       <x:c r="A892" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B892" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C892" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D892" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E892" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F892" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G892" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H892" s="1" t="n">
         <x:v>0</x:v>
@@ -26592,19 +26592,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C893" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D893" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E893" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G893" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H893" s="1" t="n">
         <x:v>0</x:v>
@@ -26621,16 +26621,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C894" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D894" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E894" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F894" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G894" s="1" t="n">
         <x:v>1</x:v>
@@ -26647,22 +26647,22 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B895" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C895" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D895" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E895" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F895" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G895" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H895" s="1" t="n">
         <x:v>0</x:v>
@@ -26679,7 +26679,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C896" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D896" s="1" t="n">
         <x:v>0</x:v>
@@ -26691,7 +26691,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G896" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H896" s="1" t="n">
         <x:v>0</x:v>
@@ -26708,7 +26708,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C897" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D897" s="1" t="n">
         <x:v>0</x:v>
@@ -26717,7 +26717,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F897" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G897" s="1" t="n">
         <x:v>1</x:v>
@@ -26734,10 +26734,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B898" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C898" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D898" s="1" t="n">
         <x:v>0</x:v>
@@ -26746,10 +26746,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F898" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G898" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H898" s="1" t="n">
         <x:v>0</x:v>
@@ -26766,22 +26766,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C899" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D899" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E899" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F899" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G899" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H899" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I899" s="0" t="n">
         <x:v>0</x:v>
@@ -26795,7 +26795,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C900" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D900" s="1" t="n">
         <x:v>0</x:v>
@@ -26804,7 +26804,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F900" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G900" s="1" t="n">
         <x:v>2</x:v>
@@ -26821,25 +26821,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B901" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C901" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D901" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E901" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F901" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G901" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H901" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I901" s="0" t="n">
         <x:v>0</x:v>
@@ -26853,22 +26853,22 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C902" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D902" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E902" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F902" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G902" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H902" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I902" s="0" t="n">
         <x:v>0</x:v>
@@ -26882,13 +26882,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C903" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D903" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E903" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F903" s="1" t="n">
         <x:v>1</x:v>
@@ -26905,28 +26905,28 @@
     </x:row>
     <x:row r="904" spans="1:9">
       <x:c r="A904" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B904" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C904" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D904" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E904" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F904" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G904" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H904" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I904" s="0" t="n">
         <x:v>0</x:v>
@@ -26940,22 +26940,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C905" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D905" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E905" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F905" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G905" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H905" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I905" s="0" t="n">
         <x:v>0</x:v>
@@ -26969,22 +26969,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C906" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D906" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E906" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F906" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G906" s="1" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H906" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I906" s="0" t="n">
         <x:v>0</x:v>
@@ -26995,25 +26995,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B907" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C907" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D907" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E907" s="1" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F907" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C907" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D907" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E907" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F907" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="G907" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H907" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I907" s="0" t="n">
         <x:v>0</x:v>
@@ -27027,7 +27027,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C908" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D908" s="1" t="n">
         <x:v>0</x:v>
@@ -27053,25 +27053,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B909" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C909" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D909" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E909" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F909" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G909" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H909" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I909" s="0" t="n">
         <x:v>0</x:v>
@@ -27085,22 +27085,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C910" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D910" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E910" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F910" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G910" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H910" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I910" s="0" t="n">
         <x:v>0</x:v>
@@ -27114,22 +27114,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C911" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D911" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E911" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F911" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G911" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H911" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I911" s="0" t="n">
         <x:v>0</x:v>
@@ -27140,25 +27140,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B912" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C912" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D912" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E912" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F912" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G912" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H912" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I912" s="0" t="n">
         <x:v>0</x:v>
@@ -27172,13 +27172,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C913" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D913" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E913" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F913" s="1" t="n">
         <x:v>0</x:v>
@@ -27187,7 +27187,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H913" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I913" s="0" t="n">
         <x:v>0</x:v>
@@ -27201,13 +27201,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C914" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D914" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E914" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F914" s="1" t="n">
         <x:v>0</x:v>
@@ -27227,22 +27227,22 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B915" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C915" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D915" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E915" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F915" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G915" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H915" s="1" t="n">
         <x:v>1</x:v>
@@ -27259,22 +27259,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C916" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D916" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E916" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F916" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G916" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H916" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I916" s="0" t="n">
         <x:v>0</x:v>
@@ -27288,7 +27288,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C917" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D917" s="1" t="n">
         <x:v>1</x:v>
@@ -27297,13 +27297,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F917" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G917" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H917" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I917" s="0" t="n">
         <x:v>0</x:v>
@@ -27311,28 +27311,28 @@
     </x:row>
     <x:row r="918" spans="1:9">
       <x:c r="A918" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B918" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C918" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D918" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E918" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F918" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G918" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H918" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I918" s="0" t="n">
         <x:v>0</x:v>
@@ -27346,22 +27346,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C919" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D919" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E919" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F919" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G919" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H919" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I919" s="0" t="n">
         <x:v>0</x:v>
@@ -27375,22 +27375,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C920" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D920" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="E920" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F920" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G920" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H920" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I920" s="0" t="n">
         <x:v>0</x:v>
@@ -27401,25 +27401,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B921" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C921" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D921" s="1" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E921" s="1" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F921" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C921" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D921" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E921" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F921" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="G921" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H921" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I921" s="0" t="n">
         <x:v>0</x:v>
@@ -27433,19 +27433,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C922" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D922" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E922" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F922" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G922" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H922" s="1" t="n">
         <x:v>2</x:v>
@@ -27462,22 +27462,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C923" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D923" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E923" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F923" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G923" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H923" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I923" s="0" t="n">
         <x:v>0</x:v>
@@ -27488,25 +27488,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B924" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C924" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D924" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E924" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F924" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G924" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G924" s="1" t="n">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="H924" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I924" s="0" t="n">
         <x:v>0</x:v>
@@ -27520,22 +27520,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C925" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D925" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E925" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F925" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G925" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H925" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I925" s="0" t="n">
         <x:v>0</x:v>
@@ -27549,22 +27549,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C926" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D926" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E926" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="F926" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G926" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H926" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I926" s="0" t="n">
         <x:v>0</x:v>
@@ -27575,25 +27575,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B927" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C927" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D927" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E927" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F927" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G927" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H927" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I927" s="0" t="n">
         <x:v>0</x:v>
@@ -27607,13 +27607,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C928" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D928" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E928" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F928" s="1" t="n">
         <x:v>0</x:v>
@@ -27622,7 +27622,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H928" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I928" s="0" t="n">
         <x:v>0</x:v>
@@ -27636,13 +27636,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C929" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D929" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E929" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F929" s="1" t="n">
         <x:v>0</x:v>
@@ -27662,22 +27662,22 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B930" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C930" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D930" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E930" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F930" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G930" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H930" s="1" t="n">
         <x:v>1</x:v>
@@ -27694,7 +27694,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C931" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D931" s="1" t="n">
         <x:v>1</x:v>
@@ -27717,28 +27717,28 @@
     </x:row>
     <x:row r="932" spans="1:9">
       <x:c r="A932" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B932" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C932" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D932" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E932" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F932" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G932" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H932" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I932" s="0" t="n">
         <x:v>0</x:v>
@@ -27752,7 +27752,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C933" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D933" s="1" t="n">
         <x:v>0</x:v>
@@ -27778,10 +27778,10 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B934" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C934" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D934" s="1" t="n">
         <x:v>0</x:v>
@@ -27790,10 +27790,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F934" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G934" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H934" s="1" t="n">
         <x:v>0</x:v>
@@ -27810,7 +27810,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C935" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D935" s="1" t="n">
         <x:v>0</x:v>
@@ -27836,10 +27836,10 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B936" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C936" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D936" s="1" t="n">
         <x:v>0</x:v>
@@ -27868,7 +27868,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C937" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D937" s="1" t="n">
         <x:v>0</x:v>
@@ -27880,10 +27880,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G937" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H937" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I937" s="0" t="n">
         <x:v>0</x:v>
@@ -27897,7 +27897,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C938" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D938" s="1" t="n">
         <x:v>0</x:v>
@@ -27906,7 +27906,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F938" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G938" s="1" t="n">
         <x:v>2</x:v>
@@ -27915,6 +27915,35 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I938" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="939" spans="1:9">
+      <x:c r="A939" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="B939" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C939" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D939" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E939" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F939" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G939" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H939" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I939" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1545,7 +1545,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
         <x:v>21</x:v>
@@ -1574,7 +1574,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>30</x:v>
@@ -2679,7 +2679,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G68" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H68" s="1" t="n">
         <x:v>2</x:v>
@@ -2737,7 +2737,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G70" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H70" s="1" t="n">
         <x:v>4</x:v>
@@ -4967,7 +4967,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F147" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G147" s="1" t="n">
         <x:v>16</x:v>
@@ -4996,7 +4996,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F148" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G148" s="1" t="n">
         <x:v>16</x:v>
@@ -6684,7 +6684,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="H206" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I206" s="0" t="n">
         <x:v>0</x:v>
@@ -6713,7 +6713,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="H207" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I207" s="0" t="n">
         <x:v>0</x:v>
@@ -7632,7 +7632,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E239" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F239" s="1" t="n">
         <x:v>10</x:v>
@@ -7661,7 +7661,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E240" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F240" s="1" t="n">
         <x:v>17</x:v>
@@ -8215,13 +8215,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F259" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G259" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H259" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I259" s="0" t="n">
         <x:v>0</x:v>
@@ -8244,13 +8244,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F260" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G260" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H260" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I260" s="0" t="n">
         <x:v>0</x:v>
@@ -9166,7 +9166,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D292" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E292" s="1" t="n">
         <x:v>169</x:v>
@@ -9175,7 +9175,7 @@
         <x:v>338</x:v>
       </x:c>
       <x:c r="G292" s="1" t="n">
-        <x:v>275</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="H292" s="1" t="n">
         <x:v>107</x:v>
@@ -9195,7 +9195,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D293" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E293" s="1" t="n">
         <x:v>243</x:v>
@@ -9204,7 +9204,7 @@
         <x:v>434</x:v>
       </x:c>
       <x:c r="G293" s="1" t="n">
-        <x:v>361</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="H293" s="1" t="n">
         <x:v>138</x:v>
@@ -9320,7 +9320,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G297" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H297" s="1" t="n">
         <x:v>8</x:v>
@@ -9349,7 +9349,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G298" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H298" s="1" t="n">
         <x:v>17</x:v>
@@ -9378,7 +9378,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="G299" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H299" s="1" t="n">
         <x:v>25</x:v>
@@ -9662,7 +9662,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E309" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F309" s="1" t="n">
         <x:v>51</x:v>
@@ -9697,7 +9697,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="G310" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="H310" s="1" t="n">
         <x:v>57</x:v>
@@ -9720,13 +9720,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E311" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F311" s="1" t="n">
         <x:v>188</x:v>
       </x:c>
       <x:c r="G311" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="H311" s="1" t="n">
         <x:v>75</x:v>
@@ -10280,7 +10280,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H330" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I330" s="0" t="n">
         <x:v>0</x:v>
@@ -10338,7 +10338,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H332" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I332" s="0" t="n">
         <x:v>0</x:v>
@@ -12133,7 +12133,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G394" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H394" s="1" t="n">
         <x:v>1</x:v>
@@ -12162,7 +12162,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G395" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H395" s="1" t="n">
         <x:v>1</x:v>
@@ -13757,7 +13757,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G450" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H450" s="1" t="n">
         <x:v>0</x:v>
@@ -13786,7 +13786,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G451" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H451" s="1" t="n">
         <x:v>0</x:v>
@@ -15842,7 +15842,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F522" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G522" s="1" t="n">
         <x:v>4</x:v>
@@ -15871,7 +15871,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F523" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G523" s="1" t="n">
         <x:v>5</x:v>
@@ -17846,7 +17846,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G591" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H591" s="1" t="n">
         <x:v>3</x:v>
@@ -17875,7 +17875,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G592" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H592" s="1" t="n">
         <x:v>4</x:v>
@@ -18545,7 +18545,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H615" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I615" s="0" t="n">
         <x:v>0</x:v>
@@ -18603,7 +18603,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H617" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I617" s="0" t="n">
         <x:v>0</x:v>
@@ -19035,7 +19035,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G632" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H632" s="1" t="n">
         <x:v>2</x:v>
@@ -19064,7 +19064,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G633" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H633" s="1" t="n">
         <x:v>2</x:v>
@@ -19096,7 +19096,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="H634" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I634" s="0" t="n">
         <x:v>0</x:v>
@@ -19154,7 +19154,7 @@
         <x:v>374</x:v>
       </x:c>
       <x:c r="H636" s="1" t="n">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="I636" s="0" t="n">
         <x:v>0</x:v>
@@ -20885,7 +20885,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E696" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F696" s="1" t="n">
         <x:v>1</x:v>
@@ -20914,7 +20914,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E697" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F697" s="1" t="n">
         <x:v>2</x:v>
@@ -21584,7 +21584,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F720" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G720" s="1" t="n">
         <x:v>0</x:v>
@@ -21616,7 +21616,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G721" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H721" s="1" t="n">
         <x:v>3</x:v>
@@ -21642,10 +21642,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F722" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G722" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H722" s="1" t="n">
         <x:v>3</x:v>
@@ -22454,7 +22454,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F750" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G750" s="1" t="n">
         <x:v>5</x:v>
@@ -22512,7 +22512,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F752" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G752" s="1" t="n">
         <x:v>27</x:v>
@@ -22750,7 +22750,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="H760" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I760" s="0" t="n">
         <x:v>0</x:v>
@@ -22779,7 +22779,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="H761" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I761" s="0" t="n">
         <x:v>0</x:v>
@@ -24890,7 +24890,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F834" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G834" s="1" t="n">
         <x:v>3</x:v>
@@ -24919,7 +24919,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F835" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G835" s="1" t="n">
         <x:v>7</x:v>
@@ -24942,7 +24942,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D836" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E836" s="1" t="n">
         <x:v>0</x:v>
@@ -24951,7 +24951,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G836" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H836" s="1" t="n">
         <x:v>0</x:v>
@@ -24971,7 +24971,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D837" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E837" s="1" t="n">
         <x:v>0</x:v>
@@ -24980,7 +24980,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G837" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H837" s="1" t="n">
         <x:v>0</x:v>
@@ -25041,7 +25041,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H839" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I839" s="0" t="n">
         <x:v>0</x:v>
@@ -25070,7 +25070,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H840" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I840" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1316,7 +1316,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
         <x:v>42</x:v>
@@ -1345,7 +1345,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
         <x:v>53</x:v>
@@ -2992,10 +2992,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E79" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F79" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G79" s="1" t="n">
         <x:v>54</x:v>
@@ -3021,10 +3021,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E80" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F80" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G80" s="1" t="n">
         <x:v>74</x:v>
@@ -7171,7 +7171,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F223" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G223" s="1" t="n">
         <x:v>15</x:v>
@@ -7200,7 +7200,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F224" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G224" s="1" t="n">
         <x:v>18</x:v>
@@ -7609,7 +7609,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G238" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H238" s="1" t="n">
         <x:v>1</x:v>
@@ -7667,7 +7667,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G240" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H240" s="1" t="n">
         <x:v>4</x:v>
@@ -9700,7 +9700,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="H310" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I310" s="0" t="n">
         <x:v>0</x:v>
@@ -9729,7 +9729,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="H311" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I311" s="0" t="n">
         <x:v>0</x:v>
@@ -10767,7 +10767,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F347" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G347" s="1" t="n">
         <x:v>2</x:v>
@@ -10796,7 +10796,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F348" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G348" s="1" t="n">
         <x:v>4</x:v>
@@ -19093,7 +19093,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G634" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H634" s="1" t="n">
         <x:v>18</x:v>
@@ -19151,7 +19151,7 @@
         <x:v>258</x:v>
       </x:c>
       <x:c r="G636" s="1" t="n">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="H636" s="1" t="n">
         <x:v>341</x:v>
@@ -22486,7 +22486,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G751" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H751" s="1" t="n">
         <x:v>11</x:v>
@@ -22515,7 +22515,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G752" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H752" s="1" t="n">
         <x:v>17</x:v>
@@ -22573,7 +22573,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G754" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H754" s="1" t="n">
         <x:v>0</x:v>
@@ -22602,7 +22602,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G755" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H755" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -6916,7 +6916,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="H214" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I214" s="0" t="n">
         <x:v>0</x:v>
@@ -6945,7 +6945,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="H215" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I215" s="0" t="n">
         <x:v>0</x:v>
@@ -9430,10 +9430,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E301" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F301" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G301" s="1" t="n">
         <x:v>156</x:v>
@@ -9459,10 +9459,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E302" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F302" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="G302" s="1" t="n">
         <x:v>212</x:v>
@@ -9665,7 +9665,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F309" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G309" s="1" t="n">
         <x:v>40</x:v>
@@ -9723,7 +9723,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="F311" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G311" s="1" t="n">
         <x:v>181</x:v>
@@ -19499,7 +19499,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G648" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H648" s="1" t="n">
         <x:v>1</x:v>
@@ -19557,7 +19557,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G650" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H650" s="1" t="n">
         <x:v>25</x:v>
@@ -21259,7 +21259,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D709" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E709" s="1" t="n">
         <x:v>14</x:v>
@@ -21288,7 +21288,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D710" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E710" s="1" t="n">
         <x:v>20</x:v>
@@ -21761,7 +21761,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G726" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H726" s="1" t="n">
         <x:v>3</x:v>
@@ -21784,7 +21784,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E727" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F727" s="1" t="n">
         <x:v>11</x:v>
@@ -21813,13 +21813,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E728" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F728" s="1" t="n">
         <x:v>18</x:v>
       </x:c>
       <x:c r="G728" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H728" s="1" t="n">
         <x:v>10</x:v>
@@ -25705,7 +25705,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G862" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H862" s="1" t="n">
         <x:v>13</x:v>
@@ -25734,7 +25734,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="G863" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H863" s="1" t="n">
         <x:v>15</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1284,7 +1284,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>28</x:v>
@@ -1342,7 +1342,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>107</x:v>
@@ -5109,7 +5109,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E152" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F152" s="1" t="n">
         <x:v>6</x:v>
@@ -5138,7 +5138,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E153" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F153" s="1" t="n">
         <x:v>8</x:v>
@@ -5425,7 +5425,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D163" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E163" s="1" t="n">
         <x:v>0</x:v>
@@ -5434,7 +5434,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G163" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H163" s="1" t="n">
         <x:v>2</x:v>
@@ -5454,7 +5454,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D164" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E164" s="1" t="n">
         <x:v>0</x:v>
@@ -5463,7 +5463,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G164" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H164" s="1" t="n">
         <x:v>2</x:v>
@@ -5660,7 +5660,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E171" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F171" s="1" t="n">
         <x:v>3</x:v>
@@ -5689,7 +5689,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E172" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F172" s="1" t="n">
         <x:v>5</x:v>
@@ -6913,7 +6913,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="G214" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H214" s="1" t="n">
         <x:v>24</x:v>
@@ -6942,7 +6942,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="G215" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H215" s="1" t="n">
         <x:v>41</x:v>
@@ -7606,7 +7606,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F238" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G238" s="1" t="n">
         <x:v>5</x:v>
@@ -7664,7 +7664,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F240" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G240" s="1" t="n">
         <x:v>13</x:v>
@@ -22306,7 +22306,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E745" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F745" s="1" t="n">
         <x:v>47</x:v>
@@ -22335,7 +22335,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E746" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F746" s="1" t="n">
         <x:v>64</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1052,7 +1052,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>56</x:v>
@@ -1081,7 +1081,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>70</x:v>
@@ -2995,7 +2995,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F79" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G79" s="1" t="n">
         <x:v>54</x:v>
@@ -3024,7 +3024,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F80" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G80" s="1" t="n">
         <x:v>74</x:v>
@@ -3056,7 +3056,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G81" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H81" s="1" t="n">
         <x:v>1</x:v>
@@ -3114,7 +3114,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G83" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H83" s="1" t="n">
         <x:v>4</x:v>
@@ -3314,7 +3314,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F90" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G90" s="1" t="n">
         <x:v>0</x:v>
@@ -3343,7 +3343,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="F91" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G91" s="1" t="n">
         <x:v>1</x:v>
@@ -8131,7 +8131,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G256" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H256" s="1" t="n">
         <x:v>3</x:v>
@@ -8160,7 +8160,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G257" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H257" s="1" t="n">
         <x:v>5</x:v>
@@ -18072,13 +18072,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E599" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F599" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G599" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H599" s="1" t="n">
         <x:v>2</x:v>
@@ -18101,13 +18101,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E600" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F600" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G600" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H600" s="1" t="n">
         <x:v>2</x:v>
@@ -18220,10 +18220,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F604" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G604" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H604" s="1" t="n">
         <x:v>3</x:v>
@@ -18249,10 +18249,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F605" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G605" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H605" s="1" t="n">
         <x:v>3</x:v>
@@ -18275,13 +18275,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E606" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F606" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G606" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H606" s="1" t="n">
         <x:v>0</x:v>
@@ -18304,13 +18304,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E607" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F607" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G607" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H607" s="1" t="n">
         <x:v>0</x:v>
@@ -20221,7 +20221,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F673" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G673" s="1" t="n">
         <x:v>2</x:v>
@@ -20279,7 +20279,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F675" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G675" s="1" t="n">
         <x:v>7</x:v>
@@ -21036,7 +21036,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="G701" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H701" s="1" t="n">
         <x:v>17</x:v>
@@ -21065,7 +21065,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G702" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H702" s="1" t="n">
         <x:v>20</x:v>
@@ -21613,7 +21613,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F721" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G721" s="1" t="n">
         <x:v>15</x:v>
@@ -21642,7 +21642,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F722" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G722" s="1" t="n">
         <x:v>15</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1313,10 +1313,10 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
         <x:v>58</x:v>
@@ -1342,10 +1342,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
         <x:v>78</x:v>
@@ -3082,7 +3082,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F82" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G82" s="1" t="n">
         <x:v>31</x:v>
@@ -3111,10 +3111,10 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F83" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G83" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H83" s="1" t="n">
         <x:v>31</x:v>
@@ -3140,10 +3140,10 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="F84" s="1" t="n">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="G84" s="1" t="n">
         <x:v>104</x:v>
-      </x:c>
-      <x:c r="G84" s="1" t="n">
-        <x:v>102</x:v>
       </x:c>
       <x:c r="H84" s="1" t="n">
         <x:v>42</x:v>
@@ -3978,10 +3978,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E113" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F113" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G113" s="1" t="n">
         <x:v>2</x:v>
@@ -4036,10 +4036,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E115" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F115" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G115" s="1" t="n">
         <x:v>7</x:v>
@@ -4132,7 +4132,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H118" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I118" s="0" t="n">
         <x:v>0</x:v>
@@ -4152,13 +4152,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E119" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F119" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="G119" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H119" s="1" t="n">
         <x:v>7</x:v>
@@ -4181,16 +4181,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E120" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F120" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="G120" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H120" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I120" s="0" t="n">
         <x:v>0</x:v>
@@ -5205,7 +5205,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H155" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I155" s="0" t="n">
         <x:v>0</x:v>
@@ -5234,7 +5234,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="H156" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I156" s="0" t="n">
         <x:v>0</x:v>
@@ -6852,7 +6852,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F212" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G212" s="1" t="n">
         <x:v>15</x:v>
@@ -6910,7 +6910,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F214" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G214" s="1" t="n">
         <x:v>45</x:v>
@@ -7110,7 +7110,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E221" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F221" s="1" t="n">
         <x:v>12</x:v>
@@ -7168,7 +7168,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E223" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F223" s="1" t="n">
         <x:v>51</x:v>
@@ -7339,7 +7339,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D229" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E229" s="1" t="n">
         <x:v>5</x:v>
@@ -7377,7 +7377,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="G230" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H230" s="1" t="n">
         <x:v>34</x:v>
@@ -7397,7 +7397,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D231" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E231" s="1" t="n">
         <x:v>36</x:v>
@@ -7406,7 +7406,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="G231" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H231" s="1" t="n">
         <x:v>53</x:v>
@@ -9636,7 +9636,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="F308" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G308" s="1" t="n">
         <x:v>117</x:v>
@@ -9665,13 +9665,13 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="F309" s="1" t="n">
-        <x:v>451</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="G309" s="1" t="n">
-        <x:v>396</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="H309" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="I309" s="0" t="n">
         <x:v>0</x:v>
@@ -9694,13 +9694,13 @@
         <x:v>330</x:v>
       </x:c>
       <x:c r="F310" s="1" t="n">
-        <x:v>582</x:v>
+        <x:v>585</x:v>
       </x:c>
       <x:c r="G310" s="1" t="n">
-        <x:v>513</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="H310" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="I310" s="0" t="n">
         <x:v>0</x:v>
@@ -9842,10 +9842,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="G315" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H315" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I315" s="0" t="n">
         <x:v>0</x:v>
@@ -9871,10 +9871,10 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="G316" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H316" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I316" s="0" t="n">
         <x:v>0</x:v>
@@ -9923,13 +9923,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E318" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F318" s="1" t="n">
         <x:v>208</x:v>
       </x:c>
       <x:c r="G318" s="1" t="n">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="H318" s="1" t="n">
         <x:v>109</x:v>
@@ -9952,13 +9952,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E319" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F319" s="1" t="n">
         <x:v>290</x:v>
       </x:c>
       <x:c r="G319" s="1" t="n">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="H319" s="1" t="n">
         <x:v>160</x:v>
@@ -10158,10 +10158,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F326" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G326" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H326" s="1" t="n">
         <x:v>20</x:v>
@@ -10184,13 +10184,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E327" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F327" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G327" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="H327" s="1" t="n">
         <x:v>74</x:v>
@@ -10213,13 +10213,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E328" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="F328" s="1" t="n">
-        <x:v>235</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="G328" s="1" t="n">
-        <x:v>222</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="H328" s="1" t="n">
         <x:v>94</x:v>
@@ -10654,7 +10654,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G343" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H343" s="1" t="n">
         <x:v>15</x:v>
@@ -10683,7 +10683,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="G344" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H344" s="1" t="n">
         <x:v>21</x:v>
@@ -12339,7 +12339,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H401" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I401" s="0" t="n">
         <x:v>0</x:v>
@@ -12368,7 +12368,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H402" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I402" s="0" t="n">
         <x:v>0</x:v>
@@ -14891,7 +14891,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H489" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I489" s="0" t="n">
         <x:v>0</x:v>
@@ -14920,7 +14920,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H490" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I490" s="0" t="n">
         <x:v>0</x:v>
@@ -17559,7 +17559,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="H581" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I581" s="0" t="n">
         <x:v>0</x:v>
@@ -17588,7 +17588,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="H582" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I582" s="0" t="n">
         <x:v>0</x:v>
@@ -20079,7 +20079,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="G668" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H668" s="1" t="n">
         <x:v>27</x:v>
@@ -20137,7 +20137,7 @@
         <x:v>377</x:v>
       </x:c>
       <x:c r="G670" s="1" t="n">
-        <x:v>495</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="H670" s="1" t="n">
         <x:v>405</x:v>
@@ -21097,7 +21097,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H703" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I703" s="0" t="n">
         <x:v>0</x:v>
@@ -21126,7 +21126,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H704" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I704" s="0" t="n">
         <x:v>0</x:v>
@@ -21329,7 +21329,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H711" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I711" s="0" t="n">
         <x:v>0</x:v>
@@ -21358,7 +21358,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H712" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I712" s="0" t="n">
         <x:v>0</x:v>
@@ -21497,7 +21497,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F717" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G717" s="1" t="n">
         <x:v>9</x:v>
@@ -21526,7 +21526,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F718" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G718" s="1" t="n">
         <x:v>11</x:v>
@@ -22109,7 +22109,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G738" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H738" s="1" t="n">
         <x:v>4</x:v>
@@ -22167,7 +22167,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="G740" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H740" s="1" t="n">
         <x:v>24</x:v>
@@ -23475,7 +23475,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="H785" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I785" s="0" t="n">
         <x:v>0</x:v>
@@ -23504,7 +23504,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="H786" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I786" s="0" t="n">
         <x:v>0</x:v>
@@ -23907,7 +23907,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="G800" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H800" s="1" t="n">
         <x:v>23</x:v>
@@ -23936,7 +23936,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="G801" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H801" s="1" t="n">
         <x:v>28</x:v>
@@ -24162,10 +24162,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E809" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F809" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G809" s="1" t="n">
         <x:v>38</x:v>
@@ -24191,10 +24191,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E810" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F810" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G810" s="1" t="n">
         <x:v>56</x:v>
@@ -24336,7 +24336,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E815" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F815" s="1" t="n">
         <x:v>4</x:v>
@@ -24365,7 +24365,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E816" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F816" s="1" t="n">
         <x:v>8</x:v>
@@ -28840,7 +28840,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="H970" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I970" s="0" t="n">
         <x:v>0</x:v>
@@ -28869,7 +28869,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="H971" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I971" s="0" t="n">
         <x:v>0</x:v>
@@ -28976,16 +28976,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E975" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F975" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G975" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H975" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I975" s="0" t="n">
         <x:v>0</x:v>
@@ -29005,16 +29005,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E976" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F976" s="1" t="n">
         <x:v>23</x:v>
       </x:c>
       <x:c r="G976" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H976" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I976" s="0" t="n">
         <x:v>0</x:v>
@@ -29034,16 +29034,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E977" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F977" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G977" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H977" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I977" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -7145,7 +7145,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F222" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G222" s="1" t="n">
         <x:v>67</x:v>
@@ -7174,7 +7174,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F223" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G223" s="1" t="n">
         <x:v>91</x:v>
@@ -8108,7 +8108,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H255" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I255" s="0" t="n">
         <x:v>0</x:v>
@@ -8137,7 +8137,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H256" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I256" s="0" t="n">
         <x:v>0</x:v>
@@ -9033,7 +9033,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G287" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H287" s="1" t="n">
         <x:v>11</x:v>
@@ -9062,7 +9062,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G288" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H288" s="1" t="n">
         <x:v>14</x:v>
@@ -9665,7 +9665,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E309" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F309" s="1" t="n">
         <x:v>132</x:v>
@@ -9723,7 +9723,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E311" s="1" t="n">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="F311" s="1" t="n">
         <x:v>585</x:v>
@@ -9839,7 +9839,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E315" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F315" s="1" t="n">
         <x:v>18</x:v>
@@ -9868,7 +9868,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E316" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F316" s="1" t="n">
         <x:v>53</x:v>
@@ -9897,7 +9897,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E317" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F317" s="1" t="n">
         <x:v>71</x:v>
@@ -14601,7 +14601,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G479" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H479" s="1" t="n">
         <x:v>7</x:v>
@@ -14630,7 +14630,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G480" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H480" s="1" t="n">
         <x:v>9</x:v>
@@ -20169,7 +20169,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="G671" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H671" s="1" t="n">
         <x:v>27</x:v>
@@ -20227,7 +20227,7 @@
         <x:v>377</x:v>
       </x:c>
       <x:c r="G673" s="1" t="n">
-        <x:v>496</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="H673" s="1" t="n">
         <x:v>405</x:v>
@@ -22831,7 +22831,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E763" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F763" s="1" t="n">
         <x:v>10</x:v>
@@ -22860,7 +22860,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E764" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F764" s="1" t="n">
         <x:v>13</x:v>
@@ -23562,7 +23562,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="G788" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H788" s="1" t="n">
         <x:v>26</x:v>
@@ -23591,7 +23591,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="G789" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H789" s="1" t="n">
         <x:v>36</x:v>
@@ -24255,7 +24255,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F812" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G812" s="1" t="n">
         <x:v>38</x:v>
@@ -24284,7 +24284,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F813" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G813" s="1" t="n">
         <x:v>56</x:v>
@@ -27297,13 +27297,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E917" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F917" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="G917" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H917" s="1" t="n">
         <x:v>2</x:v>
@@ -27355,13 +27355,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E919" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F919" s="1" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G919" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H919" s="1" t="n">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -3781,7 +3781,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F106" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G106" s="1" t="n">
         <x:v>5</x:v>
@@ -3810,7 +3810,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F107" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G107" s="1" t="n">
         <x:v>8</x:v>
@@ -6191,7 +6191,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G189" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H189" s="1" t="n">
         <x:v>2</x:v>
@@ -6217,7 +6217,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F190" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G190" s="1" t="n">
         <x:v>5</x:v>
@@ -6246,10 +6246,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F191" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G191" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H191" s="1" t="n">
         <x:v>6</x:v>
@@ -7151,7 +7151,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="H222" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I222" s="0" t="n">
         <x:v>0</x:v>
@@ -7180,7 +7180,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="H223" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I223" s="0" t="n">
         <x:v>0</x:v>
@@ -8076,7 +8076,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G254" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H254" s="1" t="n">
         <x:v>3</x:v>
@@ -8134,7 +8134,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G256" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H256" s="1" t="n">
         <x:v>10</x:v>
@@ -8508,7 +8508,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F269" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G269" s="1" t="n">
         <x:v>1</x:v>
@@ -8566,7 +8566,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F271" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G271" s="1" t="n">
         <x:v>3</x:v>
@@ -9874,10 +9874,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="G316" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H316" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I316" s="0" t="n">
         <x:v>0</x:v>
@@ -9903,10 +9903,10 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="G317" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H317" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I317" s="0" t="n">
         <x:v>0</x:v>
@@ -10190,10 +10190,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F327" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G327" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H327" s="1" t="n">
         <x:v>20</x:v>
@@ -10219,13 +10219,13 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="F328" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="G328" s="1" t="n">
         <x:v>173</x:v>
       </x:c>
       <x:c r="H328" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I328" s="0" t="n">
         <x:v>0</x:v>
@@ -10248,13 +10248,13 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="F329" s="1" t="n">
-        <x:v>238</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="G329" s="1" t="n">
-        <x:v>225</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="H329" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I329" s="0" t="n">
         <x:v>0</x:v>
@@ -13409,7 +13409,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F438" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G438" s="1" t="n">
         <x:v>4</x:v>
@@ -13438,7 +13438,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F439" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G439" s="1" t="n">
         <x:v>4</x:v>
@@ -15181,7 +15181,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G499" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H499" s="1" t="n">
         <x:v>5</x:v>
@@ -15239,7 +15239,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G501" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H501" s="1" t="n">
         <x:v>13</x:v>
@@ -21419,7 +21419,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H714" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I714" s="0" t="n">
         <x:v>0</x:v>
@@ -21448,7 +21448,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H715" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I715" s="0" t="n">
         <x:v>0</x:v>
@@ -23643,7 +23643,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E791" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F791" s="1" t="n">
         <x:v>14</x:v>
@@ -23672,7 +23672,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E792" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F792" s="1" t="n">
         <x:v>23</x:v>
@@ -24838,7 +24838,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G832" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H832" s="1" t="n">
         <x:v>3</x:v>
@@ -24896,7 +24896,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G834" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H834" s="1" t="n">
         <x:v>6</x:v>
@@ -25447,7 +25447,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>2</x:v>
@@ -25467,7 +25467,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D854" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E854" s="1" t="n">
         <x:v>1</x:v>
@@ -25496,7 +25496,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D855" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E855" s="1" t="n">
         <x:v>1</x:v>
@@ -25505,7 +25505,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G855" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H855" s="1" t="n">
         <x:v>6</x:v>
@@ -27190,7 +27190,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="H913" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I913" s="0" t="n">
         <x:v>0</x:v>
@@ -27219,7 +27219,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="H914" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I914" s="0" t="n">
         <x:v>0</x:v>
@@ -27416,7 +27416,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F921" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G921" s="1" t="n">
         <x:v>60</x:v>
@@ -27445,7 +27445,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F922" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G922" s="1" t="n">
         <x:v>84</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -9665,7 +9665,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E309" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F309" s="1" t="n">
         <x:v>132</x:v>
@@ -9723,7 +9723,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E311" s="1" t="n">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="F311" s="1" t="n">
         <x:v>585</x:v>
@@ -10219,13 +10219,13 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="F328" s="1" t="n">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="G328" s="1" t="n">
         <x:v>173</x:v>
       </x:c>
       <x:c r="H328" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I328" s="0" t="n">
         <x:v>0</x:v>
@@ -10248,13 +10248,13 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="F329" s="1" t="n">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="G329" s="1" t="n">
         <x:v>228</x:v>
       </x:c>
       <x:c r="H329" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="I329" s="0" t="n">
         <x:v>0</x:v>
@@ -13090,7 +13090,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F427" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G427" s="1" t="n">
         <x:v>0</x:v>
@@ -13119,7 +13119,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F428" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G428" s="1" t="n">
         <x:v>0</x:v>
@@ -13261,13 +13261,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E433" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F433" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G433" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H433" s="1" t="n">
         <x:v>1</x:v>
@@ -13290,13 +13290,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E434" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F434" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G434" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H434" s="1" t="n">
         <x:v>2</x:v>
@@ -18310,10 +18310,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F607" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G607" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H607" s="1" t="n">
         <x:v>12</x:v>
@@ -18339,10 +18339,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F608" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G608" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H608" s="1" t="n">
         <x:v>15</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -10129,7 +10129,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E325" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F325" s="1" t="n">
         <x:v>14</x:v>
@@ -10158,7 +10158,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E326" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F326" s="1" t="n">
         <x:v>19</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -6104,7 +6104,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G186" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H186" s="1" t="n">
         <x:v>0</x:v>
@@ -6162,7 +6162,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G188" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H188" s="1" t="n">
         <x:v>0</x:v>
@@ -7148,10 +7148,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G222" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H222" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I222" s="0" t="n">
         <x:v>0</x:v>
@@ -7177,10 +7177,10 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="G223" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H223" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I223" s="0" t="n">
         <x:v>0</x:v>
@@ -7380,10 +7380,10 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="G230" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H230" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I230" s="0" t="n">
         <x:v>0</x:v>
@@ -7409,10 +7409,10 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="G231" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H231" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I231" s="0" t="n">
         <x:v>0</x:v>
@@ -9845,7 +9845,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G315" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H315" s="1" t="n">
         <x:v>8</x:v>
@@ -9903,7 +9903,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="G317" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H317" s="1" t="n">
         <x:v>36</x:v>
@@ -10219,7 +10219,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="F328" s="1" t="n">
-        <x:v>182</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G328" s="1" t="n">
         <x:v>173</x:v>
@@ -10248,7 +10248,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="F329" s="1" t="n">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="G329" s="1" t="n">
         <x:v>228</x:v>
@@ -10828,7 +10828,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F349" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G349" s="1" t="n">
         <x:v>5</x:v>
@@ -10886,7 +10886,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F351" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G351" s="1" t="n">
         <x:v>18</x:v>
@@ -14601,7 +14601,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G479" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H479" s="1" t="n">
         <x:v>7</x:v>
@@ -14630,7 +14630,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G480" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H480" s="1" t="n">
         <x:v>9</x:v>
@@ -18136,7 +18136,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F601" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G601" s="1" t="n">
         <x:v>12</x:v>
@@ -18165,7 +18165,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F602" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G602" s="1" t="n">
         <x:v>14</x:v>
@@ -23959,10 +23959,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D802" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E802" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F802" s="1" t="n">
         <x:v>20</x:v>
@@ -24017,10 +24017,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D804" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E804" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F804" s="1" t="n">
         <x:v>66</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -709,7 +709,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I998"/>
+  <x:dimension ref="A1:I999"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -5701,7 +5701,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="H172" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I172" s="0" t="n">
         <x:v>0</x:v>
@@ -5730,7 +5730,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="H173" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I173" s="0" t="n">
         <x:v>0</x:v>
@@ -7148,7 +7148,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="G222" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H222" s="1" t="n">
         <x:v>5</x:v>
@@ -7206,7 +7206,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="G224" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H224" s="1" t="n">
         <x:v>31</x:v>
@@ -7403,7 +7403,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E231" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F231" s="1" t="n">
         <x:v>72</x:v>
@@ -7432,7 +7432,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E232" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F232" s="1" t="n">
         <x:v>83</x:v>
@@ -9697,7 +9697,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="F310" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="G310" s="1" t="n">
         <x:v>117</x:v>
@@ -9755,7 +9755,7 @@
         <x:v>334</x:v>
       </x:c>
       <x:c r="F312" s="1" t="n">
-        <x:v>585</x:v>
+        <x:v>586</x:v>
       </x:c>
       <x:c r="G312" s="1" t="n">
         <x:v>514</x:v>
@@ -9865,7 +9865,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D316" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E316" s="1" t="n">
         <x:v>9</x:v>
@@ -9903,10 +9903,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="G317" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H317" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I317" s="0" t="n">
         <x:v>0</x:v>
@@ -9923,7 +9923,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D318" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E318" s="1" t="n">
         <x:v>32</x:v>
@@ -9932,10 +9932,10 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="G318" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H318" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I318" s="0" t="n">
         <x:v>0</x:v>
@@ -12478,7 +12478,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E406" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F406" s="1" t="n">
         <x:v>0</x:v>
@@ -12507,7 +12507,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E407" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F407" s="1" t="n">
         <x:v>0</x:v>
@@ -13119,7 +13119,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F428" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G428" s="1" t="n">
         <x:v>0</x:v>
@@ -13148,7 +13148,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F429" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G429" s="1" t="n">
         <x:v>0</x:v>
@@ -13728,7 +13728,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F449" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G449" s="1" t="n">
         <x:v>2</x:v>
@@ -13786,7 +13786,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F451" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G451" s="1" t="n">
         <x:v>6</x:v>
@@ -15465,7 +15465,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E509" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F509" s="1" t="n">
         <x:v>1</x:v>
@@ -15494,7 +15494,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E510" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F510" s="1" t="n">
         <x:v>1</x:v>
@@ -23069,7 +23069,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G771" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H771" s="1" t="n">
         <x:v>3</x:v>
@@ -23127,7 +23127,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G773" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H773" s="1" t="n">
         <x:v>14</x:v>
@@ -25528,13 +25528,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E856" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F856" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G856" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H856" s="1" t="n">
         <x:v>2</x:v>
@@ -25563,7 +25563,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G857" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H857" s="1" t="n">
         <x:v>4</x:v>
@@ -25586,13 +25586,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E858" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F858" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G858" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H858" s="1" t="n">
         <x:v>6</x:v>
@@ -25638,13 +25638,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C860" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D860" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E860" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F860" s="1" t="n">
         <x:v>0</x:v>
@@ -25653,7 +25653,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H860" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I860" s="0" t="n">
         <x:v>0</x:v>
@@ -25664,25 +25664,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B861" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C861" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D861" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E861" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F861" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G861" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H861" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I861" s="0" t="n">
         <x:v>0</x:v>
@@ -25696,22 +25696,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C862" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D862" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E862" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F862" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G862" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H862" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I862" s="0" t="n">
         <x:v>0</x:v>
@@ -25725,22 +25725,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C863" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D863" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E863" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F863" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="G863" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H863" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I863" s="0" t="n">
         <x:v>0</x:v>
@@ -25751,25 +25751,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B864" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C864" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D864" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E864" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F864" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G864" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H864" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I864" s="0" t="n">
         <x:v>0</x:v>
@@ -25783,7 +25783,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C865" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D865" s="1" t="n">
         <x:v>0</x:v>
@@ -25806,13 +25806,13 @@
     </x:row>
     <x:row r="866" spans="1:9">
       <x:c r="A866" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B866" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C866" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D866" s="1" t="n">
         <x:v>0</x:v>
@@ -25841,7 +25841,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C867" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D867" s="1" t="n">
         <x:v>0</x:v>
@@ -25850,7 +25850,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F867" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G867" s="1" t="n">
         <x:v>0</x:v>
@@ -25870,7 +25870,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C868" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D868" s="1" t="n">
         <x:v>0</x:v>
@@ -25879,7 +25879,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F868" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G868" s="1" t="n">
         <x:v>0</x:v>
@@ -25896,10 +25896,10 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="B869" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C869" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D869" s="1" t="n">
         <x:v>0</x:v>
@@ -25908,13 +25908,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F869" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G869" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H869" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I869" s="0" t="n">
         <x:v>0</x:v>
@@ -25928,7 +25928,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C870" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D870" s="1" t="n">
         <x:v>0</x:v>
@@ -25951,13 +25951,13 @@
     </x:row>
     <x:row r="871" spans="1:9">
       <x:c r="A871" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B871" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C871" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D871" s="1" t="n">
         <x:v>0</x:v>
@@ -25972,7 +25972,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H871" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I871" s="0" t="n">
         <x:v>0</x:v>
@@ -25986,7 +25986,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C872" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D872" s="1" t="n">
         <x:v>0</x:v>
@@ -26012,22 +26012,22 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B873" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C873" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D873" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E873" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F873" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
         <x:v>0</x:v>
@@ -26044,7 +26044,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C874" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D874" s="1" t="n">
         <x:v>0</x:v>
@@ -26067,28 +26067,28 @@
     </x:row>
     <x:row r="875" spans="1:9">
       <x:c r="A875" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B875" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C875" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D875" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E875" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F875" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G875" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H875" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I875" s="0" t="n">
         <x:v>0</x:v>
@@ -26102,22 +26102,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C876" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D876" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E876" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F876" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G876" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H876" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I876" s="0" t="n">
         <x:v>0</x:v>
@@ -26131,22 +26131,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C877" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D877" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E877" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F877" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G877" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H877" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I877" s="0" t="n">
         <x:v>0</x:v>
@@ -26157,25 +26157,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B878" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C878" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D878" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E878" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F878" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G878" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H878" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I878" s="0" t="n">
         <x:v>0</x:v>
@@ -26189,22 +26189,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C879" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D879" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E879" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F879" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G879" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H879" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I879" s="0" t="n">
         <x:v>0</x:v>
@@ -26218,16 +26218,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C880" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D880" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E880" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F880" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G880" s="1" t="n">
         <x:v>1</x:v>
@@ -26244,25 +26244,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B881" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C881" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D881" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E881" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F881" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G881" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H881" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I881" s="0" t="n">
         <x:v>0</x:v>
@@ -26276,22 +26276,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C882" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D882" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E882" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F882" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F882" s="1" t="n">
+      <x:c r="G882" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G882" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="H882" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I882" s="0" t="n">
         <x:v>0</x:v>
@@ -26305,7 +26305,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C883" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D883" s="1" t="n">
         <x:v>0</x:v>
@@ -26314,13 +26314,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F883" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G883" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H883" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I883" s="0" t="n">
         <x:v>0</x:v>
@@ -26331,25 +26331,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B884" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C884" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D884" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E884" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F884" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G884" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H884" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I884" s="0" t="n">
         <x:v>0</x:v>
@@ -26363,7 +26363,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C885" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D885" s="1" t="n">
         <x:v>0</x:v>
@@ -26386,25 +26386,25 @@
     </x:row>
     <x:row r="886" spans="1:9">
       <x:c r="A886" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B886" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C886" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D886" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E886" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F886" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G886" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H886" s="1" t="n">
         <x:v>0</x:v>
@@ -26421,19 +26421,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C887" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D887" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E887" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F887" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G887" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H887" s="1" t="n">
         <x:v>0</x:v>
@@ -26450,7 +26450,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C888" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D888" s="1" t="n">
         <x:v>0</x:v>
@@ -26459,10 +26459,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F888" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G888" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H888" s="1" t="n">
         <x:v>0</x:v>
@@ -26476,22 +26476,22 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B889" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C889" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D889" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E889" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F889" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G889" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H889" s="1" t="n">
         <x:v>0</x:v>
@@ -26508,22 +26508,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C890" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D890" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E890" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F890" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G890" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H890" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I890" s="0" t="n">
         <x:v>0</x:v>
@@ -26537,13 +26537,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C891" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D891" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="E891" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F891" s="1" t="n">
         <x:v>0</x:v>
@@ -26563,25 +26563,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B892" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C892" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D892" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E892" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F892" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G892" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H892" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I892" s="0" t="n">
         <x:v>0</x:v>
@@ -26595,22 +26595,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C893" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D893" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E893" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G893" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H893" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I893" s="0" t="n">
         <x:v>0</x:v>
@@ -26624,7 +26624,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C894" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D894" s="1" t="n">
         <x:v>0</x:v>
@@ -26633,7 +26633,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F894" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G894" s="1" t="n">
         <x:v>2</x:v>
@@ -26650,25 +26650,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B895" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C895" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D895" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E895" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F895" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G895" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H895" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I895" s="0" t="n">
         <x:v>0</x:v>
@@ -26682,7 +26682,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C896" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D896" s="1" t="n">
         <x:v>1</x:v>
@@ -26708,16 +26708,16 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B897" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C897" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D897" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E897" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F897" s="1" t="n">
         <x:v>0</x:v>
@@ -26726,7 +26726,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H897" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I897" s="0" t="n">
         <x:v>0</x:v>
@@ -26740,7 +26740,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C898" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D898" s="1" t="n">
         <x:v>0</x:v>
@@ -26763,13 +26763,13 @@
     </x:row>
     <x:row r="899" spans="1:9">
       <x:c r="A899" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B899" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C899" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D899" s="1" t="n">
         <x:v>0</x:v>
@@ -26778,10 +26778,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F899" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G899" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H899" s="1" t="n">
         <x:v>1</x:v>
@@ -26798,19 +26798,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C900" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D900" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E900" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F900" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G900" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H900" s="1" t="n">
         <x:v>1</x:v>
@@ -26827,7 +26827,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C901" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D901" s="1" t="n">
         <x:v>0</x:v>
@@ -26836,13 +26836,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F901" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G901" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H901" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I901" s="0" t="n">
         <x:v>0</x:v>
@@ -26853,25 +26853,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B902" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C902" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D902" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E902" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F902" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G902" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H902" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I902" s="0" t="n">
         <x:v>0</x:v>
@@ -26885,7 +26885,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C903" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D903" s="1" t="n">
         <x:v>2</x:v>
@@ -26911,19 +26911,19 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B904" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C904" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D904" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E904" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F904" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G904" s="1" t="n">
         <x:v>1</x:v>
@@ -26943,7 +26943,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C905" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D905" s="1" t="n">
         <x:v>0</x:v>
@@ -26952,13 +26952,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F905" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G905" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H905" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I905" s="0" t="n">
         <x:v>0</x:v>
@@ -26972,7 +26972,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C906" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D906" s="1" t="n">
         <x:v>0</x:v>
@@ -26981,10 +26981,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F906" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G906" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H906" s="1" t="n">
         <x:v>3</x:v>
@@ -26998,25 +26998,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B907" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C907" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D907" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E907" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F907" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G907" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H907" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I907" s="0" t="n">
         <x:v>0</x:v>
@@ -27030,7 +27030,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C908" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D908" s="1" t="n">
         <x:v>0</x:v>
@@ -27056,16 +27056,16 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B909" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C909" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D909" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E909" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F909" s="1" t="n">
         <x:v>0</x:v>
@@ -27088,13 +27088,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C910" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D910" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E910" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F910" s="1" t="n">
         <x:v>0</x:v>
@@ -27117,13 +27117,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C911" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D911" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E911" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F911" s="1" t="n">
         <x:v>0</x:v>
@@ -27143,22 +27143,22 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B912" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C912" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D912" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E912" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F912" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G912" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H912" s="1" t="n">
         <x:v>0</x:v>
@@ -27175,7 +27175,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C913" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D913" s="1" t="n">
         <x:v>0</x:v>
@@ -27187,7 +27187,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G913" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H913" s="1" t="n">
         <x:v>0</x:v>
@@ -27204,7 +27204,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C914" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D914" s="1" t="n">
         <x:v>0</x:v>
@@ -27216,7 +27216,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G914" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H914" s="1" t="n">
         <x:v>0</x:v>
@@ -27227,28 +27227,28 @@
     </x:row>
     <x:row r="915" spans="1:9">
       <x:c r="A915" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B915" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C915" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D915" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E915" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F915" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G915" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H915" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I915" s="0" t="n">
         <x:v>0</x:v>
@@ -27262,22 +27262,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C916" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D916" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E916" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F916" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G916" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H916" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I916" s="0" t="n">
         <x:v>0</x:v>
@@ -27291,22 +27291,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C917" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D917" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E917" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F917" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G917" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H917" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I917" s="0" t="n">
         <x:v>0</x:v>
@@ -27317,25 +27317,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B918" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C918" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D918" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E918" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F918" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G918" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H918" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I918" s="0" t="n">
         <x:v>0</x:v>
@@ -27349,7 +27349,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C919" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D919" s="1" t="n">
         <x:v>1</x:v>
@@ -27375,25 +27375,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B920" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C920" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D920" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E920" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F920" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G920" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H920" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I920" s="0" t="n">
         <x:v>0</x:v>
@@ -27407,22 +27407,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C921" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D921" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E921" s="1" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F921" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G921" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F921" s="1" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G921" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
       <x:c r="H921" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I921" s="0" t="n">
         <x:v>0</x:v>
@@ -27436,22 +27436,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C922" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D922" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E922" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F922" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G922" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H922" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I922" s="0" t="n">
         <x:v>0</x:v>
@@ -27462,25 +27462,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B923" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C923" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D923" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E923" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F923" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G923" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H923" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I923" s="0" t="n">
         <x:v>0</x:v>
@@ -27494,22 +27494,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C924" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D924" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E924" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F924" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G924" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H924" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I924" s="0" t="n">
         <x:v>0</x:v>
@@ -27523,22 +27523,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C925" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D925" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E925" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F925" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G925" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H925" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I925" s="0" t="n">
         <x:v>0</x:v>
@@ -27549,25 +27549,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B926" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C926" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D926" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E926" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F926" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G926" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H926" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I926" s="0" t="n">
         <x:v>0</x:v>
@@ -27581,7 +27581,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C927" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D927" s="1" t="n">
         <x:v>0</x:v>
@@ -27590,13 +27590,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F927" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G927" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H927" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I927" s="0" t="n">
         <x:v>0</x:v>
@@ -27610,7 +27610,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C928" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D928" s="1" t="n">
         <x:v>0</x:v>
@@ -27619,10 +27619,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F928" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G928" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H928" s="1" t="n">
         <x:v>2</x:v>
@@ -27636,25 +27636,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B929" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C929" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D929" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E929" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F929" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G929" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H929" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I929" s="0" t="n">
         <x:v>0</x:v>
@@ -27668,19 +27668,19 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C930" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D930" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E930" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F930" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G930" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H930" s="1" t="n">
         <x:v>1</x:v>
@@ -27697,22 +27697,22 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C931" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D931" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E931" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E931" s="1" t="n">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="F931" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G931" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H931" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I931" s="0" t="n">
         <x:v>0</x:v>
@@ -27723,25 +27723,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B932" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C932" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D932" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E932" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F932" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G932" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H932" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I932" s="0" t="n">
         <x:v>0</x:v>
@@ -27755,19 +27755,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C933" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D933" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E933" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F933" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G933" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H933" s="1" t="n">
         <x:v>1</x:v>
@@ -27784,22 +27784,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C934" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D934" s="1" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E934" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F934" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G934" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H934" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I934" s="0" t="n">
         <x:v>0</x:v>
@@ -27807,25 +27807,25 @@
     </x:row>
     <x:row r="935" spans="1:9">
       <x:c r="A935" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B935" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C935" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D935" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E935" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F935" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G935" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H935" s="1" t="n">
         <x:v>2</x:v>
@@ -27842,19 +27842,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C936" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D936" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E936" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F936" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G936" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H936" s="1" t="n">
         <x:v>2</x:v>
@@ -27871,7 +27871,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C937" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D937" s="1" t="n">
         <x:v>0</x:v>
@@ -27880,13 +27880,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F937" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G937" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H937" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I937" s="0" t="n">
         <x:v>0</x:v>
@@ -27897,25 +27897,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B938" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C938" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D938" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E938" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F938" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G938" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H938" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I938" s="0" t="n">
         <x:v>0</x:v>
@@ -27929,7 +27929,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C939" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D939" s="1" t="n">
         <x:v>1</x:v>
@@ -27955,16 +27955,16 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B940" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C940" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D940" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E940" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F940" s="1" t="n">
         <x:v>0</x:v>
@@ -27987,19 +27987,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C941" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D941" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E941" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F941" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G941" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H941" s="1" t="n">
         <x:v>1</x:v>
@@ -28016,7 +28016,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C942" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D942" s="1" t="n">
         <x:v>1</x:v>
@@ -28028,10 +28028,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G942" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H942" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I942" s="0" t="n">
         <x:v>0</x:v>
@@ -28042,25 +28042,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B943" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C943" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D943" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E943" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F943" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G943" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H943" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I943" s="0" t="n">
         <x:v>0</x:v>
@@ -28074,7 +28074,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C944" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D944" s="1" t="n">
         <x:v>0</x:v>
@@ -28100,19 +28100,19 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B945" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C945" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D945" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E945" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F945" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G945" s="1" t="n">
         <x:v>0</x:v>
@@ -28132,7 +28132,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C946" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D946" s="1" t="n">
         <x:v>0</x:v>
@@ -28158,10 +28158,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B947" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C947" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D947" s="1" t="n">
         <x:v>0</x:v>
@@ -28173,7 +28173,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G947" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H947" s="1" t="n">
         <x:v>0</x:v>
@@ -28190,7 +28190,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C948" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D948" s="1" t="n">
         <x:v>0</x:v>
@@ -28213,28 +28213,28 @@
     </x:row>
     <x:row r="949" spans="1:9">
       <x:c r="A949" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B949" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C949" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D949" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E949" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F949" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G949" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H949" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I949" s="0" t="n">
         <x:v>0</x:v>
@@ -28248,22 +28248,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C950" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D950" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E950" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F950" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G950" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H950" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I950" s="0" t="n">
         <x:v>0</x:v>
@@ -28277,22 +28277,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C951" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D951" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E951" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F951" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G951" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H951" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I951" s="0" t="n">
         <x:v>0</x:v>
@@ -28303,25 +28303,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B952" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C952" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D952" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E952" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F952" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G952" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H952" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I952" s="0" t="n">
         <x:v>0</x:v>
@@ -28335,7 +28335,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C953" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D953" s="1" t="n">
         <x:v>0</x:v>
@@ -28347,7 +28347,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G953" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H953" s="1" t="n">
         <x:v>0</x:v>
@@ -28364,7 +28364,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C954" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D954" s="1" t="n">
         <x:v>0</x:v>
@@ -28373,7 +28373,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F954" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G954" s="1" t="n">
         <x:v>1</x:v>
@@ -28390,10 +28390,10 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B955" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C955" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D955" s="1" t="n">
         <x:v>0</x:v>
@@ -28402,10 +28402,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F955" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G955" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H955" s="1" t="n">
         <x:v>0</x:v>
@@ -28422,22 +28422,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C956" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D956" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E956" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F956" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G956" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H956" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I956" s="0" t="n">
         <x:v>0</x:v>
@@ -28451,7 +28451,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C957" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D957" s="1" t="n">
         <x:v>0</x:v>
@@ -28460,7 +28460,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F957" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G957" s="1" t="n">
         <x:v>2</x:v>
@@ -28477,25 +28477,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B958" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C958" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D958" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E958" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F958" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G958" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H958" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I958" s="0" t="n">
         <x:v>0</x:v>
@@ -28509,22 +28509,22 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C959" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D959" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E959" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F959" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G959" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H959" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I959" s="0" t="n">
         <x:v>0</x:v>
@@ -28538,13 +28538,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C960" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D960" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E960" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F960" s="1" t="n">
         <x:v>1</x:v>
@@ -28561,28 +28561,28 @@
     </x:row>
     <x:row r="961" spans="1:9">
       <x:c r="A961" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B961" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C961" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D961" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E961" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F961" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G961" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H961" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I961" s="0" t="n">
         <x:v>0</x:v>
@@ -28596,19 +28596,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C962" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D962" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E962" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F962" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E962" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F962" s="1" t="n">
-        <x:v>10</x:v>
-      </x:c>
       <x:c r="G962" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H962" s="1" t="n">
         <x:v>5</x:v>
@@ -28625,22 +28625,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C963" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D963" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E963" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F963" s="1" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G963" s="1" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H963" s="1" t="n">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="E963" s="1" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F963" s="1" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G963" s="1" t="n">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H963" s="1" t="n">
-        <x:v>10</x:v>
       </x:c>
       <x:c r="I963" s="0" t="n">
         <x:v>0</x:v>
@@ -28651,25 +28651,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B964" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C964" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D964" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E964" s="1" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F964" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C964" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D964" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E964" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F964" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="G964" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H964" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I964" s="0" t="n">
         <x:v>0</x:v>
@@ -28683,7 +28683,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C965" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D965" s="1" t="n">
         <x:v>2</x:v>
@@ -28709,25 +28709,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B966" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C966" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D966" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E966" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F966" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G966" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H966" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I966" s="0" t="n">
         <x:v>0</x:v>
@@ -28741,22 +28741,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C967" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D967" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E967" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F967" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G967" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H967" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I967" s="0" t="n">
         <x:v>0</x:v>
@@ -28770,22 +28770,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C968" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D968" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E968" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F968" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G968" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H968" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I968" s="0" t="n">
         <x:v>0</x:v>
@@ -28796,25 +28796,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B969" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C969" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D969" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E969" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F969" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G969" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H969" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I969" s="0" t="n">
         <x:v>0</x:v>
@@ -28828,13 +28828,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C970" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D970" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E970" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F970" s="1" t="n">
         <x:v>0</x:v>
@@ -28843,7 +28843,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H970" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I970" s="0" t="n">
         <x:v>0</x:v>
@@ -28857,13 +28857,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C971" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D971" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E971" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F971" s="1" t="n">
         <x:v>0</x:v>
@@ -28883,22 +28883,22 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B972" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C972" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D972" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E972" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F972" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G972" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H972" s="1" t="n">
         <x:v>1</x:v>
@@ -28915,22 +28915,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C973" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D973" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E973" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F973" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G973" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H973" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I973" s="0" t="n">
         <x:v>0</x:v>
@@ -28944,7 +28944,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C974" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D974" s="1" t="n">
         <x:v>1</x:v>
@@ -28953,13 +28953,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F974" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G974" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H974" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I974" s="0" t="n">
         <x:v>0</x:v>
@@ -28967,28 +28967,28 @@
     </x:row>
     <x:row r="975" spans="1:9">
       <x:c r="A975" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B975" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C975" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D975" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E975" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F975" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G975" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H975" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I975" s="0" t="n">
         <x:v>0</x:v>
@@ -29002,22 +29002,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C976" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D976" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E976" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F976" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G976" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H976" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I976" s="0" t="n">
         <x:v>0</x:v>
@@ -29031,22 +29031,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C977" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D977" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="E977" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F977" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G977" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H977" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I977" s="0" t="n">
         <x:v>0</x:v>
@@ -29057,25 +29057,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B978" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C978" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D978" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E978" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F978" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G978" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H978" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I978" s="0" t="n">
         <x:v>0</x:v>
@@ -29089,22 +29089,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C979" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D979" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E979" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F979" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G979" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H979" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I979" s="0" t="n">
         <x:v>0</x:v>
@@ -29118,22 +29118,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C980" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D980" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E980" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="F980" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G980" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H980" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I980" s="0" t="n">
         <x:v>0</x:v>
@@ -29144,25 +29144,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B981" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C981" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D981" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E981" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F981" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G981" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H981" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I981" s="0" t="n">
         <x:v>0</x:v>
@@ -29176,22 +29176,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C982" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D982" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E982" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F982" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G982" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H982" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I982" s="0" t="n">
         <x:v>0</x:v>
@@ -29205,22 +29205,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C983" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D983" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E983" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F983" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G983" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H983" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I983" s="0" t="n">
         <x:v>0</x:v>
@@ -29231,25 +29231,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B984" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C984" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D984" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E984" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F984" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G984" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H984" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I984" s="0" t="n">
         <x:v>0</x:v>
@@ -29263,13 +29263,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C985" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D985" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E985" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F985" s="1" t="n">
         <x:v>0</x:v>
@@ -29278,7 +29278,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H985" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I985" s="0" t="n">
         <x:v>0</x:v>
@@ -29292,13 +29292,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C986" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D986" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E986" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F986" s="1" t="n">
         <x:v>0</x:v>
@@ -29318,22 +29318,22 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B987" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C987" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D987" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E987" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F987" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G987" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H987" s="1" t="n">
         <x:v>1</x:v>
@@ -29350,7 +29350,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C988" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D988" s="1" t="n">
         <x:v>1</x:v>
@@ -29373,28 +29373,28 @@
     </x:row>
     <x:row r="989" spans="1:9">
       <x:c r="A989" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B989" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C989" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D989" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E989" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F989" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G989" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H989" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I989" s="0" t="n">
         <x:v>0</x:v>
@@ -29408,7 +29408,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C990" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D990" s="1" t="n">
         <x:v>0</x:v>
@@ -29417,13 +29417,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F990" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G990" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H990" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I990" s="0" t="n">
         <x:v>0</x:v>
@@ -29437,7 +29437,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C991" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D991" s="1" t="n">
         <x:v>0</x:v>
@@ -29449,7 +29449,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G991" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H991" s="1" t="n">
         <x:v>1</x:v>
@@ -29463,10 +29463,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B992" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C992" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D992" s="1" t="n">
         <x:v>0</x:v>
@@ -29475,13 +29475,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F992" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G992" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H992" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I992" s="0" t="n">
         <x:v>0</x:v>
@@ -29495,7 +29495,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C993" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D993" s="1" t="n">
         <x:v>0</x:v>
@@ -29521,10 +29521,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B994" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C994" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D994" s="1" t="n">
         <x:v>0</x:v>
@@ -29536,7 +29536,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G994" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H994" s="1" t="n">
         <x:v>0</x:v>
@@ -29553,7 +29553,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C995" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D995" s="1" t="n">
         <x:v>0</x:v>
@@ -29562,13 +29562,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F995" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G995" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H995" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I995" s="0" t="n">
         <x:v>0</x:v>
@@ -29582,7 +29582,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C996" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D996" s="1" t="n">
         <x:v>0</x:v>
@@ -29591,10 +29591,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F996" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G996" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H996" s="1" t="n">
         <x:v>1</x:v>
@@ -29608,25 +29608,25 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B997" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C997" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D997" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E997" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F997" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G997" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H997" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I997" s="0" t="n">
         <x:v>0</x:v>
@@ -29640,7 +29640,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C998" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D998" s="1" t="n">
         <x:v>1</x:v>
@@ -29658,6 +29658,35 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I998" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="999" spans="1:9">
+      <x:c r="A999" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B999" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C999" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D999" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E999" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F999" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G999" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H999" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I999" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -709,7 +709,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I1002"/>
+  <x:dimension ref="A1:I1003"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1235,7 +1235,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I18" s="0" t="n">
         <x:v>0</x:v>
@@ -1264,7 +1264,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I19" s="0" t="n">
         <x:v>0</x:v>
@@ -3143,7 +3143,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F84" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G84" s="1" t="n">
         <x:v>73</x:v>
@@ -3172,7 +3172,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="F85" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G85" s="1" t="n">
         <x:v>104</x:v>
@@ -6832,7 +6832,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H211" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I211" s="0" t="n">
         <x:v>0</x:v>
@@ -6861,7 +6861,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H212" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I212" s="0" t="n">
         <x:v>0</x:v>
@@ -6890,7 +6890,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H213" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I213" s="0" t="n">
         <x:v>0</x:v>
@@ -6919,7 +6919,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="H214" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I214" s="0" t="n">
         <x:v>0</x:v>
@@ -6948,7 +6948,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="H215" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I215" s="0" t="n">
         <x:v>0</x:v>
@@ -7380,7 +7380,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G230" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H230" s="1" t="n">
         <x:v>19</x:v>
@@ -7409,7 +7409,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="G231" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H231" s="1" t="n">
         <x:v>35</x:v>
@@ -7438,7 +7438,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="G232" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H232" s="1" t="n">
         <x:v>54</x:v>
@@ -7728,7 +7728,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G242" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H242" s="1" t="n">
         <x:v>5</x:v>
@@ -7751,16 +7751,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E243" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F243" s="1" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="G243" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H243" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I243" s="0" t="n">
         <x:v>0</x:v>
@@ -7780,16 +7780,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E244" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F244" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="G244" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H244" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I244" s="0" t="n">
         <x:v>0</x:v>
@@ -9697,10 +9697,10 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="F310" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G310" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H310" s="1" t="n">
         <x:v>40</x:v>
@@ -9726,13 +9726,13 @@
         <x:v>240</x:v>
       </x:c>
       <x:c r="F311" s="1" t="n">
-        <x:v>453</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="G311" s="1" t="n">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="H311" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="I311" s="0" t="n">
         <x:v>0</x:v>
@@ -9755,13 +9755,13 @@
         <x:v>335</x:v>
       </x:c>
       <x:c r="F312" s="1" t="n">
-        <x:v>586</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="G312" s="1" t="n">
-        <x:v>515</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="H312" s="1" t="n">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="I312" s="0" t="n">
         <x:v>0</x:v>
@@ -9990,7 +9990,7 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="G320" s="1" t="n">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="H320" s="1" t="n">
         <x:v>110</x:v>
@@ -10019,7 +10019,7 @@
         <x:v>291</x:v>
       </x:c>
       <x:c r="G321" s="1" t="n">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="H321" s="1" t="n">
         <x:v>161</x:v>
@@ -10245,13 +10245,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E329" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F329" s="1" t="n">
         <x:v>184</x:v>
       </x:c>
       <x:c r="G329" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="H329" s="1" t="n">
         <x:v>78</x:v>
@@ -10274,13 +10274,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E330" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F330" s="1" t="n">
         <x:v>243</x:v>
       </x:c>
       <x:c r="G330" s="1" t="n">
-        <x:v>228</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="H330" s="1" t="n">
         <x:v>98</x:v>
@@ -15297,7 +15297,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G503" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H503" s="1" t="n">
         <x:v>8</x:v>
@@ -15326,7 +15326,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G504" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H504" s="1" t="n">
         <x:v>13</x:v>
@@ -18394,7 +18394,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E610" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F610" s="1" t="n">
         <x:v>16</x:v>
@@ -18423,7 +18423,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E611" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F611" s="1" t="n">
         <x:v>19</x:v>
@@ -19725,7 +19725,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D656" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E656" s="1" t="n">
         <x:v>1</x:v>
@@ -19754,7 +19754,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D657" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E657" s="1" t="n">
         <x:v>3</x:v>
@@ -21213,7 +21213,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G707" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H707" s="1" t="n">
         <x:v>0</x:v>
@@ -21242,7 +21242,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G708" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H708" s="1" t="n">
         <x:v>0</x:v>
@@ -21529,7 +21529,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F718" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G718" s="1" t="n">
         <x:v>4</x:v>
@@ -21587,7 +21587,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F720" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G720" s="1" t="n">
         <x:v>13</x:v>
@@ -21897,19 +21897,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C731" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D731" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E731" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F731" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G731" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H731" s="1" t="n">
         <x:v>0</x:v>
@@ -21923,16 +21923,16 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="B732" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C732" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D732" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E732" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F732" s="1" t="n">
         <x:v>0</x:v>
@@ -21955,7 +21955,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C733" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D733" s="1" t="n">
         <x:v>0</x:v>
@@ -21981,10 +21981,10 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="B734" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C734" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D734" s="1" t="n">
         <x:v>0</x:v>
@@ -22013,7 +22013,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C735" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D735" s="1" t="n">
         <x:v>0</x:v>
@@ -22036,13 +22036,13 @@
     </x:row>
     <x:row r="736" spans="1:9">
       <x:c r="A736" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B736" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C736" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D736" s="1" t="n">
         <x:v>0</x:v>
@@ -22051,10 +22051,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F736" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G736" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H736" s="1" t="n">
         <x:v>0</x:v>
@@ -22071,22 +22071,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C737" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D737" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E737" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F737" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G737" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H737" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I737" s="0" t="n">
         <x:v>0</x:v>
@@ -22100,7 +22100,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C738" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D738" s="1" t="n">
         <x:v>0</x:v>
@@ -22109,10 +22109,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F738" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G738" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H738" s="1" t="n">
         <x:v>2</x:v>
@@ -22126,25 +22126,25 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="B739" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C739" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D739" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E739" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F739" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G739" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H739" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I739" s="0" t="n">
         <x:v>0</x:v>
@@ -22158,7 +22158,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C740" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D740" s="1" t="n">
         <x:v>0</x:v>
@@ -22184,10 +22184,10 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="B741" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C741" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D741" s="1" t="n">
         <x:v>0</x:v>
@@ -22196,13 +22196,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F741" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G741" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H741" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I741" s="0" t="n">
         <x:v>0</x:v>
@@ -22216,13 +22216,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C742" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D742" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E742" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F742" s="1" t="n">
         <x:v>1</x:v>
@@ -22245,7 +22245,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C743" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D743" s="1" t="n">
         <x:v>0</x:v>
@@ -22254,13 +22254,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F743" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G743" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H743" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I743" s="0" t="n">
         <x:v>0</x:v>
@@ -22271,25 +22271,25 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="B744" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C744" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D744" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E744" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F744" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G744" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H744" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I744" s="0" t="n">
         <x:v>0</x:v>
@@ -22303,7 +22303,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C745" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D745" s="1" t="n">
         <x:v>1</x:v>
@@ -22326,28 +22326,28 @@
     </x:row>
     <x:row r="746" spans="1:9">
       <x:c r="A746" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B746" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C746" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D746" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E746" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F746" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G746" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H746" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I746" s="0" t="n">
         <x:v>0</x:v>
@@ -22361,22 +22361,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C747" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D747" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E747" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F747" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="E747" s="1" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F747" s="1" t="n">
-        <x:v>17</x:v>
-      </x:c>
       <x:c r="G747" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H747" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I747" s="0" t="n">
         <x:v>0</x:v>
@@ -22390,22 +22390,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C748" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D748" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E748" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F748" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G748" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H748" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I748" s="0" t="n">
         <x:v>0</x:v>
@@ -22416,25 +22416,25 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B749" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C749" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D749" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E749" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F749" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G749" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H749" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I749" s="0" t="n">
         <x:v>0</x:v>
@@ -22448,10 +22448,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C750" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D750" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E750" s="1" t="n">
         <x:v>0</x:v>
@@ -22477,10 +22477,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C751" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D751" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E751" s="1" t="n">
         <x:v>0</x:v>
@@ -22503,22 +22503,22 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B752" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C752" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D752" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E752" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F752" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G752" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H752" s="1" t="n">
         <x:v>0</x:v>
@@ -22535,22 +22535,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C753" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D753" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E753" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F753" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G753" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H753" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I753" s="0" t="n">
         <x:v>0</x:v>
@@ -22564,19 +22564,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C754" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D754" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E754" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F754" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G754" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H754" s="1" t="n">
         <x:v>6</x:v>
@@ -22590,25 +22590,25 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B755" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C755" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D755" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E755" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F755" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G755" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H755" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I755" s="0" t="n">
         <x:v>0</x:v>
@@ -22622,22 +22622,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C756" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D756" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E756" s="1" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F756" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G756" s="1" t="n">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="F756" s="1" t="n">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G756" s="1" t="n">
-        <x:v>55</x:v>
-      </x:c>
       <x:c r="H756" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I756" s="0" t="n">
         <x:v>0</x:v>
@@ -22651,22 +22651,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C757" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D757" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E757" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F757" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G757" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H757" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I757" s="0" t="n">
         <x:v>0</x:v>
@@ -22677,25 +22677,25 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B758" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C758" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D758" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E758" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F758" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G758" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H758" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I758" s="0" t="n">
         <x:v>0</x:v>
@@ -22709,19 +22709,19 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C759" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D759" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E759" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F759" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G759" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H759" s="1" t="n">
         <x:v>0</x:v>
@@ -22738,19 +22738,19 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C760" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D760" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E760" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F760" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G760" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H760" s="1" t="n">
         <x:v>0</x:v>
@@ -22764,22 +22764,22 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B761" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C761" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D761" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E761" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F761" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G761" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H761" s="1" t="n">
         <x:v>0</x:v>
@@ -22796,16 +22796,16 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C762" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D762" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E762" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F762" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G762" s="1" t="n">
         <x:v>0</x:v>
@@ -22825,13 +22825,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C763" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D763" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E763" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F763" s="1" t="n">
         <x:v>1</x:v>
@@ -22851,25 +22851,25 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B764" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C764" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D764" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E764" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F764" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G764" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H764" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I764" s="0" t="n">
         <x:v>0</x:v>
@@ -22883,22 +22883,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C765" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D765" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E765" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F765" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G765" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H765" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I765" s="0" t="n">
         <x:v>0</x:v>
@@ -22912,7 +22912,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C766" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D766" s="1" t="n">
         <x:v>1</x:v>
@@ -22921,13 +22921,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F766" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G766" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H766" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I766" s="0" t="n">
         <x:v>0</x:v>
@@ -22935,28 +22935,28 @@
     </x:row>
     <x:row r="767" spans="1:9">
       <x:c r="A767" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B767" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C767" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D767" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E767" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E767" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="F767" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G767" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H767" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I767" s="0" t="n">
         <x:v>0</x:v>
@@ -22970,22 +22970,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C768" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D768" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E768" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F768" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G768" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H768" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I768" s="0" t="n">
         <x:v>0</x:v>
@@ -22999,22 +22999,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C769" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D769" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E769" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="F769" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G769" s="1" t="n">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H769" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I769" s="0" t="n">
         <x:v>0</x:v>
@@ -23025,25 +23025,25 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B770" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C770" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D770" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E770" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F770" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G770" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H770" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I770" s="0" t="n">
         <x:v>0</x:v>
@@ -23057,22 +23057,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C771" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D771" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E771" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F771" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G771" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H771" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I771" s="0" t="n">
         <x:v>0</x:v>
@@ -23086,10 +23086,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C772" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D772" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E772" s="1" t="n">
         <x:v>0</x:v>
@@ -23112,25 +23112,25 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B773" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C773" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D773" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E773" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F773" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G773" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H773" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I773" s="0" t="n">
         <x:v>0</x:v>
@@ -23144,22 +23144,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C774" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D774" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E774" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F774" s="1" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G774" s="1" t="n">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="F774" s="1" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G774" s="1" t="n">
-        <x:v>15</x:v>
-      </x:c>
       <x:c r="H774" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I774" s="0" t="n">
         <x:v>0</x:v>
@@ -23173,22 +23173,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C775" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D775" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E775" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F775" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G775" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H775" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I775" s="0" t="n">
         <x:v>0</x:v>
@@ -23199,25 +23199,25 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B776" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C776" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D776" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E776" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F776" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G776" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H776" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I776" s="0" t="n">
         <x:v>0</x:v>
@@ -23231,16 +23231,16 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C777" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D777" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E777" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F777" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G777" s="1" t="n">
         <x:v>0</x:v>
@@ -23260,10 +23260,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C778" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D778" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E778" s="1" t="n">
         <x:v>2</x:v>
@@ -23286,25 +23286,25 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B779" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C779" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D779" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E779" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F779" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G779" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H779" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I779" s="0" t="n">
         <x:v>0</x:v>
@@ -23318,7 +23318,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C780" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D780" s="1" t="n">
         <x:v>0</x:v>
@@ -23341,16 +23341,16 @@
     </x:row>
     <x:row r="781" spans="1:9">
       <x:c r="A781" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B781" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C781" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D781" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E781" s="1" t="n">
         <x:v>0</x:v>
@@ -23362,7 +23362,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H781" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I781" s="0" t="n">
         <x:v>0</x:v>
@@ -23376,22 +23376,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C782" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D782" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E782" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F782" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G782" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H782" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I782" s="0" t="n">
         <x:v>0</x:v>
@@ -23405,10 +23405,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C783" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D783" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E783" s="1" t="n">
         <x:v>0</x:v>
@@ -23417,10 +23417,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G783" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H783" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I783" s="0" t="n">
         <x:v>0</x:v>
@@ -23431,10 +23431,10 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B784" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C784" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D784" s="1" t="n">
         <x:v>1</x:v>
@@ -23443,13 +23443,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F784" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G784" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H784" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I784" s="0" t="n">
         <x:v>0</x:v>
@@ -23463,7 +23463,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C785" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D785" s="1" t="n">
         <x:v>1</x:v>
@@ -23489,16 +23489,16 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B786" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C786" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D786" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E786" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F786" s="1" t="n">
         <x:v>0</x:v>
@@ -23521,19 +23521,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C787" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D787" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E787" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F787" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G787" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H787" s="1" t="n">
         <x:v>0</x:v>
@@ -23550,13 +23550,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C788" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D788" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E788" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F788" s="1" t="n">
         <x:v>0</x:v>
@@ -23576,22 +23576,22 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B789" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C789" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D789" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E789" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F789" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G789" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H789" s="1" t="n">
         <x:v>0</x:v>
@@ -23608,22 +23608,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C790" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D790" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E790" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F790" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G790" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H790" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I790" s="0" t="n">
         <x:v>0</x:v>
@@ -23637,7 +23637,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C791" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D791" s="1" t="n">
         <x:v>1</x:v>
@@ -23649,7 +23649,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G791" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H791" s="1" t="n">
         <x:v>6</x:v>
@@ -23660,28 +23660,28 @@
     </x:row>
     <x:row r="792" spans="1:9">
       <x:c r="A792" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B792" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C792" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D792" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E792" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F792" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G792" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H792" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I792" s="0" t="n">
         <x:v>0</x:v>
@@ -23695,22 +23695,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C793" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D793" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E793" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F793" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G793" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H793" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I793" s="0" t="n">
         <x:v>0</x:v>
@@ -23724,22 +23724,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C794" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D794" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E794" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F794" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G794" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H794" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I794" s="0" t="n">
         <x:v>0</x:v>
@@ -23750,25 +23750,25 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B795" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C795" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D795" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C795" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D795" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
       <x:c r="E795" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F795" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G795" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H795" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I795" s="0" t="n">
         <x:v>0</x:v>
@@ -23782,22 +23782,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C796" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D796" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E796" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F796" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G796" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H796" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I796" s="0" t="n">
         <x:v>0</x:v>
@@ -23811,22 +23811,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C797" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D797" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E797" s="1" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F797" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G797" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H797" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I797" s="0" t="n">
         <x:v>0</x:v>
@@ -23837,25 +23837,25 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B798" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C798" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D798" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E798" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F798" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G798" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H798" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I798" s="0" t="n">
         <x:v>0</x:v>
@@ -23869,22 +23869,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C799" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D799" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E799" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F799" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G799" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H799" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I799" s="0" t="n">
         <x:v>0</x:v>
@@ -23898,22 +23898,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C800" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D800" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E800" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F800" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G800" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H800" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I800" s="0" t="n">
         <x:v>0</x:v>
@@ -23924,25 +23924,25 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B801" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C801" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D801" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E801" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F801" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G801" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H801" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I801" s="0" t="n">
         <x:v>0</x:v>
@@ -23956,19 +23956,19 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C802" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D802" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E802" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F802" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G802" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H802" s="1" t="n">
         <x:v>0</x:v>
@@ -23985,19 +23985,19 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C803" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D803" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E803" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F803" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G803" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H803" s="1" t="n">
         <x:v>0</x:v>
@@ -24011,25 +24011,25 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B804" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C804" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D804" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E804" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F804" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G804" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H804" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I804" s="0" t="n">
         <x:v>0</x:v>
@@ -24043,22 +24043,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C805" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D805" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E805" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F805" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G805" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H805" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I805" s="0" t="n">
         <x:v>0</x:v>
@@ -24072,22 +24072,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C806" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D806" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E806" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F806" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G806" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H806" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I806" s="0" t="n">
         <x:v>0</x:v>
@@ -24095,28 +24095,28 @@
     </x:row>
     <x:row r="807" spans="1:9">
       <x:c r="A807" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B807" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C807" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D807" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E807" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F807" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G807" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H807" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I807" s="0" t="n">
         <x:v>0</x:v>
@@ -24130,22 +24130,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C808" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D808" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E808" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F808" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G808" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H808" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I808" s="0" t="n">
         <x:v>0</x:v>
@@ -24159,22 +24159,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C809" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D809" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E809" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F809" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G809" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H809" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I809" s="0" t="n">
         <x:v>0</x:v>
@@ -24185,25 +24185,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B810" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C810" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D810" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E810" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F810" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G810" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H810" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I810" s="0" t="n">
         <x:v>0</x:v>
@@ -24217,10 +24217,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C811" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D811" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E811" s="1" t="n">
         <x:v>0</x:v>
@@ -24246,10 +24246,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C812" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D812" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E812" s="1" t="n">
         <x:v>0</x:v>
@@ -24272,25 +24272,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B813" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C813" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D813" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E813" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F813" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G813" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H813" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I813" s="0" t="n">
         <x:v>0</x:v>
@@ -24304,22 +24304,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C814" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D814" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E814" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F814" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G814" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H814" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I814" s="0" t="n">
         <x:v>0</x:v>
@@ -24333,22 +24333,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C815" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D815" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E815" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F815" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G815" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H815" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I815" s="0" t="n">
         <x:v>0</x:v>
@@ -24359,25 +24359,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B816" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C816" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D816" s="1" t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E816" s="1" t="n">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C816" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D816" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E816" s="1" t="n">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="F816" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G816" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H816" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I816" s="0" t="n">
         <x:v>0</x:v>
@@ -24391,22 +24391,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C817" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D817" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E817" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F817" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G817" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H817" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I817" s="0" t="n">
         <x:v>0</x:v>
@@ -24420,22 +24420,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C818" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D818" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E818" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F818" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G818" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H818" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I818" s="0" t="n">
         <x:v>0</x:v>
@@ -24446,25 +24446,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B819" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C819" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D819" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E819" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F819" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G819" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H819" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I819" s="0" t="n">
         <x:v>0</x:v>
@@ -24478,7 +24478,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C820" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D820" s="1" t="n">
         <x:v>0</x:v>
@@ -24507,7 +24507,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C821" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D821" s="1" t="n">
         <x:v>0</x:v>
@@ -24516,7 +24516,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F821" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G821" s="1" t="n">
         <x:v>0</x:v>
@@ -24533,22 +24533,22 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B822" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C822" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D822" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E822" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F822" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G822" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H822" s="1" t="n">
         <x:v>0</x:v>
@@ -24565,19 +24565,19 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C823" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D823" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E823" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F823" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="G823" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H823" s="1" t="n">
         <x:v>0</x:v>
@@ -24594,19 +24594,19 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C824" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D824" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E824" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F824" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G824" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H824" s="1" t="n">
         <x:v>0</x:v>
@@ -24620,25 +24620,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B825" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C825" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D825" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E825" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F825" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G825" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H825" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I825" s="0" t="n">
         <x:v>0</x:v>
@@ -24652,22 +24652,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C826" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D826" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E826" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F826" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G826" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H826" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I826" s="0" t="n">
         <x:v>0</x:v>
@@ -24681,22 +24681,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C827" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D827" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E827" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F827" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G827" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H827" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I827" s="0" t="n">
         <x:v>0</x:v>
@@ -24704,28 +24704,28 @@
     </x:row>
     <x:row r="828" spans="1:9">
       <x:c r="A828" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B828" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C828" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D828" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E828" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F828" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G828" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H828" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I828" s="0" t="n">
         <x:v>0</x:v>
@@ -24739,22 +24739,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C829" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D829" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E829" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F829" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G829" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H829" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I829" s="0" t="n">
         <x:v>0</x:v>
@@ -24768,22 +24768,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C830" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D830" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E830" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F830" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G830" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F830" s="1" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G830" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="H830" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I830" s="0" t="n">
         <x:v>0</x:v>
@@ -24794,25 +24794,25 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B831" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C831" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D831" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E831" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F831" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G831" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H831" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I831" s="0" t="n">
         <x:v>0</x:v>
@@ -24826,7 +24826,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C832" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D832" s="1" t="n">
         <x:v>1</x:v>
@@ -24855,10 +24855,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C833" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D833" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E833" s="1" t="n">
         <x:v>0</x:v>
@@ -24881,22 +24881,22 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B834" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C834" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D834" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E834" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F834" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G834" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H834" s="1" t="n">
         <x:v>0</x:v>
@@ -24913,19 +24913,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C835" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D835" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E835" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F835" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G835" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H835" s="1" t="n">
         <x:v>0</x:v>
@@ -24942,19 +24942,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C836" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D836" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E836" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F836" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G836" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H836" s="1" t="n">
         <x:v>0</x:v>
@@ -24968,13 +24968,13 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B837" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C837" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D837" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E837" s="1" t="n">
         <x:v>1</x:v>
@@ -24983,10 +24983,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G837" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H837" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I837" s="0" t="n">
         <x:v>0</x:v>
@@ -25000,19 +25000,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C838" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D838" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E838" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F838" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G838" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H838" s="1" t="n">
         <x:v>3</x:v>
@@ -25029,10 +25029,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C839" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D839" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E839" s="1" t="n">
         <x:v>7</x:v>
@@ -25041,10 +25041,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G839" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H839" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I839" s="0" t="n">
         <x:v>0</x:v>
@@ -25055,25 +25055,25 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B840" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C840" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D840" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E840" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F840" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G840" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H840" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I840" s="0" t="n">
         <x:v>0</x:v>
@@ -25087,13 +25087,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C841" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D841" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E841" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F841" s="1" t="n">
         <x:v>0</x:v>
@@ -25102,7 +25102,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H841" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I841" s="0" t="n">
         <x:v>0</x:v>
@@ -25116,13 +25116,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C842" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D842" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E842" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F842" s="1" t="n">
         <x:v>0</x:v>
@@ -25131,7 +25131,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H842" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I842" s="0" t="n">
         <x:v>0</x:v>
@@ -25139,28 +25139,28 @@
     </x:row>
     <x:row r="843" spans="1:9">
       <x:c r="A843" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B843" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C843" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D843" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E843" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F843" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G843" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H843" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I843" s="0" t="n">
         <x:v>0</x:v>
@@ -25174,22 +25174,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C844" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D844" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E844" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F844" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G844" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H844" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I844" s="0" t="n">
         <x:v>0</x:v>
@@ -25203,19 +25203,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C845" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D845" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E845" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F845" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G845" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H845" s="1" t="n">
         <x:v>4</x:v>
@@ -25229,25 +25229,25 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B846" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C846" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D846" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E846" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F846" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G846" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H846" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I846" s="0" t="n">
         <x:v>0</x:v>
@@ -25261,7 +25261,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C847" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D847" s="1" t="n">
         <x:v>0</x:v>
@@ -25270,13 +25270,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F847" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G847" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H847" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I847" s="0" t="n">
         <x:v>0</x:v>
@@ -25290,7 +25290,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C848" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D848" s="1" t="n">
         <x:v>0</x:v>
@@ -25299,7 +25299,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F848" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G848" s="1" t="n">
         <x:v>0</x:v>
@@ -25316,16 +25316,16 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B849" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C849" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D849" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E849" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F849" s="1" t="n">
         <x:v>1</x:v>
@@ -25334,7 +25334,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H849" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I849" s="0" t="n">
         <x:v>0</x:v>
@@ -25348,7 +25348,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C850" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D850" s="1" t="n">
         <x:v>0</x:v>
@@ -25374,22 +25374,22 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B851" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C851" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D851" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E851" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F851" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H851" s="1" t="n">
         <x:v>0</x:v>
@@ -25406,7 +25406,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C852" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D852" s="1" t="n">
         <x:v>0</x:v>
@@ -25429,25 +25429,25 @@
     </x:row>
     <x:row r="853" spans="1:9">
       <x:c r="A853" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B853" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C853" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D853" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E853" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>0</x:v>
@@ -25464,7 +25464,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C854" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D854" s="1" t="n">
         <x:v>0</x:v>
@@ -25490,22 +25490,22 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B855" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C855" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D855" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E855" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F855" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G855" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H855" s="1" t="n">
         <x:v>0</x:v>
@@ -25522,7 +25522,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C856" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D856" s="1" t="n">
         <x:v>0</x:v>
@@ -25548,10 +25548,10 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B857" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C857" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D857" s="1" t="n">
         <x:v>0</x:v>
@@ -25560,10 +25560,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F857" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G857" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H857" s="1" t="n">
         <x:v>0</x:v>
@@ -25580,7 +25580,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C858" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D858" s="1" t="n">
         <x:v>0</x:v>
@@ -25603,28 +25603,28 @@
     </x:row>
     <x:row r="859" spans="1:9">
       <x:c r="A859" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B859" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C859" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D859" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E859" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F859" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G859" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H859" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I859" s="0" t="n">
         <x:v>0</x:v>
@@ -25638,10 +25638,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C860" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D860" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E860" s="1" t="n">
         <x:v>1</x:v>
@@ -25650,10 +25650,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G860" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H860" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I860" s="0" t="n">
         <x:v>0</x:v>
@@ -25667,22 +25667,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C861" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D861" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E861" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F861" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G861" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H861" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I861" s="0" t="n">
         <x:v>0</x:v>
@@ -25693,25 +25693,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B862" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C862" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D862" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E862" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F862" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G862" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H862" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I862" s="0" t="n">
         <x:v>0</x:v>
@@ -25725,13 +25725,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C863" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D863" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E863" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F863" s="1" t="n">
         <x:v>0</x:v>
@@ -25740,7 +25740,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H863" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I863" s="0" t="n">
         <x:v>0</x:v>
@@ -25754,13 +25754,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C864" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D864" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E864" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F864" s="1" t="n">
         <x:v>0</x:v>
@@ -25769,7 +25769,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H864" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I864" s="0" t="n">
         <x:v>0</x:v>
@@ -25780,25 +25780,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B865" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C865" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D865" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E865" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F865" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G865" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H865" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I865" s="0" t="n">
         <x:v>0</x:v>
@@ -25812,22 +25812,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C866" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D866" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E866" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F866" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G866" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H866" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I866" s="0" t="n">
         <x:v>0</x:v>
@@ -25841,7 +25841,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C867" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D867" s="1" t="n">
         <x:v>1</x:v>
@@ -25853,7 +25853,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G867" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H867" s="1" t="n">
         <x:v>2</x:v>
@@ -25867,25 +25867,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B868" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C868" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D868" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E868" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F868" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G868" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H868" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I868" s="0" t="n">
         <x:v>0</x:v>
@@ -25899,7 +25899,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C869" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D869" s="1" t="n">
         <x:v>0</x:v>
@@ -25922,13 +25922,13 @@
     </x:row>
     <x:row r="870" spans="1:9">
       <x:c r="A870" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B870" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C870" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D870" s="1" t="n">
         <x:v>0</x:v>
@@ -25957,7 +25957,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C871" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D871" s="1" t="n">
         <x:v>0</x:v>
@@ -25966,7 +25966,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F871" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G871" s="1" t="n">
         <x:v>0</x:v>
@@ -25986,7 +25986,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C872" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D872" s="1" t="n">
         <x:v>0</x:v>
@@ -25995,7 +25995,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F872" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G872" s="1" t="n">
         <x:v>0</x:v>
@@ -26012,10 +26012,10 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="B873" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C873" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D873" s="1" t="n">
         <x:v>0</x:v>
@@ -26024,13 +26024,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F873" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I873" s="0" t="n">
         <x:v>0</x:v>
@@ -26044,7 +26044,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C874" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D874" s="1" t="n">
         <x:v>0</x:v>
@@ -26067,13 +26067,13 @@
     </x:row>
     <x:row r="875" spans="1:9">
       <x:c r="A875" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B875" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C875" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D875" s="1" t="n">
         <x:v>0</x:v>
@@ -26088,7 +26088,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H875" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I875" s="0" t="n">
         <x:v>0</x:v>
@@ -26102,7 +26102,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C876" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D876" s="1" t="n">
         <x:v>0</x:v>
@@ -26128,22 +26128,22 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B877" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C877" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D877" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E877" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F877" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G877" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H877" s="1" t="n">
         <x:v>0</x:v>
@@ -26160,7 +26160,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C878" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D878" s="1" t="n">
         <x:v>0</x:v>
@@ -26183,28 +26183,28 @@
     </x:row>
     <x:row r="879" spans="1:9">
       <x:c r="A879" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B879" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C879" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D879" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E879" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F879" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G879" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H879" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I879" s="0" t="n">
         <x:v>0</x:v>
@@ -26218,22 +26218,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C880" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D880" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E880" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F880" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G880" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H880" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I880" s="0" t="n">
         <x:v>0</x:v>
@@ -26247,22 +26247,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C881" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D881" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E881" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F881" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G881" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H881" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I881" s="0" t="n">
         <x:v>0</x:v>
@@ -26273,25 +26273,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B882" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C882" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D882" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E882" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F882" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G882" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H882" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I882" s="0" t="n">
         <x:v>0</x:v>
@@ -26305,22 +26305,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C883" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D883" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E883" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F883" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G883" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H883" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I883" s="0" t="n">
         <x:v>0</x:v>
@@ -26334,16 +26334,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C884" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D884" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E884" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F884" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G884" s="1" t="n">
         <x:v>1</x:v>
@@ -26360,25 +26360,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B885" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C885" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D885" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E885" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F885" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G885" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H885" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I885" s="0" t="n">
         <x:v>0</x:v>
@@ -26392,22 +26392,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C886" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D886" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E886" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F886" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F886" s="1" t="n">
+      <x:c r="G886" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G886" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="H886" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I886" s="0" t="n">
         <x:v>0</x:v>
@@ -26421,7 +26421,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C887" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D887" s="1" t="n">
         <x:v>0</x:v>
@@ -26430,13 +26430,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F887" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G887" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H887" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I887" s="0" t="n">
         <x:v>0</x:v>
@@ -26447,25 +26447,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B888" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C888" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D888" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E888" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F888" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G888" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H888" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I888" s="0" t="n">
         <x:v>0</x:v>
@@ -26479,7 +26479,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C889" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D889" s="1" t="n">
         <x:v>0</x:v>
@@ -26502,25 +26502,25 @@
     </x:row>
     <x:row r="890" spans="1:9">
       <x:c r="A890" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B890" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C890" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D890" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E890" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F890" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G890" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H890" s="1" t="n">
         <x:v>0</x:v>
@@ -26537,19 +26537,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C891" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D891" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E891" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F891" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G891" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H891" s="1" t="n">
         <x:v>0</x:v>
@@ -26566,7 +26566,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C892" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D892" s="1" t="n">
         <x:v>0</x:v>
@@ -26575,10 +26575,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F892" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G892" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H892" s="1" t="n">
         <x:v>0</x:v>
@@ -26592,22 +26592,22 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B893" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C893" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D893" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E893" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G893" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H893" s="1" t="n">
         <x:v>0</x:v>
@@ -26624,22 +26624,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C894" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D894" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E894" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F894" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G894" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H894" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I894" s="0" t="n">
         <x:v>0</x:v>
@@ -26653,13 +26653,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C895" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D895" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="E895" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F895" s="1" t="n">
         <x:v>0</x:v>
@@ -26679,25 +26679,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B896" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C896" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D896" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E896" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F896" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G896" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H896" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I896" s="0" t="n">
         <x:v>0</x:v>
@@ -26711,22 +26711,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C897" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D897" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E897" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F897" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G897" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H897" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I897" s="0" t="n">
         <x:v>0</x:v>
@@ -26740,7 +26740,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C898" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D898" s="1" t="n">
         <x:v>0</x:v>
@@ -26749,7 +26749,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F898" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G898" s="1" t="n">
         <x:v>2</x:v>
@@ -26766,25 +26766,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B899" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C899" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D899" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E899" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F899" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G899" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H899" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I899" s="0" t="n">
         <x:v>0</x:v>
@@ -26798,7 +26798,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C900" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D900" s="1" t="n">
         <x:v>1</x:v>
@@ -26824,16 +26824,16 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B901" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C901" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D901" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E901" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F901" s="1" t="n">
         <x:v>0</x:v>
@@ -26842,7 +26842,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H901" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I901" s="0" t="n">
         <x:v>0</x:v>
@@ -26856,7 +26856,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C902" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D902" s="1" t="n">
         <x:v>0</x:v>
@@ -26879,13 +26879,13 @@
     </x:row>
     <x:row r="903" spans="1:9">
       <x:c r="A903" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B903" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C903" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D903" s="1" t="n">
         <x:v>0</x:v>
@@ -26894,10 +26894,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F903" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G903" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H903" s="1" t="n">
         <x:v>1</x:v>
@@ -26914,19 +26914,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C904" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D904" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E904" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F904" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G904" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H904" s="1" t="n">
         <x:v>1</x:v>
@@ -26943,7 +26943,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C905" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D905" s="1" t="n">
         <x:v>0</x:v>
@@ -26952,13 +26952,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F905" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G905" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H905" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I905" s="0" t="n">
         <x:v>0</x:v>
@@ -26969,25 +26969,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B906" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C906" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D906" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E906" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F906" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G906" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H906" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I906" s="0" t="n">
         <x:v>0</x:v>
@@ -27001,7 +27001,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C907" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D907" s="1" t="n">
         <x:v>2</x:v>
@@ -27027,19 +27027,19 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B908" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C908" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D908" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E908" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F908" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G908" s="1" t="n">
         <x:v>1</x:v>
@@ -27059,7 +27059,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C909" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D909" s="1" t="n">
         <x:v>0</x:v>
@@ -27068,13 +27068,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F909" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G909" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H909" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I909" s="0" t="n">
         <x:v>0</x:v>
@@ -27088,7 +27088,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C910" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D910" s="1" t="n">
         <x:v>0</x:v>
@@ -27097,10 +27097,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F910" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G910" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H910" s="1" t="n">
         <x:v>3</x:v>
@@ -27114,25 +27114,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B911" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C911" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D911" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E911" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F911" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G911" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H911" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I911" s="0" t="n">
         <x:v>0</x:v>
@@ -27146,7 +27146,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C912" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D912" s="1" t="n">
         <x:v>0</x:v>
@@ -27172,16 +27172,16 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B913" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C913" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D913" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E913" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F913" s="1" t="n">
         <x:v>0</x:v>
@@ -27204,13 +27204,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C914" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D914" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E914" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F914" s="1" t="n">
         <x:v>0</x:v>
@@ -27233,13 +27233,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C915" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D915" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E915" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F915" s="1" t="n">
         <x:v>0</x:v>
@@ -27259,22 +27259,22 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B916" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C916" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D916" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E916" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F916" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G916" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H916" s="1" t="n">
         <x:v>0</x:v>
@@ -27291,7 +27291,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C917" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D917" s="1" t="n">
         <x:v>0</x:v>
@@ -27303,7 +27303,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G917" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H917" s="1" t="n">
         <x:v>0</x:v>
@@ -27320,7 +27320,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C918" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D918" s="1" t="n">
         <x:v>0</x:v>
@@ -27332,7 +27332,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G918" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H918" s="1" t="n">
         <x:v>0</x:v>
@@ -27343,28 +27343,28 @@
     </x:row>
     <x:row r="919" spans="1:9">
       <x:c r="A919" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B919" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C919" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D919" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E919" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F919" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G919" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H919" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I919" s="0" t="n">
         <x:v>0</x:v>
@@ -27378,22 +27378,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C920" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D920" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E920" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F920" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G920" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H920" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I920" s="0" t="n">
         <x:v>0</x:v>
@@ -27407,22 +27407,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C921" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D921" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E921" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F921" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G921" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H921" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I921" s="0" t="n">
         <x:v>0</x:v>
@@ -27433,25 +27433,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B922" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C922" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D922" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E922" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F922" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G922" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H922" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I922" s="0" t="n">
         <x:v>0</x:v>
@@ -27465,7 +27465,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C923" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D923" s="1" t="n">
         <x:v>1</x:v>
@@ -27491,25 +27491,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B924" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C924" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D924" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E924" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F924" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G924" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H924" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I924" s="0" t="n">
         <x:v>0</x:v>
@@ -27523,22 +27523,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C925" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D925" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E925" s="1" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F925" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G925" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F925" s="1" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G925" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
       <x:c r="H925" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I925" s="0" t="n">
         <x:v>0</x:v>
@@ -27552,22 +27552,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C926" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D926" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E926" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F926" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G926" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H926" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I926" s="0" t="n">
         <x:v>0</x:v>
@@ -27578,25 +27578,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B927" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C927" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D927" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E927" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F927" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G927" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H927" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I927" s="0" t="n">
         <x:v>0</x:v>
@@ -27610,22 +27610,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C928" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D928" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E928" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F928" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G928" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H928" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I928" s="0" t="n">
         <x:v>0</x:v>
@@ -27639,22 +27639,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C929" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D929" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E929" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F929" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G929" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H929" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I929" s="0" t="n">
         <x:v>0</x:v>
@@ -27665,25 +27665,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B930" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C930" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D930" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E930" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F930" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G930" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H930" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I930" s="0" t="n">
         <x:v>0</x:v>
@@ -27697,7 +27697,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C931" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D931" s="1" t="n">
         <x:v>0</x:v>
@@ -27706,13 +27706,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F931" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G931" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H931" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I931" s="0" t="n">
         <x:v>0</x:v>
@@ -27726,7 +27726,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C932" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D932" s="1" t="n">
         <x:v>0</x:v>
@@ -27735,10 +27735,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F932" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G932" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H932" s="1" t="n">
         <x:v>2</x:v>
@@ -27752,25 +27752,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B933" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C933" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D933" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E933" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F933" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G933" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H933" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I933" s="0" t="n">
         <x:v>0</x:v>
@@ -27784,19 +27784,19 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C934" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D934" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E934" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F934" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G934" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H934" s="1" t="n">
         <x:v>1</x:v>
@@ -27813,22 +27813,22 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C935" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D935" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E935" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F935" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G935" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H935" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I935" s="0" t="n">
         <x:v>0</x:v>
@@ -27839,25 +27839,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B936" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C936" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D936" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E936" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F936" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G936" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H936" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I936" s="0" t="n">
         <x:v>0</x:v>
@@ -27871,19 +27871,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C937" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D937" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E937" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F937" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G937" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H937" s="1" t="n">
         <x:v>1</x:v>
@@ -27900,22 +27900,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C938" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D938" s="1" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="E938" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F938" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G938" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H938" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I938" s="0" t="n">
         <x:v>0</x:v>
@@ -27923,25 +27923,25 @@
     </x:row>
     <x:row r="939" spans="1:9">
       <x:c r="A939" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B939" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C939" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D939" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E939" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F939" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G939" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H939" s="1" t="n">
         <x:v>2</x:v>
@@ -27958,19 +27958,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C940" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D940" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E940" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F940" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G940" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H940" s="1" t="n">
         <x:v>2</x:v>
@@ -27987,7 +27987,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C941" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D941" s="1" t="n">
         <x:v>0</x:v>
@@ -27996,13 +27996,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F941" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G941" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H941" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I941" s="0" t="n">
         <x:v>0</x:v>
@@ -28013,25 +28013,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B942" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C942" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D942" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E942" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F942" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G942" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H942" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I942" s="0" t="n">
         <x:v>0</x:v>
@@ -28045,7 +28045,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C943" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D943" s="1" t="n">
         <x:v>1</x:v>
@@ -28071,16 +28071,16 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B944" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C944" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D944" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E944" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F944" s="1" t="n">
         <x:v>0</x:v>
@@ -28103,19 +28103,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C945" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D945" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E945" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F945" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G945" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H945" s="1" t="n">
         <x:v>1</x:v>
@@ -28132,7 +28132,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C946" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D946" s="1" t="n">
         <x:v>1</x:v>
@@ -28144,10 +28144,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G946" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H946" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I946" s="0" t="n">
         <x:v>0</x:v>
@@ -28158,25 +28158,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B947" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C947" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D947" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E947" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F947" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G947" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H947" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I947" s="0" t="n">
         <x:v>0</x:v>
@@ -28190,7 +28190,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C948" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D948" s="1" t="n">
         <x:v>0</x:v>
@@ -28216,19 +28216,19 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B949" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C949" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D949" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E949" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F949" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G949" s="1" t="n">
         <x:v>0</x:v>
@@ -28248,7 +28248,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C950" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D950" s="1" t="n">
         <x:v>0</x:v>
@@ -28274,10 +28274,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B951" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C951" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D951" s="1" t="n">
         <x:v>0</x:v>
@@ -28289,7 +28289,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G951" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H951" s="1" t="n">
         <x:v>0</x:v>
@@ -28306,7 +28306,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C952" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D952" s="1" t="n">
         <x:v>0</x:v>
@@ -28329,28 +28329,28 @@
     </x:row>
     <x:row r="953" spans="1:9">
       <x:c r="A953" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B953" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C953" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D953" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E953" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F953" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G953" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H953" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I953" s="0" t="n">
         <x:v>0</x:v>
@@ -28364,22 +28364,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C954" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D954" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E954" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F954" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G954" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H954" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I954" s="0" t="n">
         <x:v>0</x:v>
@@ -28393,22 +28393,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C955" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D955" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E955" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F955" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G955" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H955" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I955" s="0" t="n">
         <x:v>0</x:v>
@@ -28419,25 +28419,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B956" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C956" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D956" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E956" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F956" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G956" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H956" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I956" s="0" t="n">
         <x:v>0</x:v>
@@ -28451,7 +28451,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C957" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D957" s="1" t="n">
         <x:v>0</x:v>
@@ -28463,7 +28463,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G957" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H957" s="1" t="n">
         <x:v>0</x:v>
@@ -28480,7 +28480,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C958" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D958" s="1" t="n">
         <x:v>0</x:v>
@@ -28489,7 +28489,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F958" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G958" s="1" t="n">
         <x:v>1</x:v>
@@ -28506,10 +28506,10 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B959" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C959" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D959" s="1" t="n">
         <x:v>0</x:v>
@@ -28518,10 +28518,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F959" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G959" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H959" s="1" t="n">
         <x:v>0</x:v>
@@ -28538,22 +28538,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C960" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D960" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E960" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F960" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G960" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H960" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I960" s="0" t="n">
         <x:v>0</x:v>
@@ -28567,7 +28567,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C961" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D961" s="1" t="n">
         <x:v>0</x:v>
@@ -28576,7 +28576,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F961" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G961" s="1" t="n">
         <x:v>2</x:v>
@@ -28593,25 +28593,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B962" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C962" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D962" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E962" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F962" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G962" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H962" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I962" s="0" t="n">
         <x:v>0</x:v>
@@ -28625,22 +28625,22 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C963" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D963" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E963" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F963" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G963" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H963" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I963" s="0" t="n">
         <x:v>0</x:v>
@@ -28654,13 +28654,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C964" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D964" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E964" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F964" s="1" t="n">
         <x:v>1</x:v>
@@ -28677,28 +28677,28 @@
     </x:row>
     <x:row r="965" spans="1:9">
       <x:c r="A965" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B965" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C965" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D965" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E965" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F965" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G965" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H965" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I965" s="0" t="n">
         <x:v>0</x:v>
@@ -28712,19 +28712,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C966" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D966" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E966" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F966" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E966" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F966" s="1" t="n">
-        <x:v>10</x:v>
-      </x:c>
       <x:c r="G966" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H966" s="1" t="n">
         <x:v>5</x:v>
@@ -28741,22 +28741,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C967" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D967" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E967" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F967" s="1" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G967" s="1" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H967" s="1" t="n">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="E967" s="1" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F967" s="1" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G967" s="1" t="n">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H967" s="1" t="n">
-        <x:v>10</x:v>
       </x:c>
       <x:c r="I967" s="0" t="n">
         <x:v>0</x:v>
@@ -28767,25 +28767,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B968" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C968" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D968" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E968" s="1" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F968" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C968" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D968" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E968" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F968" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="G968" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H968" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I968" s="0" t="n">
         <x:v>0</x:v>
@@ -28799,7 +28799,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C969" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D969" s="1" t="n">
         <x:v>2</x:v>
@@ -28825,25 +28825,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B970" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C970" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D970" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E970" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F970" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G970" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H970" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I970" s="0" t="n">
         <x:v>0</x:v>
@@ -28857,22 +28857,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C971" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D971" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E971" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F971" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G971" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H971" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I971" s="0" t="n">
         <x:v>0</x:v>
@@ -28886,22 +28886,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C972" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D972" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E972" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F972" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G972" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H972" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I972" s="0" t="n">
         <x:v>0</x:v>
@@ -28912,25 +28912,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B973" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C973" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D973" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E973" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F973" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G973" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H973" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I973" s="0" t="n">
         <x:v>0</x:v>
@@ -28944,13 +28944,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C974" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D974" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E974" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F974" s="1" t="n">
         <x:v>0</x:v>
@@ -28959,7 +28959,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H974" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I974" s="0" t="n">
         <x:v>0</x:v>
@@ -28973,13 +28973,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C975" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D975" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E975" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F975" s="1" t="n">
         <x:v>0</x:v>
@@ -28999,22 +28999,22 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B976" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C976" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D976" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E976" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F976" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G976" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H976" s="1" t="n">
         <x:v>1</x:v>
@@ -29031,22 +29031,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C977" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D977" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E977" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F977" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G977" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H977" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I977" s="0" t="n">
         <x:v>0</x:v>
@@ -29060,7 +29060,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C978" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D978" s="1" t="n">
         <x:v>1</x:v>
@@ -29069,13 +29069,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F978" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G978" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H978" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I978" s="0" t="n">
         <x:v>0</x:v>
@@ -29083,28 +29083,28 @@
     </x:row>
     <x:row r="979" spans="1:9">
       <x:c r="A979" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B979" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C979" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D979" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E979" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F979" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G979" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H979" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I979" s="0" t="n">
         <x:v>0</x:v>
@@ -29118,22 +29118,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C980" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D980" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E980" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F980" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G980" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H980" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I980" s="0" t="n">
         <x:v>0</x:v>
@@ -29147,22 +29147,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C981" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D981" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E981" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F981" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G981" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H981" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I981" s="0" t="n">
         <x:v>0</x:v>
@@ -29173,25 +29173,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B982" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C982" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D982" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E982" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F982" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G982" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H982" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I982" s="0" t="n">
         <x:v>0</x:v>
@@ -29205,22 +29205,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C983" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D983" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E983" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F983" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G983" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H983" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I983" s="0" t="n">
         <x:v>0</x:v>
@@ -29234,22 +29234,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C984" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D984" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E984" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F984" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G984" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H984" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I984" s="0" t="n">
         <x:v>0</x:v>
@@ -29260,25 +29260,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B985" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C985" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D985" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E985" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F985" s="1" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="G985" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H985" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I985" s="0" t="n">
         <x:v>0</x:v>
@@ -29292,22 +29292,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C986" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D986" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E986" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F986" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G986" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H986" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I986" s="0" t="n">
         <x:v>0</x:v>
@@ -29321,22 +29321,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C987" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D987" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E987" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F987" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G987" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H987" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I987" s="0" t="n">
         <x:v>0</x:v>
@@ -29347,25 +29347,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B988" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C988" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D988" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E988" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F988" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G988" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H988" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I988" s="0" t="n">
         <x:v>0</x:v>
@@ -29379,22 +29379,22 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C989" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D989" s="1" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E989" s="1" t="n">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="E989" s="1" t="n">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="F989" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G989" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H989" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I989" s="0" t="n">
         <x:v>0</x:v>
@@ -29408,13 +29408,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C990" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D990" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E990" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F990" s="1" t="n">
         <x:v>0</x:v>
@@ -29434,22 +29434,22 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B991" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C991" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D991" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E991" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F991" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G991" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H991" s="1" t="n">
         <x:v>1</x:v>
@@ -29466,10 +29466,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C992" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D992" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E992" s="1" t="n">
         <x:v>3</x:v>
@@ -29489,28 +29489,28 @@
     </x:row>
     <x:row r="993" spans="1:9">
       <x:c r="A993" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B993" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C993" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D993" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E993" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F993" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G993" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H993" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I993" s="0" t="n">
         <x:v>0</x:v>
@@ -29524,7 +29524,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C994" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D994" s="1" t="n">
         <x:v>0</x:v>
@@ -29533,13 +29533,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F994" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G994" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H994" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I994" s="0" t="n">
         <x:v>0</x:v>
@@ -29553,7 +29553,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C995" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D995" s="1" t="n">
         <x:v>0</x:v>
@@ -29562,10 +29562,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F995" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G995" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H995" s="1" t="n">
         <x:v>1</x:v>
@@ -29579,10 +29579,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B996" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C996" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D996" s="1" t="n">
         <x:v>0</x:v>
@@ -29591,13 +29591,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F996" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G996" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H996" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I996" s="0" t="n">
         <x:v>0</x:v>
@@ -29611,7 +29611,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C997" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D997" s="1" t="n">
         <x:v>0</x:v>
@@ -29637,10 +29637,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B998" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C998" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D998" s="1" t="n">
         <x:v>0</x:v>
@@ -29652,7 +29652,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G998" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H998" s="1" t="n">
         <x:v>0</x:v>
@@ -29669,7 +29669,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C999" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D999" s="1" t="n">
         <x:v>0</x:v>
@@ -29678,13 +29678,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F999" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G999" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H999" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I999" s="0" t="n">
         <x:v>0</x:v>
@@ -29698,7 +29698,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1000" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1000" s="1" t="n">
         <x:v>0</x:v>
@@ -29707,10 +29707,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1000" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1000" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1000" s="1" t="n">
         <x:v>1</x:v>
@@ -29724,25 +29724,25 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1001" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1001" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1001" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1001" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1001" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1001" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1001" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1001" s="0" t="n">
         <x:v>0</x:v>
@@ -29756,7 +29756,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1002" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1002" s="1" t="n">
         <x:v>1</x:v>
@@ -29774,6 +29774,35 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I1002" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1003" spans="1:9">
+      <x:c r="A1003" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B1003" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C1003" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1003" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1003" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1003" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G1003" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H1003" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1003" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -709,7 +709,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I1063"/>
+  <x:dimension ref="A1:I1065"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1223,7 +1223,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
         <x:v>12</x:v>
@@ -1252,7 +1252,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>18</x:v>
@@ -3317,7 +3317,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F90" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G90" s="1" t="n">
         <x:v>20</x:v>
@@ -3346,7 +3346,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F91" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G91" s="1" t="n">
         <x:v>26</x:v>
@@ -7577,7 +7577,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E237" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F237" s="1" t="n">
         <x:v>7</x:v>
@@ -7615,7 +7615,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H238" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I238" s="0" t="n">
         <x:v>0</x:v>
@@ -7635,7 +7635,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E239" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F239" s="1" t="n">
         <x:v>21</x:v>
@@ -7644,7 +7644,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="H239" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I239" s="0" t="n">
         <x:v>0</x:v>
@@ -10135,7 +10135,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="G325" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="H325" s="1" t="n">
         <x:v>48</x:v>
@@ -10161,7 +10161,7 @@
         <x:v>315</x:v>
       </x:c>
       <x:c r="F326" s="1" t="n">
-        <x:v>574</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="G326" s="1" t="n">
         <x:v>509</x:v>
@@ -10190,10 +10190,10 @@
         <x:v>433</x:v>
       </x:c>
       <x:c r="F327" s="1" t="n">
-        <x:v>740</x:v>
+        <x:v>741</x:v>
       </x:c>
       <x:c r="G327" s="1" t="n">
-        <x:v>652</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="H327" s="1" t="n">
         <x:v>226</x:v>
@@ -10599,7 +10599,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="G341" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H341" s="1" t="n">
         <x:v>27</x:v>
@@ -10628,7 +10628,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="G342" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H342" s="1" t="n">
         <x:v>28</x:v>
@@ -10686,7 +10686,7 @@
         <x:v>209</x:v>
       </x:c>
       <x:c r="G344" s="1" t="n">
-        <x:v>199</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="H344" s="1" t="n">
         <x:v>89</x:v>
@@ -10715,7 +10715,7 @@
         <x:v>273</x:v>
       </x:c>
       <x:c r="G345" s="1" t="n">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="H345" s="1" t="n">
         <x:v>112</x:v>
@@ -22416,22 +22416,22 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B749" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C749" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D749" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E749" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F749" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G749" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H749" s="1" t="n">
         <x:v>0</x:v>
@@ -22445,25 +22445,25 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B750" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C750" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D750" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E750" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F750" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G750" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H750" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I750" s="0" t="n">
         <x:v>0</x:v>
@@ -22477,22 +22477,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C751" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D751" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E751" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F751" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G751" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H751" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I751" s="0" t="n">
         <x:v>0</x:v>
@@ -22503,7 +22503,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B752" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C752" s="1" t="s">
         <x:v>12</x:v>
@@ -22512,16 +22512,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E752" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F752" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G752" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H752" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I752" s="0" t="n">
         <x:v>0</x:v>
@@ -22532,7 +22532,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B753" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C753" s="1" t="s">
         <x:v>13</x:v>
@@ -22541,16 +22541,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E753" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F753" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G753" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H753" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I753" s="0" t="n">
         <x:v>0</x:v>
@@ -22558,28 +22558,28 @@
     </x:row>
     <x:row r="754" spans="1:9">
       <x:c r="A754" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B754" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C754" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D754" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E754" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F754" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G754" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H754" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I754" s="0" t="n">
         <x:v>0</x:v>
@@ -22587,28 +22587,28 @@
     </x:row>
     <x:row r="755" spans="1:9">
       <x:c r="A755" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B755" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C755" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D755" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E755" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F755" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G755" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H755" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I755" s="0" t="n">
         <x:v>0</x:v>
@@ -22622,22 +22622,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C756" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D756" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E756" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F756" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G756" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H756" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I756" s="0" t="n">
         <x:v>0</x:v>
@@ -22648,25 +22648,25 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="B757" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C757" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D757" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E757" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F757" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C757" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D757" s="1" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E757" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F757" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="G757" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H757" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I757" s="0" t="n">
         <x:v>0</x:v>
@@ -22677,25 +22677,25 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="B758" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C758" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D758" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E758" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F758" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G758" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H758" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I758" s="0" t="n">
         <x:v>0</x:v>
@@ -22709,13 +22709,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C759" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D759" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="E759" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F759" s="1" t="n">
         <x:v>2</x:v>
@@ -22724,7 +22724,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H759" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I759" s="0" t="n">
         <x:v>0</x:v>
@@ -22735,22 +22735,22 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="B760" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C760" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D760" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E760" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F760" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G760" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H760" s="1" t="n">
         <x:v>3</x:v>
@@ -22764,22 +22764,22 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="B761" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C761" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D761" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E761" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F761" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G761" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H761" s="1" t="n">
         <x:v>3</x:v>
@@ -22796,22 +22796,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C762" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D762" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E762" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F762" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G762" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H762" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I762" s="0" t="n">
         <x:v>0</x:v>
@@ -22822,25 +22822,25 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="B763" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C763" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D763" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E763" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F763" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G763" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H763" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I763" s="0" t="n">
         <x:v>0</x:v>
@@ -22851,25 +22851,25 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="B764" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C764" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D764" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E764" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F764" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G764" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H764" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I764" s="0" t="n">
         <x:v>0</x:v>
@@ -22880,7 +22880,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="B765" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C765" s="1" t="s">
         <x:v>11</x:v>
@@ -22889,13 +22889,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E765" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F765" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G765" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H765" s="1" t="n">
         <x:v>0</x:v>
@@ -22909,25 +22909,25 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="B766" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C766" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D766" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E766" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F766" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G766" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H766" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I766" s="0" t="n">
         <x:v>0</x:v>
@@ -22941,7 +22941,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C767" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D767" s="1" t="n">
         <x:v>0</x:v>
@@ -22950,13 +22950,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F767" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G767" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H767" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I767" s="0" t="n">
         <x:v>0</x:v>
@@ -22964,28 +22964,28 @@
     </x:row>
     <x:row r="768" spans="1:9">
       <x:c r="A768" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B768" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C768" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D768" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E768" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F768" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G768" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H768" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I768" s="0" t="n">
         <x:v>0</x:v>
@@ -22993,13 +22993,13 @@
     </x:row>
     <x:row r="769" spans="1:9">
       <x:c r="A769" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B769" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C769" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D769" s="1" t="n">
         <x:v>0</x:v>
@@ -23008,13 +23008,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F769" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G769" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H769" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I769" s="0" t="n">
         <x:v>0</x:v>
@@ -23028,7 +23028,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C770" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D770" s="1" t="n">
         <x:v>0</x:v>
@@ -23040,7 +23040,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G770" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H770" s="1" t="n">
         <x:v>0</x:v>
@@ -23054,10 +23054,10 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="B771" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C771" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D771" s="1" t="n">
         <x:v>0</x:v>
@@ -23083,7 +23083,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="B772" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C772" s="1" t="s">
         <x:v>13</x:v>
@@ -23092,7 +23092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E772" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F772" s="1" t="n">
         <x:v>0</x:v>
@@ -23112,16 +23112,16 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="B773" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C773" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D773" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E773" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F773" s="1" t="n">
         <x:v>0</x:v>
@@ -23141,7 +23141,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="B774" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C774" s="1" t="s">
         <x:v>13</x:v>
@@ -23150,7 +23150,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E774" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F774" s="1" t="n">
         <x:v>0</x:v>
@@ -23167,28 +23167,28 @@
     </x:row>
     <x:row r="775" spans="1:9">
       <x:c r="A775" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B775" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C775" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D775" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E775" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F775" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G775" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H775" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I775" s="0" t="n">
         <x:v>0</x:v>
@@ -23196,13 +23196,13 @@
     </x:row>
     <x:row r="776" spans="1:9">
       <x:c r="A776" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B776" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C776" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D776" s="1" t="n">
         <x:v>0</x:v>
@@ -23211,13 +23211,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F776" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G776" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H776" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I776" s="0" t="n">
         <x:v>0</x:v>
@@ -23231,22 +23231,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C777" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D777" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E777" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F777" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G777" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H777" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I777" s="0" t="n">
         <x:v>0</x:v>
@@ -23257,7 +23257,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="B778" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C778" s="1" t="s">
         <x:v>12</x:v>
@@ -23266,16 +23266,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E778" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F778" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G778" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H778" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I778" s="0" t="n">
         <x:v>0</x:v>
@@ -23286,7 +23286,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="B779" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C779" s="1" t="s">
         <x:v>13</x:v>
@@ -23295,16 +23295,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E779" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F779" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G779" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H779" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I779" s="0" t="n">
         <x:v>0</x:v>
@@ -23315,10 +23315,10 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="B780" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C780" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D780" s="1" t="n">
         <x:v>0</x:v>
@@ -23327,13 +23327,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F780" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G780" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H780" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I780" s="0" t="n">
         <x:v>0</x:v>
@@ -23344,25 +23344,25 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="B781" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C781" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D781" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E781" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F781" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G781" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H781" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I781" s="0" t="n">
         <x:v>0</x:v>
@@ -23376,22 +23376,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C782" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D782" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E782" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F782" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G782" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H782" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I782" s="0" t="n">
         <x:v>0</x:v>
@@ -23402,25 +23402,25 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="B783" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C783" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D783" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E783" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F783" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G783" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H783" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I783" s="0" t="n">
         <x:v>0</x:v>
@@ -23431,25 +23431,25 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="B784" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C784" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D784" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E784" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F784" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G784" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H784" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I784" s="0" t="n">
         <x:v>0</x:v>
@@ -23457,28 +23457,28 @@
     </x:row>
     <x:row r="785" spans="1:9">
       <x:c r="A785" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B785" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C785" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D785" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E785" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F785" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G785" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H785" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I785" s="0" t="n">
         <x:v>0</x:v>
@@ -23486,28 +23486,28 @@
     </x:row>
     <x:row r="786" spans="1:9">
       <x:c r="A786" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B786" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C786" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D786" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E786" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F786" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G786" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H786" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I786" s="0" t="n">
         <x:v>0</x:v>
@@ -23521,22 +23521,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C787" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D787" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E787" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F787" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G787" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H787" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I787" s="0" t="n">
         <x:v>0</x:v>
@@ -23547,25 +23547,25 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B788" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C788" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D788" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E788" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F788" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G788" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H788" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I788" s="0" t="n">
         <x:v>0</x:v>
@@ -23576,25 +23576,25 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B789" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C789" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D789" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E789" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F789" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G789" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H789" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I789" s="0" t="n">
         <x:v>0</x:v>
@@ -23608,10 +23608,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C790" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D790" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E790" s="1" t="n">
         <x:v>0</x:v>
@@ -23634,22 +23634,22 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B791" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C791" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D791" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E791" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F791" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G791" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H791" s="1" t="n">
         <x:v>0</x:v>
@@ -23663,25 +23663,25 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B792" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C792" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D792" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E792" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F792" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G792" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H792" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I792" s="0" t="n">
         <x:v>0</x:v>
@@ -23695,22 +23695,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C793" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D793" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E793" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F793" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G793" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H793" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I793" s="0" t="n">
         <x:v>0</x:v>
@@ -23721,25 +23721,25 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B794" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C794" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D794" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E794" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F794" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G794" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H794" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I794" s="0" t="n">
         <x:v>0</x:v>
@@ -23750,25 +23750,25 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B795" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C795" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D795" s="1" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E795" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F795" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E795" s="1" t="n">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F795" s="1" t="n">
-        <x:v>46</x:v>
-      </x:c>
       <x:c r="G795" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H795" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I795" s="0" t="n">
         <x:v>0</x:v>
@@ -23782,22 +23782,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C796" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D796" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E796" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F796" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G796" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H796" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I796" s="0" t="n">
         <x:v>0</x:v>
@@ -23808,25 +23808,25 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B797" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C797" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D797" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E797" s="1" t="n">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C797" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D797" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E797" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="F797" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G797" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H797" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I797" s="0" t="n">
         <x:v>0</x:v>
@@ -23837,25 +23837,25 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B798" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C798" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D798" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E798" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F798" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G798" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H798" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I798" s="0" t="n">
         <x:v>0</x:v>
@@ -23869,10 +23869,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C799" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D799" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E799" s="1" t="n">
         <x:v>1</x:v>
@@ -23881,7 +23881,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G799" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H799" s="1" t="n">
         <x:v>0</x:v>
@@ -23895,22 +23895,22 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B800" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C800" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D800" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E800" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F800" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G800" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H800" s="1" t="n">
         <x:v>0</x:v>
@@ -23924,22 +23924,22 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B801" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C801" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D801" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E801" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F801" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G801" s="1" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="E801" s="1" t="n">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F801" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G801" s="1" t="n">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="H801" s="1" t="n">
         <x:v>0</x:v>
@@ -23956,16 +23956,16 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C802" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D802" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E802" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F802" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G802" s="1" t="n">
         <x:v>0</x:v>
@@ -23982,25 +23982,25 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B803" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C803" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D803" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E803" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F803" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G803" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H803" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I803" s="0" t="n">
         <x:v>0</x:v>
@@ -24011,25 +24011,25 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B804" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C804" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D804" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E804" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F804" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G804" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H804" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I804" s="0" t="n">
         <x:v>0</x:v>
@@ -24043,22 +24043,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C805" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D805" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E805" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F805" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G805" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H805" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I805" s="0" t="n">
         <x:v>0</x:v>
@@ -24066,28 +24066,28 @@
     </x:row>
     <x:row r="806" spans="1:9">
       <x:c r="A806" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B806" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C806" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D806" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E806" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C806" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D806" s="1" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E806" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="F806" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G806" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H806" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I806" s="0" t="n">
         <x:v>0</x:v>
@@ -24095,28 +24095,28 @@
     </x:row>
     <x:row r="807" spans="1:9">
       <x:c r="A807" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B807" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C807" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D807" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E807" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C807" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D807" s="1" t="n">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E807" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="F807" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G807" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H807" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I807" s="0" t="n">
         <x:v>0</x:v>
@@ -24130,22 +24130,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C808" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D808" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E808" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F808" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G808" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H808" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I808" s="0" t="n">
         <x:v>0</x:v>
@@ -24156,25 +24156,25 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B809" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C809" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D809" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E809" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F809" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G809" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H809" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I809" s="0" t="n">
         <x:v>0</x:v>
@@ -24185,25 +24185,25 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B810" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C810" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D810" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E810" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F810" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G810" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H810" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I810" s="0" t="n">
         <x:v>0</x:v>
@@ -24214,7 +24214,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B811" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C811" s="1" t="s">
         <x:v>11</x:v>
@@ -24243,25 +24243,25 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B812" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C812" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D812" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E812" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F812" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G812" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H812" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I812" s="0" t="n">
         <x:v>0</x:v>
@@ -24275,22 +24275,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C813" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D813" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E813" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F813" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G813" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H813" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I813" s="0" t="n">
         <x:v>0</x:v>
@@ -24301,25 +24301,25 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B814" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C814" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D814" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E814" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F814" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G814" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H814" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I814" s="0" t="n">
         <x:v>0</x:v>
@@ -24330,25 +24330,25 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B815" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C815" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D815" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E815" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F815" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G815" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H815" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I815" s="0" t="n">
         <x:v>0</x:v>
@@ -24362,22 +24362,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C816" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D816" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E816" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F816" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G816" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H816" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I816" s="0" t="n">
         <x:v>0</x:v>
@@ -24388,25 +24388,25 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B817" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C817" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D817" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E817" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F817" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G817" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H817" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I817" s="0" t="n">
         <x:v>0</x:v>
@@ -24417,25 +24417,25 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B818" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C818" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D818" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E818" s="1" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F818" s="1" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G818" s="1" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H818" s="1" t="n">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="C818" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D818" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E818" s="1" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F818" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G818" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H818" s="1" t="n">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="I818" s="0" t="n">
         <x:v>0</x:v>
@@ -24449,16 +24449,16 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C819" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D819" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E819" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F819" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G819" s="1" t="n">
         <x:v>0</x:v>
@@ -24475,25 +24475,25 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B820" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C820" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D820" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E820" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F820" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G820" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H820" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I820" s="0" t="n">
         <x:v>0</x:v>
@@ -24504,25 +24504,25 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B821" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C821" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D821" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E821" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F821" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G821" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H821" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I821" s="0" t="n">
         <x:v>0</x:v>
@@ -24530,16 +24530,16 @@
     </x:row>
     <x:row r="822" spans="1:9">
       <x:c r="A822" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B822" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C822" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D822" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E822" s="1" t="n">
         <x:v>0</x:v>
@@ -24551,7 +24551,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H822" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I822" s="0" t="n">
         <x:v>0</x:v>
@@ -24559,13 +24559,13 @@
     </x:row>
     <x:row r="823" spans="1:9">
       <x:c r="A823" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B823" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C823" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D823" s="1" t="n">
         <x:v>0</x:v>
@@ -24574,13 +24574,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F823" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G823" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H823" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I823" s="0" t="n">
         <x:v>0</x:v>
@@ -24594,7 +24594,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C824" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D824" s="1" t="n">
         <x:v>1</x:v>
@@ -24603,13 +24603,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F824" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G824" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H824" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I824" s="0" t="n">
         <x:v>0</x:v>
@@ -24620,25 +24620,25 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B825" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C825" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D825" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E825" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F825" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G825" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H825" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I825" s="0" t="n">
         <x:v>0</x:v>
@@ -24649,7 +24649,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B826" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C826" s="1" t="s">
         <x:v>13</x:v>
@@ -24661,13 +24661,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F826" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G826" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H826" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I826" s="0" t="n">
         <x:v>0</x:v>
@@ -24678,16 +24678,16 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B827" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C827" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D827" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E827" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F827" s="1" t="n">
         <x:v>0</x:v>
@@ -24707,13 +24707,13 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B828" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C828" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D828" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E828" s="1" t="n">
         <x:v>0</x:v>
@@ -24722,7 +24722,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G828" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H828" s="1" t="n">
         <x:v>0</x:v>
@@ -24739,7 +24739,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C829" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D829" s="1" t="n">
         <x:v>0</x:v>
@@ -24751,7 +24751,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G829" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H829" s="1" t="n">
         <x:v>0</x:v>
@@ -24765,10 +24765,10 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B830" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C830" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D830" s="1" t="n">
         <x:v>0</x:v>
@@ -24780,10 +24780,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G830" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H830" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I830" s="0" t="n">
         <x:v>0</x:v>
@@ -24794,25 +24794,25 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B831" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C831" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D831" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E831" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F831" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G831" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H831" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I831" s="0" t="n">
         <x:v>0</x:v>
@@ -24826,22 +24826,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C832" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D832" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E832" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F832" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G832" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H832" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I832" s="0" t="n">
         <x:v>0</x:v>
@@ -24849,28 +24849,28 @@
     </x:row>
     <x:row r="833" spans="1:9">
       <x:c r="A833" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B833" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C833" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D833" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E833" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F833" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G833" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H833" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I833" s="0" t="n">
         <x:v>0</x:v>
@@ -24878,28 +24878,28 @@
     </x:row>
     <x:row r="834" spans="1:9">
       <x:c r="A834" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B834" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C834" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D834" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E834" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F834" s="1" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G834" s="1" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H834" s="1" t="n">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="C834" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D834" s="1" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E834" s="1" t="n">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="F834" s="1" t="n">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="G834" s="1" t="n">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="H834" s="1" t="n">
-        <x:v>35</x:v>
       </x:c>
       <x:c r="I834" s="0" t="n">
         <x:v>0</x:v>
@@ -24913,22 +24913,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C835" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D835" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E835" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F835" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G835" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H835" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I835" s="0" t="n">
         <x:v>0</x:v>
@@ -24939,25 +24939,25 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B836" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C836" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D836" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C836" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D836" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
       <x:c r="E836" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F836" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G836" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H836" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I836" s="0" t="n">
         <x:v>0</x:v>
@@ -24968,25 +24968,25 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B837" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C837" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D837" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E837" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F837" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G837" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H837" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I837" s="0" t="n">
         <x:v>0</x:v>
@@ -25000,22 +25000,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C838" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D838" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E838" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F838" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G838" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H838" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I838" s="0" t="n">
         <x:v>0</x:v>
@@ -25026,25 +25026,25 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B839" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C839" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D839" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E839" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F839" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G839" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H839" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I839" s="0" t="n">
         <x:v>0</x:v>
@@ -25055,25 +25055,25 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B840" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C840" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D840" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E840" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F840" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G840" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H840" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I840" s="0" t="n">
         <x:v>0</x:v>
@@ -25087,22 +25087,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C841" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D841" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E841" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F841" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G841" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H841" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I841" s="0" t="n">
         <x:v>0</x:v>
@@ -25113,25 +25113,25 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B842" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C842" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D842" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E842" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F842" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G842" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H842" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I842" s="0" t="n">
         <x:v>0</x:v>
@@ -25142,25 +25142,25 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B843" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C843" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D843" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E843" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F843" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G843" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H843" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I843" s="0" t="n">
         <x:v>0</x:v>
@@ -25174,19 +25174,19 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C844" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D844" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E844" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F844" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G844" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H844" s="1" t="n">
         <x:v>0</x:v>
@@ -25200,25 +25200,25 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B845" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C845" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D845" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E845" s="1" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F845" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G845" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F845" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G845" s="1" t="n">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="H845" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I845" s="0" t="n">
         <x:v>0</x:v>
@@ -25229,25 +25229,25 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B846" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C846" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D846" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E846" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F846" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G846" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H846" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I846" s="0" t="n">
         <x:v>0</x:v>
@@ -25261,22 +25261,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C847" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D847" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E847" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F847" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G847" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H847" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I847" s="0" t="n">
         <x:v>0</x:v>
@@ -25284,28 +25284,28 @@
     </x:row>
     <x:row r="848" spans="1:9">
       <x:c r="A848" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B848" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C848" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D848" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E848" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C848" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D848" s="1" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E848" s="1" t="n">
-        <x:v>12</x:v>
-      </x:c>
       <x:c r="F848" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G848" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H848" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I848" s="0" t="n">
         <x:v>0</x:v>
@@ -25313,28 +25313,28 @@
     </x:row>
     <x:row r="849" spans="1:9">
       <x:c r="A849" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B849" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C849" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D849" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E849" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F849" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G849" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H849" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I849" s="0" t="n">
         <x:v>0</x:v>
@@ -25348,22 +25348,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C850" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D850" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E850" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F850" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G850" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H850" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I850" s="0" t="n">
         <x:v>0</x:v>
@@ -25374,25 +25374,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B851" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C851" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D851" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E851" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F851" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H851" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I851" s="0" t="n">
         <x:v>0</x:v>
@@ -25403,25 +25403,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B852" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C852" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D852" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E852" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I852" s="0" t="n">
         <x:v>0</x:v>
@@ -25435,10 +25435,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C853" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D853" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E853" s="1" t="n">
         <x:v>0</x:v>
@@ -25461,25 +25461,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B854" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C854" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D854" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E854" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F854" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G854" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H854" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I854" s="0" t="n">
         <x:v>0</x:v>
@@ -25490,25 +25490,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B855" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C855" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D855" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E855" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F855" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G855" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H855" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I855" s="0" t="n">
         <x:v>0</x:v>
@@ -25522,22 +25522,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C856" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D856" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E856" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F856" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G856" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H856" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I856" s="0" t="n">
         <x:v>0</x:v>
@@ -25548,25 +25548,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B857" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C857" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D857" s="1" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E857" s="1" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F857" s="1" t="n">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C857" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D857" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E857" s="1" t="n">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F857" s="1" t="n">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="G857" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H857" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I857" s="0" t="n">
         <x:v>0</x:v>
@@ -25577,25 +25577,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B858" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C858" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D858" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E858" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F858" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G858" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H858" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I858" s="0" t="n">
         <x:v>0</x:v>
@@ -25609,22 +25609,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C859" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D859" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E859" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F859" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G859" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H859" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I859" s="0" t="n">
         <x:v>0</x:v>
@@ -25635,25 +25635,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B860" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C860" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D860" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E860" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F860" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G860" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H860" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I860" s="0" t="n">
         <x:v>0</x:v>
@@ -25664,25 +25664,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B861" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C861" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D861" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E861" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F861" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G861" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H861" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I861" s="0" t="n">
         <x:v>0</x:v>
@@ -25696,7 +25696,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C862" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D862" s="1" t="n">
         <x:v>0</x:v>
@@ -25705,7 +25705,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F862" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G862" s="1" t="n">
         <x:v>0</x:v>
@@ -25722,22 +25722,22 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B863" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C863" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D863" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E863" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F863" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G863" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H863" s="1" t="n">
         <x:v>0</x:v>
@@ -25751,25 +25751,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B864" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C864" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D864" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E864" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F864" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G864" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H864" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I864" s="0" t="n">
         <x:v>0</x:v>
@@ -25783,22 +25783,22 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C865" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D865" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E865" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F865" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G865" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H865" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I865" s="0" t="n">
         <x:v>0</x:v>
@@ -25809,25 +25809,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B866" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C866" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D866" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E866" s="1" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F866" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F866" s="1" t="n">
-        <x:v>12</x:v>
-      </x:c>
       <x:c r="G866" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H866" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I866" s="0" t="n">
         <x:v>0</x:v>
@@ -25838,25 +25838,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B867" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C867" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D867" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E867" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F867" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G867" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H867" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I867" s="0" t="n">
         <x:v>0</x:v>
@@ -25870,22 +25870,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C868" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D868" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E868" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F868" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G868" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H868" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I868" s="0" t="n">
         <x:v>0</x:v>
@@ -25893,28 +25893,28 @@
     </x:row>
     <x:row r="869" spans="1:9">
       <x:c r="A869" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B869" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C869" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D869" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E869" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F869" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G869" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H869" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I869" s="0" t="n">
         <x:v>0</x:v>
@@ -25922,28 +25922,28 @@
     </x:row>
     <x:row r="870" spans="1:9">
       <x:c r="A870" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B870" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C870" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D870" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E870" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F870" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G870" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H870" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I870" s="0" t="n">
         <x:v>0</x:v>
@@ -25957,22 +25957,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C871" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D871" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E871" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F871" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G871" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H871" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I871" s="0" t="n">
         <x:v>0</x:v>
@@ -25983,25 +25983,25 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B872" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C872" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D872" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E872" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F872" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G872" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H872" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I872" s="0" t="n">
         <x:v>0</x:v>
@@ -26012,25 +26012,25 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B873" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C873" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D873" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E873" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F873" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I873" s="0" t="n">
         <x:v>0</x:v>
@@ -26044,10 +26044,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C874" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D874" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E874" s="1" t="n">
         <x:v>0</x:v>
@@ -26070,22 +26070,22 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B875" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C875" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D875" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E875" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F875" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G875" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H875" s="1" t="n">
         <x:v>0</x:v>
@@ -26099,13 +26099,13 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B876" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C876" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D876" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E876" s="1" t="n">
         <x:v>0</x:v>
@@ -26114,10 +26114,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G876" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H876" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I876" s="0" t="n">
         <x:v>0</x:v>
@@ -26131,10 +26131,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C877" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D877" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E877" s="1" t="n">
         <x:v>1</x:v>
@@ -26143,10 +26143,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G877" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H877" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I877" s="0" t="n">
         <x:v>0</x:v>
@@ -26157,25 +26157,25 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B878" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C878" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D878" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E878" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F878" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G878" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H878" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I878" s="0" t="n">
         <x:v>0</x:v>
@@ -26186,25 +26186,25 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B879" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C879" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D879" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E879" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F879" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G879" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H879" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I879" s="0" t="n">
         <x:v>0</x:v>
@@ -26218,22 +26218,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C880" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D880" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E880" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F880" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G880" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H880" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I880" s="0" t="n">
         <x:v>0</x:v>
@@ -26244,25 +26244,25 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B881" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C881" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D881" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E881" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F881" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G881" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H881" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I881" s="0" t="n">
         <x:v>0</x:v>
@@ -26273,25 +26273,25 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B882" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C882" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D882" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E882" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F882" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G882" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H882" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I882" s="0" t="n">
         <x:v>0</x:v>
@@ -26305,13 +26305,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C883" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D883" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E883" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F883" s="1" t="n">
         <x:v>0</x:v>
@@ -26331,7 +26331,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B884" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C884" s="1" t="s">
         <x:v>12</x:v>
@@ -26340,13 +26340,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E884" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F884" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G884" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H884" s="1" t="n">
         <x:v>0</x:v>
@@ -26360,7 +26360,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B885" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C885" s="1" t="s">
         <x:v>13</x:v>
@@ -26369,16 +26369,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E885" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F885" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G885" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H885" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I885" s="0" t="n">
         <x:v>0</x:v>
@@ -26386,19 +26386,19 @@
     </x:row>
     <x:row r="886" spans="1:9">
       <x:c r="A886" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B886" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C886" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D886" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E886" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F886" s="1" t="n">
         <x:v>0</x:v>
@@ -26415,28 +26415,28 @@
     </x:row>
     <x:row r="887" spans="1:9">
       <x:c r="A887" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B887" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C887" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D887" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E887" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F887" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G887" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H887" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I887" s="0" t="n">
         <x:v>0</x:v>
@@ -26450,22 +26450,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C888" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D888" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E888" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F888" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G888" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H888" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I888" s="0" t="n">
         <x:v>0</x:v>
@@ -26476,25 +26476,25 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B889" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C889" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D889" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E889" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F889" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G889" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H889" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I889" s="0" t="n">
         <x:v>0</x:v>
@@ -26505,25 +26505,25 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B890" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C890" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D890" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E890" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F890" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G890" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H890" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I890" s="0" t="n">
         <x:v>0</x:v>
@@ -26537,7 +26537,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C891" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D891" s="1" t="n">
         <x:v>0</x:v>
@@ -26546,13 +26546,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F891" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G891" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H891" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I891" s="0" t="n">
         <x:v>0</x:v>
@@ -26563,7 +26563,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B892" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C892" s="1" t="s">
         <x:v>12</x:v>
@@ -26572,7 +26572,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E892" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F892" s="1" t="n">
         <x:v>1</x:v>
@@ -26592,7 +26592,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B893" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C893" s="1" t="s">
         <x:v>13</x:v>
@@ -26601,10 +26601,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E893" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G893" s="1" t="n">
         <x:v>0</x:v>
@@ -26621,25 +26621,25 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B894" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C894" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D894" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E894" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F894" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G894" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H894" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I894" s="0" t="n">
         <x:v>0</x:v>
@@ -26650,25 +26650,25 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B895" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C895" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D895" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E895" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F895" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G895" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H895" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I895" s="0" t="n">
         <x:v>0</x:v>
@@ -26682,7 +26682,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C896" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D896" s="1" t="n">
         <x:v>0</x:v>
@@ -26694,7 +26694,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G896" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H896" s="1" t="n">
         <x:v>0</x:v>
@@ -26705,10 +26705,10 @@
     </x:row>
     <x:row r="897" spans="1:9">
       <x:c r="A897" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B897" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C897" s="1" t="s">
         <x:v>12</x:v>
@@ -26717,13 +26717,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E897" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F897" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G897" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H897" s="1" t="n">
         <x:v>0</x:v>
@@ -26734,10 +26734,10 @@
     </x:row>
     <x:row r="898" spans="1:9">
       <x:c r="A898" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B898" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C898" s="1" t="s">
         <x:v>13</x:v>
@@ -26752,7 +26752,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G898" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H898" s="1" t="n">
         <x:v>0</x:v>
@@ -26766,7 +26766,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B899" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C899" s="1" t="s">
         <x:v>12</x:v>
@@ -26778,10 +26778,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F899" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G899" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H899" s="1" t="n">
         <x:v>0</x:v>
@@ -26795,7 +26795,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B900" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C900" s="1" t="s">
         <x:v>13</x:v>
@@ -26807,10 +26807,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F900" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G900" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H900" s="1" t="n">
         <x:v>0</x:v>
@@ -26824,16 +26824,16 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B901" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C901" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D901" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E901" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F901" s="1" t="n">
         <x:v>1</x:v>
@@ -26853,25 +26853,25 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B902" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C902" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D902" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E902" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F902" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G902" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H902" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I902" s="0" t="n">
         <x:v>0</x:v>
@@ -26885,7 +26885,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C903" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D903" s="1" t="n">
         <x:v>0</x:v>
@@ -26894,13 +26894,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F903" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G903" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H903" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I903" s="0" t="n">
         <x:v>0</x:v>
@@ -26911,7 +26911,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B904" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C904" s="1" t="s">
         <x:v>12</x:v>
@@ -26920,16 +26920,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E904" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F904" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G904" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H904" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I904" s="0" t="n">
         <x:v>0</x:v>
@@ -26940,7 +26940,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B905" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C905" s="1" t="s">
         <x:v>13</x:v>
@@ -26949,16 +26949,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E905" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F905" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G905" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H905" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I905" s="0" t="n">
         <x:v>0</x:v>
@@ -26969,22 +26969,22 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B906" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C906" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D906" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E906" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F906" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G906" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H906" s="1" t="n">
         <x:v>0</x:v>
@@ -26998,7 +26998,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B907" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C907" s="1" t="s">
         <x:v>13</x:v>
@@ -27007,13 +27007,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E907" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F907" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G907" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H907" s="1" t="n">
         <x:v>0</x:v>
@@ -27024,10 +27024,10 @@
     </x:row>
     <x:row r="908" spans="1:9">
       <x:c r="A908" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B908" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C908" s="1" t="s">
         <x:v>11</x:v>
@@ -27036,16 +27036,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E908" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F908" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G908" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H908" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I908" s="0" t="n">
         <x:v>0</x:v>
@@ -27053,28 +27053,28 @@
     </x:row>
     <x:row r="909" spans="1:9">
       <x:c r="A909" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B909" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C909" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D909" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E909" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F909" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G909" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H909" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I909" s="0" t="n">
         <x:v>0</x:v>
@@ -27088,22 +27088,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C910" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D910" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E910" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F910" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G910" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H910" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I910" s="0" t="n">
         <x:v>0</x:v>
@@ -27114,25 +27114,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B911" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C911" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D911" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E911" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F911" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G911" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H911" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I911" s="0" t="n">
         <x:v>0</x:v>
@@ -27143,25 +27143,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B912" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C912" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D912" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E912" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F912" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G912" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H912" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I912" s="0" t="n">
         <x:v>0</x:v>
@@ -27175,19 +27175,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C913" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D913" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E913" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F913" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G913" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H913" s="1" t="n">
         <x:v>1</x:v>
@@ -27201,19 +27201,19 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B914" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C914" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D914" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E914" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F914" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G914" s="1" t="n">
         <x:v>1</x:v>
@@ -27230,25 +27230,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B915" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C915" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D915" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E915" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F915" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G915" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H915" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I915" s="0" t="n">
         <x:v>0</x:v>
@@ -27262,22 +27262,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C916" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D916" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E916" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F916" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G916" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H916" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I916" s="0" t="n">
         <x:v>0</x:v>
@@ -27288,25 +27288,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B917" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C917" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D917" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E917" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F917" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G917" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H917" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I917" s="0" t="n">
         <x:v>0</x:v>
@@ -27317,25 +27317,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B918" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C918" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D918" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E918" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F918" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G918" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H918" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I918" s="0" t="n">
         <x:v>0</x:v>
@@ -27346,22 +27346,22 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B919" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C919" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D919" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E919" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F919" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G919" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H919" s="1" t="n">
         <x:v>0</x:v>
@@ -27375,22 +27375,22 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B920" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C920" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D920" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E920" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F920" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G920" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H920" s="1" t="n">
         <x:v>0</x:v>
@@ -27404,19 +27404,19 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B921" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C921" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D921" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E921" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F921" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G921" s="1" t="n">
         <x:v>0</x:v>
@@ -27433,19 +27433,19 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B922" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C922" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D922" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E922" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F922" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G922" s="1" t="n">
         <x:v>0</x:v>
@@ -27459,13 +27459,13 @@
     </x:row>
     <x:row r="923" spans="1:9">
       <x:c r="A923" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B923" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C923" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D923" s="1" t="n">
         <x:v>0</x:v>
@@ -27488,13 +27488,13 @@
     </x:row>
     <x:row r="924" spans="1:9">
       <x:c r="A924" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B924" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C924" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D924" s="1" t="n">
         <x:v>0</x:v>
@@ -27503,7 +27503,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F924" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G924" s="1" t="n">
         <x:v>0</x:v>
@@ -27523,7 +27523,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C925" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D925" s="1" t="n">
         <x:v>0</x:v>
@@ -27532,7 +27532,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F925" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G925" s="1" t="n">
         <x:v>0</x:v>
@@ -27549,7 +27549,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="B926" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C926" s="1" t="s">
         <x:v>12</x:v>
@@ -27561,13 +27561,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F926" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G926" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H926" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I926" s="0" t="n">
         <x:v>0</x:v>
@@ -27578,7 +27578,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="B927" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C927" s="1" t="s">
         <x:v>13</x:v>
@@ -27590,13 +27590,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F927" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G927" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H927" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I927" s="0" t="n">
         <x:v>0</x:v>
@@ -27604,10 +27604,10 @@
     </x:row>
     <x:row r="928" spans="1:9">
       <x:c r="A928" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B928" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C928" s="1" t="s">
         <x:v>12</x:v>
@@ -27625,7 +27625,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H928" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I928" s="0" t="n">
         <x:v>0</x:v>
@@ -27633,10 +27633,10 @@
     </x:row>
     <x:row r="929" spans="1:9">
       <x:c r="A929" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B929" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C929" s="1" t="s">
         <x:v>13</x:v>
@@ -27654,7 +27654,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H929" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I929" s="0" t="n">
         <x:v>0</x:v>
@@ -27665,7 +27665,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B930" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C930" s="1" t="s">
         <x:v>12</x:v>
@@ -27674,13 +27674,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E930" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F930" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G930" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H930" s="1" t="n">
         <x:v>0</x:v>
@@ -27694,7 +27694,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B931" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C931" s="1" t="s">
         <x:v>13</x:v>
@@ -27703,13 +27703,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E931" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F931" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G931" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H931" s="1" t="n">
         <x:v>0</x:v>
@@ -27720,28 +27720,28 @@
     </x:row>
     <x:row r="932" spans="1:9">
       <x:c r="A932" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B932" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C932" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D932" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E932" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F932" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G932" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H932" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I932" s="0" t="n">
         <x:v>0</x:v>
@@ -27749,28 +27749,28 @@
     </x:row>
     <x:row r="933" spans="1:9">
       <x:c r="A933" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B933" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C933" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D933" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E933" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F933" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G933" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H933" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I933" s="0" t="n">
         <x:v>0</x:v>
@@ -27784,7 +27784,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C934" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D934" s="1" t="n">
         <x:v>0</x:v>
@@ -27796,10 +27796,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G934" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H934" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I934" s="0" t="n">
         <x:v>0</x:v>
@@ -27810,25 +27810,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B935" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C935" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D935" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E935" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F935" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G935" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H935" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I935" s="0" t="n">
         <x:v>0</x:v>
@@ -27839,25 +27839,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B936" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C936" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D936" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E936" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F936" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G936" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H936" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I936" s="0" t="n">
         <x:v>0</x:v>
@@ -27871,7 +27871,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C937" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D937" s="1" t="n">
         <x:v>3</x:v>
@@ -27883,10 +27883,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G937" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H937" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I937" s="0" t="n">
         <x:v>0</x:v>
@@ -27897,10 +27897,10 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B938" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C938" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D938" s="1" t="n">
         <x:v>0</x:v>
@@ -27909,13 +27909,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F938" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G938" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H938" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I938" s="0" t="n">
         <x:v>0</x:v>
@@ -27926,25 +27926,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B939" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C939" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D939" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E939" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F939" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G939" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H939" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I939" s="0" t="n">
         <x:v>0</x:v>
@@ -27958,22 +27958,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C940" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D940" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E940" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F940" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G940" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H940" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I940" s="0" t="n">
         <x:v>0</x:v>
@@ -27984,25 +27984,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B941" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C941" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D941" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E941" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F941" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G941" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H941" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I941" s="0" t="n">
         <x:v>0</x:v>
@@ -28013,7 +28013,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B942" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C942" s="1" t="s">
         <x:v>13</x:v>
@@ -28022,16 +28022,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E942" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F942" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G942" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H942" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I942" s="0" t="n">
         <x:v>0</x:v>
@@ -28042,19 +28042,19 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B943" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C943" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D943" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E943" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F943" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G943" s="1" t="n">
         <x:v>0</x:v>
@@ -28071,7 +28071,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B944" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C944" s="1" t="s">
         <x:v>13</x:v>
@@ -28080,10 +28080,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E944" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F944" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G944" s="1" t="n">
         <x:v>0</x:v>
@@ -28097,25 +28097,25 @@
     </x:row>
     <x:row r="945" spans="1:9">
       <x:c r="A945" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B945" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C945" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D945" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E945" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F945" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G945" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H945" s="1" t="n">
         <x:v>0</x:v>
@@ -28126,25 +28126,25 @@
     </x:row>
     <x:row r="946" spans="1:9">
       <x:c r="A946" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B946" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C946" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D946" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E946" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F946" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G946" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H946" s="1" t="n">
         <x:v>0</x:v>
@@ -28161,19 +28161,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C947" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D947" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E947" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F947" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G947" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H947" s="1" t="n">
         <x:v>0</x:v>
@@ -28187,22 +28187,22 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B948" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C948" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D948" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E948" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F948" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G948" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H948" s="1" t="n">
         <x:v>0</x:v>
@@ -28216,25 +28216,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B949" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C949" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D949" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E949" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F949" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G949" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H949" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I949" s="0" t="n">
         <x:v>0</x:v>
@@ -28248,10 +28248,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C950" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D950" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E950" s="1" t="n">
         <x:v>2</x:v>
@@ -28260,10 +28260,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G950" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H950" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I950" s="0" t="n">
         <x:v>0</x:v>
@@ -28274,25 +28274,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B951" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C951" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D951" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E951" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F951" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G951" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H951" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I951" s="0" t="n">
         <x:v>0</x:v>
@@ -28303,13 +28303,13 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B952" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C952" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D952" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E952" s="1" t="n">
         <x:v>2</x:v>
@@ -28318,7 +28318,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G952" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H952" s="1" t="n">
         <x:v>2</x:v>
@@ -28335,22 +28335,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C953" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D953" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E953" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F953" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G953" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H953" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I953" s="0" t="n">
         <x:v>0</x:v>
@@ -28361,22 +28361,22 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B954" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C954" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D954" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E954" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F954" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G954" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H954" s="1" t="n">
         <x:v>2</x:v>
@@ -28390,22 +28390,22 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B955" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C955" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D955" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E955" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F955" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G955" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H955" s="1" t="n">
         <x:v>2</x:v>
@@ -28419,16 +28419,16 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B956" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C956" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D956" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E956" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F956" s="1" t="n">
         <x:v>0</x:v>
@@ -28437,7 +28437,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H956" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I956" s="0" t="n">
         <x:v>0</x:v>
@@ -28448,16 +28448,16 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B957" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C957" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D957" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E957" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F957" s="1" t="n">
         <x:v>0</x:v>
@@ -28466,7 +28466,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H957" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I957" s="0" t="n">
         <x:v>0</x:v>
@@ -28474,25 +28474,25 @@
     </x:row>
     <x:row r="958" spans="1:9">
       <x:c r="A958" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B958" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C958" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D958" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E958" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F958" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G958" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H958" s="1" t="n">
         <x:v>1</x:v>
@@ -28503,25 +28503,25 @@
     </x:row>
     <x:row r="959" spans="1:9">
       <x:c r="A959" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B959" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C959" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D959" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E959" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F959" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G959" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H959" s="1" t="n">
         <x:v>1</x:v>
@@ -28538,22 +28538,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C960" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D960" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E960" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F960" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G960" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H960" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I960" s="0" t="n">
         <x:v>0</x:v>
@@ -28564,25 +28564,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B961" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C961" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D961" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E961" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F961" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G961" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H961" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I961" s="0" t="n">
         <x:v>0</x:v>
@@ -28593,25 +28593,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B962" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C962" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D962" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E962" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F962" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G962" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H962" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I962" s="0" t="n">
         <x:v>0</x:v>
@@ -28625,19 +28625,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C963" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D963" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E963" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F963" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G963" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H963" s="1" t="n">
         <x:v>0</x:v>
@@ -28651,22 +28651,22 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B964" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C964" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D964" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E964" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F964" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G964" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H964" s="1" t="n">
         <x:v>0</x:v>
@@ -28680,25 +28680,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B965" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C965" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D965" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E965" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F965" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G965" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H965" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I965" s="0" t="n">
         <x:v>0</x:v>
@@ -28712,7 +28712,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C966" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D966" s="1" t="n">
         <x:v>0</x:v>
@@ -28724,10 +28724,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G966" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H966" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I966" s="0" t="n">
         <x:v>0</x:v>
@@ -28738,7 +28738,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B967" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C967" s="1" t="s">
         <x:v>12</x:v>
@@ -28747,16 +28747,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E967" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F967" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G967" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H967" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I967" s="0" t="n">
         <x:v>0</x:v>
@@ -28767,7 +28767,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B968" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C968" s="1" t="s">
         <x:v>13</x:v>
@@ -28779,13 +28779,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F968" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G968" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H968" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I968" s="0" t="n">
         <x:v>0</x:v>
@@ -28796,16 +28796,16 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B969" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C969" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D969" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E969" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F969" s="1" t="n">
         <x:v>0</x:v>
@@ -28825,13 +28825,13 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B970" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C970" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D970" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E970" s="1" t="n">
         <x:v>1</x:v>
@@ -28857,13 +28857,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C971" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D971" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E971" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F971" s="1" t="n">
         <x:v>0</x:v>
@@ -28883,22 +28883,22 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B972" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C972" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D972" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E972" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F972" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G972" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H972" s="1" t="n">
         <x:v>0</x:v>
@@ -28912,22 +28912,22 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B973" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C973" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D973" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E973" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F973" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G973" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H973" s="1" t="n">
         <x:v>0</x:v>
@@ -28944,7 +28944,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C974" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D974" s="1" t="n">
         <x:v>0</x:v>
@@ -28956,7 +28956,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G974" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H974" s="1" t="n">
         <x:v>0</x:v>
@@ -28967,28 +28967,28 @@
     </x:row>
     <x:row r="975" spans="1:9">
       <x:c r="A975" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B975" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C975" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D975" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E975" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F975" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G975" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E975" s="1" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F975" s="1" t="n">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G975" s="1" t="n">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="H975" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I975" s="0" t="n">
         <x:v>0</x:v>
@@ -28996,28 +28996,28 @@
     </x:row>
     <x:row r="976" spans="1:9">
       <x:c r="A976" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B976" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C976" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D976" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E976" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F976" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G976" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H976" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I976" s="0" t="n">
         <x:v>0</x:v>
@@ -29031,22 +29031,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C977" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D977" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E977" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F977" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G977" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H977" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I977" s="0" t="n">
         <x:v>0</x:v>
@@ -29057,25 +29057,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B978" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C978" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D978" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E978" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F978" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G978" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H978" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I978" s="0" t="n">
         <x:v>0</x:v>
@@ -29086,25 +29086,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B979" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C979" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D979" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E979" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F979" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G979" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H979" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I979" s="0" t="n">
         <x:v>0</x:v>
@@ -29115,25 +29115,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B980" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C980" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D980" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E980" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F980" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G980" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H980" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I980" s="0" t="n">
         <x:v>0</x:v>
@@ -29144,25 +29144,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B981" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C981" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D981" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E981" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F981" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G981" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H981" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I981" s="0" t="n">
         <x:v>0</x:v>
@@ -29176,22 +29176,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C982" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D982" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E982" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F982" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G982" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H982" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I982" s="0" t="n">
         <x:v>0</x:v>
@@ -29202,25 +29202,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B983" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C983" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D983" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E983" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F983" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G983" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H983" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I983" s="0" t="n">
         <x:v>0</x:v>
@@ -29231,25 +29231,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B984" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C984" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D984" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E984" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F984" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G984" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H984" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I984" s="0" t="n">
         <x:v>0</x:v>
@@ -29263,22 +29263,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C985" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D985" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E985" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F985" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G985" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H985" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I985" s="0" t="n">
         <x:v>0</x:v>
@@ -29289,25 +29289,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B986" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C986" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D986" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E986" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F986" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G986" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H986" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I986" s="0" t="n">
         <x:v>0</x:v>
@@ -29318,25 +29318,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B987" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C987" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D987" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E987" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F987" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G987" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H987" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I987" s="0" t="n">
         <x:v>0</x:v>
@@ -29350,7 +29350,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C988" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D988" s="1" t="n">
         <x:v>0</x:v>
@@ -29365,7 +29365,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H988" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I988" s="0" t="n">
         <x:v>0</x:v>
@@ -29376,25 +29376,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B989" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C989" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D989" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E989" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F989" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G989" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H989" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I989" s="0" t="n">
         <x:v>0</x:v>
@@ -29405,25 +29405,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B990" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C990" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D990" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E990" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F990" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G990" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H990" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I990" s="0" t="n">
         <x:v>0</x:v>
@@ -29437,22 +29437,22 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C991" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D991" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E991" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F991" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G991" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H991" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I991" s="0" t="n">
         <x:v>0</x:v>
@@ -29463,25 +29463,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B992" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C992" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D992" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E992" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F992" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G992" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H992" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I992" s="0" t="n">
         <x:v>0</x:v>
@@ -29492,25 +29492,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B993" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C993" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D993" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E993" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F993" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="G993" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H993" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I993" s="0" t="n">
         <x:v>0</x:v>
@@ -29524,22 +29524,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C994" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D994" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E994" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F994" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G994" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H994" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I994" s="0" t="n">
         <x:v>0</x:v>
@@ -29547,28 +29547,28 @@
     </x:row>
     <x:row r="995" spans="1:9">
       <x:c r="A995" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B995" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C995" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D995" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E995" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F995" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G995" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H995" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I995" s="0" t="n">
         <x:v>0</x:v>
@@ -29576,28 +29576,28 @@
     </x:row>
     <x:row r="996" spans="1:9">
       <x:c r="A996" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B996" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C996" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D996" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E996" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F996" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G996" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H996" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I996" s="0" t="n">
         <x:v>0</x:v>
@@ -29611,22 +29611,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C997" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D997" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E997" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F997" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G997" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H997" s="1" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="H997" s="1" t="n">
-        <x:v>6</x:v>
       </x:c>
       <x:c r="I997" s="0" t="n">
         <x:v>0</x:v>
@@ -29637,25 +29637,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B998" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C998" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D998" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E998" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F998" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G998" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H998" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I998" s="0" t="n">
         <x:v>0</x:v>
@@ -29666,25 +29666,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B999" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C999" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D999" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E999" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F999" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G999" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H999" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I999" s="0" t="n">
         <x:v>0</x:v>
@@ -29695,19 +29695,19 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1000" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1000" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1000" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1000" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1000" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1000" s="1" t="n">
         <x:v>1</x:v>
@@ -29724,22 +29724,22 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1001" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1001" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1001" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1001" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1001" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1001" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1001" s="1" t="n">
         <x:v>1</x:v>
@@ -29756,22 +29756,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1002" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1002" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1002" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1002" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1002" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1002" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1002" s="0" t="n">
         <x:v>0</x:v>
@@ -29782,25 +29782,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1003" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1003" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1003" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1003" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1003" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1003" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1003" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1003" s="0" t="n">
         <x:v>0</x:v>
@@ -29811,25 +29811,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1004" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1004" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1004" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1004" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1004" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1004" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1004" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1004" s="0" t="n">
         <x:v>0</x:v>
@@ -29840,7 +29840,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1005" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1005" s="1" t="s">
         <x:v>12</x:v>
@@ -29849,10 +29849,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1005" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1005" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1005" s="1" t="n">
         <x:v>0</x:v>
@@ -29869,7 +29869,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1006" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1006" s="1" t="s">
         <x:v>13</x:v>
@@ -29878,10 +29878,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1006" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1006" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1006" s="1" t="n">
         <x:v>0</x:v>
@@ -29898,7 +29898,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1007" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1007" s="1" t="s">
         <x:v>12</x:v>
@@ -29913,7 +29913,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1007" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1007" s="1" t="n">
         <x:v>0</x:v>
@@ -29927,7 +29927,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1008" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1008" s="1" t="s">
         <x:v>13</x:v>
@@ -29942,7 +29942,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1008" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1008" s="1" t="n">
         <x:v>0</x:v>
@@ -29953,28 +29953,28 @@
     </x:row>
     <x:row r="1009" spans="1:9">
       <x:c r="A1009" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B1009" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1009" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1009" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1009" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1009" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1009" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1009" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1009" s="0" t="n">
         <x:v>0</x:v>
@@ -29982,28 +29982,28 @@
     </x:row>
     <x:row r="1010" spans="1:9">
       <x:c r="A1010" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B1010" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1010" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1010" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1010" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1010" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1010" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1010" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1010" s="0" t="n">
         <x:v>0</x:v>
@@ -30017,22 +30017,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1011" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1011" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1011" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1011" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1011" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1011" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1011" s="0" t="n">
         <x:v>0</x:v>
@@ -30043,25 +30043,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1012" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1012" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1012" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1012" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1012" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1012" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1012" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1012" s="0" t="n">
         <x:v>0</x:v>
@@ -30072,25 +30072,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1013" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1013" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1013" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1013" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1013" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1013" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1013" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1013" s="0" t="n">
         <x:v>0</x:v>
@@ -30104,7 +30104,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1014" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1014" s="1" t="n">
         <x:v>0</x:v>
@@ -30113,10 +30113,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1014" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1014" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1014" s="1" t="n">
         <x:v>1</x:v>
@@ -30130,10 +30130,10 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1015" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1015" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1015" s="1" t="n">
         <x:v>0</x:v>
@@ -30142,7 +30142,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1015" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1015" s="1" t="n">
         <x:v>1</x:v>
@@ -30159,22 +30159,22 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1016" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1016" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1016" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1016" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1016" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1016" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1016" s="1" t="n">
         <x:v>1</x:v>
@@ -30191,22 +30191,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1017" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1017" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1017" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1017" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1017" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1017" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1017" s="0" t="n">
         <x:v>0</x:v>
@@ -30217,22 +30217,22 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1018" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1018" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1018" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1018" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1018" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1018" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1018" s="1" t="n">
         <x:v>1</x:v>
@@ -30246,22 +30246,22 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1019" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1019" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1019" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1019" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1019" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1019" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1019" s="1" t="n">
         <x:v>1</x:v>
@@ -30278,22 +30278,22 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1020" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1020" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1020" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1020" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1020" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1020" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1020" s="0" t="n">
         <x:v>0</x:v>
@@ -30301,28 +30301,28 @@
     </x:row>
     <x:row r="1021" spans="1:9">
       <x:c r="A1021" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B1021" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1021" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1021" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E1021" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F1021" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1021" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H1021" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1021" s="0" t="n">
         <x:v>0</x:v>
@@ -30330,28 +30330,28 @@
     </x:row>
     <x:row r="1022" spans="1:9">
       <x:c r="A1022" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B1022" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1022" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1022" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1022" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F1022" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1022" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1022" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1022" s="0" t="n">
         <x:v>0</x:v>
@@ -30365,22 +30365,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1023" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1023" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1023" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1023" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1023" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1023" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1023" s="0" t="n">
         <x:v>0</x:v>
@@ -30391,25 +30391,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1024" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1024" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1024" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1024" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F1024" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G1024" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H1024" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I1024" s="0" t="n">
         <x:v>0</x:v>
@@ -30420,25 +30420,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1025" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1025" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1025" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1025" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1025" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G1025" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H1025" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I1025" s="0" t="n">
         <x:v>0</x:v>
@@ -30452,16 +30452,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1026" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1026" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1026" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1026" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1026" s="1" t="n">
         <x:v>0</x:v>
@@ -30478,25 +30478,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1027" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1027" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1027" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1027" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1027" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1027" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1027" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1027" s="0" t="n">
         <x:v>0</x:v>
@@ -30507,25 +30507,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1028" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1028" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1028" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1028" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1028" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1028" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1028" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1028" s="0" t="n">
         <x:v>0</x:v>
@@ -30539,22 +30539,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1029" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1029" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1029" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F1029" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1029" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1029" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1029" s="0" t="n">
         <x:v>0</x:v>
@@ -30565,25 +30565,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1030" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1030" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1030" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1030" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F1030" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G1030" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H1030" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I1030" s="0" t="n">
         <x:v>0</x:v>
@@ -30594,25 +30594,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1031" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1031" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1031" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1031" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F1031" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G1031" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H1031" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I1031" s="0" t="n">
         <x:v>0</x:v>
@@ -30626,13 +30626,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1032" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1032" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1032" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1032" s="1" t="n">
         <x:v>0</x:v>
@@ -30641,7 +30641,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1032" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1032" s="0" t="n">
         <x:v>0</x:v>
@@ -30652,22 +30652,22 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1033" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1033" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1033" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1033" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F1033" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1033" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1033" s="1" t="n">
         <x:v>1</x:v>
@@ -30681,25 +30681,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1034" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1034" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1034" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1034" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F1034" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1034" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1034" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1034" s="0" t="n">
         <x:v>0</x:v>
@@ -30713,22 +30713,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1035" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1035" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1035" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1035" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1035" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1035" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1035" s="0" t="n">
         <x:v>0</x:v>
@@ -30736,28 +30736,28 @@
     </x:row>
     <x:row r="1036" spans="1:9">
       <x:c r="A1036" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B1036" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C1036" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D1036" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1036" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1036" s="1" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G1036" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H1036" s="1" t="n">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="C1036" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D1036" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E1036" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F1036" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G1036" s="1" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="H1036" s="1" t="n">
-        <x:v>1</x:v>
       </x:c>
       <x:c r="I1036" s="0" t="n">
         <x:v>0</x:v>
@@ -30765,25 +30765,25 @@
     </x:row>
     <x:row r="1037" spans="1:9">
       <x:c r="A1037" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B1037" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1037" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1037" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1037" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1037" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G1037" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1037" s="1" t="n">
         <x:v>11</x:v>
@@ -30800,22 +30800,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1038" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1038" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1038" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1038" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1038" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H1038" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1038" s="0" t="n">
         <x:v>0</x:v>
@@ -30826,25 +30826,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1039" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1039" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1039" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E1039" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F1039" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G1039" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H1039" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I1039" s="0" t="n">
         <x:v>0</x:v>
@@ -30855,25 +30855,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1040" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1040" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1040" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E1040" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F1040" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G1040" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H1040" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I1040" s="0" t="n">
         <x:v>0</x:v>
@@ -30887,22 +30887,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1041" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1041" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1041" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1041" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1041" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1041" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1041" s="0" t="n">
         <x:v>0</x:v>
@@ -30913,25 +30913,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1042" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1042" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1042" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E1042" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1042" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1042" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H1042" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1042" s="0" t="n">
         <x:v>0</x:v>
@@ -30942,25 +30942,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1043" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1043" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1043" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E1043" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1043" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G1043" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H1043" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1043" s="0" t="n">
         <x:v>0</x:v>
@@ -30974,22 +30974,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1044" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1044" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1044" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1044" s="1" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G1044" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="F1044" s="1" t="n">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="G1044" s="1" t="n">
-        <x:v>56</x:v>
-      </x:c>
       <x:c r="H1044" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I1044" s="0" t="n">
         <x:v>0</x:v>
@@ -31000,7 +31000,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1045" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1045" s="1" t="s">
         <x:v>12</x:v>
@@ -31009,16 +31009,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1045" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F1045" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G1045" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H1045" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I1045" s="0" t="n">
         <x:v>0</x:v>
@@ -31029,25 +31029,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1046" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1046" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1046" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1046" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F1046" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G1046" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H1046" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I1046" s="0" t="n">
         <x:v>0</x:v>
@@ -31058,22 +31058,22 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1047" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1047" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1047" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1047" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1047" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1047" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1047" s="1" t="n">
         <x:v>0</x:v>
@@ -31087,25 +31087,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1048" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1048" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1048" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1048" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1048" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1048" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1048" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1048" s="0" t="n">
         <x:v>0</x:v>
@@ -31119,22 +31119,22 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1049" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1049" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E1049" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F1049" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1049" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H1049" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1049" s="0" t="n">
         <x:v>0</x:v>
@@ -31145,19 +31145,19 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1050" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1050" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1050" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E1050" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F1050" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1050" s="1" t="n">
         <x:v>0</x:v>
@@ -31174,22 +31174,22 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1051" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1051" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1051" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E1051" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F1051" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1051" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1051" s="1" t="n">
         <x:v>1</x:v>
@@ -31206,22 +31206,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1052" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1052" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1052" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1052" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1052" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1052" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1052" s="0" t="n">
         <x:v>0</x:v>
@@ -31229,25 +31229,25 @@
     </x:row>
     <x:row r="1053" spans="1:9">
       <x:c r="A1053" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B1053" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1053" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1053" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1053" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1053" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1053" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1053" s="1" t="n">
         <x:v>1</x:v>
@@ -31258,28 +31258,28 @@
     </x:row>
     <x:row r="1054" spans="1:9">
       <x:c r="A1054" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B1054" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1054" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1054" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1054" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1054" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1054" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1054" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1054" s="0" t="n">
         <x:v>0</x:v>
@@ -31293,7 +31293,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1055" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1055" s="1" t="n">
         <x:v>0</x:v>
@@ -31302,13 +31302,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1055" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1055" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1055" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1055" s="0" t="n">
         <x:v>0</x:v>
@@ -31319,7 +31319,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1056" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1056" s="1" t="s">
         <x:v>12</x:v>
@@ -31331,13 +31331,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1056" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1056" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1056" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1056" s="0" t="n">
         <x:v>0</x:v>
@@ -31348,7 +31348,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1057" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1057" s="1" t="s">
         <x:v>13</x:v>
@@ -31360,13 +31360,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1057" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1057" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1057" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1057" s="0" t="n">
         <x:v>0</x:v>
@@ -31377,10 +31377,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1058" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1058" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1058" s="1" t="n">
         <x:v>0</x:v>
@@ -31392,7 +31392,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1058" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1058" s="1" t="n">
         <x:v>0</x:v>
@@ -31406,25 +31406,25 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1059" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1059" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1059" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1059" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1059" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1059" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1059" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1059" s="0" t="n">
         <x:v>0</x:v>
@@ -31438,22 +31438,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1060" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1060" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1060" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1060" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1060" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1060" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1060" s="0" t="n">
         <x:v>0</x:v>
@@ -31464,25 +31464,25 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1061" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1061" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1061" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1061" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1061" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1061" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1061" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1061" s="0" t="n">
         <x:v>0</x:v>
@@ -31493,25 +31493,25 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1062" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1062" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1062" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1062" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1062" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1062" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1062" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1062" s="0" t="n">
         <x:v>0</x:v>
@@ -31525,10 +31525,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1063" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1063" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1063" s="1" t="n">
         <x:v>1</x:v>
@@ -31543,6 +31543,64 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I1063" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1064" spans="1:9">
+      <x:c r="A1064" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B1064" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C1064" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D1064" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1064" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1064" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G1064" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H1064" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1064" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1065" spans="1:9">
+      <x:c r="A1065" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B1065" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C1065" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1065" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1065" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1065" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G1065" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H1065" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1065" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -3317,7 +3317,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F90" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G90" s="1" t="n">
         <x:v>20</x:v>
@@ -3346,7 +3346,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F91" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G91" s="1" t="n">
         <x:v>26</x:v>
@@ -7464,7 +7464,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="F233" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G233" s="1" t="n">
         <x:v>90</x:v>
@@ -7493,7 +7493,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="F234" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G234" s="1" t="n">
         <x:v>126</x:v>
@@ -8369,7 +8369,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H264" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I264" s="0" t="n">
         <x:v>0</x:v>
@@ -8398,7 +8398,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H265" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I265" s="0" t="n">
         <x:v>0</x:v>
@@ -10158,13 +10158,13 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E326" s="1" t="n">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="F326" s="1" t="n">
-        <x:v>576</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="G326" s="1" t="n">
-        <x:v>509</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="H326" s="1" t="n">
         <x:v>178</x:v>
@@ -10187,13 +10187,13 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E327" s="1" t="n">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="F327" s="1" t="n">
-        <x:v>743</x:v>
+        <x:v>742</x:v>
       </x:c>
       <x:c r="G327" s="1" t="n">
-        <x:v>653</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="H327" s="1" t="n">
         <x:v>226</x:v>
@@ -10341,7 +10341,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="H332" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I332" s="0" t="n">
         <x:v>0</x:v>
@@ -10370,7 +10370,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="H333" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I333" s="0" t="n">
         <x:v>0</x:v>
@@ -10393,7 +10393,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F334" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G334" s="1" t="n">
         <x:v>96</x:v>
@@ -10451,7 +10451,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="F336" s="1" t="n">
-        <x:v>394</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="G336" s="1" t="n">
         <x:v>372</x:v>
@@ -10480,7 +10480,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F337" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G337" s="1" t="n">
         <x:v>2</x:v>
@@ -10538,7 +10538,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F339" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G339" s="1" t="n">
         <x:v>3</x:v>
@@ -10683,7 +10683,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="F344" s="1" t="n">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G344" s="1" t="n">
         <x:v>202</x:v>
@@ -10712,7 +10712,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="F345" s="1" t="n">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="G345" s="1" t="n">
         <x:v>267</x:v>
@@ -21497,7 +21497,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E717" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F717" s="1" t="n">
         <x:v>48</x:v>
@@ -21555,7 +21555,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E719" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F719" s="1" t="n">
         <x:v>175</x:v>
@@ -25679,7 +25679,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="G861" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H861" s="1" t="n">
         <x:v>38</x:v>
@@ -25708,7 +25708,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="G862" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H862" s="1" t="n">
         <x:v>47</x:v>
@@ -26813,7 +26813,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H900" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I900" s="0" t="n">
         <x:v>0</x:v>
@@ -26842,7 +26842,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H901" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I901" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -8009,10 +8009,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D252" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E252" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F252" s="1" t="n">
         <x:v>2</x:v>
@@ -8038,10 +8038,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D253" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E253" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F253" s="1" t="n">
         <x:v>11</x:v>
@@ -8067,10 +8067,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D254" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E254" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F254" s="1" t="n">
         <x:v>13</x:v>
@@ -9436,7 +9436,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F301" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G301" s="1" t="n">
         <x:v>24</x:v>
@@ -9465,7 +9465,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F302" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G302" s="1" t="n">
         <x:v>32</x:v>
@@ -10129,13 +10129,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E325" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F325" s="1" t="n">
         <x:v>167</x:v>
       </x:c>
       <x:c r="G325" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="H325" s="1" t="n">
         <x:v>48</x:v>
@@ -10187,13 +10187,13 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E327" s="1" t="n">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="F327" s="1" t="n">
         <x:v>742</x:v>
       </x:c>
       <x:c r="G327" s="1" t="n">
-        <x:v>654</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="H327" s="1" t="n">
         <x:v>226</x:v>
@@ -10329,7 +10329,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D332" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E332" s="1" t="n">
         <x:v>34</x:v>
@@ -10358,7 +10358,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D333" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E333" s="1" t="n">
         <x:v>44</x:v>
@@ -10425,7 +10425,7 @@
         <x:v>284</x:v>
       </x:c>
       <x:c r="G335" s="1" t="n">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="H335" s="1" t="n">
         <x:v>144</x:v>
@@ -10454,7 +10454,7 @@
         <x:v>395</x:v>
       </x:c>
       <x:c r="G336" s="1" t="n">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="H336" s="1" t="n">
         <x:v>209</x:v>
@@ -15059,7 +15059,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E495" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F495" s="1" t="n">
         <x:v>2</x:v>
@@ -15088,7 +15088,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E496" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F496" s="1" t="n">
         <x:v>2</x:v>
@@ -15465,7 +15465,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E509" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F509" s="1" t="n">
         <x:v>17</x:v>
@@ -15494,7 +15494,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E510" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F510" s="1" t="n">
         <x:v>18</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -3143,10 +3143,10 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="F84" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G84" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H84" s="1" t="n">
         <x:v>35</x:v>
@@ -3172,10 +3172,10 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="F85" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G85" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="H85" s="1" t="n">
         <x:v>50</x:v>
@@ -3459,7 +3459,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E95" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F95" s="1" t="n">
         <x:v>0</x:v>
@@ -3517,7 +3517,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E97" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F97" s="1" t="n">
         <x:v>3</x:v>
@@ -9671,7 +9671,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G309" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H309" s="1" t="n">
         <x:v>2</x:v>
@@ -9729,7 +9729,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G311" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H311" s="1" t="n">
         <x:v>13</x:v>
@@ -29066,7 +29066,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E978" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F978" s="1" t="n">
         <x:v>22</x:v>
@@ -29124,7 +29124,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E980" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F980" s="1" t="n">
         <x:v>73</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -7467,7 +7467,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="G233" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H233" s="1" t="n">
         <x:v>33</x:v>
@@ -7496,7 +7496,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="G234" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="H234" s="1" t="n">
         <x:v>41</x:v>
@@ -10132,7 +10132,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="F325" s="1" t="n">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G325" s="1" t="n">
         <x:v>145</x:v>
@@ -10161,7 +10161,7 @@
         <x:v>316</x:v>
       </x:c>
       <x:c r="F326" s="1" t="n">
-        <x:v>575</x:v>
+        <x:v>576</x:v>
       </x:c>
       <x:c r="G326" s="1" t="n">
         <x:v>510</x:v>
@@ -10190,7 +10190,7 @@
         <x:v>435</x:v>
       </x:c>
       <x:c r="F327" s="1" t="n">
-        <x:v>742</x:v>
+        <x:v>744</x:v>
       </x:c>
       <x:c r="G327" s="1" t="n">
         <x:v>655</x:v>
@@ -10216,7 +10216,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E328" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F328" s="1" t="n">
         <x:v>1</x:v>
@@ -10274,7 +10274,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E330" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F330" s="1" t="n">
         <x:v>9</x:v>
@@ -10335,7 +10335,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F332" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G332" s="1" t="n">
         <x:v>60</x:v>
@@ -10364,7 +10364,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="F333" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G333" s="1" t="n">
         <x:v>87</x:v>
@@ -10422,7 +10422,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="F335" s="1" t="n">
-        <x:v>284</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="G335" s="1" t="n">
         <x:v>277</x:v>
@@ -10451,7 +10451,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="F336" s="1" t="n">
-        <x:v>395</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="G336" s="1" t="n">
         <x:v>373</x:v>
@@ -10686,7 +10686,7 @@
         <x:v>210</x:v>
       </x:c>
       <x:c r="G344" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="H344" s="1" t="n">
         <x:v>89</x:v>
@@ -10715,7 +10715,7 @@
         <x:v>274</x:v>
       </x:c>
       <x:c r="G345" s="1" t="n">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="H345" s="1" t="n">
         <x:v>112</x:v>
@@ -13699,7 +13699,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F448" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G448" s="1" t="n">
         <x:v>0</x:v>
@@ -13757,7 +13757,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F450" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G450" s="1" t="n">
         <x:v>3</x:v>
@@ -21271,7 +21271,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="G709" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H709" s="1" t="n">
         <x:v>44</x:v>
@@ -21329,7 +21329,7 @@
         <x:v>572</x:v>
       </x:c>
       <x:c r="G711" s="1" t="n">
-        <x:v>726</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="H711" s="1" t="n">
         <x:v>638</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1116,7 +1116,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>53</x:v>
@@ -1145,7 +1145,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>64</x:v>
@@ -1725,7 +1725,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H35" s="1" t="n">
         <x:v>10</x:v>
@@ -1754,7 +1754,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G36" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
         <x:v>13</x:v>
@@ -7690,19 +7690,19 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D241" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E241" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F241" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G241" s="1" t="n">
         <x:v>115</x:v>
       </x:c>
       <x:c r="H241" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I241" s="0" t="n">
         <x:v>0</x:v>
@@ -7719,19 +7719,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D242" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E242" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F242" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G242" s="1" t="n">
         <x:v>157</x:v>
       </x:c>
       <x:c r="H242" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I242" s="0" t="n">
         <x:v>0</x:v>
@@ -7847,7 +7847,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H246" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I246" s="0" t="n">
         <x:v>0</x:v>
@@ -7876,7 +7876,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="H247" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I247" s="0" t="n">
         <x:v>0</x:v>
@@ -7928,10 +7928,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F249" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G249" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H249" s="1" t="n">
         <x:v>56</x:v>
@@ -7957,10 +7957,10 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="F250" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G250" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="H250" s="1" t="n">
         <x:v>81</x:v>
@@ -8772,7 +8772,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G278" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H278" s="1" t="n">
         <x:v>12</x:v>
@@ -8801,7 +8801,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="G279" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H279" s="1" t="n">
         <x:v>16</x:v>
@@ -10071,7 +10071,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E323" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F323" s="1" t="n">
         <x:v>13</x:v>
@@ -10100,7 +10100,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E324" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F324" s="1" t="n">
         <x:v>16</x:v>
@@ -10512,7 +10512,7 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="G338" s="1" t="n">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="H338" s="1" t="n">
         <x:v>56</x:v>
@@ -10544,7 +10544,7 @@
         <x:v>575</x:v>
       </x:c>
       <x:c r="H339" s="1" t="n">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="I339" s="0" t="n">
         <x:v>0</x:v>
@@ -10570,10 +10570,10 @@
         <x:v>878</x:v>
       </x:c>
       <x:c r="G340" s="1" t="n">
-        <x:v>751</x:v>
+        <x:v>752</x:v>
       </x:c>
       <x:c r="H340" s="1" t="n">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="I340" s="0" t="n">
         <x:v>0</x:v>
@@ -10712,7 +10712,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F345" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G345" s="1" t="n">
         <x:v>74</x:v>
@@ -10741,7 +10741,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F346" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G346" s="1" t="n">
         <x:v>105</x:v>
@@ -10776,7 +10776,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="H347" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I347" s="0" t="n">
         <x:v>0</x:v>
@@ -10796,7 +10796,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E348" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F348" s="1" t="n">
         <x:v>339</x:v>
@@ -10825,7 +10825,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E349" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="F349" s="1" t="n">
         <x:v>475</x:v>
@@ -10834,7 +10834,7 @@
         <x:v>446</x:v>
       </x:c>
       <x:c r="H349" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="I349" s="0" t="n">
         <x:v>0</x:v>
@@ -11031,10 +11031,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F356" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G356" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H356" s="1" t="n">
         <x:v>29</x:v>
@@ -11057,7 +11057,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E357" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F357" s="1" t="n">
         <x:v>232</x:v>
@@ -11086,13 +11086,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E358" s="1" t="n">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="F358" s="1" t="n">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="G358" s="1" t="n">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="H358" s="1" t="n">
         <x:v>128</x:v>
@@ -13058,7 +13058,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E426" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F426" s="1" t="n">
         <x:v>8</x:v>
@@ -13087,7 +13087,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E427" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F427" s="1" t="n">
         <x:v>10</x:v>
@@ -13116,7 +13116,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E428" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F428" s="1" t="n">
         <x:v>0</x:v>
@@ -13145,7 +13145,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E429" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F429" s="1" t="n">
         <x:v>0</x:v>
@@ -13174,7 +13174,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E430" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F430" s="1" t="n">
         <x:v>0</x:v>
@@ -16744,7 +16744,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F553" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G553" s="1" t="n">
         <x:v>18</x:v>
@@ -16773,7 +16773,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F554" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G554" s="1" t="n">
         <x:v>30</x:v>
@@ -19818,7 +19818,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F659" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G659" s="1" t="n">
         <x:v>4</x:v>
@@ -19876,7 +19876,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F661" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G661" s="1" t="n">
         <x:v>20</x:v>
@@ -22344,7 +22344,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="G746" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="H746" s="1" t="n">
         <x:v>66</x:v>
@@ -22373,7 +22373,7 @@
         <x:v>215</x:v>
       </x:c>
       <x:c r="G747" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="H747" s="1" t="n">
         <x:v>87</x:v>
@@ -22857,7 +22857,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D764" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E764" s="1" t="n">
         <x:v>4</x:v>
@@ -22886,7 +22886,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D765" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E765" s="1" t="n">
         <x:v>6</x:v>
@@ -23127,7 +23127,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G773" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H773" s="1" t="n">
         <x:v>1</x:v>
@@ -23156,7 +23156,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G774" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H774" s="1" t="n">
         <x:v>1</x:v>
@@ -23681,7 +23681,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H792" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I792" s="0" t="n">
         <x:v>0</x:v>
@@ -23739,7 +23739,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H794" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I794" s="0" t="n">
         <x:v>0</x:v>
@@ -24516,10 +24516,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F821" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G821" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H821" s="1" t="n">
         <x:v>28</x:v>
@@ -24545,10 +24545,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F822" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G822" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H822" s="1" t="n">
         <x:v>33</x:v>
@@ -24693,7 +24693,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G827" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H827" s="1" t="n">
         <x:v>9</x:v>
@@ -24722,7 +24722,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G828" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H828" s="1" t="n">
         <x:v>9</x:v>
@@ -24751,10 +24751,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="G829" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H829" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I829" s="0" t="n">
         <x:v>0</x:v>
@@ -24809,10 +24809,10 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="G831" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H831" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I831" s="0" t="n">
         <x:v>0</x:v>
@@ -25035,7 +25035,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E839" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F839" s="1" t="n">
         <x:v>19</x:v>
@@ -25064,7 +25064,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E840" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F840" s="1" t="n">
         <x:v>27</x:v>
@@ -25119,7 +25119,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D842" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E842" s="1" t="n">
         <x:v>8</x:v>
@@ -25148,7 +25148,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D843" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E843" s="1" t="n">
         <x:v>9</x:v>
@@ -25360,7 +25360,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G850" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H850" s="1" t="n">
         <x:v>14</x:v>
@@ -25389,7 +25389,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H851" s="1" t="n">
         <x:v>20</x:v>
@@ -25441,7 +25441,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E853" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
         <x:v>2</x:v>
@@ -25470,7 +25470,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E854" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F854" s="1" t="n">
         <x:v>2</x:v>
@@ -25505,7 +25505,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G855" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H855" s="1" t="n">
         <x:v>1</x:v>
@@ -25534,7 +25534,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G856" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H856" s="1" t="n">
         <x:v>1</x:v>
@@ -25908,7 +25908,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F869" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G869" s="1" t="n">
         <x:v>92</x:v>
@@ -25937,7 +25937,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="F870" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G870" s="1" t="n">
         <x:v>123</x:v>
@@ -26407,7 +26407,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="H886" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I886" s="0" t="n">
         <x:v>0</x:v>
@@ -26436,7 +26436,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="H887" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I887" s="0" t="n">
         <x:v>0</x:v>
@@ -30313,13 +30313,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E1021" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1021" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="G1021" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1021" s="1" t="n">
         <x:v>2</x:v>
@@ -30371,13 +30371,13 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E1023" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F1023" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="G1023" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H1023" s="1" t="n">
         <x:v>13</x:v>
@@ -31363,7 +31363,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G1057" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1057" s="1" t="n">
         <x:v>2</x:v>
@@ -31392,7 +31392,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G1058" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1058" s="1" t="n">
         <x:v>3</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1113,10 +1113,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>53</x:v>
@@ -1142,10 +1142,10 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>64</x:v>
@@ -1371,10 +1371,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>146</x:v>
@@ -1400,10 +1400,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>199</x:v>
@@ -7812,7 +7812,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F245" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G245" s="1" t="n">
         <x:v>16</x:v>
@@ -7844,7 +7844,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G246" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H246" s="1" t="n">
         <x:v>12</x:v>
@@ -7870,10 +7870,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F247" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G247" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H247" s="1" t="n">
         <x:v>19</x:v>
@@ -10512,10 +10512,10 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="G338" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="H338" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I338" s="0" t="n">
         <x:v>0</x:v>
@@ -10535,13 +10535,13 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E339" s="1" t="n">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="F339" s="1" t="n">
         <x:v>683</x:v>
       </x:c>
       <x:c r="G339" s="1" t="n">
-        <x:v>575</x:v>
+        <x:v>576</x:v>
       </x:c>
       <x:c r="H339" s="1" t="n">
         <x:v>233</x:v>
@@ -10564,16 +10564,16 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E340" s="1" t="n">
-        <x:v>496</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="F340" s="1" t="n">
         <x:v>878</x:v>
       </x:c>
       <x:c r="G340" s="1" t="n">
-        <x:v>752</x:v>
+        <x:v>754</x:v>
       </x:c>
       <x:c r="H340" s="1" t="n">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="I340" s="0" t="n">
         <x:v>0</x:v>
@@ -10776,7 +10776,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="H347" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I347" s="0" t="n">
         <x:v>0</x:v>
@@ -10799,7 +10799,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="F348" s="1" t="n">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="G348" s="1" t="n">
         <x:v>328</x:v>
@@ -10828,13 +10828,13 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="F349" s="1" t="n">
-        <x:v>475</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="G349" s="1" t="n">
         <x:v>446</x:v>
       </x:c>
       <x:c r="H349" s="1" t="n">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="I349" s="0" t="n">
         <x:v>0</x:v>
@@ -10944,7 +10944,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F353" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G353" s="1" t="n">
         <x:v>5</x:v>
@@ -11002,7 +11002,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="F355" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G355" s="1" t="n">
         <x:v>32</x:v>
@@ -11031,7 +11031,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F356" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G356" s="1" t="n">
         <x:v>74</x:v>
@@ -11060,10 +11060,10 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="F357" s="1" t="n">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="G357" s="1" t="n">
-        <x:v>233</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="H357" s="1" t="n">
         <x:v>99</x:v>
@@ -11089,10 +11089,10 @@
         <x:v>188</x:v>
       </x:c>
       <x:c r="F358" s="1" t="n">
-        <x:v>306</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="G358" s="1" t="n">
-        <x:v>307</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="H358" s="1" t="n">
         <x:v>128</x:v>
@@ -11530,7 +11530,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="H373" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I373" s="0" t="n">
         <x:v>0</x:v>
@@ -11559,7 +11559,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="H374" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I374" s="0" t="n">
         <x:v>0</x:v>
@@ -11672,7 +11672,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G378" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H378" s="1" t="n">
         <x:v>7</x:v>
@@ -11730,7 +11730,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G380" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H380" s="1" t="n">
         <x:v>18</x:v>
@@ -23391,7 +23391,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H782" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I782" s="0" t="n">
         <x:v>0</x:v>
@@ -23420,7 +23420,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H783" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I783" s="0" t="n">
         <x:v>0</x:v>
@@ -24948,7 +24948,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E836" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F836" s="1" t="n">
         <x:v>3</x:v>
@@ -24977,7 +24977,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E837" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F837" s="1" t="n">
         <x:v>3</x:v>
@@ -25409,10 +25409,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D852" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E852" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
         <x:v>0</x:v>
@@ -25438,10 +25438,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D853" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E853" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
         <x:v>2</x:v>
@@ -25467,10 +25467,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D854" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E854" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F854" s="1" t="n">
         <x:v>2</x:v>
@@ -26027,7 +26027,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
         <x:v>5</x:v>
@@ -26085,7 +26085,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="G875" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H875" s="1" t="n">
         <x:v>22</x:v>
@@ -26987,7 +26987,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H906" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I906" s="0" t="n">
         <x:v>0</x:v>
@@ -27045,7 +27045,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H908" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I908" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1110,7 +1110,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>86</x:v>
@@ -1139,7 +1139,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>115</x:v>
@@ -3262,7 +3262,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="G88" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H88" s="1" t="n">
         <x:v>42</x:v>
@@ -3291,7 +3291,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="G89" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="H89" s="1" t="n">
         <x:v>59</x:v>
@@ -6939,7 +6939,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E215" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F215" s="1" t="n">
         <x:v>4</x:v>
@@ -6968,7 +6968,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E216" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F216" s="1" t="n">
         <x:v>6</x:v>
@@ -8244,13 +8244,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E260" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F260" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G260" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H260" s="1" t="n">
         <x:v>6</x:v>
@@ -8276,10 +8276,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F261" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G261" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H261" s="1" t="n">
         <x:v>7</x:v>
@@ -8302,13 +8302,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E262" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F262" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G262" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H262" s="1" t="n">
         <x:v>13</x:v>
@@ -8398,7 +8398,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H265" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I265" s="0" t="n">
         <x:v>0</x:v>
@@ -8456,7 +8456,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H267" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I267" s="0" t="n">
         <x:v>0</x:v>
@@ -9204,7 +9204,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F293" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G293" s="1" t="n">
         <x:v>1</x:v>
@@ -9233,7 +9233,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F294" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G294" s="1" t="n">
         <x:v>1</x:v>
@@ -10451,7 +10451,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F336" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G336" s="1" t="n">
         <x:v>1</x:v>
@@ -10480,7 +10480,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F337" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G337" s="1" t="n">
         <x:v>2</x:v>
@@ -10544,7 +10544,7 @@
         <x:v>576</x:v>
       </x:c>
       <x:c r="H339" s="1" t="n">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="I339" s="0" t="n">
         <x:v>0</x:v>
@@ -10573,7 +10573,7 @@
         <x:v>754</x:v>
       </x:c>
       <x:c r="H340" s="1" t="n">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="I340" s="0" t="n">
         <x:v>0</x:v>
@@ -10593,7 +10593,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E341" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F341" s="1" t="n">
         <x:v>2</x:v>
@@ -10619,13 +10619,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D342" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E342" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="F342" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G342" s="1" t="n">
         <x:v>10</x:v>
@@ -10648,13 +10648,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D343" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E343" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F343" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G343" s="1" t="n">
         <x:v>12</x:v>
@@ -10677,7 +10677,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D344" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E344" s="1" t="n">
         <x:v>12</x:v>
@@ -10689,7 +10689,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="H344" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I344" s="0" t="n">
         <x:v>0</x:v>
@@ -10735,7 +10735,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D346" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E346" s="1" t="n">
         <x:v>48</x:v>
@@ -10747,7 +10747,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="H346" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I346" s="0" t="n">
         <x:v>0</x:v>
@@ -10796,10 +10796,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E348" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F348" s="1" t="n">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="G348" s="1" t="n">
         <x:v>328</x:v>
@@ -10825,10 +10825,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E349" s="1" t="n">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="F349" s="1" t="n">
-        <x:v>476</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="G349" s="1" t="n">
         <x:v>446</x:v>
@@ -10941,7 +10941,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E353" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F353" s="1" t="n">
         <x:v>8</x:v>
@@ -10976,7 +10976,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G354" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H354" s="1" t="n">
         <x:v>30</x:v>
@@ -10999,13 +10999,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E355" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F355" s="1" t="n">
         <x:v>35</x:v>
       </x:c>
       <x:c r="G355" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H355" s="1" t="n">
         <x:v>33</x:v>
@@ -11031,10 +11031,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F356" s="1" t="n">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G356" s="1" t="n">
         <x:v>75</x:v>
-      </x:c>
-      <x:c r="G356" s="1" t="n">
-        <x:v>74</x:v>
       </x:c>
       <x:c r="H356" s="1" t="n">
         <x:v>29</x:v>
@@ -11060,7 +11060,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="F357" s="1" t="n">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="G357" s="1" t="n">
         <x:v>236</x:v>
@@ -11089,10 +11089,10 @@
         <x:v>188</x:v>
       </x:c>
       <x:c r="F358" s="1" t="n">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="G358" s="1" t="n">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="H358" s="1" t="n">
         <x:v>128</x:v>
@@ -11875,7 +11875,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G385" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H385" s="1" t="n">
         <x:v>2</x:v>
@@ -11904,7 +11904,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G386" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H386" s="1" t="n">
         <x:v>2</x:v>
@@ -15935,7 +15935,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="G525" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H525" s="1" t="n">
         <x:v>14</x:v>
@@ -15964,7 +15964,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G526" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H526" s="1" t="n">
         <x:v>19</x:v>
@@ -15993,7 +15993,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G527" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H527" s="1" t="n">
         <x:v>0</x:v>
@@ -16022,7 +16022,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G528" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H528" s="1" t="n">
         <x:v>0</x:v>
@@ -16051,7 +16051,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G529" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H529" s="1" t="n">
         <x:v>0</x:v>
@@ -16112,7 +16112,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H531" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I531" s="0" t="n">
         <x:v>0</x:v>
@@ -16141,7 +16141,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H532" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I532" s="0" t="n">
         <x:v>0</x:v>
@@ -16222,10 +16222,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F535" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G535" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H535" s="1" t="n">
         <x:v>0</x:v>
@@ -16280,10 +16280,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F537" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G537" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H537" s="1" t="n">
         <x:v>0</x:v>
@@ -16341,7 +16341,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G539" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H539" s="1" t="n">
         <x:v>0</x:v>
@@ -16370,7 +16370,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G540" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H540" s="1" t="n">
         <x:v>0</x:v>
@@ -17321,7 +17321,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E573" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F573" s="1" t="n">
         <x:v>2</x:v>
@@ -17350,7 +17350,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E574" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F574" s="1" t="n">
         <x:v>2</x:v>
@@ -18574,7 +18574,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G616" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H616" s="1" t="n">
         <x:v>13</x:v>
@@ -18603,7 +18603,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G617" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H617" s="1" t="n">
         <x:v>15</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -709,7 +709,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I1106"/>
+  <x:dimension ref="A1:I1107"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3256,10 +3256,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E88" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F88" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G88" s="1" t="n">
         <x:v>108</x:v>
@@ -3285,10 +3285,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E89" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F89" s="1" t="n">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="G89" s="1" t="n">
         <x:v>154</x:v>
@@ -5553,7 +5553,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G167" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H167" s="1" t="n">
         <x:v>6</x:v>
@@ -5582,7 +5582,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G168" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H168" s="1" t="n">
         <x:v>8</x:v>
@@ -5631,7 +5631,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D170" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E170" s="1" t="n">
         <x:v>0</x:v>
@@ -5660,7 +5660,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D171" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E171" s="1" t="n">
         <x:v>0</x:v>
@@ -9787,7 +9787,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G313" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H313" s="1" t="n">
         <x:v>5</x:v>
@@ -9816,7 +9816,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G314" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H314" s="1" t="n">
         <x:v>14</x:v>
@@ -9845,7 +9845,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="G315" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H315" s="1" t="n">
         <x:v>19</x:v>
@@ -10506,10 +10506,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E338" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F338" s="1" t="n">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G338" s="1" t="n">
         <x:v>178</x:v>
@@ -10532,16 +10532,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D339" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E339" s="1" t="n">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="F339" s="1" t="n">
-        <x:v>683</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="G339" s="1" t="n">
-        <x:v>576</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="H339" s="1" t="n">
         <x:v>234</x:v>
@@ -10561,16 +10561,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D340" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E340" s="1" t="n">
-        <x:v>497</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="F340" s="1" t="n">
-        <x:v>878</x:v>
+        <x:v>880</x:v>
       </x:c>
       <x:c r="G340" s="1" t="n">
-        <x:v>754</x:v>
+        <x:v>755</x:v>
       </x:c>
       <x:c r="H340" s="1" t="n">
         <x:v>291</x:v>
@@ -10622,7 +10622,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E342" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F342" s="1" t="n">
         <x:v>10</x:v>
@@ -10651,7 +10651,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E343" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F343" s="1" t="n">
         <x:v>12</x:v>
@@ -11060,7 +11060,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="F357" s="1" t="n">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="G357" s="1" t="n">
         <x:v>236</x:v>
@@ -11089,7 +11089,7 @@
         <x:v>188</x:v>
       </x:c>
       <x:c r="F358" s="1" t="n">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="G358" s="1" t="n">
         <x:v>311</x:v>
@@ -15500,7 +15500,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G510" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H510" s="1" t="n">
         <x:v>1</x:v>
@@ -15558,7 +15558,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G512" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H512" s="1" t="n">
         <x:v>6</x:v>
@@ -25177,7 +25177,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D844" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E844" s="1" t="n">
         <x:v>0</x:v>
@@ -25203,10 +25203,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C845" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D845" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E845" s="1" t="n">
         <x:v>0</x:v>
@@ -25229,13 +25229,13 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B846" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C846" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D846" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E846" s="1" t="n">
         <x:v>0</x:v>
@@ -25244,7 +25244,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G846" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H846" s="1" t="n">
         <x:v>0</x:v>
@@ -25261,22 +25261,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C847" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D847" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E847" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F847" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G847" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H847" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I847" s="0" t="n">
         <x:v>0</x:v>
@@ -25290,10 +25290,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C848" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D848" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E848" s="1" t="n">
         <x:v>1</x:v>
@@ -25302,7 +25302,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G848" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H848" s="1" t="n">
         <x:v>2</x:v>
@@ -25316,25 +25316,25 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B849" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C849" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D849" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E849" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F849" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G849" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F849" s="1" t="n">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G849" s="1" t="n">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="H849" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I849" s="0" t="n">
         <x:v>0</x:v>
@@ -25348,22 +25348,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C850" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D850" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E850" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F850" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G850" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H850" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I850" s="0" t="n">
         <x:v>0</x:v>
@@ -25377,22 +25377,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C851" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D851" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E851" s="1" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F851" s="1" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G851" s="1" t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H851" s="1" t="n">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="F851" s="1" t="n">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G851" s="1" t="n">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="H851" s="1" t="n">
-        <x:v>20</x:v>
       </x:c>
       <x:c r="I851" s="0" t="n">
         <x:v>0</x:v>
@@ -25403,25 +25403,25 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B852" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C852" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D852" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E852" s="1" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F852" s="1" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G852" s="1" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H852" s="1" t="n">
         <x:v>20</x:v>
-      </x:c>
-      <x:c r="C852" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D852" s="1" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E852" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F852" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G852" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H852" s="1" t="n">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="I852" s="0" t="n">
         <x:v>0</x:v>
@@ -25435,16 +25435,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C853" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D853" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E853" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
         <x:v>0</x:v>
@@ -25464,13 +25464,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C854" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D854" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E854" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F854" s="1" t="n">
         <x:v>2</x:v>
@@ -25490,25 +25490,25 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B855" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C855" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D855" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E855" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F855" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G855" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H855" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I855" s="0" t="n">
         <x:v>0</x:v>
@@ -25522,7 +25522,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C856" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D856" s="1" t="n">
         <x:v>0</x:v>
@@ -25545,28 +25545,28 @@
     </x:row>
     <x:row r="857" spans="1:9">
       <x:c r="A857" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B857" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C857" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D857" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E857" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F857" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G857" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H857" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I857" s="0" t="n">
         <x:v>0</x:v>
@@ -25580,22 +25580,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C858" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D858" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E858" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F858" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G858" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H858" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I858" s="0" t="n">
         <x:v>0</x:v>
@@ -25609,22 +25609,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C859" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D859" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E859" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F859" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G859" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H859" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I859" s="0" t="n">
         <x:v>0</x:v>
@@ -25635,10 +25635,10 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B860" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C860" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D860" s="1" t="n">
         <x:v>1</x:v>
@@ -25647,13 +25647,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F860" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G860" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H860" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I860" s="0" t="n">
         <x:v>0</x:v>
@@ -25667,7 +25667,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C861" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D861" s="1" t="n">
         <x:v>1</x:v>
@@ -25693,16 +25693,16 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B862" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C862" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D862" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E862" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F862" s="1" t="n">
         <x:v>0</x:v>
@@ -25725,19 +25725,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C863" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D863" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E863" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F863" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G863" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H863" s="1" t="n">
         <x:v>0</x:v>
@@ -25754,13 +25754,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C864" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D864" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E864" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F864" s="1" t="n">
         <x:v>0</x:v>
@@ -25780,25 +25780,25 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B865" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C865" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D865" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E865" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F865" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G865" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H865" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I865" s="0" t="n">
         <x:v>0</x:v>
@@ -25812,22 +25812,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C866" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D866" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E866" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F866" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G866" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H866" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I866" s="0" t="n">
         <x:v>0</x:v>
@@ -25841,7 +25841,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C867" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D867" s="1" t="n">
         <x:v>1</x:v>
@@ -25853,10 +25853,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G867" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H867" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I867" s="0" t="n">
         <x:v>0</x:v>
@@ -25864,28 +25864,28 @@
     </x:row>
     <x:row r="868" spans="1:9">
       <x:c r="A868" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B868" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C868" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D868" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E868" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F868" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C868" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D868" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E868" s="1" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F868" s="1" t="n">
-        <x:v>43</x:v>
-      </x:c>
       <x:c r="G868" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H868" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I868" s="0" t="n">
         <x:v>0</x:v>
@@ -25899,22 +25899,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C869" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D869" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E869" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F869" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G869" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H869" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I869" s="0" t="n">
         <x:v>0</x:v>
@@ -25928,22 +25928,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C870" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D870" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E870" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F870" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G870" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H870" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I870" s="0" t="n">
         <x:v>0</x:v>
@@ -25954,25 +25954,25 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B871" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C871" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D871" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E871" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F871" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G871" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="H871" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I871" s="0" t="n">
         <x:v>0</x:v>
@@ -25986,7 +25986,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C872" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D872" s="1" t="n">
         <x:v>1</x:v>
@@ -26012,25 +26012,25 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B873" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C873" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D873" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E873" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F873" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I873" s="0" t="n">
         <x:v>0</x:v>
@@ -26044,22 +26044,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C874" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D874" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E874" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F874" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G874" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H874" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I874" s="0" t="n">
         <x:v>0</x:v>
@@ -26073,22 +26073,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C875" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D875" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E875" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F875" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G875" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H875" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I875" s="0" t="n">
         <x:v>0</x:v>
@@ -26099,25 +26099,25 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B876" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C876" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D876" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E876" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F876" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G876" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H876" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I876" s="0" t="n">
         <x:v>0</x:v>
@@ -26131,22 +26131,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C877" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D877" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E877" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F877" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G877" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H877" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I877" s="0" t="n">
         <x:v>0</x:v>
@@ -26160,22 +26160,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C878" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D878" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E878" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F878" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G878" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H878" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I878" s="0" t="n">
         <x:v>0</x:v>
@@ -26186,25 +26186,25 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B879" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C879" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D879" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E879" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F879" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G879" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H879" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I879" s="0" t="n">
         <x:v>0</x:v>
@@ -26218,19 +26218,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C880" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D880" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E880" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F880" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G880" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H880" s="1" t="n">
         <x:v>0</x:v>
@@ -26247,19 +26247,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C881" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D881" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E881" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F881" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G881" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H881" s="1" t="n">
         <x:v>0</x:v>
@@ -26273,25 +26273,25 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B882" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C882" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D882" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E882" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F882" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G882" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H882" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I882" s="0" t="n">
         <x:v>0</x:v>
@@ -26305,22 +26305,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C883" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D883" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E883" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F883" s="1" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G883" s="1" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H883" s="1" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="E883" s="1" t="n">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F883" s="1" t="n">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G883" s="1" t="n">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="H883" s="1" t="n">
-        <x:v>11</x:v>
       </x:c>
       <x:c r="I883" s="0" t="n">
         <x:v>0</x:v>
@@ -26334,22 +26334,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C884" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D884" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E884" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F884" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G884" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H884" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I884" s="0" t="n">
         <x:v>0</x:v>
@@ -26357,28 +26357,28 @@
     </x:row>
     <x:row r="885" spans="1:9">
       <x:c r="A885" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B885" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C885" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D885" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E885" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F885" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G885" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H885" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I885" s="0" t="n">
         <x:v>0</x:v>
@@ -26392,22 +26392,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C886" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D886" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E886" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F886" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G886" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H886" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I886" s="0" t="n">
         <x:v>0</x:v>
@@ -26421,22 +26421,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C887" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D887" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E887" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F887" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G887" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H887" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I887" s="0" t="n">
         <x:v>0</x:v>
@@ -26447,25 +26447,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B888" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C888" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D888" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E888" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F888" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G888" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H888" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I888" s="0" t="n">
         <x:v>0</x:v>
@@ -26479,10 +26479,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C889" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D889" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E889" s="1" t="n">
         <x:v>0</x:v>
@@ -26508,10 +26508,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C890" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D890" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E890" s="1" t="n">
         <x:v>0</x:v>
@@ -26534,25 +26534,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B891" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C891" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D891" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E891" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F891" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G891" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H891" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I891" s="0" t="n">
         <x:v>0</x:v>
@@ -26566,22 +26566,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C892" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D892" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E892" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F892" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="G892" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H892" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I892" s="0" t="n">
         <x:v>0</x:v>
@@ -26595,22 +26595,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C893" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D893" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E893" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G893" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H893" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I893" s="0" t="n">
         <x:v>0</x:v>
@@ -26621,25 +26621,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B894" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C894" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D894" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E894" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F894" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G894" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H894" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I894" s="0" t="n">
         <x:v>0</x:v>
@@ -26653,22 +26653,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C895" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D895" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E895" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F895" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G895" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H895" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I895" s="0" t="n">
         <x:v>0</x:v>
@@ -26682,22 +26682,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C896" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D896" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E896" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F896" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G896" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H896" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I896" s="0" t="n">
         <x:v>0</x:v>
@@ -26708,25 +26708,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B897" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C897" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D897" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E897" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F897" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G897" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H897" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I897" s="0" t="n">
         <x:v>0</x:v>
@@ -26740,7 +26740,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C898" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D898" s="1" t="n">
         <x:v>0</x:v>
@@ -26769,7 +26769,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C899" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D899" s="1" t="n">
         <x:v>0</x:v>
@@ -26778,7 +26778,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F899" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G899" s="1" t="n">
         <x:v>0</x:v>
@@ -26795,25 +26795,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B900" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C900" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D900" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E900" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F900" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G900" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H900" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I900" s="0" t="n">
         <x:v>0</x:v>
@@ -26827,22 +26827,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C901" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D901" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E901" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F901" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G901" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H901" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I901" s="0" t="n">
         <x:v>0</x:v>
@@ -26856,22 +26856,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C902" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D902" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E902" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F902" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G902" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H902" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I902" s="0" t="n">
         <x:v>0</x:v>
@@ -26882,25 +26882,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B903" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C903" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D903" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E903" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F903" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G903" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H903" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I903" s="0" t="n">
         <x:v>0</x:v>
@@ -26914,22 +26914,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C904" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D904" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E904" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F904" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G904" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H904" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I904" s="0" t="n">
         <x:v>0</x:v>
@@ -26943,22 +26943,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C905" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D905" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E905" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F905" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G905" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H905" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I905" s="0" t="n">
         <x:v>0</x:v>
@@ -26966,28 +26966,28 @@
     </x:row>
     <x:row r="906" spans="1:9">
       <x:c r="A906" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B906" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C906" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D906" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E906" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F906" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G906" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H906" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I906" s="0" t="n">
         <x:v>0</x:v>
@@ -27001,22 +27001,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C907" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D907" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E907" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F907" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G907" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H907" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I907" s="0" t="n">
         <x:v>0</x:v>
@@ -27030,22 +27030,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C908" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D908" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E908" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="F908" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G908" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H908" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I908" s="0" t="n">
         <x:v>0</x:v>
@@ -27056,25 +27056,25 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B909" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C909" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D909" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E909" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F909" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G909" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H909" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I909" s="0" t="n">
         <x:v>0</x:v>
@@ -27088,10 +27088,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C910" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D910" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E910" s="1" t="n">
         <x:v>0</x:v>
@@ -27117,10 +27117,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C911" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D911" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E911" s="1" t="n">
         <x:v>0</x:v>
@@ -27143,22 +27143,22 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B912" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C912" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D912" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E912" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F912" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G912" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H912" s="1" t="n">
         <x:v>0</x:v>
@@ -27175,22 +27175,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C913" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D913" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E913" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F913" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G913" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E913" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F913" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G913" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
       <x:c r="H913" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I913" s="0" t="n">
         <x:v>0</x:v>
@@ -27204,19 +27204,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C914" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D914" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E914" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F914" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G914" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H914" s="1" t="n">
         <x:v>1</x:v>
@@ -27230,25 +27230,25 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B915" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C915" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D915" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E915" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F915" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G915" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H915" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I915" s="0" t="n">
         <x:v>0</x:v>
@@ -27262,22 +27262,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C916" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D916" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E916" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F916" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G916" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H916" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I916" s="0" t="n">
         <x:v>0</x:v>
@@ -27291,22 +27291,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C917" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D917" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E917" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F917" s="1" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="G917" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H917" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I917" s="0" t="n">
         <x:v>0</x:v>
@@ -27317,25 +27317,25 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B918" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C918" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D918" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E918" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F918" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G918" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H918" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I918" s="0" t="n">
         <x:v>0</x:v>
@@ -27349,13 +27349,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C919" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D919" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E919" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F919" s="1" t="n">
         <x:v>1</x:v>
@@ -27364,7 +27364,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H919" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I919" s="0" t="n">
         <x:v>0</x:v>
@@ -27378,22 +27378,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C920" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D920" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E920" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F920" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G920" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H920" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I920" s="0" t="n">
         <x:v>0</x:v>
@@ -27404,25 +27404,25 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B921" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C921" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D921" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E921" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F921" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G921" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H921" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I921" s="0" t="n">
         <x:v>0</x:v>
@@ -27436,7 +27436,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C922" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D922" s="1" t="n">
         <x:v>0</x:v>
@@ -27459,19 +27459,19 @@
     </x:row>
     <x:row r="923" spans="1:9">
       <x:c r="A923" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B923" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C923" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D923" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E923" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F923" s="1" t="n">
         <x:v>0</x:v>
@@ -27494,22 +27494,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C924" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D924" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E924" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F924" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G924" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H924" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I924" s="0" t="n">
         <x:v>0</x:v>
@@ -27523,19 +27523,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C925" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D925" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E925" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F925" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G925" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H925" s="1" t="n">
         <x:v>5</x:v>
@@ -27549,25 +27549,25 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B926" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C926" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D926" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E926" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F926" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G926" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H926" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I926" s="0" t="n">
         <x:v>0</x:v>
@@ -27581,7 +27581,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C927" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D927" s="1" t="n">
         <x:v>0</x:v>
@@ -27593,10 +27593,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G927" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H927" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I927" s="0" t="n">
         <x:v>0</x:v>
@@ -27610,7 +27610,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C928" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D928" s="1" t="n">
         <x:v>0</x:v>
@@ -27619,7 +27619,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F928" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G928" s="1" t="n">
         <x:v>1</x:v>
@@ -27636,25 +27636,25 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B929" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C929" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D929" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E929" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F929" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G929" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H929" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I929" s="0" t="n">
         <x:v>0</x:v>
@@ -27668,7 +27668,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C930" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D930" s="1" t="n">
         <x:v>0</x:v>
@@ -27694,25 +27694,25 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B931" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C931" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D931" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E931" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F931" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G931" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H931" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I931" s="0" t="n">
         <x:v>0</x:v>
@@ -27726,7 +27726,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C932" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D932" s="1" t="n">
         <x:v>0</x:v>
@@ -27738,7 +27738,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G932" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H932" s="1" t="n">
         <x:v>0</x:v>
@@ -27755,13 +27755,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C933" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D933" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E933" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F933" s="1" t="n">
         <x:v>0</x:v>
@@ -27778,28 +27778,28 @@
     </x:row>
     <x:row r="934" spans="1:9">
       <x:c r="A934" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B934" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C934" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D934" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E934" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F934" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G934" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H934" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I934" s="0" t="n">
         <x:v>0</x:v>
@@ -27813,7 +27813,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C935" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D935" s="1" t="n">
         <x:v>0</x:v>
@@ -27839,10 +27839,10 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B936" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C936" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D936" s="1" t="n">
         <x:v>0</x:v>
@@ -27851,13 +27851,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F936" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G936" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H936" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I936" s="0" t="n">
         <x:v>0</x:v>
@@ -27871,7 +27871,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C937" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D937" s="1" t="n">
         <x:v>0</x:v>
@@ -27897,16 +27897,16 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B938" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C938" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D938" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E938" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F938" s="1" t="n">
         <x:v>1</x:v>
@@ -27929,22 +27929,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C939" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D939" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E939" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F939" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G939" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H939" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I939" s="0" t="n">
         <x:v>0</x:v>
@@ -27958,7 +27958,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C940" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D940" s="1" t="n">
         <x:v>0</x:v>
@@ -27967,7 +27967,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F940" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G940" s="1" t="n">
         <x:v>2</x:v>
@@ -27984,10 +27984,10 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B941" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C941" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D941" s="1" t="n">
         <x:v>0</x:v>
@@ -27996,13 +27996,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F941" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G941" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H941" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I941" s="0" t="n">
         <x:v>0</x:v>
@@ -28016,7 +28016,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C942" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D942" s="1" t="n">
         <x:v>0</x:v>
@@ -28042,22 +28042,22 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B943" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C943" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D943" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E943" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F943" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G943" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H943" s="1" t="n">
         <x:v>0</x:v>
@@ -28074,7 +28074,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C944" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D944" s="1" t="n">
         <x:v>0</x:v>
@@ -28097,28 +28097,28 @@
     </x:row>
     <x:row r="945" spans="1:9">
       <x:c r="A945" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B945" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C945" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D945" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E945" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F945" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G945" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H945" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I945" s="0" t="n">
         <x:v>0</x:v>
@@ -28132,22 +28132,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C946" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D946" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E946" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F946" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G946" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E946" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F946" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G946" s="1" t="n">
-        <x:v>7</x:v>
-      </x:c>
       <x:c r="H946" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I946" s="0" t="n">
         <x:v>0</x:v>
@@ -28161,22 +28161,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C947" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D947" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E947" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F947" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G947" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H947" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I947" s="0" t="n">
         <x:v>0</x:v>
@@ -28187,25 +28187,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B948" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C948" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D948" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E948" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F948" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G948" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H948" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I948" s="0" t="n">
         <x:v>0</x:v>
@@ -28219,13 +28219,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C949" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D949" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E949" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F949" s="1" t="n">
         <x:v>1</x:v>
@@ -28248,22 +28248,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C950" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D950" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E950" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F950" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G950" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H950" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I950" s="0" t="n">
         <x:v>0</x:v>
@@ -28274,25 +28274,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B951" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C951" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D951" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E951" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F951" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G951" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H951" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I951" s="0" t="n">
         <x:v>0</x:v>
@@ -28306,22 +28306,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C952" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D952" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E952" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F952" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G952" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H952" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I952" s="0" t="n">
         <x:v>0</x:v>
@@ -28335,7 +28335,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C953" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D953" s="1" t="n">
         <x:v>1</x:v>
@@ -28347,7 +28347,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G953" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H953" s="1" t="n">
         <x:v>5</x:v>
@@ -28361,25 +28361,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B954" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C954" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D954" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E954" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F954" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G954" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H954" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I954" s="0" t="n">
         <x:v>0</x:v>
@@ -28393,7 +28393,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C955" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D955" s="1" t="n">
         <x:v>0</x:v>
@@ -28419,10 +28419,10 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B956" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C956" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D956" s="1" t="n">
         <x:v>0</x:v>
@@ -28434,7 +28434,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G956" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H956" s="1" t="n">
         <x:v>0</x:v>
@@ -28451,16 +28451,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C957" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D957" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E957" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F957" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G957" s="1" t="n">
         <x:v>0</x:v>
@@ -28480,7 +28480,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C958" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D958" s="1" t="n">
         <x:v>1</x:v>
@@ -28489,7 +28489,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F958" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G958" s="1" t="n">
         <x:v>0</x:v>
@@ -28506,19 +28506,19 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B959" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C959" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D959" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E959" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F959" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G959" s="1" t="n">
         <x:v>0</x:v>
@@ -28538,7 +28538,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C960" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D960" s="1" t="n">
         <x:v>0</x:v>
@@ -28561,13 +28561,13 @@
     </x:row>
     <x:row r="961" spans="1:9">
       <x:c r="A961" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B961" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C961" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D961" s="1" t="n">
         <x:v>0</x:v>
@@ -28596,7 +28596,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C962" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D962" s="1" t="n">
         <x:v>0</x:v>
@@ -28605,7 +28605,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F962" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G962" s="1" t="n">
         <x:v>0</x:v>
@@ -28625,7 +28625,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C963" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D963" s="1" t="n">
         <x:v>0</x:v>
@@ -28634,7 +28634,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F963" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G963" s="1" t="n">
         <x:v>0</x:v>
@@ -28651,25 +28651,25 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="B964" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C964" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D964" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E964" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F964" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G964" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H964" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I964" s="0" t="n">
         <x:v>0</x:v>
@@ -28683,7 +28683,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C965" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D965" s="1" t="n">
         <x:v>0</x:v>
@@ -28706,19 +28706,19 @@
     </x:row>
     <x:row r="966" spans="1:9">
       <x:c r="A966" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B966" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C966" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D966" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E966" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F966" s="1" t="n">
         <x:v>0</x:v>
@@ -28727,7 +28727,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H966" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I966" s="0" t="n">
         <x:v>0</x:v>
@@ -28741,7 +28741,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C967" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D967" s="1" t="n">
         <x:v>0</x:v>
@@ -28767,22 +28767,22 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B968" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C968" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D968" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E968" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F968" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G968" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H968" s="1" t="n">
         <x:v>0</x:v>
@@ -28799,7 +28799,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C969" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D969" s="1" t="n">
         <x:v>0</x:v>
@@ -28822,28 +28822,28 @@
     </x:row>
     <x:row r="970" spans="1:9">
       <x:c r="A970" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B970" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C970" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D970" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E970" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F970" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G970" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H970" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I970" s="0" t="n">
         <x:v>0</x:v>
@@ -28857,22 +28857,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C971" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D971" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E971" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F971" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G971" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H971" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I971" s="0" t="n">
         <x:v>0</x:v>
@@ -28886,22 +28886,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C972" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D972" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E972" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F972" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G972" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H972" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I972" s="0" t="n">
         <x:v>0</x:v>
@@ -28912,25 +28912,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B973" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C973" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D973" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E973" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E973" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="F973" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G973" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H973" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I973" s="0" t="n">
         <x:v>0</x:v>
@@ -28944,19 +28944,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C974" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D974" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E974" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F974" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G974" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H974" s="1" t="n">
         <x:v>1</x:v>
@@ -28973,22 +28973,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C975" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D975" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E975" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F975" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G975" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H975" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I975" s="0" t="n">
         <x:v>0</x:v>
@@ -28999,22 +28999,22 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B976" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C976" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D976" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E976" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F976" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G976" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H976" s="1" t="n">
         <x:v>2</x:v>
@@ -29031,22 +29031,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C977" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D977" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E977" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F977" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G977" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H977" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I977" s="0" t="n">
         <x:v>0</x:v>
@@ -29060,7 +29060,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C978" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D978" s="1" t="n">
         <x:v>0</x:v>
@@ -29069,13 +29069,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F978" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G978" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H978" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I978" s="0" t="n">
         <x:v>0</x:v>
@@ -29086,25 +29086,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B979" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C979" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D979" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E979" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F979" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G979" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H979" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I979" s="0" t="n">
         <x:v>0</x:v>
@@ -29118,7 +29118,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C980" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D980" s="1" t="n">
         <x:v>0</x:v>
@@ -29144,19 +29144,19 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B981" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C981" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D981" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E981" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F981" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G981" s="1" t="n">
         <x:v>0</x:v>
@@ -29176,7 +29176,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C982" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D982" s="1" t="n">
         <x:v>0</x:v>
@@ -29202,22 +29202,22 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B983" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C983" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D983" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E983" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F983" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G983" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H983" s="1" t="n">
         <x:v>0</x:v>
@@ -29234,7 +29234,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C984" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D984" s="1" t="n">
         <x:v>0</x:v>
@@ -29257,13 +29257,13 @@
     </x:row>
     <x:row r="985" spans="1:9">
       <x:c r="A985" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B985" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C985" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D985" s="1" t="n">
         <x:v>0</x:v>
@@ -29272,10 +29272,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F985" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G985" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H985" s="1" t="n">
         <x:v>0</x:v>
@@ -29292,19 +29292,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C986" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D986" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E986" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F986" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G986" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H986" s="1" t="n">
         <x:v>0</x:v>
@@ -29321,7 +29321,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C987" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D987" s="1" t="n">
         <x:v>0</x:v>
@@ -29330,10 +29330,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F987" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G987" s="1" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="G987" s="1" t="n">
-        <x:v>9</x:v>
       </x:c>
       <x:c r="H987" s="1" t="n">
         <x:v>0</x:v>
@@ -29347,22 +29347,22 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B988" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C988" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D988" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E988" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F988" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G988" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H988" s="1" t="n">
         <x:v>0</x:v>
@@ -29379,22 +29379,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C989" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D989" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E989" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F989" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G989" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H989" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I989" s="0" t="n">
         <x:v>0</x:v>
@@ -29408,16 +29408,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C990" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D990" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E990" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F990" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G990" s="1" t="n">
         <x:v>4</x:v>
@@ -29434,25 +29434,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B991" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C991" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D991" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E991" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F991" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G991" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H991" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I991" s="0" t="n">
         <x:v>0</x:v>
@@ -29466,22 +29466,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C992" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D992" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E992" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F992" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G992" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H992" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I992" s="0" t="n">
         <x:v>0</x:v>
@@ -29495,7 +29495,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C993" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D993" s="1" t="n">
         <x:v>0</x:v>
@@ -29504,7 +29504,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F993" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G993" s="1" t="n">
         <x:v>2</x:v>
@@ -29521,22 +29521,22 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B994" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C994" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D994" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E994" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F994" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G994" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H994" s="1" t="n">
         <x:v>2</x:v>
@@ -29553,7 +29553,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C995" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D995" s="1" t="n">
         <x:v>1</x:v>
@@ -29579,16 +29579,16 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B996" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C996" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D996" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E996" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F996" s="1" t="n">
         <x:v>0</x:v>
@@ -29597,7 +29597,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H996" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I996" s="0" t="n">
         <x:v>0</x:v>
@@ -29611,7 +29611,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C997" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D997" s="1" t="n">
         <x:v>0</x:v>
@@ -29634,25 +29634,25 @@
     </x:row>
     <x:row r="998" spans="1:9">
       <x:c r="A998" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B998" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C998" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D998" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E998" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F998" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G998" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H998" s="1" t="n">
         <x:v>1</x:v>
@@ -29669,19 +29669,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C999" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D999" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E999" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F999" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G999" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H999" s="1" t="n">
         <x:v>1</x:v>
@@ -29698,22 +29698,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1000" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1000" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1000" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1000" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1000" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1000" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1000" s="0" t="n">
         <x:v>0</x:v>
@@ -29724,25 +29724,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1001" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1001" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1001" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1001" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1001" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1001" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1001" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1001" s="0" t="n">
         <x:v>0</x:v>
@@ -29756,19 +29756,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1002" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1002" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1002" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1002" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1002" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1002" s="1" t="n">
         <x:v>0</x:v>
@@ -29785,16 +29785,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1003" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1003" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1003" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1003" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1003" s="1" t="n">
         <x:v>2</x:v>
@@ -29811,22 +29811,22 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1004" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1004" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1004" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1004" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1004" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1004" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1004" s="1" t="n">
         <x:v>0</x:v>
@@ -29843,7 +29843,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1005" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1005" s="1" t="n">
         <x:v>0</x:v>
@@ -29852,13 +29852,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1005" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1005" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1005" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1005" s="0" t="n">
         <x:v>0</x:v>
@@ -29872,16 +29872,16 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1006" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1006" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1006" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1006" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1006" s="1" t="n">
         <x:v>4</x:v>
@@ -29898,25 +29898,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1007" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1007" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1007" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1007" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1007" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1007" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1007" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1007" s="0" t="n">
         <x:v>0</x:v>
@@ -29930,7 +29930,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1008" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1008" s="1" t="n">
         <x:v>0</x:v>
@@ -29956,16 +29956,16 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1009" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1009" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1009" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1009" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1009" s="1" t="n">
         <x:v>0</x:v>
@@ -29988,13 +29988,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1010" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1010" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1010" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F1010" s="1" t="n">
         <x:v>0</x:v>
@@ -30017,13 +30017,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1011" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1011" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E1011" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1011" s="1" t="n">
         <x:v>0</x:v>
@@ -30043,25 +30043,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1012" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1012" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1012" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E1012" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F1012" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1012" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1012" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1012" s="0" t="n">
         <x:v>0</x:v>
@@ -30075,7 +30075,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1013" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1013" s="1" t="n">
         <x:v>0</x:v>
@@ -30087,10 +30087,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1013" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1013" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1013" s="0" t="n">
         <x:v>0</x:v>
@@ -30104,7 +30104,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1014" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1014" s="1" t="n">
         <x:v>0</x:v>
@@ -30116,10 +30116,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1014" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1014" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1014" s="0" t="n">
         <x:v>0</x:v>
@@ -30127,28 +30127,28 @@
     </x:row>
     <x:row r="1015" spans="1:9">
       <x:c r="A1015" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B1015" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1015" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1015" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1015" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1015" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1015" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1015" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1015" s="0" t="n">
         <x:v>0</x:v>
@@ -30162,22 +30162,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1016" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1016" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E1016" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F1016" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G1016" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H1016" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1016" s="0" t="n">
         <x:v>0</x:v>
@@ -30191,22 +30191,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1017" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1017" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E1017" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F1017" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G1017" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H1017" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I1017" s="0" t="n">
         <x:v>0</x:v>
@@ -30217,25 +30217,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1018" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1018" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1018" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E1018" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F1018" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G1018" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H1018" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I1018" s="0" t="n">
         <x:v>0</x:v>
@@ -30249,7 +30249,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C1019" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1019" s="1" t="n">
         <x:v>2</x:v>
@@ -30278,10 +30278,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C1020" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1020" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1020" s="1" t="n">
         <x:v>0</x:v>
@@ -30304,25 +30304,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1021" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1021" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1021" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1021" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1021" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1021" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1021" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1021" s="0" t="n">
         <x:v>0</x:v>
@@ -30336,22 +30336,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1022" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1022" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E1022" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="F1022" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1022" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1022" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1022" s="0" t="n">
         <x:v>0</x:v>
@@ -30365,22 +30365,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1023" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1023" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E1023" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1023" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G1023" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H1023" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I1023" s="0" t="n">
         <x:v>0</x:v>
@@ -30391,25 +30391,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1024" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1024" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1024" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E1024" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F1024" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G1024" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H1024" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I1024" s="0" t="n">
         <x:v>0</x:v>
@@ -30423,22 +30423,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1025" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1025" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1025" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F1025" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G1025" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H1025" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I1025" s="0" t="n">
         <x:v>0</x:v>
@@ -30452,22 +30452,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1026" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1026" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1026" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F1026" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G1026" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H1026" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I1026" s="0" t="n">
         <x:v>0</x:v>
@@ -30478,25 +30478,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1027" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1027" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1027" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E1027" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F1027" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G1027" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="H1027" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I1027" s="0" t="n">
         <x:v>0</x:v>
@@ -30510,7 +30510,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1028" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1028" s="1" t="n">
         <x:v>0</x:v>
@@ -30519,13 +30519,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1028" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1028" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1028" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1028" s="0" t="n">
         <x:v>0</x:v>
@@ -30539,7 +30539,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1029" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1029" s="1" t="n">
         <x:v>0</x:v>
@@ -30548,10 +30548,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1029" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1029" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1029" s="1" t="n">
         <x:v>2</x:v>
@@ -30565,25 +30565,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1030" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1030" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1030" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1030" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1030" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1030" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H1030" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1030" s="0" t="n">
         <x:v>0</x:v>
@@ -30597,22 +30597,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1031" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1031" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1031" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1031" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G1031" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1031" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1031" s="0" t="n">
         <x:v>0</x:v>
@@ -30626,22 +30626,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1032" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1032" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1032" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F1032" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1032" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1032" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1032" s="0" t="n">
         <x:v>0</x:v>
@@ -30652,25 +30652,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1033" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1033" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1033" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E1033" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F1033" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1033" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1033" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1033" s="0" t="n">
         <x:v>0</x:v>
@@ -30684,22 +30684,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1034" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1034" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1034" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1034" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1034" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1034" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1034" s="0" t="n">
         <x:v>0</x:v>
@@ -30713,22 +30713,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1035" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1035" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E1035" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1035" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1035" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1035" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1035" s="0" t="n">
         <x:v>0</x:v>
@@ -30736,28 +30736,28 @@
     </x:row>
     <x:row r="1036" spans="1:9">
       <x:c r="A1036" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B1036" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1036" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1036" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E1036" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1036" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G1036" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1036" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1036" s="0" t="n">
         <x:v>0</x:v>
@@ -30771,22 +30771,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1037" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1037" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1037" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1037" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G1037" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1037" s="1" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1037" s="1" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G1037" s="1" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H1037" s="1" t="n">
-        <x:v>2</x:v>
       </x:c>
       <x:c r="I1037" s="0" t="n">
         <x:v>0</x:v>
@@ -30800,7 +30800,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1038" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1038" s="1" t="n">
         <x:v>0</x:v>
@@ -30809,13 +30809,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F1038" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1038" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1038" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1038" s="0" t="n">
         <x:v>0</x:v>
@@ -30826,25 +30826,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1039" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1039" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1039" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1039" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1039" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G1039" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1039" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1039" s="0" t="n">
         <x:v>0</x:v>
@@ -30858,7 +30858,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1040" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1040" s="1" t="n">
         <x:v>1</x:v>
@@ -30884,25 +30884,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1041" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1041" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1041" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1041" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1041" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1041" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1041" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1041" s="0" t="n">
         <x:v>0</x:v>
@@ -30916,22 +30916,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1042" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1042" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1042" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1042" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1042" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1042" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1042" s="0" t="n">
         <x:v>0</x:v>
@@ -30945,7 +30945,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1043" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1043" s="1" t="n">
         <x:v>1</x:v>
@@ -30957,10 +30957,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G1043" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1043" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1043" s="0" t="n">
         <x:v>0</x:v>
@@ -30971,25 +30971,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1044" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1044" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1044" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1044" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1044" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1044" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1044" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1044" s="0" t="n">
         <x:v>0</x:v>
@@ -31003,7 +31003,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1045" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1045" s="1" t="n">
         <x:v>0</x:v>
@@ -31029,19 +31029,19 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1046" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1046" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1046" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1046" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1046" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1046" s="1" t="n">
         <x:v>0</x:v>
@@ -31061,7 +31061,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1047" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1047" s="1" t="n">
         <x:v>0</x:v>
@@ -31087,10 +31087,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1048" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1048" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1048" s="1" t="n">
         <x:v>0</x:v>
@@ -31102,7 +31102,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1048" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1048" s="1" t="n">
         <x:v>0</x:v>
@@ -31119,7 +31119,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1049" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1049" s="1" t="n">
         <x:v>0</x:v>
@@ -31142,28 +31142,28 @@
     </x:row>
     <x:row r="1050" spans="1:9">
       <x:c r="A1050" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B1050" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1050" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1050" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1050" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1050" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1050" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1050" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1050" s="0" t="n">
         <x:v>0</x:v>
@@ -31177,22 +31177,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1051" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1051" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1051" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F1051" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G1051" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1051" s="1" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="F1051" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G1051" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H1051" s="1" t="n">
-        <x:v>2</x:v>
       </x:c>
       <x:c r="I1051" s="0" t="n">
         <x:v>0</x:v>
@@ -31206,22 +31206,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1052" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1052" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1052" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1052" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G1052" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G1052" s="1" t="n">
-        <x:v>7</x:v>
-      </x:c>
       <x:c r="H1052" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1052" s="0" t="n">
         <x:v>0</x:v>
@@ -31232,25 +31232,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1053" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1053" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1053" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1053" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1053" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1053" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1053" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1053" s="0" t="n">
         <x:v>0</x:v>
@@ -31264,10 +31264,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1054" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1054" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1054" s="1" t="n">
         <x:v>0</x:v>
@@ -31279,7 +31279,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1054" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1054" s="0" t="n">
         <x:v>0</x:v>
@@ -31293,22 +31293,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1055" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1055" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1055" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1055" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1055" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1055" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1055" s="0" t="n">
         <x:v>0</x:v>
@@ -31319,22 +31319,22 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1056" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1056" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1056" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1056" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1056" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1056" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1056" s="1" t="n">
         <x:v>1</x:v>
@@ -31351,22 +31351,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1057" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1057" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1057" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1057" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="G1057" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1057" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1057" s="0" t="n">
         <x:v>0</x:v>
@@ -31380,7 +31380,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1058" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1058" s="1" t="n">
         <x:v>1</x:v>
@@ -31389,13 +31389,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F1058" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1058" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1058" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1058" s="0" t="n">
         <x:v>0</x:v>
@@ -31406,25 +31406,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1059" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1059" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1059" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1059" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1059" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1059" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1059" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1059" s="0" t="n">
         <x:v>0</x:v>
@@ -31438,16 +31438,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1060" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1060" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1060" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1060" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1060" s="1" t="n">
         <x:v>2</x:v>
@@ -31467,22 +31467,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1061" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1061" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1061" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F1061" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G1061" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1061" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1061" s="0" t="n">
         <x:v>0</x:v>
@@ -31493,25 +31493,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1062" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1062" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1062" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1062" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F1062" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1062" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1062" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1062" s="0" t="n">
         <x:v>0</x:v>
@@ -31525,7 +31525,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1063" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1063" s="1" t="n">
         <x:v>0</x:v>
@@ -31548,28 +31548,28 @@
     </x:row>
     <x:row r="1064" spans="1:9">
       <x:c r="A1064" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B1064" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1064" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1064" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1064" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1064" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1064" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1064" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1064" s="0" t="n">
         <x:v>0</x:v>
@@ -31583,22 +31583,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1065" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1065" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E1065" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1065" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E1065" s="1" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F1065" s="1" t="n">
-        <x:v>14</x:v>
-      </x:c>
       <x:c r="G1065" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1065" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1065" s="0" t="n">
         <x:v>0</x:v>
@@ -31612,22 +31612,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1066" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1066" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1066" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F1066" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G1066" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H1066" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I1066" s="0" t="n">
         <x:v>0</x:v>
@@ -31638,25 +31638,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1067" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1067" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1067" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1067" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F1067" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G1067" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H1067" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I1067" s="0" t="n">
         <x:v>0</x:v>
@@ -31670,22 +31670,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1068" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1068" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1068" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1068" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1068" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1068" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1068" s="0" t="n">
         <x:v>0</x:v>
@@ -31699,7 +31699,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1069" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1069" s="1" t="n">
         <x:v>2</x:v>
@@ -31708,7 +31708,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1069" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1069" s="1" t="n">
         <x:v>1</x:v>
@@ -31725,25 +31725,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1070" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1070" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1070" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1070" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1070" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1070" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1070" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1070" s="0" t="n">
         <x:v>0</x:v>
@@ -31757,22 +31757,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1071" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1071" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1071" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F1071" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1071" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1071" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1071" s="0" t="n">
         <x:v>0</x:v>
@@ -31786,22 +31786,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1072" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1072" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1072" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F1072" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G1072" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H1072" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I1072" s="0" t="n">
         <x:v>0</x:v>
@@ -31812,25 +31812,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1073" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1073" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1073" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1073" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F1073" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G1073" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H1073" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I1073" s="0" t="n">
         <x:v>0</x:v>
@@ -31844,14 +31844,14 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1074" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1074" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1074" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1074" s="1" t="n">
-        <x:v>7</x:v>
-      </x:c>
       <x:c r="F1074" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -31859,7 +31859,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1074" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1074" s="0" t="n">
         <x:v>0</x:v>
@@ -31873,13 +31873,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1075" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1075" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1075" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1075" s="1" t="n">
         <x:v>0</x:v>
@@ -31899,22 +31899,22 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1076" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1076" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1076" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1076" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1076" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1076" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1076" s="1" t="n">
         <x:v>1</x:v>
@@ -31931,22 +31931,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1077" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1077" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1077" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1077" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1077" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1077" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1077" s="0" t="n">
         <x:v>0</x:v>
@@ -31960,7 +31960,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1078" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1078" s="1" t="n">
         <x:v>1</x:v>
@@ -31969,13 +31969,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1078" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1078" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1078" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I1078" s="0" t="n">
         <x:v>0</x:v>
@@ -31983,28 +31983,28 @@
     </x:row>
     <x:row r="1079" spans="1:9">
       <x:c r="A1079" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B1079" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1079" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1079" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1079" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1079" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G1079" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1079" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I1079" s="0" t="n">
         <x:v>0</x:v>
@@ -32018,22 +32018,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1080" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1080" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1080" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1080" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1080" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H1080" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1080" s="0" t="n">
         <x:v>0</x:v>
@@ -32047,22 +32047,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1081" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1081" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E1081" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F1081" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G1081" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H1081" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I1081" s="0" t="n">
         <x:v>0</x:v>
@@ -32073,25 +32073,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1082" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1082" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1082" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E1082" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F1082" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G1082" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H1082" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I1082" s="0" t="n">
         <x:v>0</x:v>
@@ -32105,22 +32105,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1083" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1083" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1083" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1083" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1083" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1083" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1083" s="0" t="n">
         <x:v>0</x:v>
@@ -32134,22 +32134,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1084" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1084" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E1084" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F1084" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1084" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H1084" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1084" s="0" t="n">
         <x:v>0</x:v>
@@ -32160,25 +32160,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1085" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1085" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1085" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E1085" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1085" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G1085" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H1085" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I1085" s="0" t="n">
         <x:v>0</x:v>
@@ -32192,22 +32192,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1086" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1086" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1086" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1086" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G1086" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H1086" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I1086" s="0" t="n">
         <x:v>0</x:v>
@@ -32221,22 +32221,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1087" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1087" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1087" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F1087" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G1087" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H1087" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I1087" s="0" t="n">
         <x:v>0</x:v>
@@ -32247,25 +32247,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1088" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1088" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1088" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1088" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F1088" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G1088" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H1088" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I1088" s="0" t="n">
         <x:v>0</x:v>
@@ -32279,7 +32279,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1089" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1089" s="1" t="n">
         <x:v>0</x:v>
@@ -32305,22 +32305,22 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1090" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1090" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1090" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1090" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1090" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1090" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1090" s="1" t="n">
         <x:v>0</x:v>
@@ -32337,22 +32337,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1091" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1091" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E1091" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F1091" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1091" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1091" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1091" s="0" t="n">
         <x:v>0</x:v>
@@ -32366,19 +32366,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1092" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1092" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E1092" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F1092" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1092" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1092" s="1" t="n">
         <x:v>1</x:v>
@@ -32392,22 +32392,22 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1093" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1093" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1093" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E1093" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F1093" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1093" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1093" s="1" t="n">
         <x:v>1</x:v>
@@ -32424,19 +32424,19 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1094" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1094" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1094" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1094" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1094" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1094" s="1" t="n">
         <x:v>1</x:v>
@@ -32453,7 +32453,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1095" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1095" s="1" t="n">
         <x:v>5</x:v>
@@ -32468,7 +32468,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H1095" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1095" s="0" t="n">
         <x:v>0</x:v>
@@ -32476,28 +32476,28 @@
     </x:row>
     <x:row r="1096" spans="1:9">
       <x:c r="A1096" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B1096" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1096" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1096" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1096" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1096" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1096" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H1096" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1096" s="0" t="n">
         <x:v>0</x:v>
@@ -32511,7 +32511,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1097" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1097" s="1" t="n">
         <x:v>0</x:v>
@@ -32520,13 +32520,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1097" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1097" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1097" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1097" s="0" t="n">
         <x:v>0</x:v>
@@ -32540,7 +32540,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1098" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1098" s="1" t="n">
         <x:v>0</x:v>
@@ -32549,13 +32549,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1098" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1098" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1098" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1098" s="0" t="n">
         <x:v>0</x:v>
@@ -32566,10 +32566,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1099" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1099" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1099" s="1" t="n">
         <x:v>0</x:v>
@@ -32578,13 +32578,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1099" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1099" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H1099" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1099" s="0" t="n">
         <x:v>0</x:v>
@@ -32598,7 +32598,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1100" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1100" s="1" t="n">
         <x:v>0</x:v>
@@ -32624,10 +32624,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1101" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1101" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1101" s="1" t="n">
         <x:v>0</x:v>
@@ -32639,7 +32639,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1101" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1101" s="1" t="n">
         <x:v>0</x:v>
@@ -32656,22 +32656,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1102" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1102" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1102" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1102" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1102" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1102" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1102" s="0" t="n">
         <x:v>0</x:v>
@@ -32685,7 +32685,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1103" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1103" s="1" t="n">
         <x:v>0</x:v>
@@ -32694,10 +32694,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1103" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1103" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1103" s="1" t="n">
         <x:v>2</x:v>
@@ -32711,25 +32711,25 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1104" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1104" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1104" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1104" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1104" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1104" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1104" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1104" s="0" t="n">
         <x:v>0</x:v>
@@ -32743,13 +32743,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1105" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1105" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1105" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1105" s="1" t="n">
         <x:v>0</x:v>
@@ -32772,13 +32772,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1106" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1106" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1106" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1106" s="1" t="n">
         <x:v>0</x:v>
@@ -32790,6 +32790,35 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I1106" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1107" spans="1:9">
+      <x:c r="A1107" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B1107" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C1107" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1107" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1107" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1107" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G1107" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H1107" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1107" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -7696,10 +7696,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F241" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G241" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H241" s="1" t="n">
         <x:v>43</x:v>
@@ -7725,10 +7725,10 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="F242" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G242" s="1" t="n">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="H242" s="1" t="n">
         <x:v>52</x:v>
@@ -7899,7 +7899,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F248" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G248" s="1" t="n">
         <x:v>45</x:v>
@@ -7925,10 +7925,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E249" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F249" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G249" s="1" t="n">
         <x:v>110</x:v>
@@ -7954,10 +7954,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E250" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F250" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G250" s="1" t="n">
         <x:v>155</x:v>
@@ -8154,7 +8154,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D257" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E257" s="1" t="n">
         <x:v>2</x:v>
@@ -8183,7 +8183,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D258" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E258" s="1" t="n">
         <x:v>11</x:v>
@@ -8212,7 +8212,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D259" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E259" s="1" t="n">
         <x:v>13</x:v>
@@ -8769,7 +8769,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F278" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G278" s="1" t="n">
         <x:v>18</x:v>
@@ -8798,7 +8798,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F279" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G279" s="1" t="n">
         <x:v>28</x:v>
@@ -10506,13 +10506,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E338" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F338" s="1" t="n">
         <x:v>196</x:v>
       </x:c>
       <x:c r="G338" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="H338" s="1" t="n">
         <x:v>57</x:v>
@@ -10541,10 +10541,10 @@
         <x:v>684</x:v>
       </x:c>
       <x:c r="G339" s="1" t="n">
-        <x:v>577</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="H339" s="1" t="n">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="I339" s="0" t="n">
         <x:v>0</x:v>
@@ -10564,16 +10564,16 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E340" s="1" t="n">
-        <x:v>499</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="F340" s="1" t="n">
         <x:v>880</x:v>
       </x:c>
       <x:c r="G340" s="1" t="n">
-        <x:v>755</x:v>
+        <x:v>758</x:v>
       </x:c>
       <x:c r="H340" s="1" t="n">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="I340" s="0" t="n">
         <x:v>0</x:v>
@@ -10677,13 +10677,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D344" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E344" s="1" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F344" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G344" s="1" t="n">
         <x:v>31</x:v>
@@ -10706,7 +10706,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D345" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E345" s="1" t="n">
         <x:v>36</x:v>
@@ -10735,13 +10735,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D346" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E346" s="1" t="n">
         <x:v>48</x:v>
       </x:c>
       <x:c r="F346" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G346" s="1" t="n">
         <x:v>105</x:v>
@@ -10770,7 +10770,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="F347" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G347" s="1" t="n">
         <x:v>118</x:v>
@@ -10796,7 +10796,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E348" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F348" s="1" t="n">
         <x:v>341</x:v>
@@ -10825,10 +10825,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E349" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="F349" s="1" t="n">
-        <x:v>477</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="G349" s="1" t="n">
         <x:v>446</x:v>
@@ -22112,7 +22112,7 @@
         <x:v>581</x:v>
       </x:c>
       <x:c r="G738" s="1" t="n">
-        <x:v>758</x:v>
+        <x:v>759</x:v>
       </x:c>
       <x:c r="H738" s="1" t="n">
         <x:v>717</x:v>
@@ -22141,7 +22141,7 @@
         <x:v>674</x:v>
       </x:c>
       <x:c r="G739" s="1" t="n">
-        <x:v>869</x:v>
+        <x:v>870</x:v>
       </x:c>
       <x:c r="H739" s="1" t="n">
         <x:v>771</x:v>
@@ -22347,7 +22347,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="H746" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I746" s="0" t="n">
         <x:v>0</x:v>
@@ -22376,7 +22376,7 @@
         <x:v>203</x:v>
       </x:c>
       <x:c r="H747" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I747" s="0" t="n">
         <x:v>0</x:v>
@@ -24519,7 +24519,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G821" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H821" s="1" t="n">
         <x:v>28</x:v>
@@ -24548,7 +24548,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="G822" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H822" s="1" t="n">
         <x:v>33</x:v>
@@ -25363,7 +25363,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H850" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I850" s="0" t="n">
         <x:v>0</x:v>
@@ -25383,7 +25383,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E851" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F851" s="1" t="n">
         <x:v>22</x:v>
@@ -25412,7 +25412,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E852" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
         <x:v>32</x:v>
@@ -25421,7 +25421,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I852" s="0" t="n">
         <x:v>0</x:v>
@@ -25470,7 +25470,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E854" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F854" s="1" t="n">
         <x:v>2</x:v>
@@ -25499,7 +25499,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E855" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F855" s="1" t="n">
         <x:v>2</x:v>
@@ -26085,7 +26085,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G875" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H875" s="1" t="n">
         <x:v>17</x:v>
@@ -26114,7 +26114,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="G876" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H876" s="1" t="n">
         <x:v>22</x:v>
@@ -26610,7 +26610,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="H893" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I893" s="0" t="n">
         <x:v>0</x:v>
@@ -26639,7 +26639,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="H894" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I894" s="0" t="n">
         <x:v>0</x:v>
@@ -26697,7 +26697,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="H896" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I896" s="0" t="n">
         <x:v>0</x:v>
@@ -26726,7 +26726,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="H897" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I897" s="0" t="n">
         <x:v>0</x:v>
@@ -26830,7 +26830,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D901" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E901" s="1" t="n">
         <x:v>9</x:v>
@@ -26888,7 +26888,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D903" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E903" s="1" t="n">
         <x:v>49</x:v>
@@ -27190,7 +27190,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H913" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I913" s="0" t="n">
         <x:v>0</x:v>
@@ -27248,7 +27248,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H915" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I915" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -709,7 +709,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I1107"/>
+  <x:dimension ref="A1:I1109"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3230,7 +3230,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F87" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G87" s="1" t="n">
         <x:v>46</x:v>
@@ -3259,13 +3259,13 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="F88" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G88" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H88" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I88" s="0" t="n">
         <x:v>0</x:v>
@@ -3288,13 +3288,13 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="F89" s="1" t="n">
-        <x:v>167</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G89" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H89" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I89" s="0" t="n">
         <x:v>0</x:v>
@@ -3407,7 +3407,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G93" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H93" s="1" t="n">
         <x:v>4</x:v>
@@ -3465,7 +3465,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="G95" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H95" s="1" t="n">
         <x:v>14</x:v>
@@ -7696,10 +7696,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F241" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G241" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H241" s="1" t="n">
         <x:v>43</x:v>
@@ -7725,10 +7725,10 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="F242" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G242" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="H242" s="1" t="n">
         <x:v>52</x:v>
@@ -7899,7 +7899,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F248" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G248" s="1" t="n">
         <x:v>45</x:v>
@@ -7928,7 +7928,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="F249" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G249" s="1" t="n">
         <x:v>110</x:v>
@@ -7957,7 +7957,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="F250" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G250" s="1" t="n">
         <x:v>155</x:v>
@@ -10048,7 +10048,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G322" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H322" s="1" t="n">
         <x:v>2</x:v>
@@ -10106,7 +10106,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G324" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H324" s="1" t="n">
         <x:v>16</x:v>
@@ -10506,10 +10506,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E338" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F338" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="G338" s="1" t="n">
         <x:v>179</x:v>
@@ -10564,10 +10564,10 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E340" s="1" t="n">
-        <x:v>500</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="F340" s="1" t="n">
-        <x:v>880</x:v>
+        <x:v>881</x:v>
       </x:c>
       <x:c r="G340" s="1" t="n">
         <x:v>758</x:v>
@@ -10709,7 +10709,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E345" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F345" s="1" t="n">
         <x:v>81</x:v>
@@ -10738,7 +10738,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E346" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F346" s="1" t="n">
         <x:v>106</x:v>
@@ -14372,7 +14372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H471" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I471" s="0" t="n">
         <x:v>0</x:v>
@@ -14430,7 +14430,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H473" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I473" s="0" t="n">
         <x:v>0</x:v>
@@ -15584,7 +15584,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F513" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G513" s="1" t="n">
         <x:v>0</x:v>
@@ -15642,7 +15642,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F515" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G515" s="1" t="n">
         <x:v>2</x:v>
@@ -16718,7 +16718,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G552" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H552" s="1" t="n">
         <x:v>6</x:v>
@@ -16741,10 +16741,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E553" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F553" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G553" s="1" t="n">
         <x:v>18</x:v>
@@ -16770,13 +16770,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E554" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F554" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G554" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H554" s="1" t="n">
         <x:v>18</x:v>
@@ -19264,10 +19264,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E640" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F640" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G640" s="1" t="n">
         <x:v>3</x:v>
@@ -19293,10 +19293,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E641" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F641" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G641" s="1" t="n">
         <x:v>4</x:v>
@@ -24522,7 +24522,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="H821" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I821" s="0" t="n">
         <x:v>0</x:v>
@@ -24551,7 +24551,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="H822" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I822" s="0" t="n">
         <x:v>0</x:v>
@@ -24696,7 +24696,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H827" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I827" s="0" t="n">
         <x:v>0</x:v>
@@ -24725,7 +24725,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="H828" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I828" s="0" t="n">
         <x:v>0</x:v>
@@ -25525,7 +25525,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D856" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E856" s="1" t="n">
         <x:v>0</x:v>
@@ -25554,7 +25554,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D857" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E857" s="1" t="n">
         <x:v>0</x:v>
@@ -26688,7 +26688,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E896" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F896" s="1" t="n">
         <x:v>59</x:v>
@@ -26717,7 +26717,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E897" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F897" s="1" t="n">
         <x:v>89</x:v>
@@ -27346,25 +27346,25 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B919" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C919" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D919" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E919" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F919" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G919" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H919" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I919" s="0" t="n">
         <x:v>0</x:v>
@@ -27375,22 +27375,22 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B920" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C920" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D920" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E920" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F920" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G920" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H920" s="1" t="n">
         <x:v>0</x:v>
@@ -27407,16 +27407,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C921" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D921" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E921" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F921" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G921" s="1" t="n">
         <x:v>0</x:v>
@@ -27433,22 +27433,22 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B922" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C922" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D922" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E922" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F922" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G922" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H922" s="1" t="n">
         <x:v>0</x:v>
@@ -27462,25 +27462,25 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B923" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C923" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D923" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E923" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F923" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G923" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H923" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I923" s="0" t="n">
         <x:v>0</x:v>
@@ -27488,19 +27488,19 @@
     </x:row>
     <x:row r="924" spans="1:9">
       <x:c r="A924" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B924" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C924" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D924" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E924" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F924" s="1" t="n">
         <x:v>0</x:v>
@@ -27517,28 +27517,28 @@
     </x:row>
     <x:row r="925" spans="1:9">
       <x:c r="A925" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B925" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C925" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D925" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E925" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F925" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G925" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H925" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I925" s="0" t="n">
         <x:v>0</x:v>
@@ -27552,22 +27552,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C926" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D926" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E926" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F926" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G926" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H926" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I926" s="0" t="n">
         <x:v>0</x:v>
@@ -27578,25 +27578,25 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B927" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C927" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D927" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E927" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F927" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G927" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H927" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I927" s="0" t="n">
         <x:v>0</x:v>
@@ -27607,25 +27607,25 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B928" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C928" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D928" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E928" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F928" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G928" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H928" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I928" s="0" t="n">
         <x:v>0</x:v>
@@ -27639,7 +27639,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C929" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D929" s="1" t="n">
         <x:v>0</x:v>
@@ -27648,13 +27648,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F929" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G929" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H929" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I929" s="0" t="n">
         <x:v>0</x:v>
@@ -27665,7 +27665,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B930" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C930" s="1" t="s">
         <x:v>12</x:v>
@@ -27674,16 +27674,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E930" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F930" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G930" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H930" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I930" s="0" t="n">
         <x:v>0</x:v>
@@ -27694,7 +27694,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B931" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C931" s="1" t="s">
         <x:v>13</x:v>
@@ -27703,16 +27703,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E931" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F931" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G931" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H931" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I931" s="0" t="n">
         <x:v>0</x:v>
@@ -27723,25 +27723,25 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B932" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C932" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D932" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E932" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F932" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G932" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H932" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I932" s="0" t="n">
         <x:v>0</x:v>
@@ -27752,25 +27752,25 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B933" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C933" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D933" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E933" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F933" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G933" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H933" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I933" s="0" t="n">
         <x:v>0</x:v>
@@ -27784,19 +27784,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C934" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D934" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E934" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F934" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G934" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H934" s="1" t="n">
         <x:v>0</x:v>
@@ -27807,10 +27807,10 @@
     </x:row>
     <x:row r="935" spans="1:9">
       <x:c r="A935" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B935" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C935" s="1" t="s">
         <x:v>12</x:v>
@@ -27825,10 +27825,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G935" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H935" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I935" s="0" t="n">
         <x:v>0</x:v>
@@ -27836,10 +27836,10 @@
     </x:row>
     <x:row r="936" spans="1:9">
       <x:c r="A936" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B936" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C936" s="1" t="s">
         <x:v>13</x:v>
@@ -27848,16 +27848,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E936" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F936" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G936" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H936" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I936" s="0" t="n">
         <x:v>0</x:v>
@@ -27868,7 +27868,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B937" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C937" s="1" t="s">
         <x:v>12</x:v>
@@ -27880,13 +27880,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F937" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G937" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H937" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I937" s="0" t="n">
         <x:v>0</x:v>
@@ -27897,7 +27897,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B938" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C938" s="1" t="s">
         <x:v>13</x:v>
@@ -27909,13 +27909,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F938" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G938" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H938" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I938" s="0" t="n">
         <x:v>0</x:v>
@@ -27926,16 +27926,16 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B939" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C939" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D939" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E939" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F939" s="1" t="n">
         <x:v>1</x:v>
@@ -27955,10 +27955,10 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B940" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C940" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D940" s="1" t="n">
         <x:v>0</x:v>
@@ -27967,13 +27967,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F940" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G940" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H940" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I940" s="0" t="n">
         <x:v>0</x:v>
@@ -27987,22 +27987,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C941" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D941" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E941" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F941" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G941" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H941" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I941" s="0" t="n">
         <x:v>0</x:v>
@@ -28013,7 +28013,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B942" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C942" s="1" t="s">
         <x:v>12</x:v>
@@ -28025,13 +28025,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F942" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G942" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H942" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I942" s="0" t="n">
         <x:v>0</x:v>
@@ -28042,7 +28042,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B943" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C943" s="1" t="s">
         <x:v>13</x:v>
@@ -28054,13 +28054,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F943" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G943" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H943" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I943" s="0" t="n">
         <x:v>0</x:v>
@@ -28071,22 +28071,22 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B944" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C944" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D944" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E944" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F944" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G944" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H944" s="1" t="n">
         <x:v>0</x:v>
@@ -28100,7 +28100,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B945" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C945" s="1" t="s">
         <x:v>13</x:v>
@@ -28109,13 +28109,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E945" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F945" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G945" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H945" s="1" t="n">
         <x:v>0</x:v>
@@ -28126,10 +28126,10 @@
     </x:row>
     <x:row r="946" spans="1:9">
       <x:c r="A946" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B946" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C946" s="1" t="s">
         <x:v>11</x:v>
@@ -28138,16 +28138,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E946" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F946" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G946" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H946" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I946" s="0" t="n">
         <x:v>0</x:v>
@@ -28155,28 +28155,28 @@
     </x:row>
     <x:row r="947" spans="1:9">
       <x:c r="A947" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B947" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C947" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D947" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E947" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F947" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G947" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H947" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I947" s="0" t="n">
         <x:v>0</x:v>
@@ -28190,22 +28190,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C948" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D948" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E948" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F948" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G948" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E948" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F948" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G948" s="1" t="n">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="H948" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I948" s="0" t="n">
         <x:v>0</x:v>
@@ -28216,25 +28216,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B949" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C949" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D949" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E949" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F949" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G949" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H949" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I949" s="0" t="n">
         <x:v>0</x:v>
@@ -28245,25 +28245,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B950" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C950" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D950" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E950" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F950" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G950" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H950" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I950" s="0" t="n">
         <x:v>0</x:v>
@@ -28277,22 +28277,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C951" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D951" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E951" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F951" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G951" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H951" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I951" s="0" t="n">
         <x:v>0</x:v>
@@ -28303,25 +28303,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B952" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C952" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D952" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E952" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F952" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G952" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H952" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I952" s="0" t="n">
         <x:v>0</x:v>
@@ -28332,25 +28332,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B953" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C953" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D953" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E953" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F953" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G953" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H953" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I953" s="0" t="n">
         <x:v>0</x:v>
@@ -28364,22 +28364,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C954" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D954" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E954" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F954" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G954" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H954" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I954" s="0" t="n">
         <x:v>0</x:v>
@@ -28390,25 +28390,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B955" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C955" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D955" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E955" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F955" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G955" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H955" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I955" s="0" t="n">
         <x:v>0</x:v>
@@ -28419,25 +28419,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B956" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C956" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D956" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E956" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F956" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G956" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H956" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I956" s="0" t="n">
         <x:v>0</x:v>
@@ -28448,7 +28448,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B957" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C957" s="1" t="s">
         <x:v>11</x:v>
@@ -28463,7 +28463,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G957" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H957" s="1" t="n">
         <x:v>0</x:v>
@@ -28477,22 +28477,22 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B958" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C958" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D958" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E958" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F958" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G958" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H958" s="1" t="n">
         <x:v>0</x:v>
@@ -28509,10 +28509,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C959" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D959" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E959" s="1" t="n">
         <x:v>0</x:v>
@@ -28535,19 +28535,19 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B960" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C960" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D960" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E960" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F960" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G960" s="1" t="n">
         <x:v>0</x:v>
@@ -28564,19 +28564,19 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B961" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C961" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D961" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E961" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F961" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G961" s="1" t="n">
         <x:v>0</x:v>
@@ -28590,13 +28590,13 @@
     </x:row>
     <x:row r="962" spans="1:9">
       <x:c r="A962" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B962" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C962" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D962" s="1" t="n">
         <x:v>0</x:v>
@@ -28619,13 +28619,13 @@
     </x:row>
     <x:row r="963" spans="1:9">
       <x:c r="A963" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B963" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C963" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D963" s="1" t="n">
         <x:v>0</x:v>
@@ -28634,7 +28634,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F963" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G963" s="1" t="n">
         <x:v>0</x:v>
@@ -28654,7 +28654,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C964" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D964" s="1" t="n">
         <x:v>0</x:v>
@@ -28663,7 +28663,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F964" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G964" s="1" t="n">
         <x:v>0</x:v>
@@ -28680,7 +28680,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="B965" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C965" s="1" t="s">
         <x:v>12</x:v>
@@ -28689,16 +28689,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E965" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F965" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G965" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H965" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I965" s="0" t="n">
         <x:v>0</x:v>
@@ -28709,7 +28709,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="B966" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C966" s="1" t="s">
         <x:v>13</x:v>
@@ -28718,16 +28718,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E966" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F966" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G966" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H966" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I966" s="0" t="n">
         <x:v>0</x:v>
@@ -28735,10 +28735,10 @@
     </x:row>
     <x:row r="967" spans="1:9">
       <x:c r="A967" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B967" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C967" s="1" t="s">
         <x:v>12</x:v>
@@ -28747,7 +28747,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E967" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F967" s="1" t="n">
         <x:v>0</x:v>
@@ -28756,7 +28756,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H967" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I967" s="0" t="n">
         <x:v>0</x:v>
@@ -28764,10 +28764,10 @@
     </x:row>
     <x:row r="968" spans="1:9">
       <x:c r="A968" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B968" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C968" s="1" t="s">
         <x:v>13</x:v>
@@ -28776,7 +28776,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E968" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F968" s="1" t="n">
         <x:v>0</x:v>
@@ -28785,7 +28785,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H968" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I968" s="0" t="n">
         <x:v>0</x:v>
@@ -28796,7 +28796,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B969" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C969" s="1" t="s">
         <x:v>12</x:v>
@@ -28805,13 +28805,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E969" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F969" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G969" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H969" s="1" t="n">
         <x:v>0</x:v>
@@ -28825,7 +28825,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B970" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C970" s="1" t="s">
         <x:v>13</x:v>
@@ -28834,13 +28834,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E970" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F970" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G970" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H970" s="1" t="n">
         <x:v>0</x:v>
@@ -28851,28 +28851,28 @@
     </x:row>
     <x:row r="971" spans="1:9">
       <x:c r="A971" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B971" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C971" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D971" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E971" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F971" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G971" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H971" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I971" s="0" t="n">
         <x:v>0</x:v>
@@ -28880,28 +28880,28 @@
     </x:row>
     <x:row r="972" spans="1:9">
       <x:c r="A972" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B972" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C972" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D972" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E972" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F972" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G972" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H972" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I972" s="0" t="n">
         <x:v>0</x:v>
@@ -28915,22 +28915,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C973" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D973" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E973" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F973" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G973" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H973" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I973" s="0" t="n">
         <x:v>0</x:v>
@@ -28941,25 +28941,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B974" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C974" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D974" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E974" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F974" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G974" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H974" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I974" s="0" t="n">
         <x:v>0</x:v>
@@ -28970,25 +28970,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B975" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C975" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D975" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E975" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F975" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G975" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H975" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I975" s="0" t="n">
         <x:v>0</x:v>
@@ -29002,7 +29002,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C976" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D976" s="1" t="n">
         <x:v>3</x:v>
@@ -29014,10 +29014,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G976" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H976" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I976" s="0" t="n">
         <x:v>0</x:v>
@@ -29028,10 +29028,10 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B977" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C977" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D977" s="1" t="n">
         <x:v>0</x:v>
@@ -29040,13 +29040,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F977" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G977" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H977" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I977" s="0" t="n">
         <x:v>0</x:v>
@@ -29057,25 +29057,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B978" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C978" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D978" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E978" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F978" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G978" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H978" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I978" s="0" t="n">
         <x:v>0</x:v>
@@ -29089,22 +29089,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C979" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D979" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E979" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F979" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G979" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H979" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I979" s="0" t="n">
         <x:v>0</x:v>
@@ -29115,25 +29115,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B980" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C980" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D980" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E980" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F980" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G980" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H980" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I980" s="0" t="n">
         <x:v>0</x:v>
@@ -29144,7 +29144,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B981" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C981" s="1" t="s">
         <x:v>13</x:v>
@@ -29153,16 +29153,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E981" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F981" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G981" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H981" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I981" s="0" t="n">
         <x:v>0</x:v>
@@ -29173,19 +29173,19 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B982" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C982" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D982" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E982" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F982" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G982" s="1" t="n">
         <x:v>0</x:v>
@@ -29202,7 +29202,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B983" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C983" s="1" t="s">
         <x:v>13</x:v>
@@ -29211,10 +29211,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E983" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F983" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G983" s="1" t="n">
         <x:v>0</x:v>
@@ -29231,7 +29231,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B984" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C984" s="1" t="s">
         <x:v>12</x:v>
@@ -29240,13 +29240,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E984" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F984" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G984" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H984" s="1" t="n">
         <x:v>0</x:v>
@@ -29260,7 +29260,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B985" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C985" s="1" t="s">
         <x:v>13</x:v>
@@ -29269,13 +29269,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E985" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F985" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G985" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H985" s="1" t="n">
         <x:v>0</x:v>
@@ -29286,13 +29286,13 @@
     </x:row>
     <x:row r="986" spans="1:9">
       <x:c r="A986" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B986" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C986" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D986" s="1" t="n">
         <x:v>0</x:v>
@@ -29301,10 +29301,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F986" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G986" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H986" s="1" t="n">
         <x:v>0</x:v>
@@ -29315,25 +29315,25 @@
     </x:row>
     <x:row r="987" spans="1:9">
       <x:c r="A987" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B987" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C987" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D987" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E987" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F987" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G987" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H987" s="1" t="n">
         <x:v>0</x:v>
@@ -29350,19 +29350,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C988" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D988" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E988" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F988" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G988" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H988" s="1" t="n">
         <x:v>0</x:v>
@@ -29376,22 +29376,22 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B989" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C989" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D989" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E989" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F989" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G989" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H989" s="1" t="n">
         <x:v>0</x:v>
@@ -29405,25 +29405,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B990" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C990" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D990" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E990" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F990" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G990" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H990" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I990" s="0" t="n">
         <x:v>0</x:v>
@@ -29437,10 +29437,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C991" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D991" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E991" s="1" t="n">
         <x:v>2</x:v>
@@ -29449,10 +29449,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G991" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H991" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I991" s="0" t="n">
         <x:v>0</x:v>
@@ -29463,25 +29463,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B992" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C992" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D992" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E992" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F992" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G992" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H992" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I992" s="0" t="n">
         <x:v>0</x:v>
@@ -29492,22 +29492,22 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B993" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C993" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D993" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E993" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F993" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G993" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H993" s="1" t="n">
         <x:v>2</x:v>
@@ -29524,22 +29524,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C994" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D994" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E994" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F994" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G994" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H994" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I994" s="0" t="n">
         <x:v>0</x:v>
@@ -29550,22 +29550,22 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B995" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C995" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D995" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E995" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F995" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G995" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H995" s="1" t="n">
         <x:v>2</x:v>
@@ -29579,22 +29579,22 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B996" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C996" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D996" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E996" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F996" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G996" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H996" s="1" t="n">
         <x:v>2</x:v>
@@ -29608,16 +29608,16 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B997" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C997" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D997" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E997" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F997" s="1" t="n">
         <x:v>0</x:v>
@@ -29626,7 +29626,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H997" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I997" s="0" t="n">
         <x:v>0</x:v>
@@ -29637,16 +29637,16 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B998" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C998" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D998" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E998" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F998" s="1" t="n">
         <x:v>0</x:v>
@@ -29655,7 +29655,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H998" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I998" s="0" t="n">
         <x:v>0</x:v>
@@ -29663,25 +29663,25 @@
     </x:row>
     <x:row r="999" spans="1:9">
       <x:c r="A999" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B999" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C999" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D999" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E999" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F999" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G999" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H999" s="1" t="n">
         <x:v>1</x:v>
@@ -29692,25 +29692,25 @@
     </x:row>
     <x:row r="1000" spans="1:9">
       <x:c r="A1000" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B1000" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1000" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1000" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1000" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1000" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1000" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1000" s="1" t="n">
         <x:v>1</x:v>
@@ -29727,22 +29727,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1001" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1001" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1001" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1001" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1001" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1001" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1001" s="0" t="n">
         <x:v>0</x:v>
@@ -29753,25 +29753,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1002" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1002" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1002" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E1002" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1002" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1002" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1002" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1002" s="0" t="n">
         <x:v>0</x:v>
@@ -29782,25 +29782,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1003" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1003" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1003" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E1003" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1003" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1003" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1003" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1003" s="0" t="n">
         <x:v>0</x:v>
@@ -29814,19 +29814,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1004" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1004" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1004" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1004" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1004" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1004" s="1" t="n">
         <x:v>0</x:v>
@@ -29840,22 +29840,22 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1005" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1005" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1005" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1005" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1005" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1005" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1005" s="1" t="n">
         <x:v>0</x:v>
@@ -29869,25 +29869,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1006" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1006" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1006" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1006" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1006" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1006" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1006" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1006" s="0" t="n">
         <x:v>0</x:v>
@@ -29901,22 +29901,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1007" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1007" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1007" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1007" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1007" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1007" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1007" s="0" t="n">
         <x:v>0</x:v>
@@ -29927,7 +29927,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1008" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1008" s="1" t="s">
         <x:v>12</x:v>
@@ -29942,10 +29942,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1008" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1008" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1008" s="0" t="n">
         <x:v>0</x:v>
@@ -29956,7 +29956,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1009" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1009" s="1" t="s">
         <x:v>13</x:v>
@@ -29965,16 +29965,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1009" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1009" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1009" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1009" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1009" s="0" t="n">
         <x:v>0</x:v>
@@ -29985,16 +29985,16 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1010" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1010" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1010" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1010" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1010" s="1" t="n">
         <x:v>0</x:v>
@@ -30014,16 +30014,16 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1011" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1011" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1011" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1011" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1011" s="1" t="n">
         <x:v>0</x:v>
@@ -30046,13 +30046,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1012" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1012" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1012" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F1012" s="1" t="n">
         <x:v>0</x:v>
@@ -30072,25 +30072,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1013" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1013" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1013" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E1013" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1013" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1013" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1013" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1013" s="0" t="n">
         <x:v>0</x:v>
@@ -30101,22 +30101,22 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1014" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1014" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1014" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E1014" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F1014" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1014" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1014" s="1" t="n">
         <x:v>0</x:v>
@@ -30133,7 +30133,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1015" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1015" s="1" t="n">
         <x:v>0</x:v>
@@ -30145,7 +30145,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1015" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1015" s="1" t="n">
         <x:v>2</x:v>
@@ -30156,28 +30156,28 @@
     </x:row>
     <x:row r="1016" spans="1:9">
       <x:c r="A1016" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B1016" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1016" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1016" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1016" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1016" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1016" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1016" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1016" s="0" t="n">
         <x:v>0</x:v>
@@ -30185,28 +30185,28 @@
     </x:row>
     <x:row r="1017" spans="1:9">
       <x:c r="A1017" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B1017" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1017" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1017" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1017" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1017" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1017" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1017" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1017" s="0" t="n">
         <x:v>0</x:v>
@@ -30220,22 +30220,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1018" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1018" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E1018" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F1018" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G1018" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H1018" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1018" s="0" t="n">
         <x:v>0</x:v>
@@ -30246,25 +30246,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1019" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1019" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1019" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E1019" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F1019" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G1019" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H1019" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I1019" s="0" t="n">
         <x:v>0</x:v>
@@ -30275,25 +30275,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1020" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1020" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1020" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E1020" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F1020" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G1020" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H1020" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I1020" s="0" t="n">
         <x:v>0</x:v>
@@ -30307,10 +30307,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C1021" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1021" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1021" s="1" t="n">
         <x:v>0</x:v>
@@ -30333,25 +30333,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1022" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1022" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1022" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1022" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1022" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1022" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1022" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1022" s="0" t="n">
         <x:v>0</x:v>
@@ -30362,25 +30362,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1023" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1023" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1023" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1023" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1023" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1023" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1023" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1023" s="0" t="n">
         <x:v>0</x:v>
@@ -30394,22 +30394,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1024" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1024" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E1024" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1024" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1024" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1024" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1024" s="0" t="n">
         <x:v>0</x:v>
@@ -30420,25 +30420,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1025" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1025" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1025" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E1025" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1025" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G1025" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H1025" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I1025" s="0" t="n">
         <x:v>0</x:v>
@@ -30449,25 +30449,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1026" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1026" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1026" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E1026" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F1026" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G1026" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H1026" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I1026" s="0" t="n">
         <x:v>0</x:v>
@@ -30481,22 +30481,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1027" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1027" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1027" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F1027" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G1027" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H1027" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I1027" s="0" t="n">
         <x:v>0</x:v>
@@ -30507,25 +30507,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1028" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1028" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1028" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1028" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F1028" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G1028" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H1028" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I1028" s="0" t="n">
         <x:v>0</x:v>
@@ -30536,25 +30536,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1029" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1029" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1029" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E1029" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F1029" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G1029" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="H1029" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I1029" s="0" t="n">
         <x:v>0</x:v>
@@ -30568,7 +30568,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1030" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1030" s="1" t="n">
         <x:v>0</x:v>
@@ -30583,7 +30583,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H1030" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1030" s="0" t="n">
         <x:v>0</x:v>
@@ -30594,25 +30594,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1031" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1031" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1031" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1031" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1031" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1031" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1031" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1031" s="0" t="n">
         <x:v>0</x:v>
@@ -30623,25 +30623,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1032" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1032" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1032" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1032" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1032" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1032" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1032" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1032" s="0" t="n">
         <x:v>0</x:v>
@@ -30655,22 +30655,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1033" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1033" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1033" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1033" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1033" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1033" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1033" s="0" t="n">
         <x:v>0</x:v>
@@ -30681,25 +30681,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1034" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1034" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1034" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1034" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F1034" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1034" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H1034" s="1" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="H1034" s="1" t="n">
-        <x:v>1</x:v>
       </x:c>
       <x:c r="I1034" s="0" t="n">
         <x:v>0</x:v>
@@ -30710,22 +30710,22 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1035" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1035" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1035" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E1035" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F1035" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G1035" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1035" s="1" t="n">
         <x:v>4</x:v>
@@ -30742,22 +30742,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1036" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1036" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1036" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1036" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1036" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1036" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1036" s="0" t="n">
         <x:v>0</x:v>
@@ -30765,25 +30765,25 @@
     </x:row>
     <x:row r="1037" spans="1:9">
       <x:c r="A1037" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B1037" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C1037" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D1037" s="1" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E1037" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1037" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C1037" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D1037" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1037" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F1037" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="G1037" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1037" s="1" t="n">
         <x:v>4</x:v>
@@ -30794,28 +30794,28 @@
     </x:row>
     <x:row r="1038" spans="1:9">
       <x:c r="A1038" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B1038" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1038" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1038" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E1038" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1038" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G1038" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H1038" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1038" s="0" t="n">
         <x:v>0</x:v>
@@ -30829,22 +30829,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1039" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1039" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1039" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1039" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G1039" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1039" s="1" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1039" s="1" t="n">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G1039" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H1039" s="1" t="n">
-        <x:v>6</x:v>
       </x:c>
       <x:c r="I1039" s="0" t="n">
         <x:v>0</x:v>
@@ -30855,25 +30855,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1040" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1040" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1040" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1040" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1040" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1040" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1040" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1040" s="0" t="n">
         <x:v>0</x:v>
@@ -30884,25 +30884,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1041" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1041" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1041" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1041" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1041" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G1041" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1041" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1041" s="0" t="n">
         <x:v>0</x:v>
@@ -30913,25 +30913,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1042" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1042" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1042" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1042" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1042" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1042" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1042" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1042" s="0" t="n">
         <x:v>0</x:v>
@@ -30942,22 +30942,22 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1043" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1043" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1043" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1043" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1043" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1043" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1043" s="1" t="n">
         <x:v>1</x:v>
@@ -30974,22 +30974,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1044" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1044" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1044" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1044" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1044" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1044" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1044" s="0" t="n">
         <x:v>0</x:v>
@@ -31000,25 +31000,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1045" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1045" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1045" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1045" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1045" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1045" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1045" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1045" s="0" t="n">
         <x:v>0</x:v>
@@ -31029,25 +31029,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1046" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1046" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1046" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1046" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1046" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1046" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1046" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1046" s="0" t="n">
         <x:v>0</x:v>
@@ -31058,7 +31058,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1047" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1047" s="1" t="s">
         <x:v>12</x:v>
@@ -31067,10 +31067,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1047" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1047" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1047" s="1" t="n">
         <x:v>0</x:v>
@@ -31087,7 +31087,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1048" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1048" s="1" t="s">
         <x:v>13</x:v>
@@ -31096,10 +31096,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1048" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1048" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1048" s="1" t="n">
         <x:v>0</x:v>
@@ -31116,7 +31116,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1049" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1049" s="1" t="s">
         <x:v>12</x:v>
@@ -31131,7 +31131,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1049" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1049" s="1" t="n">
         <x:v>0</x:v>
@@ -31145,7 +31145,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1050" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1050" s="1" t="s">
         <x:v>13</x:v>
@@ -31160,7 +31160,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1050" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1050" s="1" t="n">
         <x:v>0</x:v>
@@ -31171,28 +31171,28 @@
     </x:row>
     <x:row r="1051" spans="1:9">
       <x:c r="A1051" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B1051" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1051" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1051" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1051" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1051" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1051" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1051" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1051" s="0" t="n">
         <x:v>0</x:v>
@@ -31200,28 +31200,28 @@
     </x:row>
     <x:row r="1052" spans="1:9">
       <x:c r="A1052" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B1052" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1052" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1052" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1052" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1052" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1052" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1052" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1052" s="0" t="n">
         <x:v>0</x:v>
@@ -31235,22 +31235,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1053" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1053" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1053" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1053" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1053" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1053" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1053" s="0" t="n">
         <x:v>0</x:v>
@@ -31261,25 +31261,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1054" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1054" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1054" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1054" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1054" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1054" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1054" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1054" s="0" t="n">
         <x:v>0</x:v>
@@ -31290,25 +31290,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1055" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1055" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1055" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1055" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1055" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1055" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1055" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1055" s="0" t="n">
         <x:v>0</x:v>
@@ -31322,7 +31322,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1056" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1056" s="1" t="n">
         <x:v>1</x:v>
@@ -31331,10 +31331,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1056" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1056" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1056" s="1" t="n">
         <x:v>1</x:v>
@@ -31348,10 +31348,10 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1057" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1057" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1057" s="1" t="n">
         <x:v>0</x:v>
@@ -31360,13 +31360,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1057" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1057" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1057" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1057" s="0" t="n">
         <x:v>0</x:v>
@@ -31377,25 +31377,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1058" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1058" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1058" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1058" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1058" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1058" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1058" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1058" s="0" t="n">
         <x:v>0</x:v>
@@ -31409,22 +31409,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1059" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1059" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1059" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1059" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1059" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1059" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1059" s="0" t="n">
         <x:v>0</x:v>
@@ -31435,25 +31435,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1060" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1060" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1060" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1060" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1060" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1060" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1060" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1060" s="0" t="n">
         <x:v>0</x:v>
@@ -31464,25 +31464,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1061" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1061" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1061" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1061" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1061" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1061" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1061" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1061" s="0" t="n">
         <x:v>0</x:v>
@@ -31496,22 +31496,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1062" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1062" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1062" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1062" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1062" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1062" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1062" s="0" t="n">
         <x:v>0</x:v>
@@ -31522,25 +31522,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1063" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1063" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1063" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1063" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F1063" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1063" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1063" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1063" s="0" t="n">
         <x:v>0</x:v>
@@ -31551,25 +31551,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1064" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1064" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1064" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1064" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F1064" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1064" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1064" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1064" s="0" t="n">
         <x:v>0</x:v>
@@ -31577,28 +31577,28 @@
     </x:row>
     <x:row r="1065" spans="1:9">
       <x:c r="A1065" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B1065" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1065" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1065" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1065" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1065" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1065" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1065" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1065" s="0" t="n">
         <x:v>0</x:v>
@@ -31606,28 +31606,28 @@
     </x:row>
     <x:row r="1066" spans="1:9">
       <x:c r="A1066" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B1066" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1066" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1066" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1066" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1066" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1066" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1066" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1066" s="0" t="n">
         <x:v>0</x:v>
@@ -31641,22 +31641,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1067" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1067" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1067" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1067" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1067" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1067" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1067" s="0" t="n">
         <x:v>0</x:v>
@@ -31667,25 +31667,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1068" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1068" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D1068" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E1068" s="1" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F1068" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C1068" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D1068" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1068" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F1068" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="G1068" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H1068" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I1068" s="0" t="n">
         <x:v>0</x:v>
@@ -31696,25 +31696,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1069" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1069" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1069" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1069" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F1069" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G1069" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H1069" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I1069" s="0" t="n">
         <x:v>0</x:v>
@@ -31728,22 +31728,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1070" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1070" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1070" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1070" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1070" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1070" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1070" s="0" t="n">
         <x:v>0</x:v>
@@ -31754,25 +31754,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1071" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1071" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1071" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1071" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1071" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1071" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1071" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1071" s="0" t="n">
         <x:v>0</x:v>
@@ -31783,25 +31783,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1072" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1072" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1072" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1072" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1072" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1072" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1072" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1072" s="0" t="n">
         <x:v>0</x:v>
@@ -31815,22 +31815,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1073" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1073" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1073" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F1073" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1073" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1073" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1073" s="0" t="n">
         <x:v>0</x:v>
@@ -31841,25 +31841,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1074" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1074" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1074" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1074" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F1074" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G1074" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H1074" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I1074" s="0" t="n">
         <x:v>0</x:v>
@@ -31870,25 +31870,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1075" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1075" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1075" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1075" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F1075" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G1075" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H1075" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I1075" s="0" t="n">
         <x:v>0</x:v>
@@ -31902,13 +31902,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1076" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1076" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1076" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1076" s="1" t="n">
         <x:v>0</x:v>
@@ -31917,7 +31917,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1076" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1076" s="0" t="n">
         <x:v>0</x:v>
@@ -31928,22 +31928,22 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1077" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1077" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1077" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1077" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1077" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1077" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1077" s="1" t="n">
         <x:v>1</x:v>
@@ -31957,25 +31957,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1078" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1078" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1078" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1078" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1078" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1078" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1078" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1078" s="0" t="n">
         <x:v>0</x:v>
@@ -31989,22 +31989,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1079" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1079" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1079" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1079" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1079" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1079" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1079" s="0" t="n">
         <x:v>0</x:v>
@@ -32012,28 +32012,28 @@
     </x:row>
     <x:row r="1080" spans="1:9">
       <x:c r="A1080" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B1080" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1080" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1080" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1080" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1080" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1080" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1080" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I1080" s="0" t="n">
         <x:v>0</x:v>
@@ -32041,28 +32041,28 @@
     </x:row>
     <x:row r="1081" spans="1:9">
       <x:c r="A1081" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B1081" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1081" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1081" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1081" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1081" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G1081" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1081" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I1081" s="0" t="n">
         <x:v>0</x:v>
@@ -32076,22 +32076,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1082" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1082" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1082" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1082" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1082" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H1082" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1082" s="0" t="n">
         <x:v>0</x:v>
@@ -32102,25 +32102,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1083" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1083" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1083" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E1083" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F1083" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G1083" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H1083" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I1083" s="0" t="n">
         <x:v>0</x:v>
@@ -32131,25 +32131,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1084" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1084" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1084" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E1084" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F1084" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G1084" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H1084" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I1084" s="0" t="n">
         <x:v>0</x:v>
@@ -32163,22 +32163,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1085" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1085" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1085" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1085" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1085" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1085" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1085" s="0" t="n">
         <x:v>0</x:v>
@@ -32189,25 +32189,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1086" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1086" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1086" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E1086" s="1" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F1086" s="1" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G1086" s="1" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H1086" s="1" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1086" s="1" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G1086" s="1" t="n">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H1086" s="1" t="n">
-        <x:v>12</x:v>
       </x:c>
       <x:c r="I1086" s="0" t="n">
         <x:v>0</x:v>
@@ -32218,25 +32218,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1087" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1087" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1087" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E1087" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1087" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G1087" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H1087" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I1087" s="0" t="n">
         <x:v>0</x:v>
@@ -32250,22 +32250,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1088" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1088" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E1088" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1088" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G1088" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H1088" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I1088" s="0" t="n">
         <x:v>0</x:v>
@@ -32276,7 +32276,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1089" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1089" s="1" t="s">
         <x:v>12</x:v>
@@ -32285,16 +32285,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1089" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F1089" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G1089" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H1089" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I1089" s="0" t="n">
         <x:v>0</x:v>
@@ -32305,25 +32305,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1090" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1090" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1090" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1090" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F1090" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G1090" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H1090" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I1090" s="0" t="n">
         <x:v>0</x:v>
@@ -32334,22 +32334,22 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1091" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1091" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1091" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1091" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1091" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1091" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1091" s="1" t="n">
         <x:v>0</x:v>
@@ -32363,25 +32363,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1092" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1092" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1092" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1092" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1092" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1092" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1092" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1092" s="0" t="n">
         <x:v>0</x:v>
@@ -32395,22 +32395,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1093" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1093" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E1093" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F1093" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1093" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H1093" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1093" s="0" t="n">
         <x:v>0</x:v>
@@ -32421,19 +32421,19 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1094" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1094" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1094" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E1094" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F1094" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1094" s="1" t="n">
         <x:v>0</x:v>
@@ -32450,22 +32450,22 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1095" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1095" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1095" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E1095" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F1095" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1095" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1095" s="1" t="n">
         <x:v>1</x:v>
@@ -32482,22 +32482,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1096" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1096" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1096" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1096" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1096" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1096" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1096" s="0" t="n">
         <x:v>0</x:v>
@@ -32505,22 +32505,22 @@
     </x:row>
     <x:row r="1097" spans="1:9">
       <x:c r="A1097" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B1097" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1097" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1097" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1097" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1097" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1097" s="1" t="n">
         <x:v>5</x:v>
@@ -32534,28 +32534,28 @@
     </x:row>
     <x:row r="1098" spans="1:9">
       <x:c r="A1098" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B1098" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1098" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1098" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1098" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1098" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1098" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1098" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1098" s="0" t="n">
         <x:v>0</x:v>
@@ -32569,7 +32569,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1099" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1099" s="1" t="n">
         <x:v>0</x:v>
@@ -32578,13 +32578,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1099" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1099" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1099" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1099" s="0" t="n">
         <x:v>0</x:v>
@@ -32595,7 +32595,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1100" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1100" s="1" t="s">
         <x:v>12</x:v>
@@ -32607,13 +32607,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1100" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1100" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1100" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1100" s="0" t="n">
         <x:v>0</x:v>
@@ -32624,7 +32624,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1101" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1101" s="1" t="s">
         <x:v>13</x:v>
@@ -32636,13 +32636,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1101" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1101" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1101" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1101" s="0" t="n">
         <x:v>0</x:v>
@@ -32653,10 +32653,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1102" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1102" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1102" s="1" t="n">
         <x:v>0</x:v>
@@ -32668,7 +32668,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1102" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1102" s="1" t="n">
         <x:v>0</x:v>
@@ -32682,25 +32682,25 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1103" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1103" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1103" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1103" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1103" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1103" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1103" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1103" s="0" t="n">
         <x:v>0</x:v>
@@ -32714,22 +32714,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1104" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1104" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1104" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1104" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1104" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1104" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1104" s="0" t="n">
         <x:v>0</x:v>
@@ -32740,25 +32740,25 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1105" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1105" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1105" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1105" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1105" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1105" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1105" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1105" s="0" t="n">
         <x:v>0</x:v>
@@ -32769,25 +32769,25 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1106" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1106" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1106" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1106" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1106" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1106" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1106" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1106" s="0" t="n">
         <x:v>0</x:v>
@@ -32801,10 +32801,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1107" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1107" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1107" s="1" t="n">
         <x:v>1</x:v>
@@ -32819,6 +32819,64 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I1107" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1108" spans="1:9">
+      <x:c r="A1108" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B1108" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C1108" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D1108" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1108" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1108" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G1108" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H1108" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1108" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1109" spans="1:9">
+      <x:c r="A1109" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B1109" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C1109" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1109" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1109" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1109" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G1109" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H1109" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1109" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -3259,7 +3259,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="F88" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G88" s="1" t="n">
         <x:v>110</x:v>
@@ -3288,7 +3288,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="F89" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G89" s="1" t="n">
         <x:v>156</x:v>
@@ -4541,7 +4541,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="H132" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I132" s="0" t="n">
         <x:v>0</x:v>
@@ -4570,7 +4570,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="H133" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I133" s="0" t="n">
         <x:v>0</x:v>
@@ -4715,7 +4715,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="H138" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I138" s="0" t="n">
         <x:v>0</x:v>
@@ -4744,7 +4744,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="H139" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I139" s="0" t="n">
         <x:v>0</x:v>
@@ -6919,7 +6919,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H214" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I214" s="0" t="n">
         <x:v>0</x:v>
@@ -6977,7 +6977,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H216" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I216" s="0" t="n">
         <x:v>0</x:v>
@@ -7693,7 +7693,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E241" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F241" s="1" t="n">
         <x:v>77</x:v>
@@ -7722,7 +7722,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E242" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F242" s="1" t="n">
         <x:v>96</x:v>
@@ -7989,7 +7989,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G251" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H251" s="1" t="n">
         <x:v>0</x:v>
@@ -8047,7 +8047,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G253" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H253" s="1" t="n">
         <x:v>0</x:v>
@@ -10535,16 +10535,16 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E339" s="1" t="n">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="F339" s="1" t="n">
         <x:v>684</x:v>
       </x:c>
       <x:c r="G339" s="1" t="n">
-        <x:v>579</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="H339" s="1" t="n">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="I339" s="0" t="n">
         <x:v>0</x:v>
@@ -10564,16 +10564,16 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E340" s="1" t="n">
-        <x:v>501</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="F340" s="1" t="n">
         <x:v>881</x:v>
       </x:c>
       <x:c r="G340" s="1" t="n">
-        <x:v>758</x:v>
+        <x:v>759</x:v>
       </x:c>
       <x:c r="H340" s="1" t="n">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="I340" s="0" t="n">
         <x:v>0</x:v>
@@ -10718,7 +10718,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="H345" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I345" s="0" t="n">
         <x:v>0</x:v>
@@ -10747,7 +10747,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="H346" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I346" s="0" t="n">
         <x:v>0</x:v>
@@ -11031,7 +11031,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F356" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G356" s="1" t="n">
         <x:v>75</x:v>
@@ -11063,7 +11063,7 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="G357" s="1" t="n">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H357" s="1" t="n">
         <x:v>99</x:v>
@@ -11089,10 +11089,10 @@
         <x:v>188</x:v>
       </x:c>
       <x:c r="F358" s="1" t="n">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="G358" s="1" t="n">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="H358" s="1" t="n">
         <x:v>128</x:v>
@@ -12049,7 +12049,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
         <x:v>11</x:v>
@@ -12078,7 +12078,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H392" s="1" t="n">
         <x:v>14</x:v>
@@ -20024,7 +20024,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G666" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H666" s="1" t="n">
         <x:v>20</x:v>
@@ -20053,7 +20053,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G667" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H667" s="1" t="n">
         <x:v>25</x:v>
@@ -22834,7 +22834,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F763" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G763" s="1" t="n">
         <x:v>1</x:v>
@@ -22892,7 +22892,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F765" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G765" s="1" t="n">
         <x:v>18</x:v>
@@ -23533,7 +23533,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G787" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H787" s="1" t="n">
         <x:v>13</x:v>
@@ -23562,7 +23562,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="G788" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H788" s="1" t="n">
         <x:v>17</x:v>
@@ -26056,7 +26056,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="G874" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H874" s="1" t="n">
         <x:v>5</x:v>
@@ -26085,10 +26085,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G875" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H875" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I875" s="0" t="n">
         <x:v>0</x:v>
@@ -26114,10 +26114,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="G876" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H876" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I876" s="0" t="n">
         <x:v>0</x:v>
@@ -26665,7 +26665,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="G895" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H895" s="1" t="n">
         <x:v>10</x:v>
@@ -26688,13 +26688,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E896" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F896" s="1" t="n">
         <x:v>59</x:v>
       </x:c>
       <x:c r="G896" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H896" s="1" t="n">
         <x:v>43</x:v>
@@ -26717,13 +26717,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E897" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F897" s="1" t="n">
         <x:v>89</x:v>
       </x:c>
       <x:c r="G897" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H897" s="1" t="n">
         <x:v>53</x:v>
@@ -30490,7 +30490,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F1027" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G1027" s="1" t="n">
         <x:v>45</x:v>
@@ -30548,7 +30548,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="F1029" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G1029" s="1" t="n">
         <x:v>144</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -7934,7 +7934,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="H249" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I249" s="0" t="n">
         <x:v>0</x:v>
@@ -7963,7 +7963,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="H250" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="I250" s="0" t="n">
         <x:v>0</x:v>
@@ -10506,7 +10506,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E338" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F338" s="1" t="n">
         <x:v>197</x:v>
@@ -10564,7 +10564,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E340" s="1" t="n">
-        <x:v>502</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="F340" s="1" t="n">
         <x:v>881</x:v>
@@ -10709,7 +10709,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E345" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F345" s="1" t="n">
         <x:v>81</x:v>
@@ -10738,7 +10738,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E346" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F346" s="1" t="n">
         <x:v>106</x:v>
@@ -18977,7 +18977,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F630" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G630" s="1" t="n">
         <x:v>25</x:v>
@@ -19006,7 +19006,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F631" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G631" s="1" t="n">
         <x:v>30</x:v>
@@ -21352,7 +21352,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E712" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F712" s="1" t="n">
         <x:v>2</x:v>
@@ -21410,7 +21410,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E714" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F714" s="1" t="n">
         <x:v>11</x:v>
@@ -26691,7 +26691,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="F896" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G896" s="1" t="n">
         <x:v>57</x:v>
@@ -26720,7 +26720,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="F897" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G897" s="1" t="n">
         <x:v>79</x:v>
@@ -27010,7 +27010,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F907" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G907" s="1" t="n">
         <x:v>3</x:v>
@@ -27068,7 +27068,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F909" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G909" s="1" t="n">
         <x:v>13</x:v>
@@ -27303,7 +27303,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G917" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H917" s="1" t="n">
         <x:v>3</x:v>
@@ -27332,7 +27332,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G918" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H918" s="1" t="n">
         <x:v>8</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -7673,7 +7673,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="H240" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I240" s="0" t="n">
         <x:v>0</x:v>
@@ -7696,7 +7696,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="F241" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G241" s="1" t="n">
         <x:v>118</x:v>
@@ -7725,13 +7725,13 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="F242" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G242" s="1" t="n">
         <x:v>160</x:v>
       </x:c>
       <x:c r="H242" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I242" s="0" t="n">
         <x:v>0</x:v>
@@ -7928,7 +7928,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="F249" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G249" s="1" t="n">
         <x:v>110</x:v>
@@ -7957,7 +7957,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="F250" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G250" s="1" t="n">
         <x:v>155</x:v>
@@ -7989,7 +7989,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G251" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H251" s="1" t="n">
         <x:v>0</x:v>
@@ -8047,7 +8047,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G253" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H253" s="1" t="n">
         <x:v>0</x:v>
@@ -10512,7 +10512,7 @@
         <x:v>197</x:v>
       </x:c>
       <x:c r="G338" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="H338" s="1" t="n">
         <x:v>57</x:v>
@@ -10541,7 +10541,7 @@
         <x:v>684</x:v>
       </x:c>
       <x:c r="G339" s="1" t="n">
-        <x:v>580</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="H339" s="1" t="n">
         <x:v>236</x:v>
@@ -10570,7 +10570,7 @@
         <x:v>881</x:v>
       </x:c>
       <x:c r="G340" s="1" t="n">
-        <x:v>759</x:v>
+        <x:v>761</x:v>
       </x:c>
       <x:c r="H340" s="1" t="n">
         <x:v>293</x:v>
@@ -10625,7 +10625,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F342" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G342" s="1" t="n">
         <x:v>10</x:v>
@@ -10654,7 +10654,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F343" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G343" s="1" t="n">
         <x:v>12</x:v>
@@ -10677,13 +10677,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D344" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E344" s="1" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F344" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G344" s="1" t="n">
         <x:v>31</x:v>
@@ -10718,7 +10718,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="H345" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I345" s="0" t="n">
         <x:v>0</x:v>
@@ -10735,19 +10735,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D346" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E346" s="1" t="n">
         <x:v>48</x:v>
       </x:c>
       <x:c r="F346" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G346" s="1" t="n">
         <x:v>105</x:v>
       </x:c>
       <x:c r="H346" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I346" s="0" t="n">
         <x:v>0</x:v>
@@ -11034,7 +11034,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="G356" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H356" s="1" t="n">
         <x:v>29</x:v>
@@ -11063,7 +11063,7 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="G357" s="1" t="n">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="H357" s="1" t="n">
         <x:v>99</x:v>
@@ -11092,7 +11092,7 @@
         <x:v>312</x:v>
       </x:c>
       <x:c r="G358" s="1" t="n">
-        <x:v>312</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="H358" s="1" t="n">
         <x:v>128</x:v>
@@ -22344,7 +22344,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="G746" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="H746" s="1" t="n">
         <x:v>67</x:v>
@@ -22373,7 +22373,7 @@
         <x:v>215</x:v>
       </x:c>
       <x:c r="G747" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="H747" s="1" t="n">
         <x:v>88</x:v>
@@ -25389,7 +25389,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H851" s="1" t="n">
         <x:v>14</x:v>
@@ -25418,7 +25418,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
         <x:v>21</x:v>
@@ -25467,7 +25467,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D854" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E854" s="1" t="n">
         <x:v>11</x:v>
@@ -25496,7 +25496,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D855" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E855" s="1" t="n">
         <x:v>13</x:v>
@@ -25618,7 +25618,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F859" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G859" s="1" t="n">
         <x:v>10</x:v>
@@ -25647,7 +25647,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F860" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G860" s="1" t="n">
         <x:v>12</x:v>
@@ -26688,7 +26688,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E896" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F896" s="1" t="n">
         <x:v>60</x:v>
@@ -26717,7 +26717,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E897" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F897" s="1" t="n">
         <x:v>90</x:v>
@@ -27735,7 +27735,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F932" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G932" s="1" t="n">
         <x:v>0</x:v>
@@ -27764,7 +27764,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F933" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G933" s="1" t="n">
         <x:v>0</x:v>
@@ -29098,13 +29098,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F979" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G979" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H979" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I979" s="0" t="n">
         <x:v>0</x:v>
@@ -29130,7 +29130,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G980" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H980" s="1" t="n">
         <x:v>11</x:v>
@@ -29156,13 +29156,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F981" s="1" t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G981" s="1" t="n">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="G981" s="1" t="n">
-        <x:v>17</x:v>
-      </x:c>
       <x:c r="H981" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I981" s="0" t="n">
         <x:v>0</x:v>
@@ -30864,7 +30864,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1040" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1040" s="1" t="n">
         <x:v>7</x:v>
@@ -30893,7 +30893,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1041" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1041" s="1" t="n">
         <x:v>13</x:v>
@@ -31850,7 +31850,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1074" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F1074" s="1" t="n">
         <x:v>30</x:v>
@@ -31879,7 +31879,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E1075" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F1075" s="1" t="n">
         <x:v>35</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -2392,7 +2392,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G58" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H58" s="1" t="n">
         <x:v>5</x:v>
@@ -2450,7 +2450,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="G60" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
         <x:v>19</x:v>
@@ -7783,7 +7783,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="F244" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G244" s="1" t="n">
         <x:v>118</x:v>
@@ -7812,7 +7812,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="F245" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G245" s="1" t="n">
         <x:v>160</x:v>
@@ -9642,7 +9642,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G308" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H308" s="1" t="n">
         <x:v>6</x:v>
@@ -9671,7 +9671,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G309" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H309" s="1" t="n">
         <x:v>8</x:v>
@@ -10593,7 +10593,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E341" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F341" s="1" t="n">
         <x:v>198</x:v>
@@ -10622,10 +10622,10 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E342" s="1" t="n">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="F342" s="1" t="n">
-        <x:v>684</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="G342" s="1" t="n">
         <x:v>581</x:v>
@@ -10651,10 +10651,10 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E343" s="1" t="n">
-        <x:v>501</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="F343" s="1" t="n">
-        <x:v>882</x:v>
+        <x:v>883</x:v>
       </x:c>
       <x:c r="G343" s="1" t="n">
         <x:v>761</x:v>
@@ -20604,7 +20604,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G686" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H686" s="1" t="n">
         <x:v>6</x:v>
@@ -20633,7 +20633,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G687" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H687" s="1" t="n">
         <x:v>9</x:v>
@@ -25998,10 +25998,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G872" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H872" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I872" s="0" t="n">
         <x:v>0</x:v>
@@ -26027,7 +26027,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
         <x:v>46</x:v>
@@ -26056,10 +26056,10 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="G874" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H874" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I874" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -3346,7 +3346,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="F91" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G91" s="1" t="n">
         <x:v>110</x:v>
@@ -3375,7 +3375,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="F92" s="1" t="n">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="G92" s="1" t="n">
         <x:v>156</x:v>
@@ -6104,10 +6104,10 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="G186" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H186" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I186" s="0" t="n">
         <x:v>0</x:v>
@@ -6133,10 +6133,10 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="G187" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H187" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I187" s="0" t="n">
         <x:v>0</x:v>
@@ -6240,7 +6240,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D191" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E191" s="1" t="n">
         <x:v>1</x:v>
@@ -6249,7 +6249,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G191" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H191" s="1" t="n">
         <x:v>2</x:v>
@@ -6269,7 +6269,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D192" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E192" s="1" t="n">
         <x:v>2</x:v>
@@ -6278,7 +6278,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G192" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H192" s="1" t="n">
         <x:v>2</x:v>
@@ -7757,7 +7757,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G243" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H243" s="1" t="n">
         <x:v>10</x:v>
@@ -7780,13 +7780,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E244" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F244" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G244" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H244" s="1" t="n">
         <x:v>44</x:v>
@@ -7809,13 +7809,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E245" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F245" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G245" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="H245" s="1" t="n">
         <x:v>54</x:v>
@@ -8859,7 +8859,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G281" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H281" s="1" t="n">
         <x:v>12</x:v>
@@ -8888,7 +8888,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G282" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H282" s="1" t="n">
         <x:v>18</x:v>
@@ -9465,7 +9465,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F302" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G302" s="1" t="n">
         <x:v>20</x:v>
@@ -9494,7 +9494,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F303" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G303" s="1" t="n">
         <x:v>23</x:v>
@@ -10593,7 +10593,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E341" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F341" s="1" t="n">
         <x:v>199</x:v>
@@ -10622,13 +10622,13 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E342" s="1" t="n">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="F342" s="1" t="n">
         <x:v>685</x:v>
       </x:c>
       <x:c r="G342" s="1" t="n">
-        <x:v>582</x:v>
+        <x:v>584</x:v>
       </x:c>
       <x:c r="H342" s="1" t="n">
         <x:v>236</x:v>
@@ -10651,13 +10651,13 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E343" s="1" t="n">
-        <x:v>504</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="F343" s="1" t="n">
         <x:v>884</x:v>
       </x:c>
       <x:c r="G343" s="1" t="n">
-        <x:v>762</x:v>
+        <x:v>764</x:v>
       </x:c>
       <x:c r="H343" s="1" t="n">
         <x:v>293</x:v>
@@ -10802,7 +10802,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="G348" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H348" s="1" t="n">
         <x:v>50</x:v>
@@ -10831,7 +10831,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="G349" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H349" s="1" t="n">
         <x:v>64</x:v>
@@ -10860,7 +10860,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="G350" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H350" s="1" t="n">
         <x:v>71</x:v>
@@ -10918,7 +10918,7 @@
         <x:v>478</x:v>
       </x:c>
       <x:c r="G352" s="1" t="n">
-        <x:v>447</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="H352" s="1" t="n">
         <x:v>233</x:v>
@@ -11060,7 +11060,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F357" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G357" s="1" t="n">
         <x:v>28</x:v>
@@ -11089,7 +11089,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F358" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G358" s="1" t="n">
         <x:v>33</x:v>
@@ -13067,7 +13067,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H426" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I426" s="0" t="n">
         <x:v>0</x:v>
@@ -13096,7 +13096,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H427" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I427" s="0" t="n">
         <x:v>0</x:v>
@@ -13203,7 +13203,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E431" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F431" s="1" t="n">
         <x:v>0</x:v>
@@ -13261,7 +13261,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E433" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F433" s="1" t="n">
         <x:v>0</x:v>
@@ -14459,7 +14459,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H474" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I474" s="0" t="n">
         <x:v>0</x:v>
@@ -14517,7 +14517,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H476" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I476" s="0" t="n">
         <x:v>0</x:v>
@@ -16689,7 +16689,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G551" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H551" s="1" t="n">
         <x:v>6</x:v>
@@ -16718,7 +16718,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G552" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H552" s="1" t="n">
         <x:v>7</x:v>
@@ -20166,7 +20166,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F671" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G671" s="1" t="n">
         <x:v>18</x:v>
@@ -20195,7 +20195,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F672" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G672" s="1" t="n">
         <x:v>27</x:v>
@@ -26630,7 +26630,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E894" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F894" s="1" t="n">
         <x:v>75</x:v>
@@ -26659,7 +26659,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E895" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F895" s="1" t="n">
         <x:v>105</x:v>
@@ -26871,7 +26871,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H902" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I902" s="0" t="n">
         <x:v>0</x:v>
@@ -26894,13 +26894,13 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F903" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G903" s="1" t="n">
         <x:v>57</x:v>
       </x:c>
       <x:c r="H903" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I903" s="0" t="n">
         <x:v>0</x:v>
@@ -26923,13 +26923,13 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="F904" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G904" s="1" t="n">
         <x:v>79</x:v>
       </x:c>
       <x:c r="H904" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I904" s="0" t="n">
         <x:v>0</x:v>
@@ -27062,7 +27062,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D909" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E909" s="1" t="n">
         <x:v>41</x:v>
@@ -27091,7 +27091,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D910" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E910" s="1" t="n">
         <x:v>50</x:v>
@@ -32816,7 +32816,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H1107" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1107" s="0" t="n">
         <x:v>0</x:v>
@@ -32845,7 +32845,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H1108" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1108" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -709,7 +709,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I1116"/>
+  <x:dimension ref="A1:I1117"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1203,7 +1203,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
         <x:v>53</x:v>
@@ -1232,7 +1232,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
         <x:v>64</x:v>
@@ -3430,7 +3430,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E94" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F94" s="1" t="n">
         <x:v>8</x:v>
@@ -3459,7 +3459,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E95" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F95" s="1" t="n">
         <x:v>15</x:v>
@@ -3662,7 +3662,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E102" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F102" s="1" t="n">
         <x:v>0</x:v>
@@ -3720,7 +3720,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E104" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F104" s="1" t="n">
         <x:v>3</x:v>
@@ -7232,7 +7232,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F225" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G225" s="1" t="n">
         <x:v>6</x:v>
@@ -7290,7 +7290,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F227" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G227" s="1" t="n">
         <x:v>32</x:v>
@@ -9642,7 +9642,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G308" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H308" s="1" t="n">
         <x:v>6</x:v>
@@ -9671,7 +9671,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G309" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H309" s="1" t="n">
         <x:v>8</x:v>
@@ -10680,7 +10680,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E344" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F344" s="1" t="n">
         <x:v>2</x:v>
@@ -10738,7 +10738,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E346" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F346" s="1" t="n">
         <x:v>13</x:v>
@@ -10860,7 +10860,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="G350" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H350" s="1" t="n">
         <x:v>71</x:v>
@@ -10918,7 +10918,7 @@
         <x:v>478</x:v>
       </x:c>
       <x:c r="G352" s="1" t="n">
-        <x:v>446</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="H352" s="1" t="n">
         <x:v>233</x:v>
@@ -26111,7 +26111,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F876" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G876" s="1" t="n">
         <x:v>30</x:v>
@@ -26134,19 +26134,19 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D877" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E877" s="1" t="n">
         <x:v>48</x:v>
       </x:c>
       <x:c r="F877" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G877" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H877" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I877" s="0" t="n">
         <x:v>0</x:v>
@@ -26163,19 +26163,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D878" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E878" s="1" t="n">
         <x:v>63</x:v>
       </x:c>
       <x:c r="F878" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G878" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="H878" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I878" s="0" t="n">
         <x:v>0</x:v>
@@ -26253,16 +26253,16 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E881" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F881" s="1" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G881" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H881" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I881" s="0" t="n">
         <x:v>0</x:v>
@@ -26279,16 +26279,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D882" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E882" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F882" s="1" t="n">
         <x:v>25</x:v>
       </x:c>
       <x:c r="G882" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H882" s="1" t="n">
         <x:v>15</x:v>
@@ -26308,19 +26308,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D883" s="1" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E883" s="1" t="n">
         <x:v>23</x:v>
-      </x:c>
-      <x:c r="E883" s="1" t="n">
-        <x:v>19</x:v>
       </x:c>
       <x:c r="F883" s="1" t="n">
         <x:v>37</x:v>
       </x:c>
       <x:c r="G883" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H883" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I883" s="0" t="n">
         <x:v>0</x:v>
@@ -26375,10 +26375,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="G885" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H885" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I885" s="0" t="n">
         <x:v>0</x:v>
@@ -26404,10 +26404,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G886" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H886" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I886" s="0" t="n">
         <x:v>0</x:v>
@@ -26424,7 +26424,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D887" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E887" s="1" t="n">
         <x:v>7</x:v>
@@ -26453,10 +26453,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D888" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E888" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F888" s="1" t="n">
         <x:v>1</x:v>
@@ -26482,10 +26482,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D889" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E889" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F889" s="1" t="n">
         <x:v>2</x:v>
@@ -26552,7 +26552,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H891" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I891" s="0" t="n">
         <x:v>0</x:v>
@@ -26581,7 +26581,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="H892" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I892" s="0" t="n">
         <x:v>0</x:v>
@@ -27938,7 +27938,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F939" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G939" s="1" t="n">
         <x:v>0</x:v>
@@ -27967,7 +27967,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F940" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G940" s="1" t="n">
         <x:v>0</x:v>
@@ -29594,7 +29594,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G996" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H996" s="1" t="n">
         <x:v>0</x:v>
@@ -29623,7 +29623,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G997" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H997" s="1" t="n">
         <x:v>0</x:v>
@@ -29901,7 +29901,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1007" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1007" s="1" t="n">
         <x:v>0</x:v>
@@ -29924,28 +29924,28 @@
     </x:row>
     <x:row r="1008" spans="1:9">
       <x:c r="A1008" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B1008" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1008" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1008" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1008" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1008" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1008" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1008" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1008" s="0" t="n">
         <x:v>0</x:v>
@@ -29959,19 +29959,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1009" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1009" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1009" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1009" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1009" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1009" s="1" t="n">
         <x:v>1</x:v>
@@ -29988,22 +29988,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1010" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1010" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1010" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1010" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1010" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1010" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1010" s="0" t="n">
         <x:v>0</x:v>
@@ -30014,25 +30014,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1011" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1011" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1011" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1011" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1011" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1011" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1011" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1011" s="0" t="n">
         <x:v>0</x:v>
@@ -30046,19 +30046,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1012" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1012" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1012" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1012" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1012" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1012" s="1" t="n">
         <x:v>0</x:v>
@@ -30075,16 +30075,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1013" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1013" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1013" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1013" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1013" s="1" t="n">
         <x:v>2</x:v>
@@ -30101,22 +30101,22 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1014" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1014" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1014" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1014" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1014" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1014" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1014" s="1" t="n">
         <x:v>0</x:v>
@@ -30133,7 +30133,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1015" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1015" s="1" t="n">
         <x:v>0</x:v>
@@ -30142,13 +30142,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1015" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1015" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1015" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1015" s="0" t="n">
         <x:v>0</x:v>
@@ -30162,19 +30162,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1016" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1016" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1016" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1016" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1016" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1016" s="1" t="n">
         <x:v>6</x:v>
@@ -30188,25 +30188,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1017" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1017" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1017" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1017" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1017" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1017" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1017" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1017" s="0" t="n">
         <x:v>0</x:v>
@@ -30220,7 +30220,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1018" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1018" s="1" t="n">
         <x:v>0</x:v>
@@ -30246,16 +30246,16 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1019" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1019" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1019" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1019" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1019" s="1" t="n">
         <x:v>0</x:v>
@@ -30278,13 +30278,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1020" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1020" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1020" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F1020" s="1" t="n">
         <x:v>0</x:v>
@@ -30307,13 +30307,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1021" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1021" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E1021" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1021" s="1" t="n">
         <x:v>0</x:v>
@@ -30333,25 +30333,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1022" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1022" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1022" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E1022" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F1022" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1022" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1022" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1022" s="0" t="n">
         <x:v>0</x:v>
@@ -30365,7 +30365,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1023" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1023" s="1" t="n">
         <x:v>0</x:v>
@@ -30377,10 +30377,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1023" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1023" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1023" s="0" t="n">
         <x:v>0</x:v>
@@ -30394,7 +30394,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1024" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1024" s="1" t="n">
         <x:v>0</x:v>
@@ -30406,10 +30406,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1024" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1024" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1024" s="0" t="n">
         <x:v>0</x:v>
@@ -30417,28 +30417,28 @@
     </x:row>
     <x:row r="1025" spans="1:9">
       <x:c r="A1025" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B1025" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1025" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1025" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1025" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1025" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1025" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1025" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1025" s="0" t="n">
         <x:v>0</x:v>
@@ -30452,22 +30452,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1026" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1026" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E1026" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F1026" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G1026" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H1026" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1026" s="0" t="n">
         <x:v>0</x:v>
@@ -30481,22 +30481,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1027" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1027" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E1027" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F1027" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G1027" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H1027" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I1027" s="0" t="n">
         <x:v>0</x:v>
@@ -30507,25 +30507,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1028" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1028" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1028" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E1028" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F1028" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G1028" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H1028" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I1028" s="0" t="n">
         <x:v>0</x:v>
@@ -30539,7 +30539,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1029" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1029" s="1" t="n">
         <x:v>2</x:v>
@@ -30568,10 +30568,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1030" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1030" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1030" s="1" t="n">
         <x:v>0</x:v>
@@ -30594,25 +30594,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1031" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1031" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1031" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1031" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1031" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1031" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1031" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1031" s="0" t="n">
         <x:v>0</x:v>
@@ -30626,22 +30626,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1032" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1032" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E1032" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="F1032" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1032" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1032" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1032" s="0" t="n">
         <x:v>0</x:v>
@@ -30655,22 +30655,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1033" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1033" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E1033" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1033" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G1033" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H1033" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I1033" s="0" t="n">
         <x:v>0</x:v>
@@ -30681,25 +30681,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1034" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1034" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1034" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E1034" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F1034" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G1034" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H1034" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I1034" s="0" t="n">
         <x:v>0</x:v>
@@ -30713,22 +30713,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1035" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1035" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1035" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F1035" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G1035" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H1035" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I1035" s="0" t="n">
         <x:v>0</x:v>
@@ -30742,22 +30742,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1036" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1036" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1036" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F1036" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G1036" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H1036" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I1036" s="0" t="n">
         <x:v>0</x:v>
@@ -30768,25 +30768,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1037" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1037" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1037" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E1037" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F1037" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G1037" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="H1037" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I1037" s="0" t="n">
         <x:v>0</x:v>
@@ -30800,7 +30800,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1038" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1038" s="1" t="n">
         <x:v>0</x:v>
@@ -30809,13 +30809,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1038" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1038" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1038" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1038" s="0" t="n">
         <x:v>0</x:v>
@@ -30829,7 +30829,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1039" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1039" s="1" t="n">
         <x:v>0</x:v>
@@ -30838,10 +30838,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1039" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1039" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1039" s="1" t="n">
         <x:v>2</x:v>
@@ -30855,25 +30855,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1040" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1040" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1040" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1040" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1040" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1040" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H1040" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1040" s="0" t="n">
         <x:v>0</x:v>
@@ -30887,22 +30887,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1041" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1041" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1041" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1041" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G1041" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1041" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1041" s="0" t="n">
         <x:v>0</x:v>
@@ -30916,22 +30916,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1042" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1042" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1042" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F1042" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1042" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1042" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1042" s="0" t="n">
         <x:v>0</x:v>
@@ -30942,25 +30942,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1043" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1043" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1043" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E1043" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F1043" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1043" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1043" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1043" s="0" t="n">
         <x:v>0</x:v>
@@ -30974,22 +30974,22 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1044" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1044" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1044" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1044" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1044" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1044" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1044" s="0" t="n">
         <x:v>0</x:v>
@@ -31003,22 +31003,22 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1045" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1045" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E1045" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1045" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1045" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1045" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1045" s="0" t="n">
         <x:v>0</x:v>
@@ -31026,28 +31026,28 @@
     </x:row>
     <x:row r="1046" spans="1:9">
       <x:c r="A1046" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B1046" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1046" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1046" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E1046" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1046" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G1046" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1046" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1046" s="0" t="n">
         <x:v>0</x:v>
@@ -31061,22 +31061,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1047" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1047" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1047" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1047" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1047" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1047" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1047" s="0" t="n">
         <x:v>0</x:v>
@@ -31090,7 +31090,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1048" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1048" s="1" t="n">
         <x:v>0</x:v>
@@ -31099,13 +31099,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F1048" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1048" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1048" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1048" s="0" t="n">
         <x:v>0</x:v>
@@ -31116,25 +31116,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1049" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1049" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1049" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1049" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1049" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G1049" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1049" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1049" s="0" t="n">
         <x:v>0</x:v>
@@ -31148,7 +31148,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1050" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1050" s="1" t="n">
         <x:v>1</x:v>
@@ -31174,25 +31174,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1051" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1051" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1051" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1051" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1051" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1051" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1051" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1051" s="0" t="n">
         <x:v>0</x:v>
@@ -31206,22 +31206,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1052" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1052" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1052" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1052" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1052" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1052" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1052" s="0" t="n">
         <x:v>0</x:v>
@@ -31235,7 +31235,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1053" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1053" s="1" t="n">
         <x:v>1</x:v>
@@ -31247,10 +31247,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G1053" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1053" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1053" s="0" t="n">
         <x:v>0</x:v>
@@ -31261,25 +31261,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1054" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1054" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1054" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1054" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1054" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1054" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1054" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1054" s="0" t="n">
         <x:v>0</x:v>
@@ -31293,7 +31293,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1055" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1055" s="1" t="n">
         <x:v>0</x:v>
@@ -31319,19 +31319,19 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1056" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1056" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1056" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1056" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1056" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1056" s="1" t="n">
         <x:v>0</x:v>
@@ -31351,7 +31351,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1057" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1057" s="1" t="n">
         <x:v>0</x:v>
@@ -31377,10 +31377,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1058" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1058" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1058" s="1" t="n">
         <x:v>0</x:v>
@@ -31392,7 +31392,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1058" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1058" s="1" t="n">
         <x:v>0</x:v>
@@ -31409,7 +31409,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1059" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1059" s="1" t="n">
         <x:v>0</x:v>
@@ -31432,28 +31432,28 @@
     </x:row>
     <x:row r="1060" spans="1:9">
       <x:c r="A1060" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B1060" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1060" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1060" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1060" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1060" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1060" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1060" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1060" s="0" t="n">
         <x:v>0</x:v>
@@ -31467,22 +31467,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1061" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1061" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1061" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F1061" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G1061" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1061" s="1" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="F1061" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G1061" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H1061" s="1" t="n">
-        <x:v>2</x:v>
       </x:c>
       <x:c r="I1061" s="0" t="n">
         <x:v>0</x:v>
@@ -31496,22 +31496,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1062" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1062" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1062" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1062" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G1062" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G1062" s="1" t="n">
-        <x:v>7</x:v>
-      </x:c>
       <x:c r="H1062" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1062" s="0" t="n">
         <x:v>0</x:v>
@@ -31522,25 +31522,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1063" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1063" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1063" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1063" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1063" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1063" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1063" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1063" s="0" t="n">
         <x:v>0</x:v>
@@ -31554,10 +31554,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1064" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1064" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1064" s="1" t="n">
         <x:v>0</x:v>
@@ -31569,7 +31569,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1064" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1064" s="0" t="n">
         <x:v>0</x:v>
@@ -31583,22 +31583,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1065" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1065" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1065" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1065" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1065" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1065" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1065" s="0" t="n">
         <x:v>0</x:v>
@@ -31609,22 +31609,22 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1066" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1066" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1066" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1066" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1066" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1066" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1066" s="1" t="n">
         <x:v>1</x:v>
@@ -31641,22 +31641,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1067" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1067" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1067" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1067" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="G1067" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1067" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1067" s="0" t="n">
         <x:v>0</x:v>
@@ -31670,7 +31670,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1068" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1068" s="1" t="n">
         <x:v>1</x:v>
@@ -31679,13 +31679,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F1068" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1068" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1068" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1068" s="0" t="n">
         <x:v>0</x:v>
@@ -31696,25 +31696,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1069" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1069" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1069" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1069" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1069" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1069" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1069" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1069" s="0" t="n">
         <x:v>0</x:v>
@@ -31728,16 +31728,16 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1070" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1070" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1070" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1070" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1070" s="1" t="n">
         <x:v>2</x:v>
@@ -31757,22 +31757,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1071" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1071" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1071" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F1071" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G1071" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1071" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1071" s="0" t="n">
         <x:v>0</x:v>
@@ -31783,25 +31783,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1072" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1072" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1072" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1072" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F1072" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1072" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1072" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1072" s="0" t="n">
         <x:v>0</x:v>
@@ -31815,7 +31815,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1073" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1073" s="1" t="n">
         <x:v>0</x:v>
@@ -31838,28 +31838,28 @@
     </x:row>
     <x:row r="1074" spans="1:9">
       <x:c r="A1074" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B1074" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1074" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1074" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1074" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1074" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1074" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1074" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1074" s="0" t="n">
         <x:v>0</x:v>
@@ -31873,22 +31873,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1075" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1075" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E1075" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1075" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E1075" s="1" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F1075" s="1" t="n">
-        <x:v>14</x:v>
-      </x:c>
       <x:c r="G1075" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1075" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1075" s="0" t="n">
         <x:v>0</x:v>
@@ -31902,22 +31902,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1076" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1076" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1076" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F1076" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G1076" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H1076" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I1076" s="0" t="n">
         <x:v>0</x:v>
@@ -31928,25 +31928,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1077" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1077" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1077" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1077" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F1077" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G1077" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H1077" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I1077" s="0" t="n">
         <x:v>0</x:v>
@@ -31960,22 +31960,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1078" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1078" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1078" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1078" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1078" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1078" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1078" s="0" t="n">
         <x:v>0</x:v>
@@ -31989,7 +31989,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1079" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1079" s="1" t="n">
         <x:v>2</x:v>
@@ -31998,7 +31998,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1079" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1079" s="1" t="n">
         <x:v>1</x:v>
@@ -32015,25 +32015,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1080" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1080" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1080" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1080" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1080" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1080" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1080" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1080" s="0" t="n">
         <x:v>0</x:v>
@@ -32047,22 +32047,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1081" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1081" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1081" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F1081" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1081" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1081" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1081" s="0" t="n">
         <x:v>0</x:v>
@@ -32076,22 +32076,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1082" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1082" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1082" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F1082" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G1082" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H1082" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I1082" s="0" t="n">
         <x:v>0</x:v>
@@ -32102,25 +32102,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1083" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1083" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1083" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1083" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F1083" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G1083" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H1083" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I1083" s="0" t="n">
         <x:v>0</x:v>
@@ -32134,14 +32134,14 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1084" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1084" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1084" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1084" s="1" t="n">
-        <x:v>7</x:v>
-      </x:c>
       <x:c r="F1084" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -32149,7 +32149,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1084" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1084" s="0" t="n">
         <x:v>0</x:v>
@@ -32163,13 +32163,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1085" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1085" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1085" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1085" s="1" t="n">
         <x:v>0</x:v>
@@ -32189,22 +32189,22 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1086" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1086" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1086" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1086" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1086" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1086" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1086" s="1" t="n">
         <x:v>1</x:v>
@@ -32221,22 +32221,22 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1087" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1087" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1087" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1087" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1087" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1087" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1087" s="0" t="n">
         <x:v>0</x:v>
@@ -32250,7 +32250,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1088" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1088" s="1" t="n">
         <x:v>1</x:v>
@@ -32259,13 +32259,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1088" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1088" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1088" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I1088" s="0" t="n">
         <x:v>0</x:v>
@@ -32273,28 +32273,28 @@
     </x:row>
     <x:row r="1089" spans="1:9">
       <x:c r="A1089" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B1089" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1089" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1089" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1089" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1089" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G1089" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1089" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I1089" s="0" t="n">
         <x:v>0</x:v>
@@ -32308,22 +32308,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1090" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1090" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1090" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1090" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1090" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H1090" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1090" s="0" t="n">
         <x:v>0</x:v>
@@ -32337,22 +32337,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1091" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1091" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E1091" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F1091" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G1091" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H1091" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I1091" s="0" t="n">
         <x:v>0</x:v>
@@ -32363,25 +32363,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1092" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1092" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1092" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E1092" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F1092" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G1092" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H1092" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I1092" s="0" t="n">
         <x:v>0</x:v>
@@ -32395,22 +32395,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1093" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1093" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1093" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1093" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1093" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1093" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1093" s="0" t="n">
         <x:v>0</x:v>
@@ -32424,22 +32424,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1094" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1094" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E1094" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F1094" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1094" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H1094" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1094" s="0" t="n">
         <x:v>0</x:v>
@@ -32450,25 +32450,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1095" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1095" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1095" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E1095" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1095" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G1095" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H1095" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I1095" s="0" t="n">
         <x:v>0</x:v>
@@ -32482,22 +32482,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1096" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1096" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1096" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1096" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G1096" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H1096" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I1096" s="0" t="n">
         <x:v>0</x:v>
@@ -32511,22 +32511,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1097" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1097" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1097" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F1097" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G1097" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H1097" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I1097" s="0" t="n">
         <x:v>0</x:v>
@@ -32537,25 +32537,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1098" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1098" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1098" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1098" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F1098" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G1098" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H1098" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I1098" s="0" t="n">
         <x:v>0</x:v>
@@ -32569,7 +32569,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1099" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1099" s="1" t="n">
         <x:v>0</x:v>
@@ -32595,22 +32595,22 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1100" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1100" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1100" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1100" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1100" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1100" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1100" s="1" t="n">
         <x:v>0</x:v>
@@ -32627,22 +32627,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1101" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1101" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E1101" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F1101" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1101" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1101" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1101" s="0" t="n">
         <x:v>0</x:v>
@@ -32656,19 +32656,19 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1102" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1102" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E1102" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F1102" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1102" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1102" s="1" t="n">
         <x:v>1</x:v>
@@ -32682,22 +32682,22 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1103" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1103" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1103" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E1103" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F1103" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1103" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1103" s="1" t="n">
         <x:v>1</x:v>
@@ -32714,19 +32714,19 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1104" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1104" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1104" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1104" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1104" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1104" s="1" t="n">
         <x:v>1</x:v>
@@ -32743,7 +32743,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1105" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1105" s="1" t="n">
         <x:v>5</x:v>
@@ -32758,7 +32758,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H1105" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1105" s="0" t="n">
         <x:v>0</x:v>
@@ -32766,28 +32766,28 @@
     </x:row>
     <x:row r="1106" spans="1:9">
       <x:c r="A1106" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B1106" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1106" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1106" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1106" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1106" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1106" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H1106" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1106" s="0" t="n">
         <x:v>0</x:v>
@@ -32801,7 +32801,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1107" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1107" s="1" t="n">
         <x:v>0</x:v>
@@ -32810,13 +32810,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1107" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1107" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1107" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1107" s="0" t="n">
         <x:v>0</x:v>
@@ -32830,7 +32830,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1108" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1108" s="1" t="n">
         <x:v>0</x:v>
@@ -32839,13 +32839,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1108" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1108" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1108" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1108" s="0" t="n">
         <x:v>0</x:v>
@@ -32856,10 +32856,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1109" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1109" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1109" s="1" t="n">
         <x:v>0</x:v>
@@ -32868,13 +32868,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1109" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1109" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1109" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1109" s="0" t="n">
         <x:v>0</x:v>
@@ -32888,7 +32888,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1110" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1110" s="1" t="n">
         <x:v>0</x:v>
@@ -32914,10 +32914,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1111" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1111" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1111" s="1" t="n">
         <x:v>0</x:v>
@@ -32929,7 +32929,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1111" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1111" s="1" t="n">
         <x:v>0</x:v>
@@ -32946,22 +32946,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1112" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1112" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1112" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1112" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1112" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1112" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1112" s="0" t="n">
         <x:v>0</x:v>
@@ -32975,7 +32975,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1113" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1113" s="1" t="n">
         <x:v>0</x:v>
@@ -32984,10 +32984,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1113" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1113" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1113" s="1" t="n">
         <x:v>2</x:v>
@@ -33001,25 +33001,25 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1114" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1114" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1114" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1114" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1114" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1114" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1114" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1114" s="0" t="n">
         <x:v>0</x:v>
@@ -33033,13 +33033,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1115" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1115" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1115" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1115" s="1" t="n">
         <x:v>0</x:v>
@@ -33062,13 +33062,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1116" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1116" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1116" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1116" s="1" t="n">
         <x:v>0</x:v>
@@ -33080,6 +33080,35 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I1116" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1117" spans="1:9">
+      <x:c r="A1117" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B1117" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C1117" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1117" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1117" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1117" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G1117" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H1117" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1117" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -8450,10 +8450,10 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="F267" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="G267" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H267" s="1" t="n">
         <x:v>69</x:v>
@@ -8479,10 +8479,10 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="F268" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G268" s="1" t="n">
-        <x:v>186</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="H268" s="1" t="n">
         <x:v>95</x:v>
@@ -9352,7 +9352,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G298" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H298" s="1" t="n">
         <x:v>16</x:v>
@@ -9381,7 +9381,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G299" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H299" s="1" t="n">
         <x:v>22</x:v>
@@ -10132,7 +10132,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F325" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G325" s="1" t="n">
         <x:v>7</x:v>
@@ -10161,7 +10161,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F326" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G326" s="1" t="n">
         <x:v>7</x:v>
@@ -10216,7 +10216,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E328" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F328" s="1" t="n">
         <x:v>16</x:v>
@@ -10245,7 +10245,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E329" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F329" s="1" t="n">
         <x:v>16</x:v>
@@ -11095,7 +11095,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H358" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I358" s="0" t="n">
         <x:v>0</x:v>
@@ -11153,7 +11153,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H360" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I360" s="0" t="n">
         <x:v>0</x:v>
@@ -11698,7 +11698,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F379" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G379" s="1" t="n">
         <x:v>92</x:v>
@@ -11724,7 +11724,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E380" s="1" t="n">
-        <x:v>167</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="F380" s="1" t="n">
         <x:v>259</x:v>
@@ -11753,10 +11753,10 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E381" s="1" t="n">
-        <x:v>215</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="F381" s="1" t="n">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="G381" s="1" t="n">
         <x:v>363</x:v>
@@ -15271,7 +15271,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H502" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I502" s="0" t="n">
         <x:v>0</x:v>
@@ -15300,7 +15300,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H503" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I503" s="0" t="n">
         <x:v>0</x:v>
@@ -24957,7 +24957,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H836" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I836" s="0" t="n">
         <x:v>0</x:v>
@@ -24986,7 +24986,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H837" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I837" s="0" t="n">
         <x:v>0</x:v>
@@ -27355,7 +27355,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E919" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F919" s="1" t="n">
         <x:v>11</x:v>
@@ -27384,7 +27384,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E920" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F920" s="1" t="n">
         <x:v>11</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="G942" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H942" s="1" t="n">
         <x:v>51</x:v>
@@ -28057,7 +28057,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="G943" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="H943" s="1" t="n">
         <x:v>61</x:v>
@@ -28292,7 +28292,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="H951" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I951" s="0" t="n">
         <x:v>0</x:v>
@@ -28321,7 +28321,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="H952" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I952" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -2389,7 +2389,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F58" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G58" s="1" t="n">
         <x:v>14</x:v>
@@ -2447,7 +2447,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F60" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G60" s="1" t="n">
         <x:v>56</x:v>
@@ -8192,7 +8192,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="G258" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H258" s="1" t="n">
         <x:v>11</x:v>
@@ -8218,10 +8218,10 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="F259" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G259" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H259" s="1" t="n">
         <x:v>50</x:v>
@@ -8247,10 +8247,10 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="F260" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G260" s="1" t="n">
-        <x:v>185</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="H260" s="1" t="n">
         <x:v>61</x:v>
@@ -8595,13 +8595,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F272" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G272" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H272" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I272" s="0" t="n">
         <x:v>0</x:v>
@@ -8653,13 +8653,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F274" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G274" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H274" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I274" s="0" t="n">
         <x:v>0</x:v>
@@ -11179,7 +11179,7 @@
         <x:v>253</x:v>
       </x:c>
       <x:c r="G361" s="1" t="n">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="H361" s="1" t="n">
         <x:v>66</x:v>
@@ -11202,7 +11202,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E362" s="1" t="n">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="F362" s="1" t="n">
         <x:v>824</x:v>
@@ -11231,13 +11231,13 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E363" s="1" t="n">
-        <x:v>622</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="F363" s="1" t="n">
         <x:v>1077</x:v>
       </x:c>
       <x:c r="G363" s="1" t="n">
-        <x:v>973</x:v>
+        <x:v>974</x:v>
       </x:c>
       <x:c r="H363" s="1" t="n">
         <x:v>384</x:v>
@@ -11466,7 +11466,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="F371" s="1" t="n">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="G371" s="1" t="n">
         <x:v>378</x:v>
@@ -11495,7 +11495,7 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="F372" s="1" t="n">
-        <x:v>562</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="G372" s="1" t="n">
         <x:v>513</x:v>
@@ -11611,7 +11611,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F376" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G376" s="1" t="n">
         <x:v>7</x:v>
@@ -11669,7 +11669,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="F378" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G378" s="1" t="n">
         <x:v>46</x:v>
@@ -11733,7 +11733,7 @@
         <x:v>271</x:v>
       </x:c>
       <x:c r="H380" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I380" s="0" t="n">
         <x:v>0</x:v>
@@ -11762,7 +11762,7 @@
         <x:v>363</x:v>
       </x:c>
       <x:c r="H381" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="I381" s="0" t="n">
         <x:v>0</x:v>
@@ -13876,7 +13876,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G454" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H454" s="1" t="n">
         <x:v>12</x:v>
@@ -13905,7 +13905,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G455" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H455" s="1" t="n">
         <x:v>13</x:v>
@@ -15091,7 +15091,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F496" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G496" s="1" t="n">
         <x:v>3</x:v>
@@ -15120,7 +15120,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F497" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G497" s="1" t="n">
         <x:v>4</x:v>
@@ -17011,7 +17011,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H562" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I562" s="0" t="n">
         <x:v>0</x:v>
@@ -17069,7 +17069,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="H564" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I564" s="0" t="n">
         <x:v>0</x:v>
@@ -17849,7 +17849,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G591" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H591" s="1" t="n">
         <x:v>20</x:v>
@@ -17878,7 +17878,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="G592" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H592" s="1" t="n">
         <x:v>24</x:v>
@@ -26636,7 +26636,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G894" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H894" s="1" t="n">
         <x:v>7</x:v>
@@ -26665,7 +26665,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G895" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H895" s="1" t="n">
         <x:v>12</x:v>
@@ -27999,7 +27999,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="G941" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H941" s="1" t="n">
         <x:v>10</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="G942" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H942" s="1" t="n">
         <x:v>51</x:v>
@@ -28057,7 +28057,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="G943" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="H943" s="1" t="n">
         <x:v>61</x:v>
@@ -28289,7 +28289,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="G951" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H951" s="1" t="n">
         <x:v>52</x:v>
@@ -28318,7 +28318,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="G952" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H952" s="1" t="n">
         <x:v>65</x:v>
@@ -28892,7 +28892,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E972" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F972" s="1" t="n">
         <x:v>10</x:v>
@@ -28921,7 +28921,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E973" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F973" s="1" t="n">
         <x:v>10</x:v>
@@ -32520,7 +32520,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F1097" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1097" s="1" t="n">
         <x:v>5</x:v>
@@ -32549,7 +32549,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F1098" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G1098" s="1" t="n">
         <x:v>7</x:v>
@@ -32665,10 +32665,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1102" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G1102" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1102" s="1" t="n">
         <x:v>1</x:v>
@@ -32694,10 +32694,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1103" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1103" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H1103" s="1" t="n">
         <x:v>3</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -2685,7 +2685,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H68" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I68" s="0" t="n">
         <x:v>0</x:v>
@@ -2714,7 +2714,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H69" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I69" s="0" t="n">
         <x:v>0</x:v>
@@ -3720,7 +3720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E104" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F104" s="1" t="n">
         <x:v>0</x:v>
@@ -3778,7 +3778,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E106" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F106" s="1" t="n">
         <x:v>5</x:v>
@@ -6046,7 +6046,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G184" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H184" s="1" t="n">
         <x:v>12</x:v>
@@ -6075,7 +6075,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="G185" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H185" s="1" t="n">
         <x:v>19</x:v>
@@ -8363,7 +8363,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F264" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G264" s="1" t="n">
         <x:v>29</x:v>
@@ -8392,7 +8392,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F265" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G265" s="1" t="n">
         <x:v>46</x:v>
@@ -10222,7 +10222,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G328" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H328" s="1" t="n">
         <x:v>7</x:v>
@@ -10251,7 +10251,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G329" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H329" s="1" t="n">
         <x:v>9</x:v>
@@ -11176,13 +11176,13 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="F361" s="1" t="n">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G361" s="1" t="n">
-        <x:v>217</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="H361" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I361" s="0" t="n">
         <x:v>0</x:v>
@@ -11202,16 +11202,16 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E362" s="1" t="n">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="F362" s="1" t="n">
-        <x:v>824</x:v>
+        <x:v>826</x:v>
       </x:c>
       <x:c r="G362" s="1" t="n">
-        <x:v>757</x:v>
+        <x:v>763</x:v>
       </x:c>
       <x:c r="H362" s="1" t="n">
-        <x:v>318</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="I362" s="0" t="n">
         <x:v>0</x:v>
@@ -11231,16 +11231,16 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E363" s="1" t="n">
-        <x:v>623</x:v>
+        <x:v>624</x:v>
       </x:c>
       <x:c r="F363" s="1" t="n">
-        <x:v>1077</x:v>
+        <x:v>1080</x:v>
       </x:c>
       <x:c r="G363" s="1" t="n">
-        <x:v>974</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="H363" s="1" t="n">
-        <x:v>384</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="I363" s="0" t="n">
         <x:v>0</x:v>
@@ -11350,7 +11350,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F367" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G367" s="1" t="n">
         <x:v>40</x:v>
@@ -11373,10 +11373,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D368" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E368" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F368" s="1" t="n">
         <x:v>97</x:v>
@@ -11402,13 +11402,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D369" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E369" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F369" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="G369" s="1" t="n">
         <x:v>134</x:v>
@@ -11463,7 +11463,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E371" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="F371" s="1" t="n">
         <x:v>405</x:v>
@@ -11492,7 +11492,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E372" s="1" t="n">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F372" s="1" t="n">
         <x:v>563</x:v>
@@ -11724,13 +11724,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E380" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F380" s="1" t="n">
         <x:v>259</x:v>
       </x:c>
       <x:c r="G380" s="1" t="n">
-        <x:v>271</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="H380" s="1" t="n">
         <x:v>115</x:v>
@@ -11753,13 +11753,13 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E381" s="1" t="n">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="F381" s="1" t="n">
         <x:v>349</x:v>
       </x:c>
       <x:c r="G381" s="1" t="n">
-        <x:v>363</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="H381" s="1" t="n">
         <x:v>150</x:v>
@@ -15094,7 +15094,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G496" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H496" s="1" t="n">
         <x:v>5</x:v>
@@ -15123,7 +15123,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G497" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H497" s="1" t="n">
         <x:v>5</x:v>
@@ -25737,7 +25737,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G863" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H863" s="1" t="n">
         <x:v>0</x:v>
@@ -25766,7 +25766,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G864" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H864" s="1" t="n">
         <x:v>0</x:v>
@@ -26027,7 +26027,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
         <x:v>34</x:v>
@@ -26056,7 +26056,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G874" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H874" s="1" t="n">
         <x:v>39</x:v>
@@ -26865,13 +26865,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F902" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G902" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H902" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I902" s="0" t="n">
         <x:v>0</x:v>
@@ -26891,13 +26891,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E903" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F903" s="1" t="n">
         <x:v>26</x:v>
       </x:c>
       <x:c r="G903" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H903" s="1" t="n">
         <x:v>15</x:v>
@@ -26920,16 +26920,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E904" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F904" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G904" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H904" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I904" s="0" t="n">
         <x:v>0</x:v>
@@ -27416,7 +27416,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F921" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G921" s="1" t="n">
         <x:v>34</x:v>
@@ -27448,7 +27448,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="G922" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H922" s="1" t="n">
         <x:v>62</x:v>
@@ -27474,10 +27474,10 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="F923" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G923" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="H923" s="1" t="n">
         <x:v>83</x:v>
@@ -27648,7 +27648,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F929" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G929" s="1" t="n">
         <x:v>23</x:v>
@@ -27706,7 +27706,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F931" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G931" s="1" t="n">
         <x:v>82</x:v>
@@ -28002,7 +28002,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H941" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I941" s="0" t="n">
         <x:v>0</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="H943" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I943" s="0" t="n">
         <x:v>0</x:v>
@@ -28428,7 +28428,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E956" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F956" s="1" t="n">
         <x:v>4</x:v>
@@ -28457,7 +28457,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E957" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F957" s="1" t="n">
         <x:v>7</x:v>
@@ -28486,7 +28486,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E958" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F958" s="1" t="n">
         <x:v>11</x:v>
@@ -32175,7 +32175,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="G1085" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H1085" s="1" t="n">
         <x:v>82</x:v>
@@ -32204,7 +32204,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="G1086" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="H1086" s="1" t="n">
         <x:v>105</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -2424,7 +2424,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="H59" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I59" s="0" t="n">
         <x:v>0</x:v>
@@ -2453,7 +2453,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I60" s="0" t="n">
         <x:v>0</x:v>
@@ -8427,7 +8427,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="H266" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I266" s="0" t="n">
         <x:v>0</x:v>
@@ -8450,7 +8450,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="F267" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G267" s="1" t="n">
         <x:v>129</x:v>
@@ -8479,13 +8479,13 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="F268" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G268" s="1" t="n">
         <x:v>185</x:v>
       </x:c>
       <x:c r="H268" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I268" s="0" t="n">
         <x:v>0</x:v>
@@ -11205,7 +11205,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="F362" s="1" t="n">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G362" s="1" t="n">
         <x:v>220</x:v>
@@ -11234,10 +11234,10 @@
         <x:v>463</x:v>
       </x:c>
       <x:c r="F363" s="1" t="n">
-        <x:v>825</x:v>
+        <x:v>826</x:v>
       </x:c>
       <x:c r="G363" s="1" t="n">
-        <x:v>764</x:v>
+        <x:v>765</x:v>
       </x:c>
       <x:c r="H363" s="1" t="n">
         <x:v>321</x:v>
@@ -11263,10 +11263,10 @@
         <x:v>625</x:v>
       </x:c>
       <x:c r="F364" s="1" t="n">
-        <x:v>1078</x:v>
+        <x:v>1080</x:v>
       </x:c>
       <x:c r="G364" s="1" t="n">
-        <x:v>984</x:v>
+        <x:v>985</x:v>
       </x:c>
       <x:c r="H364" s="1" t="n">
         <x:v>391</x:v>
@@ -11373,7 +11373,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D368" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E368" s="1" t="n">
         <x:v>13</x:v>
@@ -11431,7 +11431,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D370" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E370" s="1" t="n">
         <x:v>60</x:v>
@@ -11498,7 +11498,7 @@
         <x:v>405</x:v>
       </x:c>
       <x:c r="G372" s="1" t="n">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="H372" s="1" t="n">
         <x:v>194</x:v>
@@ -11527,7 +11527,7 @@
         <x:v>563</x:v>
       </x:c>
       <x:c r="G373" s="1" t="n">
-        <x:v>513</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="H373" s="1" t="n">
         <x:v>281</x:v>
@@ -11666,7 +11666,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E378" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F378" s="1" t="n">
         <x:v>34</x:v>
@@ -11695,7 +11695,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="E379" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F379" s="1" t="n">
         <x:v>45</x:v>
@@ -11727,7 +11727,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F380" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G380" s="1" t="n">
         <x:v>92</x:v>
@@ -11756,10 +11756,10 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="F381" s="1" t="n">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="G381" s="1" t="n">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="H381" s="1" t="n">
         <x:v>115</x:v>
@@ -11785,10 +11785,10 @@
         <x:v>218</x:v>
       </x:c>
       <x:c r="F382" s="1" t="n">
-        <x:v>349</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="G382" s="1" t="n">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="H382" s="1" t="n">
         <x:v>150</x:v>
@@ -13734,7 +13734,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="H449" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I449" s="0" t="n">
         <x:v>0</x:v>
@@ -13763,7 +13763,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H450" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I450" s="0" t="n">
         <x:v>0</x:v>
@@ -17069,7 +17069,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H564" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I564" s="0" t="n">
         <x:v>0</x:v>
@@ -17098,7 +17098,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="H565" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I565" s="0" t="n">
         <x:v>0</x:v>
@@ -21239,7 +21239,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F708" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G708" s="1" t="n">
         <x:v>22</x:v>
@@ -21268,7 +21268,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F709" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G709" s="1" t="n">
         <x:v>33</x:v>
@@ -23382,7 +23382,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E782" s="1" t="n">
-        <x:v>505</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="F782" s="1" t="n">
         <x:v>689</x:v>
@@ -23411,7 +23411,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E783" s="1" t="n">
-        <x:v>582</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="F783" s="1" t="n">
         <x:v>798</x:v>
@@ -23617,10 +23617,10 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="F790" s="1" t="n">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="G790" s="1" t="n">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="H790" s="1" t="n">
         <x:v>78</x:v>
@@ -23646,10 +23646,10 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="F791" s="1" t="n">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="G791" s="1" t="n">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="H791" s="1" t="n">
         <x:v>103</x:v>
@@ -25154,7 +25154,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F843" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G843" s="1" t="n">
         <x:v>18</x:v>
@@ -25183,7 +25183,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F844" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G844" s="1" t="n">
         <x:v>23</x:v>
@@ -26027,7 +26027,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
         <x:v>5</x:v>
@@ -26085,7 +26085,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G875" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H875" s="1" t="n">
         <x:v>39</x:v>
@@ -26320,7 +26320,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="H883" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I883" s="0" t="n">
         <x:v>0</x:v>
@@ -26349,7 +26349,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="H884" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I884" s="0" t="n">
         <x:v>0</x:v>
@@ -26900,7 +26900,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H903" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I903" s="0" t="n">
         <x:v>0</x:v>
@@ -26958,7 +26958,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="H905" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I905" s="0" t="n">
         <x:v>0</x:v>
@@ -27703,7 +27703,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E931" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F931" s="1" t="n">
         <x:v>40</x:v>
@@ -27732,7 +27732,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E932" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F932" s="1" t="n">
         <x:v>57</x:v>
@@ -28489,7 +28489,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="F958" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G958" s="1" t="n">
         <x:v>8</x:v>
@@ -28518,7 +28518,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="F959" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G959" s="1" t="n">
         <x:v>11</x:v>
@@ -31009,13 +31009,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1045" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1045" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1045" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1045" s="1" t="n">
         <x:v>1</x:v>
@@ -31038,13 +31038,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1046" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1046" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1046" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H1046" s="1" t="n">
         <x:v>1</x:v>
@@ -31105,7 +31105,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H1048" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1048" s="0" t="n">
         <x:v>0</x:v>
@@ -31134,7 +31134,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H1049" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1049" s="0" t="n">
         <x:v>0</x:v>
@@ -31360,7 +31360,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1057" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1057" s="1" t="n">
         <x:v>0</x:v>
@@ -31389,7 +31389,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1058" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1058" s="1" t="n">
         <x:v>0</x:v>
@@ -31946,7 +31946,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="H1077" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I1077" s="0" t="n">
         <x:v>0</x:v>
@@ -31975,7 +31975,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="H1078" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I1078" s="0" t="n">
         <x:v>0</x:v>
@@ -33561,13 +33561,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1133" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F1133" s="1" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="G1133" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H1133" s="1" t="n">
         <x:v>16</x:v>
@@ -33590,13 +33590,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E1134" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F1134" s="1" t="n">
         <x:v>43</x:v>
       </x:c>
       <x:c r="G1134" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H1134" s="1" t="n">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -5843,7 +5843,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G177" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H177" s="1" t="n">
         <x:v>3</x:v>
@@ -5901,7 +5901,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G179" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H179" s="1" t="n">
         <x:v>11</x:v>
@@ -8453,7 +8453,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="G267" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="H267" s="1" t="n">
         <x:v>69</x:v>
@@ -8482,7 +8482,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="G268" s="1" t="n">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="H268" s="1" t="n">
         <x:v>97</x:v>
@@ -11202,13 +11202,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E362" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F362" s="1" t="n">
         <x:v>254</x:v>
       </x:c>
       <x:c r="G362" s="1" t="n">
-        <x:v>220</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="H362" s="1" t="n">
         <x:v>70</x:v>
@@ -11237,7 +11237,7 @@
         <x:v>826</x:v>
       </x:c>
       <x:c r="G363" s="1" t="n">
-        <x:v>765</x:v>
+        <x:v>768</x:v>
       </x:c>
       <x:c r="H363" s="1" t="n">
         <x:v>321</x:v>
@@ -11260,13 +11260,13 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E364" s="1" t="n">
-        <x:v>625</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="F364" s="1" t="n">
         <x:v>1080</x:v>
       </x:c>
       <x:c r="G364" s="1" t="n">
-        <x:v>985</x:v>
+        <x:v>990</x:v>
       </x:c>
       <x:c r="H364" s="1" t="n">
         <x:v>391</x:v>
@@ -11318,7 +11318,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E366" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F366" s="1" t="n">
         <x:v>11</x:v>
@@ -11347,7 +11347,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E367" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F367" s="1" t="n">
         <x:v>13</x:v>
@@ -11553,7 +11553,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F374" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G374" s="1" t="n">
         <x:v>2</x:v>
@@ -11611,7 +11611,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F376" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G376" s="1" t="n">
         <x:v>4</x:v>
@@ -13809,7 +13809,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D452" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E452" s="1" t="n">
         <x:v>2</x:v>
@@ -13838,7 +13838,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D453" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E453" s="1" t="n">
         <x:v>2</x:v>
@@ -20543,7 +20543,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F684" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G684" s="1" t="n">
         <x:v>34</x:v>
@@ -20601,7 +20601,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="F686" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G686" s="1" t="n">
         <x:v>159</x:v>
@@ -20688,7 +20688,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F689" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G689" s="1" t="n">
         <x:v>14</x:v>
@@ -20746,7 +20746,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F691" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G691" s="1" t="n">
         <x:v>41</x:v>
@@ -21352,7 +21352,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E712" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F712" s="1" t="n">
         <x:v>0</x:v>
@@ -21381,7 +21381,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E713" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F713" s="1" t="n">
         <x:v>0</x:v>
@@ -21410,7 +21410,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E714" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F714" s="1" t="n">
         <x:v>0</x:v>
@@ -26056,7 +26056,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="G874" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H874" s="1" t="n">
         <x:v>34</x:v>
@@ -26085,7 +26085,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G875" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H875" s="1" t="n">
         <x:v>39</x:v>
@@ -26636,7 +26636,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G894" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H894" s="1" t="n">
         <x:v>5</x:v>
@@ -26694,7 +26694,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G896" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H896" s="1" t="n">
         <x:v>12</x:v>
@@ -27384,7 +27384,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E920" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F920" s="1" t="n">
         <x:v>11</x:v>
@@ -27413,7 +27413,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E921" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F921" s="1" t="n">
         <x:v>11</x:v>
@@ -27477,7 +27477,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="G923" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H923" s="1" t="n">
         <x:v>62</x:v>
@@ -27506,7 +27506,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="G924" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="H924" s="1" t="n">
         <x:v>83</x:v>
@@ -27625,7 +27625,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="H928" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I928" s="0" t="n">
         <x:v>0</x:v>
@@ -27654,7 +27654,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="H929" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I929" s="0" t="n">
         <x:v>0</x:v>
@@ -28031,7 +28031,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H942" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I942" s="0" t="n">
         <x:v>0</x:v>
@@ -28089,7 +28089,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="H944" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I944" s="0" t="n">
         <x:v>0</x:v>
@@ -28924,7 +28924,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F973" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G973" s="1" t="n">
         <x:v>15</x:v>
@@ -28953,7 +28953,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F974" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G974" s="1" t="n">
         <x:v>19</x:v>
@@ -29127,7 +29127,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F980" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G980" s="1" t="n">
         <x:v>1</x:v>
@@ -29156,7 +29156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F981" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G981" s="1" t="n">
         <x:v>1</x:v>
@@ -32204,7 +32204,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="G1086" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H1086" s="1" t="n">
         <x:v>83</x:v>
@@ -32233,7 +32233,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="G1087" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="H1087" s="1" t="n">
         <x:v>106</x:v>
@@ -33396,7 +33396,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H1127" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I1127" s="0" t="n">
         <x:v>0</x:v>
@@ -33425,7 +33425,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="H1128" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I1128" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -3375,7 +3375,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F92" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G92" s="1" t="n">
         <x:v>50</x:v>
@@ -3401,16 +3401,16 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E93" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F93" s="1" t="n">
         <x:v>151</x:v>
       </x:c>
       <x:c r="G93" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H93" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I93" s="0" t="n">
         <x:v>0</x:v>
@@ -3430,16 +3430,16 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E94" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F94" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="G94" s="1" t="n">
-        <x:v>176</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="H94" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I94" s="0" t="n">
         <x:v>0</x:v>
@@ -3488,7 +3488,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E96" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F96" s="1" t="n">
         <x:v>9</x:v>
@@ -3497,7 +3497,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H96" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I96" s="0" t="n">
         <x:v>0</x:v>
@@ -3517,7 +3517,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E97" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F97" s="1" t="n">
         <x:v>17</x:v>
@@ -3526,7 +3526,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H97" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I97" s="0" t="n">
         <x:v>0</x:v>
@@ -3749,13 +3749,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E105" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F105" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G105" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H105" s="1" t="n">
         <x:v>3</x:v>
@@ -3778,13 +3778,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E106" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F106" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G106" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H106" s="1" t="n">
         <x:v>4</x:v>
@@ -8418,7 +8418,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E266" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F266" s="1" t="n">
         <x:v>23</x:v>
@@ -8453,10 +8453,10 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="G267" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="H267" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I267" s="0" t="n">
         <x:v>0</x:v>
@@ -8476,16 +8476,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E268" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F268" s="1" t="n">
         <x:v>161</x:v>
       </x:c>
       <x:c r="G268" s="1" t="n">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="H268" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="I268" s="0" t="n">
         <x:v>0</x:v>
@@ -10747,7 +10747,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H346" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I346" s="0" t="n">
         <x:v>0</x:v>
@@ -10776,7 +10776,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="H347" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I347" s="0" t="n">
         <x:v>0</x:v>
@@ -11228,7 +11228,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D363" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E363" s="1" t="n">
         <x:v>463</x:v>
@@ -11257,7 +11257,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D364" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E364" s="1" t="n">
         <x:v>626</x:v>
@@ -11379,7 +11379,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F368" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G368" s="1" t="n">
         <x:v>40</x:v>
@@ -11437,7 +11437,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="F370" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G370" s="1" t="n">
         <x:v>134</x:v>
@@ -17695,7 +17695,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D586" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E586" s="1" t="n">
         <x:v>9</x:v>
@@ -17724,7 +17724,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D587" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E587" s="1" t="n">
         <x:v>14</x:v>
@@ -21245,7 +21245,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H708" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I708" s="0" t="n">
         <x:v>0</x:v>
@@ -21274,7 +21274,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="H709" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I709" s="0" t="n">
         <x:v>0</x:v>
@@ -31618,7 +31618,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1066" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1066" s="1" t="n">
         <x:v>2</x:v>
@@ -31627,7 +31627,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H1066" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I1066" s="0" t="n">
         <x:v>0</x:v>
@@ -31647,7 +31647,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1067" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1067" s="1" t="n">
         <x:v>3</x:v>
@@ -31656,7 +31656,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H1067" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I1067" s="0" t="n">
         <x:v>0</x:v>
@@ -31940,13 +31940,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F1077" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G1077" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H1077" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I1077" s="0" t="n">
         <x:v>0</x:v>
@@ -31969,13 +31969,13 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F1078" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G1078" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="H1078" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I1078" s="0" t="n">
         <x:v>0</x:v>
@@ -32169,7 +32169,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E1085" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F1085" s="1" t="n">
         <x:v>49</x:v>
@@ -32201,7 +32201,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="F1086" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G1086" s="1" t="n">
         <x:v>115</x:v>
@@ -32227,10 +32227,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E1087" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F1087" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G1087" s="1" t="n">
         <x:v>170</x:v>
@@ -32378,7 +32378,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G1092" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1092" s="1" t="n">
         <x:v>3</x:v>
@@ -32407,7 +32407,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G1093" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1093" s="1" t="n">
         <x:v>4</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1339,7 +1339,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>6</x:v>
@@ -1397,7 +1397,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>26</x:v>
@@ -3378,7 +3378,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="G92" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H92" s="1" t="n">
         <x:v>19</x:v>
@@ -3404,10 +3404,10 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="F93" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G93" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="H93" s="1" t="n">
         <x:v>53</x:v>
@@ -3433,10 +3433,10 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="F94" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="G94" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="H94" s="1" t="n">
         <x:v>72</x:v>
@@ -8224,7 +8224,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="H259" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I259" s="0" t="n">
         <x:v>0</x:v>
@@ -8253,7 +8253,7 @@
         <x:v>188</x:v>
       </x:c>
       <x:c r="H260" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I260" s="0" t="n">
         <x:v>0</x:v>
@@ -11211,7 +11211,7 @@
         <x:v>222</x:v>
       </x:c>
       <x:c r="H362" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I362" s="0" t="n">
         <x:v>0</x:v>
@@ -11234,7 +11234,7 @@
         <x:v>463</x:v>
       </x:c>
       <x:c r="F363" s="1" t="n">
-        <x:v>826</x:v>
+        <x:v>827</x:v>
       </x:c>
       <x:c r="G363" s="1" t="n">
         <x:v>768</x:v>
@@ -11263,13 +11263,13 @@
         <x:v>626</x:v>
       </x:c>
       <x:c r="F364" s="1" t="n">
-        <x:v>1080</x:v>
+        <x:v>1081</x:v>
       </x:c>
       <x:c r="G364" s="1" t="n">
         <x:v>990</x:v>
       </x:c>
       <x:c r="H364" s="1" t="n">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="I364" s="0" t="n">
         <x:v>0</x:v>
@@ -26665,7 +26665,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G895" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H895" s="1" t="n">
         <x:v>7</x:v>
@@ -26694,7 +26694,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G896" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H896" s="1" t="n">
         <x:v>12</x:v>
@@ -27625,7 +27625,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="H928" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I928" s="0" t="n">
         <x:v>0</x:v>
@@ -27654,7 +27654,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="H929" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I929" s="0" t="n">
         <x:v>0</x:v>
@@ -30583,7 +30583,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H1030" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1030" s="0" t="n">
         <x:v>0</x:v>
@@ -30612,7 +30612,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H1031" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1031" s="0" t="n">
         <x:v>0</x:v>
@@ -30751,13 +30751,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F1036" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G1036" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H1036" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I1036" s="0" t="n">
         <x:v>0</x:v>
@@ -30780,13 +30780,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F1037" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G1037" s="1" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H1037" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I1037" s="0" t="n">
         <x:v>0</x:v>
@@ -30864,7 +30864,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1040" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F1040" s="1" t="n">
         <x:v>0</x:v>
@@ -30893,7 +30893,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1041" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F1041" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -8224,7 +8224,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="H259" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I259" s="0" t="n">
         <x:v>0</x:v>
@@ -8253,7 +8253,7 @@
         <x:v>188</x:v>
       </x:c>
       <x:c r="H260" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I260" s="0" t="n">
         <x:v>0</x:v>
@@ -8456,7 +8456,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="H267" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I267" s="0" t="n">
         <x:v>0</x:v>
@@ -8485,7 +8485,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="H268" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I268" s="0" t="n">
         <x:v>0</x:v>
@@ -10051,7 +10051,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H322" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I322" s="0" t="n">
         <x:v>0</x:v>
@@ -10080,7 +10080,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="H323" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I323" s="0" t="n">
         <x:v>0</x:v>
@@ -10718,7 +10718,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H345" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I345" s="0" t="n">
         <x:v>0</x:v>
@@ -10776,7 +10776,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="H347" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I347" s="0" t="n">
         <x:v>0</x:v>
@@ -11556,7 +11556,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G374" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H374" s="1" t="n">
         <x:v>0</x:v>
@@ -11614,7 +11614,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G376" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H376" s="1" t="n">
         <x:v>0</x:v>
@@ -11753,13 +11753,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E381" s="1" t="n">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F381" s="1" t="n">
         <x:v>260</x:v>
       </x:c>
       <x:c r="G381" s="1" t="n">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="H381" s="1" t="n">
         <x:v>115</x:v>
@@ -11782,13 +11782,13 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E382" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="F382" s="1" t="n">
         <x:v>351</x:v>
       </x:c>
       <x:c r="G382" s="1" t="n">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="H382" s="1" t="n">
         <x:v>150</x:v>
@@ -16019,13 +16019,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F528" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G528" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H528" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I528" s="0" t="n">
         <x:v>0</x:v>
@@ -16045,7 +16045,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E529" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F529" s="1" t="n">
         <x:v>4</x:v>
@@ -16074,16 +16074,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E530" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F530" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G530" s="1" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H530" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I530" s="0" t="n">
         <x:v>0</x:v>
@@ -16135,13 +16135,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F532" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G532" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H532" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I532" s="0" t="n">
         <x:v>0</x:v>
@@ -16164,13 +16164,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F533" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G533" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H533" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I533" s="0" t="n">
         <x:v>0</x:v>
@@ -26059,7 +26059,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="H874" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I874" s="0" t="n">
         <x:v>0</x:v>
@@ -26088,7 +26088,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="H875" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I875" s="0" t="n">
         <x:v>0</x:v>
@@ -26317,7 +26317,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="G883" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H883" s="1" t="n">
         <x:v>65</x:v>
@@ -26346,7 +26346,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="G884" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H884" s="1" t="n">
         <x:v>89</x:v>
@@ -28312,7 +28312,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E952" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F952" s="1" t="n">
         <x:v>70</x:v>
@@ -28341,7 +28341,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E953" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F953" s="1" t="n">
         <x:v>103</x:v>
@@ -28930,7 +28930,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H973" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I973" s="0" t="n">
         <x:v>0</x:v>
@@ -28959,7 +28959,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H974" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I974" s="0" t="n">
         <x:v>0</x:v>
@@ -31441,7 +31441,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1060" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1060" s="1" t="n">
         <x:v>2</x:v>
@@ -31470,7 +31470,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1061" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1061" s="1" t="n">
         <x:v>2</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1638,7 +1638,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>2</x:v>
@@ -1667,7 +1667,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G33" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H33" s="1" t="n">
         <x:v>2</x:v>
@@ -3404,13 +3404,13 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="F93" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="G93" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="H93" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I93" s="0" t="n">
         <x:v>0</x:v>
@@ -3433,13 +3433,13 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="F94" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="G94" s="1" t="n">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="H94" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I94" s="0" t="n">
         <x:v>0</x:v>
@@ -8453,7 +8453,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="G267" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H267" s="1" t="n">
         <x:v>72</x:v>
@@ -8482,7 +8482,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="G268" s="1" t="n">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="H268" s="1" t="n">
         <x:v>100</x:v>
@@ -8592,7 +8592,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E272" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F272" s="1" t="n">
         <x:v>2</x:v>
@@ -8650,7 +8650,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E274" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F274" s="1" t="n">
         <x:v>5</x:v>
@@ -8705,7 +8705,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D276" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E276" s="1" t="n">
         <x:v>13</x:v>
@@ -8734,7 +8734,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D277" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E277" s="1" t="n">
         <x:v>15</x:v>
@@ -9326,7 +9326,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H297" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I297" s="0" t="n">
         <x:v>0</x:v>
@@ -9384,7 +9384,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="H299" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I299" s="0" t="n">
         <x:v>0</x:v>
@@ -10219,7 +10219,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F328" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G328" s="1" t="n">
         <x:v>10</x:v>
@@ -10248,7 +10248,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F329" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G329" s="1" t="n">
         <x:v>17</x:v>
@@ -10712,10 +10712,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F345" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G345" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H345" s="1" t="n">
         <x:v>5</x:v>
@@ -10741,10 +10741,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F346" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G346" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H346" s="1" t="n">
         <x:v>17</x:v>
@@ -10770,10 +10770,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F347" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G347" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H347" s="1" t="n">
         <x:v>22</x:v>
@@ -11005,7 +11005,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G355" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H355" s="1" t="n">
         <x:v>0</x:v>
@@ -11034,7 +11034,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G356" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H356" s="1" t="n">
         <x:v>0</x:v>
@@ -11753,10 +11753,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E381" s="1" t="n">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="F381" s="1" t="n">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="G381" s="1" t="n">
         <x:v>279</x:v>
@@ -11782,10 +11782,10 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E382" s="1" t="n">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="F382" s="1" t="n">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="G382" s="1" t="n">
         <x:v>371</x:v>
@@ -16886,7 +16886,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E558" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F558" s="1" t="n">
         <x:v>33</x:v>
@@ -16915,7 +16915,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E559" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F559" s="1" t="n">
         <x:v>53</x:v>
@@ -17066,7 +17066,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G564" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H564" s="1" t="n">
         <x:v>13</x:v>
@@ -17095,7 +17095,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G565" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H565" s="1" t="n">
         <x:v>17</x:v>
@@ -21239,7 +21239,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F708" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G708" s="1" t="n">
         <x:v>22</x:v>
@@ -21268,7 +21268,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F709" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G709" s="1" t="n">
         <x:v>33</x:v>
@@ -26372,7 +26372,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F885" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G885" s="1" t="n">
         <x:v>3</x:v>
@@ -26430,7 +26430,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F887" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G887" s="1" t="n">
         <x:v>4</x:v>
@@ -26668,7 +26668,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="H895" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I895" s="0" t="n">
         <x:v>0</x:v>
@@ -26697,7 +26697,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="H896" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I896" s="0" t="n">
         <x:v>0</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="G942" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H942" s="1" t="n">
         <x:v>10</x:v>
@@ -28086,7 +28086,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="G944" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="H944" s="1" t="n">
         <x:v>61</x:v>
@@ -28318,7 +28318,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="G952" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H952" s="1" t="n">
         <x:v>52</x:v>
@@ -28347,7 +28347,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="G953" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H953" s="1" t="n">
         <x:v>65</x:v>
@@ -32990,7 +32990,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H1113" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1113" s="0" t="n">
         <x:v>0</x:v>
@@ -33019,7 +33019,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H1114" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1114" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -709,7 +709,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I1171"/>
+  <x:dimension ref="A1:I1173"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1206,7 +1206,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I17" s="0" t="n">
         <x:v>0</x:v>
@@ -1235,7 +1235,7 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I18" s="0" t="n">
         <x:v>0</x:v>
@@ -3491,7 +3491,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F96" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G96" s="1" t="n">
         <x:v>10</x:v>
@@ -3520,7 +3520,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F97" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G97" s="1" t="n">
         <x:v>18</x:v>
@@ -4474,13 +4474,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E130" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F130" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G130" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H130" s="1" t="n">
         <x:v>5</x:v>
@@ -4509,7 +4509,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G131" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H131" s="1" t="n">
         <x:v>11</x:v>
@@ -4532,13 +4532,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E132" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F132" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G132" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H132" s="1" t="n">
         <x:v>16</x:v>
@@ -6484,7 +6484,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H199" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I199" s="0" t="n">
         <x:v>0</x:v>
@@ -6542,7 +6542,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H201" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I201" s="0" t="n">
         <x:v>0</x:v>
@@ -10976,7 +10976,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G354" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H354" s="1" t="n">
         <x:v>0</x:v>
@@ -11034,7 +11034,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G356" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H356" s="1" t="n">
         <x:v>0</x:v>
@@ -11208,7 +11208,7 @@
         <x:v>254</x:v>
       </x:c>
       <x:c r="G362" s="1" t="n">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="H362" s="1" t="n">
         <x:v>71</x:v>
@@ -11237,7 +11237,7 @@
         <x:v>827</x:v>
       </x:c>
       <x:c r="G363" s="1" t="n">
-        <x:v>768</x:v>
+        <x:v>769</x:v>
       </x:c>
       <x:c r="H363" s="1" t="n">
         <x:v>321</x:v>
@@ -11266,7 +11266,7 @@
         <x:v>1081</x:v>
       </x:c>
       <x:c r="G364" s="1" t="n">
-        <x:v>990</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="H364" s="1" t="n">
         <x:v>392</x:v>
@@ -11289,7 +11289,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E365" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F365" s="1" t="n">
         <x:v>2</x:v>
@@ -11347,7 +11347,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E367" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F367" s="1" t="n">
         <x:v>13</x:v>
@@ -11460,7 +11460,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D371" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E371" s="1" t="n">
         <x:v>76</x:v>
@@ -11518,7 +11518,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D373" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E373" s="1" t="n">
         <x:v>236</x:v>
@@ -20804,7 +20804,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F693" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G693" s="1" t="n">
         <x:v>94</x:v>
@@ -20833,7 +20833,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="F694" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G694" s="1" t="n">
         <x:v>127</x:v>
@@ -23388,7 +23388,7 @@
         <x:v>689</x:v>
       </x:c>
       <x:c r="G782" s="1" t="n">
-        <x:v>892</x:v>
+        <x:v>893</x:v>
       </x:c>
       <x:c r="H782" s="1" t="n">
         <x:v>831</x:v>
@@ -23417,7 +23417,7 @@
         <x:v>798</x:v>
       </x:c>
       <x:c r="G783" s="1" t="n">
-        <x:v>1025</x:v>
+        <x:v>1026</x:v>
       </x:c>
       <x:c r="H783" s="1" t="n">
         <x:v>911</x:v>
@@ -26230,7 +26230,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G880" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H880" s="1" t="n">
         <x:v>12</x:v>
@@ -26259,7 +26259,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G881" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H881" s="1" t="n">
         <x:v>13</x:v>
@@ -27445,7 +27445,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F922" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G922" s="1" t="n">
         <x:v>34</x:v>
@@ -27474,13 +27474,13 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="F923" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G923" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H923" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I923" s="0" t="n">
         <x:v>0</x:v>
@@ -27503,13 +27503,13 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="F924" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="G924" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="H924" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I924" s="0" t="n">
         <x:v>0</x:v>
@@ -27593,7 +27593,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G927" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H927" s="1" t="n">
         <x:v>7</x:v>
@@ -27619,13 +27619,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F928" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G928" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H928" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I928" s="0" t="n">
         <x:v>0</x:v>
@@ -27648,13 +27648,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F929" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G929" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H929" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I929" s="0" t="n">
         <x:v>0</x:v>
@@ -27848,7 +27848,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E936" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F936" s="1" t="n">
         <x:v>1</x:v>
@@ -27906,7 +27906,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E938" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F938" s="1" t="n">
         <x:v>3</x:v>
@@ -27944,7 +27944,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H939" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I939" s="0" t="n">
         <x:v>0</x:v>
@@ -27973,7 +27973,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="H940" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I940" s="0" t="n">
         <x:v>0</x:v>
@@ -28002,7 +28002,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="H941" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I941" s="0" t="n">
         <x:v>0</x:v>
@@ -28892,7 +28892,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E972" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F972" s="1" t="n">
         <x:v>0</x:v>
@@ -28950,7 +28950,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E974" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F974" s="1" t="n">
         <x:v>11</x:v>
@@ -29489,28 +29489,28 @@
     </x:row>
     <x:row r="993" spans="1:9">
       <x:c r="A993" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B993" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C993" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D993" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E993" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F993" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G993" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H993" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I993" s="0" t="n">
         <x:v>0</x:v>
@@ -29518,10 +29518,10 @@
     </x:row>
     <x:row r="994" spans="1:9">
       <x:c r="A994" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B994" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C994" s="1" t="s">
         <x:v>13</x:v>
@@ -29530,16 +29530,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E994" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F994" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G994" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H994" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I994" s="0" t="n">
         <x:v>0</x:v>
@@ -29550,7 +29550,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B995" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C995" s="1" t="s">
         <x:v>12</x:v>
@@ -29562,13 +29562,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F995" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G995" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H995" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I995" s="0" t="n">
         <x:v>0</x:v>
@@ -29579,7 +29579,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B996" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C996" s="1" t="s">
         <x:v>13</x:v>
@@ -29591,13 +29591,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F996" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G996" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H996" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I996" s="0" t="n">
         <x:v>0</x:v>
@@ -29608,19 +29608,19 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B997" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C997" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D997" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E997" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F997" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G997" s="1" t="n">
         <x:v>0</x:v>
@@ -29637,10 +29637,10 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B998" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C998" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D998" s="1" t="n">
         <x:v>0</x:v>
@@ -29652,10 +29652,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G998" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H998" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I998" s="0" t="n">
         <x:v>0</x:v>
@@ -29669,22 +29669,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C999" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D999" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E999" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F999" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G999" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H999" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I999" s="0" t="n">
         <x:v>0</x:v>
@@ -29695,7 +29695,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B1000" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1000" s="1" t="s">
         <x:v>12</x:v>
@@ -29707,13 +29707,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1000" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1000" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1000" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1000" s="0" t="n">
         <x:v>0</x:v>
@@ -29724,7 +29724,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B1001" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1001" s="1" t="s">
         <x:v>13</x:v>
@@ -29736,13 +29736,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1001" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1001" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1001" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1001" s="0" t="n">
         <x:v>0</x:v>
@@ -29753,22 +29753,22 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B1002" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1002" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1002" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1002" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1002" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1002" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1002" s="1" t="n">
         <x:v>0</x:v>
@@ -29782,7 +29782,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B1003" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1003" s="1" t="s">
         <x:v>13</x:v>
@@ -29791,13 +29791,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1003" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1003" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1003" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1003" s="1" t="n">
         <x:v>0</x:v>
@@ -29808,10 +29808,10 @@
     </x:row>
     <x:row r="1004" spans="1:9">
       <x:c r="A1004" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B1004" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1004" s="1" t="s">
         <x:v>11</x:v>
@@ -29820,16 +29820,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1004" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1004" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1004" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1004" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1004" s="0" t="n">
         <x:v>0</x:v>
@@ -29837,28 +29837,28 @@
     </x:row>
     <x:row r="1005" spans="1:9">
       <x:c r="A1005" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B1005" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1005" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1005" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1005" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1005" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1005" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1005" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1005" s="0" t="n">
         <x:v>0</x:v>
@@ -29872,22 +29872,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1006" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1006" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1006" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1006" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G1006" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E1006" s="1" t="n">
+      <x:c r="H1006" s="1" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="F1006" s="1" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G1006" s="1" t="n">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="H1006" s="1" t="n">
-        <x:v>10</x:v>
       </x:c>
       <x:c r="I1006" s="0" t="n">
         <x:v>0</x:v>
@@ -29898,25 +29898,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1007" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1007" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1007" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1007" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1007" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1007" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1007" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I1007" s="0" t="n">
         <x:v>0</x:v>
@@ -29927,25 +29927,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1008" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1008" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1008" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1008" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1008" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1008" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H1008" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I1008" s="0" t="n">
         <x:v>0</x:v>
@@ -29959,22 +29959,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1009" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1009" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1009" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1009" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1009" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1009" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1009" s="0" t="n">
         <x:v>0</x:v>
@@ -29985,25 +29985,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1010" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1010" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1010" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1010" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1010" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1010" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1010" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1010" s="0" t="n">
         <x:v>0</x:v>
@@ -30014,25 +30014,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1011" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1011" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1011" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1011" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1011" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1011" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H1011" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1011" s="0" t="n">
         <x:v>0</x:v>
@@ -30046,22 +30046,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1012" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1012" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1012" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1012" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1012" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1012" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1012" s="0" t="n">
         <x:v>0</x:v>
@@ -30072,25 +30072,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1013" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1013" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1013" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1013" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1013" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1013" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1013" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1013" s="0" t="n">
         <x:v>0</x:v>
@@ -30101,25 +30101,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1014" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1014" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1014" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1014" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1014" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1014" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1014" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1014" s="0" t="n">
         <x:v>0</x:v>
@@ -30130,7 +30130,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1015" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1015" s="1" t="s">
         <x:v>11</x:v>
@@ -30145,7 +30145,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1015" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1015" s="1" t="n">
         <x:v>0</x:v>
@@ -30159,22 +30159,22 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1016" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1016" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1016" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1016" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1016" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1016" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1016" s="1" t="n">
         <x:v>0</x:v>
@@ -30191,13 +30191,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1017" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1017" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1017" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1017" s="1" t="n">
         <x:v>1</x:v>
@@ -30217,19 +30217,19 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1018" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1018" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1018" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1018" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1018" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1018" s="1" t="n">
         <x:v>0</x:v>
@@ -30246,19 +30246,19 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1019" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1019" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1019" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1019" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1019" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1019" s="1" t="n">
         <x:v>0</x:v>
@@ -30272,13 +30272,13 @@
     </x:row>
     <x:row r="1020" spans="1:9">
       <x:c r="A1020" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B1020" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1020" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1020" s="1" t="n">
         <x:v>0</x:v>
@@ -30301,13 +30301,13 @@
     </x:row>
     <x:row r="1021" spans="1:9">
       <x:c r="A1021" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B1021" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1021" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1021" s="1" t="n">
         <x:v>0</x:v>
@@ -30316,7 +30316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1021" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1021" s="1" t="n">
         <x:v>0</x:v>
@@ -30336,7 +30336,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1022" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1022" s="1" t="n">
         <x:v>0</x:v>
@@ -30345,7 +30345,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1022" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1022" s="1" t="n">
         <x:v>0</x:v>
@@ -30362,7 +30362,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="B1023" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1023" s="1" t="s">
         <x:v>12</x:v>
@@ -30371,16 +30371,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1023" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1023" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1023" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1023" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1023" s="0" t="n">
         <x:v>0</x:v>
@@ -30391,7 +30391,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="B1024" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1024" s="1" t="s">
         <x:v>13</x:v>
@@ -30400,16 +30400,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1024" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1024" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1024" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1024" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1024" s="0" t="n">
         <x:v>0</x:v>
@@ -30417,10 +30417,10 @@
     </x:row>
     <x:row r="1025" spans="1:9">
       <x:c r="A1025" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B1025" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1025" s="1" t="s">
         <x:v>12</x:v>
@@ -30429,7 +30429,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1025" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1025" s="1" t="n">
         <x:v>0</x:v>
@@ -30438,7 +30438,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1025" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1025" s="0" t="n">
         <x:v>0</x:v>
@@ -30446,10 +30446,10 @@
     </x:row>
     <x:row r="1026" spans="1:9">
       <x:c r="A1026" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B1026" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1026" s="1" t="s">
         <x:v>13</x:v>
@@ -30458,7 +30458,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1026" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1026" s="1" t="n">
         <x:v>0</x:v>
@@ -30467,7 +30467,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1026" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1026" s="0" t="n">
         <x:v>0</x:v>
@@ -30478,7 +30478,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B1027" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1027" s="1" t="s">
         <x:v>12</x:v>
@@ -30487,13 +30487,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1027" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1027" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1027" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1027" s="1" t="n">
         <x:v>0</x:v>
@@ -30507,7 +30507,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B1028" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1028" s="1" t="s">
         <x:v>13</x:v>
@@ -30516,13 +30516,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1028" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1028" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1028" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1028" s="1" t="n">
         <x:v>0</x:v>
@@ -30533,28 +30533,28 @@
     </x:row>
     <x:row r="1029" spans="1:9">
       <x:c r="A1029" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B1029" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1029" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1029" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1029" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1029" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1029" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1029" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1029" s="0" t="n">
         <x:v>0</x:v>
@@ -30562,28 +30562,28 @@
     </x:row>
     <x:row r="1030" spans="1:9">
       <x:c r="A1030" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B1030" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1030" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1030" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1030" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1030" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1030" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1030" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1030" s="0" t="n">
         <x:v>0</x:v>
@@ -30597,22 +30597,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1031" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1031" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1031" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1031" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1031" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1031" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1031" s="0" t="n">
         <x:v>0</x:v>
@@ -30623,25 +30623,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B1032" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1032" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1032" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1032" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1032" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1032" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1032" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1032" s="0" t="n">
         <x:v>0</x:v>
@@ -30652,25 +30652,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B1033" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1033" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1033" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1033" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1033" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1033" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H1033" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1033" s="0" t="n">
         <x:v>0</x:v>
@@ -30684,7 +30684,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1034" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1034" s="1" t="n">
         <x:v>3</x:v>
@@ -30696,10 +30696,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1034" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1034" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1034" s="0" t="n">
         <x:v>0</x:v>
@@ -30710,10 +30710,10 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B1035" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1035" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1035" s="1" t="n">
         <x:v>0</x:v>
@@ -30722,13 +30722,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1035" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1035" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1035" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1035" s="0" t="n">
         <x:v>0</x:v>
@@ -30739,25 +30739,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B1036" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1036" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1036" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1036" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1036" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1036" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1036" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1036" s="0" t="n">
         <x:v>0</x:v>
@@ -30771,22 +30771,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1037" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1037" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1037" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1037" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1037" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1037" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1037" s="0" t="n">
         <x:v>0</x:v>
@@ -30797,25 +30797,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B1038" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1038" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1038" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1038" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F1038" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G1038" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H1038" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I1038" s="0" t="n">
         <x:v>0</x:v>
@@ -30826,7 +30826,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B1039" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1039" s="1" t="s">
         <x:v>13</x:v>
@@ -30835,16 +30835,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1039" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F1039" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G1039" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H1039" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I1039" s="0" t="n">
         <x:v>0</x:v>
@@ -30855,19 +30855,19 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B1040" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1040" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1040" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1040" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1040" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1040" s="1" t="n">
         <x:v>0</x:v>
@@ -30884,7 +30884,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B1041" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1041" s="1" t="s">
         <x:v>13</x:v>
@@ -30893,10 +30893,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1041" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1041" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1041" s="1" t="n">
         <x:v>0</x:v>
@@ -30913,7 +30913,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B1042" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1042" s="1" t="s">
         <x:v>12</x:v>
@@ -30922,13 +30922,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1042" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F1042" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1042" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1042" s="1" t="n">
         <x:v>0</x:v>
@@ -30942,7 +30942,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B1043" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1043" s="1" t="s">
         <x:v>13</x:v>
@@ -30951,13 +30951,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1043" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F1043" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1043" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1043" s="1" t="n">
         <x:v>0</x:v>
@@ -30968,25 +30968,25 @@
     </x:row>
     <x:row r="1044" spans="1:9">
       <x:c r="A1044" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B1044" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1044" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1044" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1044" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1044" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1044" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1044" s="1" t="n">
         <x:v>0</x:v>
@@ -30997,28 +30997,28 @@
     </x:row>
     <x:row r="1045" spans="1:9">
       <x:c r="A1045" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B1045" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1045" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1045" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1045" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1045" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1045" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1045" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1045" s="0" t="n">
         <x:v>0</x:v>
@@ -31032,22 +31032,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1046" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1046" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1046" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1046" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1046" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1046" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1046" s="0" t="n">
         <x:v>0</x:v>
@@ -31058,25 +31058,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B1047" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1047" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1047" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1047" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1047" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1047" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1047" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1047" s="0" t="n">
         <x:v>0</x:v>
@@ -31087,25 +31087,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B1048" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1048" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1048" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1048" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1048" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G1048" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C1048" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D1048" s="1" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E1048" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F1048" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G1048" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
       <x:c r="H1048" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1048" s="0" t="n">
         <x:v>0</x:v>
@@ -31119,22 +31119,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1049" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1049" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1049" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1049" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1049" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1049" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1049" s="0" t="n">
         <x:v>0</x:v>
@@ -31145,25 +31145,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B1050" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1050" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1050" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E1050" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1050" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1050" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1050" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1050" s="0" t="n">
         <x:v>0</x:v>
@@ -31174,25 +31174,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B1051" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1051" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1051" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E1051" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1051" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1051" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1051" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1051" s="0" t="n">
         <x:v>0</x:v>
@@ -31206,22 +31206,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1052" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1052" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1052" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1052" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1052" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1052" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1052" s="0" t="n">
         <x:v>0</x:v>
@@ -31232,25 +31232,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B1053" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1053" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1053" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1053" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F1053" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G1053" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H1053" s="1" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="F1053" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G1053" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H1053" s="1" t="n">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="I1053" s="0" t="n">
         <x:v>0</x:v>
@@ -31261,25 +31261,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B1054" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1054" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1054" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1054" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1054" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1054" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1054" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1054" s="0" t="n">
         <x:v>0</x:v>
@@ -31293,13 +31293,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1055" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1055" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1055" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1055" s="1" t="n">
         <x:v>0</x:v>
@@ -31308,7 +31308,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1055" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1055" s="0" t="n">
         <x:v>0</x:v>
@@ -31319,16 +31319,16 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B1056" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1056" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1056" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1056" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1056" s="1" t="n">
         <x:v>0</x:v>
@@ -31337,7 +31337,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1056" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1056" s="0" t="n">
         <x:v>0</x:v>
@@ -31348,25 +31348,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B1057" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1057" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1057" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1057" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1057" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1057" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1057" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1057" s="0" t="n">
         <x:v>0</x:v>
@@ -31380,7 +31380,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1058" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1058" s="1" t="n">
         <x:v>0</x:v>
@@ -31389,13 +31389,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1058" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1058" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1058" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1058" s="0" t="n">
         <x:v>0</x:v>
@@ -31403,25 +31403,25 @@
     </x:row>
     <x:row r="1059" spans="1:9">
       <x:c r="A1059" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B1059" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1059" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1059" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1059" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1059" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1059" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1059" s="1" t="n">
         <x:v>1</x:v>
@@ -31432,28 +31432,28 @@
     </x:row>
     <x:row r="1060" spans="1:9">
       <x:c r="A1060" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B1060" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1060" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1060" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1060" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1060" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1060" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1060" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1060" s="0" t="n">
         <x:v>0</x:v>
@@ -31467,22 +31467,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1061" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1061" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1061" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1061" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1061" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1061" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1061" s="0" t="n">
         <x:v>0</x:v>
@@ -31493,25 +31493,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1062" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1062" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1062" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1062" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1062" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1062" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1062" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1062" s="0" t="n">
         <x:v>0</x:v>
@@ -31522,25 +31522,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1063" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1063" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1063" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1063" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1063" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1063" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1063" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1063" s="0" t="n">
         <x:v>0</x:v>
@@ -31554,19 +31554,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1064" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1064" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1064" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1064" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1064" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1064" s="1" t="n">
         <x:v>0</x:v>
@@ -31580,22 +31580,22 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1065" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1065" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1065" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1065" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1065" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1065" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1065" s="1" t="n">
         <x:v>0</x:v>
@@ -31609,25 +31609,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1066" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1066" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1066" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1066" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1066" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1066" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1066" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1066" s="0" t="n">
         <x:v>0</x:v>
@@ -31641,22 +31641,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1067" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1067" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1067" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1067" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1067" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1067" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1067" s="0" t="n">
         <x:v>0</x:v>
@@ -31667,7 +31667,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1068" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1068" s="1" t="s">
         <x:v>12</x:v>
@@ -31676,16 +31676,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1068" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1068" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1068" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1068" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I1068" s="0" t="n">
         <x:v>0</x:v>
@@ -31696,7 +31696,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1069" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1069" s="1" t="s">
         <x:v>13</x:v>
@@ -31705,16 +31705,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1069" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1069" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1069" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1069" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I1069" s="0" t="n">
         <x:v>0</x:v>
@@ -31725,16 +31725,16 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1070" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1070" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1070" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1070" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1070" s="1" t="n">
         <x:v>0</x:v>
@@ -31754,16 +31754,16 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1071" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1071" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1071" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1071" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1071" s="1" t="n">
         <x:v>0</x:v>
@@ -31786,13 +31786,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1072" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1072" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1072" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F1072" s="1" t="n">
         <x:v>0</x:v>
@@ -31812,25 +31812,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1073" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1073" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1073" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E1073" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F1073" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1073" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1073" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1073" s="0" t="n">
         <x:v>0</x:v>
@@ -31841,22 +31841,22 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1074" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1074" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1074" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E1074" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F1074" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1074" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1074" s="1" t="n">
         <x:v>0</x:v>
@@ -31873,19 +31873,19 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1075" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1075" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1075" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1075" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1075" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1075" s="1" t="n">
         <x:v>2</x:v>
@@ -31896,28 +31896,28 @@
     </x:row>
     <x:row r="1076" spans="1:9">
       <x:c r="A1076" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B1076" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1076" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1076" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1076" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1076" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1076" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1076" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1076" s="0" t="n">
         <x:v>0</x:v>
@@ -31925,28 +31925,28 @@
     </x:row>
     <x:row r="1077" spans="1:9">
       <x:c r="A1077" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B1077" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1077" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1077" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1077" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1077" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1077" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1077" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1077" s="0" t="n">
         <x:v>0</x:v>
@@ -31960,22 +31960,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1078" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1078" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E1078" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F1078" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G1078" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H1078" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1078" s="0" t="n">
         <x:v>0</x:v>
@@ -31986,25 +31986,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1079" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1079" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1079" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E1079" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F1079" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G1079" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H1079" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I1079" s="0" t="n">
         <x:v>0</x:v>
@@ -32015,25 +32015,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1080" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1080" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1080" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E1080" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F1080" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G1080" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="H1080" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I1080" s="0" t="n">
         <x:v>0</x:v>
@@ -32047,10 +32047,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1081" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1081" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1081" s="1" t="n">
         <x:v>0</x:v>
@@ -32073,25 +32073,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1082" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1082" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1082" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1082" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1082" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1082" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1082" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1082" s="0" t="n">
         <x:v>0</x:v>
@@ -32102,25 +32102,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1083" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1083" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1083" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E1083" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1083" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1083" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1083" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1083" s="0" t="n">
         <x:v>0</x:v>
@@ -32134,22 +32134,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1084" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1084" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E1084" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F1084" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1084" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H1084" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1084" s="0" t="n">
         <x:v>0</x:v>
@@ -32160,25 +32160,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1085" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C1085" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D1085" s="1" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E1085" s="1" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F1085" s="1" t="n">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C1085" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D1085" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E1085" s="1" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F1085" s="1" t="n">
-        <x:v>49</x:v>
-      </x:c>
       <x:c r="G1085" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H1085" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I1085" s="0" t="n">
         <x:v>0</x:v>
@@ -32189,25 +32189,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1086" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C1086" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1086" s="1" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E1086" s="1" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F1086" s="1" t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G1086" s="1" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H1086" s="1" t="n">
         <x:v>15</x:v>
-      </x:c>
-      <x:c r="C1086" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D1086" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E1086" s="1" t="n">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="F1086" s="1" t="n">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="G1086" s="1" t="n">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="H1086" s="1" t="n">
-        <x:v>83</x:v>
       </x:c>
       <x:c r="I1086" s="0" t="n">
         <x:v>0</x:v>
@@ -32221,22 +32221,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1087" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1087" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1087" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F1087" s="1" t="n">
-        <x:v>155</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G1087" s="1" t="n">
-        <x:v>170</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H1087" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I1087" s="0" t="n">
         <x:v>0</x:v>
@@ -32247,25 +32247,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1088" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1088" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1088" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1088" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F1088" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G1088" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H1088" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I1088" s="0" t="n">
         <x:v>0</x:v>
@@ -32276,25 +32276,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1089" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1089" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1089" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E1089" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F1089" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G1089" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="H1089" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I1089" s="0" t="n">
         <x:v>0</x:v>
@@ -32308,7 +32308,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1090" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1090" s="1" t="n">
         <x:v>0</x:v>
@@ -32320,10 +32320,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G1090" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1090" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1090" s="0" t="n">
         <x:v>0</x:v>
@@ -32334,25 +32334,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1091" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1091" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1091" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1091" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1091" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1091" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1091" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1091" s="0" t="n">
         <x:v>0</x:v>
@@ -32363,25 +32363,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1092" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1092" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1092" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1092" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1092" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1092" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1092" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1092" s="0" t="n">
         <x:v>0</x:v>
@@ -32395,22 +32395,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1093" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1093" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1093" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1093" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1093" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1093" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1093" s="0" t="n">
         <x:v>0</x:v>
@@ -32421,25 +32421,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1094" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1094" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1094" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E1094" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F1094" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1094" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1094" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1094" s="0" t="n">
         <x:v>0</x:v>
@@ -32450,25 +32450,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1095" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1095" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1095" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E1095" s="1" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F1095" s="1" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G1095" s="1" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H1095" s="1" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1095" s="1" t="n">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G1095" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H1095" s="1" t="n">
-        <x:v>5</x:v>
       </x:c>
       <x:c r="I1095" s="0" t="n">
         <x:v>0</x:v>
@@ -32482,22 +32482,22 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1096" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1096" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1096" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1096" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1096" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1096" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1096" s="0" t="n">
         <x:v>0</x:v>
@@ -32505,28 +32505,28 @@
     </x:row>
     <x:row r="1097" spans="1:9">
       <x:c r="A1097" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B1097" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1097" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1097" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E1097" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1097" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G1097" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1097" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1097" s="0" t="n">
         <x:v>0</x:v>
@@ -32534,28 +32534,28 @@
     </x:row>
     <x:row r="1098" spans="1:9">
       <x:c r="A1098" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B1098" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1098" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1098" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E1098" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="F1098" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G1098" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1098" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1098" s="0" t="n">
         <x:v>0</x:v>
@@ -32569,22 +32569,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1099" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1099" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1099" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1099" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1099" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1099" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1099" s="0" t="n">
         <x:v>0</x:v>
@@ -32595,25 +32595,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1100" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1100" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1100" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1100" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1100" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1100" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1100" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1100" s="0" t="n">
         <x:v>0</x:v>
@@ -32624,25 +32624,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1101" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1101" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1101" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1101" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1101" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G1101" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1101" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I1101" s="0" t="n">
         <x:v>0</x:v>
@@ -32653,25 +32653,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1102" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1102" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1102" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1102" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1102" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1102" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1102" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1102" s="0" t="n">
         <x:v>0</x:v>
@@ -32682,22 +32682,22 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1103" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1103" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1103" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1103" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1103" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1103" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1103" s="1" t="n">
         <x:v>1</x:v>
@@ -32714,22 +32714,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1104" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1104" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1104" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1104" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1104" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1104" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1104" s="0" t="n">
         <x:v>0</x:v>
@@ -32740,25 +32740,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1105" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1105" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1105" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1105" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1105" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G1105" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1105" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1105" s="0" t="n">
         <x:v>0</x:v>
@@ -32769,25 +32769,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1106" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1106" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1106" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1106" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1106" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1106" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H1106" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1106" s="0" t="n">
         <x:v>0</x:v>
@@ -32798,19 +32798,19 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1107" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1107" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1107" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1107" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1107" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1107" s="1" t="n">
         <x:v>0</x:v>
@@ -32827,19 +32827,19 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1108" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1108" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1108" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1108" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1108" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1108" s="1" t="n">
         <x:v>0</x:v>
@@ -32859,13 +32859,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1109" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1109" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1109" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1109" s="1" t="n">
         <x:v>0</x:v>
@@ -32885,7 +32885,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1110" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1110" s="1" t="s">
         <x:v>12</x:v>
@@ -32894,13 +32894,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1110" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1110" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1110" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1110" s="1" t="n">
         <x:v>0</x:v>
@@ -32914,7 +32914,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1111" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1111" s="1" t="s">
         <x:v>13</x:v>
@@ -32923,13 +32923,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1111" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1111" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1111" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1111" s="1" t="n">
         <x:v>0</x:v>
@@ -32940,28 +32940,28 @@
     </x:row>
     <x:row r="1112" spans="1:9">
       <x:c r="A1112" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B1112" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1112" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1112" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1112" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1112" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1112" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1112" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1112" s="0" t="n">
         <x:v>0</x:v>
@@ -32969,28 +32969,28 @@
     </x:row>
     <x:row r="1113" spans="1:9">
       <x:c r="A1113" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B1113" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1113" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1113" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1113" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1113" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1113" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1113" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1113" s="0" t="n">
         <x:v>0</x:v>
@@ -33004,22 +33004,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1114" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1114" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1114" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1114" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1114" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1114" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1114" s="0" t="n">
         <x:v>0</x:v>
@@ -33030,25 +33030,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1115" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1115" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1115" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1115" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1115" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1115" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1115" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1115" s="0" t="n">
         <x:v>0</x:v>
@@ -33059,25 +33059,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1116" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1116" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1116" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1116" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1116" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1116" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1116" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1116" s="0" t="n">
         <x:v>0</x:v>
@@ -33091,7 +33091,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1117" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1117" s="1" t="n">
         <x:v>1</x:v>
@@ -33100,10 +33100,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1117" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1117" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1117" s="1" t="n">
         <x:v>1</x:v>
@@ -33117,10 +33117,10 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1118" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1118" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1118" s="1" t="n">
         <x:v>0</x:v>
@@ -33129,13 +33129,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1118" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1118" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1118" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1118" s="0" t="n">
         <x:v>0</x:v>
@@ -33146,25 +33146,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1119" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1119" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1119" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1119" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1119" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1119" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1119" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1119" s="0" t="n">
         <x:v>0</x:v>
@@ -33178,22 +33178,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1120" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1120" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1120" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1120" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1120" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1120" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1120" s="0" t="n">
         <x:v>0</x:v>
@@ -33204,25 +33204,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1121" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1121" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1121" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1121" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1121" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1121" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1121" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1121" s="0" t="n">
         <x:v>0</x:v>
@@ -33233,25 +33233,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1122" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1122" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1122" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1122" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1122" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1122" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1122" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1122" s="0" t="n">
         <x:v>0</x:v>
@@ -33265,22 +33265,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1123" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1123" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1123" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1123" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1123" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1123" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1123" s="0" t="n">
         <x:v>0</x:v>
@@ -33291,25 +33291,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1124" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1124" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1124" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1124" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F1124" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1124" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1124" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1124" s="0" t="n">
         <x:v>0</x:v>
@@ -33320,25 +33320,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1125" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1125" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1125" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1125" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F1125" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1125" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1125" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1125" s="0" t="n">
         <x:v>0</x:v>
@@ -33346,28 +33346,28 @@
     </x:row>
     <x:row r="1126" spans="1:9">
       <x:c r="A1126" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B1126" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1126" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1126" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1126" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1126" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1126" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1126" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1126" s="0" t="n">
         <x:v>0</x:v>
@@ -33375,28 +33375,28 @@
     </x:row>
     <x:row r="1127" spans="1:9">
       <x:c r="A1127" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B1127" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1127" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1127" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1127" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1127" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1127" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1127" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1127" s="0" t="n">
         <x:v>0</x:v>
@@ -33410,22 +33410,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1128" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1128" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1128" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1128" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1128" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1128" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1128" s="0" t="n">
         <x:v>0</x:v>
@@ -33436,25 +33436,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1129" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1129" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1129" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1129" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1129" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G1129" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H1129" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I1129" s="0" t="n">
         <x:v>0</x:v>
@@ -33465,25 +33465,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1130" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1130" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1130" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E1130" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F1130" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G1130" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H1130" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I1130" s="0" t="n">
         <x:v>0</x:v>
@@ -33497,22 +33497,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1131" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1131" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1131" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1131" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1131" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1131" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1131" s="0" t="n">
         <x:v>0</x:v>
@@ -33523,25 +33523,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1132" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1132" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1132" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1132" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1132" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1132" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1132" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1132" s="0" t="n">
         <x:v>0</x:v>
@@ -33552,25 +33552,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1133" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1133" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1133" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1133" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1133" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1133" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1133" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1133" s="0" t="n">
         <x:v>0</x:v>
@@ -33584,22 +33584,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1134" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1134" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1134" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F1134" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1134" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H1134" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I1134" s="0" t="n">
         <x:v>0</x:v>
@@ -33610,25 +33610,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1135" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C1135" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D1135" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1135" s="1" t="n">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F1135" s="1" t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G1135" s="1" t="n">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H1135" s="1" t="n">
         <x:v>16</x:v>
-      </x:c>
-      <x:c r="C1135" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D1135" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E1135" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1135" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G1135" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H1135" s="1" t="n">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="I1135" s="0" t="n">
         <x:v>0</x:v>
@@ -33639,25 +33639,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1136" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1136" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1136" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1136" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F1136" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G1136" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H1136" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I1136" s="0" t="n">
         <x:v>0</x:v>
@@ -33671,14 +33671,14 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1137" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1137" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1137" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E1137" s="1" t="n">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="F1137" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -33686,7 +33686,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1137" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1137" s="0" t="n">
         <x:v>0</x:v>
@@ -33697,22 +33697,22 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1138" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1138" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1138" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1138" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1138" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1138" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1138" s="1" t="n">
         <x:v>1</x:v>
@@ -33726,25 +33726,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1139" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1139" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1139" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1139" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F1139" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1139" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1139" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1139" s="0" t="n">
         <x:v>0</x:v>
@@ -33758,22 +33758,22 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1140" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1140" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1140" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1140" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1140" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1140" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1140" s="0" t="n">
         <x:v>0</x:v>
@@ -33781,28 +33781,28 @@
     </x:row>
     <x:row r="1141" spans="1:9">
       <x:c r="A1141" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B1141" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C1141" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D1141" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1141" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1141" s="1" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G1141" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C1141" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D1141" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E1141" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1141" s="1" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G1141" s="1" t="n">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="H1141" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I1141" s="0" t="n">
         <x:v>0</x:v>
@@ -33810,28 +33810,28 @@
     </x:row>
     <x:row r="1142" spans="1:9">
       <x:c r="A1142" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B1142" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1142" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1142" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1142" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1142" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G1142" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H1142" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I1142" s="0" t="n">
         <x:v>0</x:v>
@@ -33845,22 +33845,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1143" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1143" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1143" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1143" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1143" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H1143" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1143" s="0" t="n">
         <x:v>0</x:v>
@@ -33871,25 +33871,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1144" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1144" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1144" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E1144" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F1144" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G1144" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H1144" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I1144" s="0" t="n">
         <x:v>0</x:v>
@@ -33900,25 +33900,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1145" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1145" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1145" s="1" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E1145" s="1" t="n">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="E1145" s="1" t="n">
-        <x:v>10</x:v>
-      </x:c>
       <x:c r="F1145" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G1145" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H1145" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I1145" s="0" t="n">
         <x:v>0</x:v>
@@ -33932,22 +33932,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1146" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1146" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1146" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1146" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1146" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1146" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1146" s="0" t="n">
         <x:v>0</x:v>
@@ -33958,25 +33958,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1147" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1147" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1147" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E1147" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1147" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1147" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H1147" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1147" s="0" t="n">
         <x:v>0</x:v>
@@ -33987,25 +33987,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1148" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C1148" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1148" s="1" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E1148" s="1" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F1148" s="1" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G1148" s="1" t="n">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C1148" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D1148" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1148" s="1" t="n">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F1148" s="1" t="n">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="G1148" s="1" t="n">
-        <x:v>50</x:v>
-      </x:c>
       <x:c r="H1148" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I1148" s="0" t="n">
         <x:v>0</x:v>
@@ -34019,22 +34019,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1149" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1149" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E1149" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1149" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G1149" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H1149" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I1149" s="0" t="n">
         <x:v>0</x:v>
@@ -34045,25 +34045,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1150" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C1150" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D1150" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1150" s="1" t="n">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C1150" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D1150" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1150" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="F1150" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G1150" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H1150" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I1150" s="0" t="n">
         <x:v>0</x:v>
@@ -34074,25 +34074,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1151" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1151" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1151" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1151" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F1151" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G1151" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H1151" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I1151" s="0" t="n">
         <x:v>0</x:v>
@@ -34103,22 +34103,22 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1152" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1152" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1152" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1152" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1152" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1152" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1152" s="1" t="n">
         <x:v>0</x:v>
@@ -34132,25 +34132,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1153" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1153" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1153" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1153" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1153" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1153" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1153" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1153" s="0" t="n">
         <x:v>0</x:v>
@@ -34164,22 +34164,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1154" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1154" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E1154" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F1154" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1154" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H1154" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1154" s="0" t="n">
         <x:v>0</x:v>
@@ -34190,19 +34190,19 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1155" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1155" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1155" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E1155" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F1155" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1155" s="1" t="n">
         <x:v>0</x:v>
@@ -34219,22 +34219,22 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1156" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1156" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1156" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E1156" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F1156" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1156" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1156" s="1" t="n">
         <x:v>1</x:v>
@@ -34251,22 +34251,22 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1157" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1157" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1157" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1157" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1157" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1157" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1157" s="0" t="n">
         <x:v>0</x:v>
@@ -34274,22 +34274,22 @@
     </x:row>
     <x:row r="1158" spans="1:9">
       <x:c r="A1158" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B1158" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1158" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1158" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1158" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1158" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1158" s="1" t="n">
         <x:v>5</x:v>
@@ -34303,28 +34303,28 @@
     </x:row>
     <x:row r="1159" spans="1:9">
       <x:c r="A1159" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B1159" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1159" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1159" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1159" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1159" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1159" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1159" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1159" s="0" t="n">
         <x:v>0</x:v>
@@ -34338,7 +34338,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1160" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1160" s="1" t="n">
         <x:v>0</x:v>
@@ -34347,13 +34347,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1160" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1160" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1160" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1160" s="0" t="n">
         <x:v>0</x:v>
@@ -34364,10 +34364,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1161" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1161" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1161" s="1" t="n">
         <x:v>0</x:v>
@@ -34376,13 +34376,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1161" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1161" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1161" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1161" s="0" t="n">
         <x:v>0</x:v>
@@ -34393,10 +34393,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1162" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1162" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1162" s="1" t="n">
         <x:v>0</x:v>
@@ -34405,13 +34405,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1162" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G1162" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1162" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1162" s="0" t="n">
         <x:v>0</x:v>
@@ -34425,7 +34425,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1163" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1163" s="1" t="n">
         <x:v>0</x:v>
@@ -34434,7 +34434,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1163" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1163" s="1" t="n">
         <x:v>0</x:v>
@@ -34451,10 +34451,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1164" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1164" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1164" s="1" t="n">
         <x:v>0</x:v>
@@ -34466,7 +34466,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1164" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1164" s="1" t="n">
         <x:v>0</x:v>
@@ -34480,25 +34480,25 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1165" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1165" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1165" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1165" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1165" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G1165" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1165" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1165" s="0" t="n">
         <x:v>0</x:v>
@@ -34512,22 +34512,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1166" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1166" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1166" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1166" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1166" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1166" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1166" s="0" t="n">
         <x:v>0</x:v>
@@ -34538,25 +34538,25 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1167" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1167" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1167" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1167" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1167" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1167" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1167" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1167" s="0" t="n">
         <x:v>0</x:v>
@@ -34567,25 +34567,25 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1168" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1168" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1168" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1168" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1168" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1168" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1168" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1168" s="0" t="n">
         <x:v>0</x:v>
@@ -34599,10 +34599,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1169" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1169" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1169" s="1" t="n">
         <x:v>1</x:v>
@@ -34625,13 +34625,13 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1170" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1170" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1170" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1170" s="1" t="n">
         <x:v>0</x:v>
@@ -34640,7 +34640,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1170" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1170" s="1" t="n">
         <x:v>0</x:v>
@@ -34654,27 +34654,85 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1171" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C1171" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1171" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1171" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1171" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G1171" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H1171" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1171" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1172" spans="1:9">
+      <x:c r="A1172" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B1172" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C1171" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D1171" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1171" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F1171" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G1171" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H1171" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I1171" s="0" t="n">
+      <x:c r="C1172" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D1172" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1172" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1172" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G1172" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1172" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1172" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1173" spans="1:9">
+      <x:c r="A1173" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B1173" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C1173" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1173" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1173" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1173" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G1173" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1173" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1173" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -709,7 +709,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I1205"/>
+  <x:dimension ref="A1:I1206"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -7812,7 +7812,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F245" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G245" s="1" t="n">
         <x:v>6</x:v>
@@ -7838,16 +7838,16 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E246" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F246" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G246" s="1" t="n">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H246" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I246" s="0" t="n">
         <x:v>0</x:v>
@@ -7867,16 +7867,16 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E247" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F247" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G247" s="1" t="n">
         <x:v>35</x:v>
       </x:c>
       <x:c r="H247" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I247" s="0" t="n">
         <x:v>0</x:v>
@@ -8079,7 +8079,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H254" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I254" s="0" t="n">
         <x:v>0</x:v>
@@ -8105,7 +8105,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="G255" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H255" s="1" t="n">
         <x:v>48</x:v>
@@ -8134,10 +8134,10 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="G256" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H256" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="I256" s="0" t="n">
         <x:v>0</x:v>
@@ -8421,13 +8421,13 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="F266" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G266" s="1" t="n">
         <x:v>150</x:v>
       </x:c>
       <x:c r="H266" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I266" s="0" t="n">
         <x:v>0</x:v>
@@ -8450,13 +8450,13 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="F267" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="G267" s="1" t="n">
         <x:v>203</x:v>
       </x:c>
       <x:c r="H267" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I267" s="0" t="n">
         <x:v>0</x:v>
@@ -8569,7 +8569,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G271" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H271" s="1" t="n">
         <x:v>20</x:v>
@@ -8598,7 +8598,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="G272" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H272" s="1" t="n">
         <x:v>33</x:v>
@@ -8653,10 +8653,10 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="F274" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="G274" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="H274" s="1" t="n">
         <x:v>78</x:v>
@@ -8682,10 +8682,10 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="F275" s="1" t="n">
-        <x:v>187</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G275" s="1" t="n">
-        <x:v>208</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="H275" s="1" t="n">
         <x:v>107</x:v>
@@ -9523,7 +9523,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F304" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G304" s="1" t="n">
         <x:v>13</x:v>
@@ -9581,7 +9581,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F306" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G306" s="1" t="n">
         <x:v>37</x:v>
@@ -10892,7 +10892,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H351" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I351" s="0" t="n">
         <x:v>0</x:v>
@@ -10950,7 +10950,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H353" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I353" s="0" t="n">
         <x:v>0</x:v>
@@ -11463,16 +11463,16 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E371" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="F371" s="1" t="n">
         <x:v>282</x:v>
       </x:c>
       <x:c r="G371" s="1" t="n">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="H371" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I371" s="0" t="n">
         <x:v>0</x:v>
@@ -11492,16 +11492,16 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E372" s="1" t="n">
-        <x:v>536</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="F372" s="1" t="n">
-        <x:v>962</x:v>
+        <x:v>965</x:v>
       </x:c>
       <x:c r="G372" s="1" t="n">
-        <x:v>888</x:v>
+        <x:v>890</x:v>
       </x:c>
       <x:c r="H372" s="1" t="n">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="I372" s="0" t="n">
         <x:v>0</x:v>
@@ -11521,16 +11521,16 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="E373" s="1" t="n">
-        <x:v>716</x:v>
+        <x:v>719</x:v>
       </x:c>
       <x:c r="F373" s="1" t="n">
-        <x:v>1244</x:v>
+        <x:v>1247</x:v>
       </x:c>
       <x:c r="G373" s="1" t="n">
-        <x:v>1141</x:v>
+        <x:v>1144</x:v>
       </x:c>
       <x:c r="H373" s="1" t="n">
-        <x:v>482</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="I373" s="0" t="n">
         <x:v>0</x:v>
@@ -11582,7 +11582,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F375" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G375" s="1" t="n">
         <x:v>18</x:v>
@@ -11611,7 +11611,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="F376" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G376" s="1" t="n">
         <x:v>20</x:v>
@@ -11759,7 +11759,7 @@
         <x:v>470</x:v>
       </x:c>
       <x:c r="G381" s="1" t="n">
-        <x:v>439</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="H381" s="1" t="n">
         <x:v>220</x:v>
@@ -11788,7 +11788,7 @@
         <x:v>645</x:v>
       </x:c>
       <x:c r="G382" s="1" t="n">
-        <x:v>594</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="H382" s="1" t="n">
         <x:v>318</x:v>
@@ -12014,16 +12014,16 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E390" s="1" t="n">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F390" s="1" t="n">
-        <x:v>294</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="G390" s="1" t="n">
-        <x:v>305</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="H390" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="I390" s="0" t="n">
         <x:v>0</x:v>
@@ -12043,16 +12043,16 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E391" s="1" t="n">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="F391" s="1" t="n">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
-        <x:v>406</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="I391" s="0" t="n">
         <x:v>0</x:v>
@@ -12255,7 +12255,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H398" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I398" s="0" t="n">
         <x:v>0</x:v>
@@ -12313,7 +12313,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H400" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I400" s="0" t="n">
         <x:v>0</x:v>
@@ -12977,7 +12977,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G423" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H423" s="1" t="n">
         <x:v>1</x:v>
@@ -13006,7 +13006,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G424" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H424" s="1" t="n">
         <x:v>1</x:v>
@@ -13035,7 +13035,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G425" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H425" s="1" t="n">
         <x:v>4</x:v>
@@ -13093,7 +13093,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="G427" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H427" s="1" t="n">
         <x:v>18</x:v>
@@ -15758,7 +15758,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F519" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G519" s="1" t="n">
         <x:v>1</x:v>
@@ -15816,7 +15816,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F521" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G521" s="1" t="n">
         <x:v>12</x:v>
@@ -17446,7 +17446,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="H577" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I577" s="0" t="n">
         <x:v>0</x:v>
@@ -17475,7 +17475,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="H578" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I578" s="0" t="n">
         <x:v>0</x:v>
@@ -17530,7 +17530,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G580" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H580" s="1" t="n">
         <x:v>3</x:v>
@@ -17559,7 +17559,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G581" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H581" s="1" t="n">
         <x:v>4</x:v>
@@ -17591,7 +17591,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H582" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I582" s="0" t="n">
         <x:v>0</x:v>
@@ -17649,7 +17649,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="H584" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I584" s="0" t="n">
         <x:v>0</x:v>
@@ -21100,7 +21100,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H703" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I703" s="0" t="n">
         <x:v>0</x:v>
@@ -21158,7 +21158,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H705" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I705" s="0" t="n">
         <x:v>0</x:v>
@@ -21668,7 +21668,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D723" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E723" s="1" t="n">
         <x:v>0</x:v>
@@ -21726,7 +21726,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D725" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E725" s="1" t="n">
         <x:v>5</x:v>
@@ -24081,10 +24081,10 @@
         <x:v>557</x:v>
       </x:c>
       <x:c r="F806" s="1" t="n">
-        <x:v>751</x:v>
+        <x:v>752</x:v>
       </x:c>
       <x:c r="G806" s="1" t="n">
-        <x:v>989</x:v>
+        <x:v>990</x:v>
       </x:c>
       <x:c r="H806" s="1" t="n">
         <x:v>922</x:v>
@@ -24110,10 +24110,10 @@
         <x:v>642</x:v>
       </x:c>
       <x:c r="F807" s="1" t="n">
-        <x:v>869</x:v>
+        <x:v>870</x:v>
       </x:c>
       <x:c r="G807" s="1" t="n">
-        <x:v>1141</x:v>
+        <x:v>1142</x:v>
       </x:c>
       <x:c r="H807" s="1" t="n">
         <x:v>1012</x:v>
@@ -24287,10 +24287,10 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="G813" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H813" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I813" s="0" t="n">
         <x:v>0</x:v>
@@ -24313,13 +24313,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F814" s="1" t="n">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="G814" s="1" t="n">
         <x:v>193</x:v>
       </x:c>
-      <x:c r="G814" s="1" t="n">
-        <x:v>191</x:v>
-      </x:c>
       <x:c r="H814" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I814" s="0" t="n">
         <x:v>0</x:v>
@@ -24342,13 +24342,13 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="F815" s="1" t="n">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="G815" s="1" t="n">
-        <x:v>267</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="H815" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="I815" s="0" t="n">
         <x:v>0</x:v>
@@ -25705,7 +25705,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F862" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G862" s="1" t="n">
         <x:v>19</x:v>
@@ -25734,7 +25734,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F863" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G863" s="1" t="n">
         <x:v>28</x:v>
@@ -26810,7 +26810,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G900" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H900" s="1" t="n">
         <x:v>6</x:v>
@@ -26868,7 +26868,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="G902" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H902" s="1" t="n">
         <x:v>42</x:v>
@@ -27068,7 +27068,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F909" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G909" s="1" t="n">
         <x:v>33</x:v>
@@ -27126,7 +27126,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="F911" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G911" s="1" t="n">
         <x:v>125</x:v>
@@ -28170,13 +28170,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F947" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G947" s="1" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H947" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I947" s="0" t="n">
         <x:v>0</x:v>
@@ -28199,13 +28199,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F948" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G948" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H948" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I948" s="0" t="n">
         <x:v>0</x:v>
@@ -29159,7 +29159,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="G981" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H981" s="1" t="n">
         <x:v>14</x:v>
@@ -29185,10 +29185,10 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="F982" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G982" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H982" s="1" t="n">
         <x:v>57</x:v>
@@ -29214,10 +29214,10 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="F983" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G983" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H983" s="1" t="n">
         <x:v>71</x:v>
@@ -30220,22 +30220,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1018" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1018" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1018" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1018" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1018" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1018" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1018" s="0" t="n">
         <x:v>0</x:v>
@@ -30249,7 +30249,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1019" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1019" s="1" t="n">
         <x:v>0</x:v>
@@ -30275,25 +30275,25 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B1020" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1020" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1020" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1020" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1020" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1020" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1020" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1020" s="0" t="n">
         <x:v>0</x:v>
@@ -30307,19 +30307,19 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1021" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1021" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1021" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1021" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1021" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1021" s="1" t="n">
         <x:v>0</x:v>
@@ -30336,13 +30336,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1022" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1022" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1022" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1022" s="1" t="n">
         <x:v>0</x:v>
@@ -30362,25 +30362,25 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B1023" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1023" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1023" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1023" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1023" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1023" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1023" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1023" s="0" t="n">
         <x:v>0</x:v>
@@ -30394,7 +30394,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1024" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1024" s="1" t="n">
         <x:v>0</x:v>
@@ -30417,28 +30417,28 @@
     </x:row>
     <x:row r="1025" spans="1:9">
       <x:c r="A1025" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B1025" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1025" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1025" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1025" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1025" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1025" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1025" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1025" s="0" t="n">
         <x:v>0</x:v>
@@ -30452,7 +30452,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1026" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1026" s="1" t="n">
         <x:v>0</x:v>
@@ -30478,25 +30478,25 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B1027" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1027" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1027" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1027" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1027" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1027" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1027" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1027" s="0" t="n">
         <x:v>0</x:v>
@@ -30510,7 +30510,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1028" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1028" s="1" t="n">
         <x:v>0</x:v>
@@ -30536,19 +30536,19 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B1029" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1029" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1029" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1029" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1029" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1029" s="1" t="n">
         <x:v>0</x:v>
@@ -30568,22 +30568,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1030" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1030" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1030" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1030" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1030" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1030" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1030" s="0" t="n">
         <x:v>0</x:v>
@@ -30597,7 +30597,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1031" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1031" s="1" t="n">
         <x:v>0</x:v>
@@ -30606,7 +30606,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1031" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1031" s="1" t="n">
         <x:v>2</x:v>
@@ -30623,25 +30623,25 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B1032" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1032" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1032" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1032" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1032" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1032" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1032" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1032" s="0" t="n">
         <x:v>0</x:v>
@@ -30655,7 +30655,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1033" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1033" s="1" t="n">
         <x:v>0</x:v>
@@ -30681,22 +30681,22 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B1034" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1034" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1034" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1034" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1034" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1034" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1034" s="1" t="n">
         <x:v>0</x:v>
@@ -30713,7 +30713,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1035" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1035" s="1" t="n">
         <x:v>0</x:v>
@@ -30736,28 +30736,28 @@
     </x:row>
     <x:row r="1036" spans="1:9">
       <x:c r="A1036" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B1036" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1036" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1036" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1036" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1036" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1036" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1036" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1036" s="0" t="n">
         <x:v>0</x:v>
@@ -30771,22 +30771,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1037" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1037" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1037" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1037" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G1037" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G1037" s="1" t="n">
-        <x:v>7</x:v>
-      </x:c>
       <x:c r="H1037" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1037" s="0" t="n">
         <x:v>0</x:v>
@@ -30800,22 +30800,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1038" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1038" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="E1038" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1038" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G1038" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="G1038" s="1" t="n">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="H1038" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I1038" s="0" t="n">
         <x:v>0</x:v>
@@ -30826,25 +30826,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1039" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1039" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1039" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1039" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1039" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1039" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H1039" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I1039" s="0" t="n">
         <x:v>0</x:v>
@@ -30858,7 +30858,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1040" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1040" s="1" t="n">
         <x:v>1</x:v>
@@ -30884,25 +30884,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1041" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1041" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1041" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1041" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1041" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1041" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1041" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1041" s="0" t="n">
         <x:v>0</x:v>
@@ -30916,13 +30916,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1042" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1042" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1042" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1042" s="1" t="n">
         <x:v>2</x:v>
@@ -30945,22 +30945,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1043" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1043" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1043" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1043" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1043" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1043" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1043" s="0" t="n">
         <x:v>0</x:v>
@@ -30971,25 +30971,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1044" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1044" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1044" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1044" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1044" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1044" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1044" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1044" s="0" t="n">
         <x:v>0</x:v>
@@ -31003,22 +31003,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1045" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1045" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1045" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1045" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1045" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H1045" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1045" s="0" t="n">
         <x:v>0</x:v>
@@ -31032,7 +31032,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1046" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1046" s="1" t="n">
         <x:v>1</x:v>
@@ -31041,10 +31041,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F1046" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1046" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1046" s="1" t="n">
         <x:v>6</x:v>
@@ -31058,25 +31058,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1047" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1047" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1047" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1047" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1047" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1047" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1047" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1047" s="0" t="n">
         <x:v>0</x:v>
@@ -31090,7 +31090,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1048" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1048" s="1" t="n">
         <x:v>0</x:v>
@@ -31116,10 +31116,10 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1049" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1049" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1049" s="1" t="n">
         <x:v>0</x:v>
@@ -31131,7 +31131,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1049" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1049" s="1" t="n">
         <x:v>0</x:v>
@@ -31148,16 +31148,16 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1050" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1050" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1050" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1050" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1050" s="1" t="n">
         <x:v>0</x:v>
@@ -31177,7 +31177,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1051" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1051" s="1" t="n">
         <x:v>1</x:v>
@@ -31186,7 +31186,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1051" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1051" s="1" t="n">
         <x:v>0</x:v>
@@ -31203,25 +31203,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1052" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1052" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1052" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1052" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1052" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1052" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1052" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1052" s="0" t="n">
         <x:v>0</x:v>
@@ -31235,7 +31235,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1053" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1053" s="1" t="n">
         <x:v>0</x:v>
@@ -31258,13 +31258,13 @@
     </x:row>
     <x:row r="1054" spans="1:9">
       <x:c r="A1054" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B1054" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1054" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1054" s="1" t="n">
         <x:v>0</x:v>
@@ -31279,7 +31279,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1054" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1054" s="0" t="n">
         <x:v>0</x:v>
@@ -31293,7 +31293,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1055" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1055" s="1" t="n">
         <x:v>0</x:v>
@@ -31302,10 +31302,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1055" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1055" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1055" s="1" t="n">
         <x:v>0</x:v>
@@ -31322,7 +31322,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1056" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1056" s="1" t="n">
         <x:v>0</x:v>
@@ -31331,7 +31331,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1056" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1056" s="1" t="n">
         <x:v>1</x:v>
@@ -31348,25 +31348,25 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="B1057" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1057" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1057" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1057" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1057" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1057" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1057" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1057" s="0" t="n">
         <x:v>0</x:v>
@@ -31380,7 +31380,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1058" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1058" s="1" t="n">
         <x:v>0</x:v>
@@ -31403,19 +31403,19 @@
     </x:row>
     <x:row r="1059" spans="1:9">
       <x:c r="A1059" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B1059" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1059" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1059" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1059" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1059" s="1" t="n">
         <x:v>0</x:v>
@@ -31424,7 +31424,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1059" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1059" s="0" t="n">
         <x:v>0</x:v>
@@ -31438,7 +31438,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1060" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1060" s="1" t="n">
         <x:v>0</x:v>
@@ -31464,22 +31464,22 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B1061" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1061" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1061" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1061" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1061" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1061" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1061" s="1" t="n">
         <x:v>0</x:v>
@@ -31496,7 +31496,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1062" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1062" s="1" t="n">
         <x:v>0</x:v>
@@ -31519,28 +31519,28 @@
     </x:row>
     <x:row r="1063" spans="1:9">
       <x:c r="A1063" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B1063" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1063" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1063" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1063" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1063" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1063" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1063" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1063" s="0" t="n">
         <x:v>0</x:v>
@@ -31554,22 +31554,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1064" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1064" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1064" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1064" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1064" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1064" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1064" s="0" t="n">
         <x:v>0</x:v>
@@ -31583,22 +31583,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1065" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1065" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1065" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1065" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="G1065" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1065" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1065" s="0" t="n">
         <x:v>0</x:v>
@@ -31609,25 +31609,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B1066" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1066" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1066" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1066" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1066" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="F1066" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1066" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H1066" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1066" s="0" t="n">
         <x:v>0</x:v>
@@ -31641,22 +31641,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1067" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1067" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1067" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1067" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1067" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1067" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1067" s="0" t="n">
         <x:v>0</x:v>
@@ -31670,22 +31670,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1068" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1068" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1068" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1068" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1068" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H1068" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1068" s="0" t="n">
         <x:v>0</x:v>
@@ -31696,22 +31696,22 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B1069" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1069" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1069" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1069" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1069" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1069" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1069" s="1" t="n">
         <x:v>3</x:v>
@@ -31728,22 +31728,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1070" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1070" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1070" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1070" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1070" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1070" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1070" s="0" t="n">
         <x:v>0</x:v>
@@ -31757,7 +31757,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1071" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1071" s="1" t="n">
         <x:v>2</x:v>
@@ -31766,13 +31766,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F1071" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G1071" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H1071" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I1071" s="0" t="n">
         <x:v>0</x:v>
@@ -31783,25 +31783,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B1072" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1072" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1072" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1072" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1072" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G1072" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H1072" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I1072" s="0" t="n">
         <x:v>0</x:v>
@@ -31815,7 +31815,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1073" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1073" s="1" t="n">
         <x:v>0</x:v>
@@ -31841,19 +31841,19 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B1074" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1074" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1074" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1074" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1074" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1074" s="1" t="n">
         <x:v>0</x:v>
@@ -31873,7 +31873,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1075" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1075" s="1" t="n">
         <x:v>0</x:v>
@@ -31899,22 +31899,22 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B1076" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1076" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1076" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1076" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F1076" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1076" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1076" s="1" t="n">
         <x:v>0</x:v>
@@ -31931,7 +31931,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1077" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1077" s="1" t="n">
         <x:v>0</x:v>
@@ -31954,25 +31954,25 @@
     </x:row>
     <x:row r="1078" spans="1:9">
       <x:c r="A1078" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B1078" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1078" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1078" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1078" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1078" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1078" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1078" s="1" t="n">
         <x:v>0</x:v>
@@ -31989,22 +31989,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1079" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1079" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1079" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1079" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1079" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1079" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1079" s="0" t="n">
         <x:v>0</x:v>
@@ -32018,19 +32018,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1080" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1080" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1080" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1080" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1080" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H1080" s="1" t="n">
         <x:v>2</x:v>
@@ -32044,25 +32044,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B1081" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1081" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1081" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1081" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1081" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1081" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H1081" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1081" s="0" t="n">
         <x:v>0</x:v>
@@ -32076,22 +32076,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1082" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1082" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1082" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1082" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1082" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1082" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1082" s="0" t="n">
         <x:v>0</x:v>
@@ -32105,16 +32105,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1083" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1083" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E1083" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1083" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1083" s="1" t="n">
         <x:v>4</x:v>
@@ -32131,25 +32131,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B1084" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1084" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1084" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E1084" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1084" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G1084" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1084" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1084" s="0" t="n">
         <x:v>0</x:v>
@@ -32163,22 +32163,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1085" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1085" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1085" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1085" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G1085" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1085" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1085" s="0" t="n">
         <x:v>0</x:v>
@@ -32192,7 +32192,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1086" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1086" s="1" t="n">
         <x:v>0</x:v>
@@ -32201,13 +32201,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1086" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G1086" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H1086" s="1" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="G1086" s="1" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H1086" s="1" t="n">
-        <x:v>5</x:v>
       </x:c>
       <x:c r="I1086" s="0" t="n">
         <x:v>0</x:v>
@@ -32218,25 +32218,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B1087" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1087" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1087" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1087" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F1087" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G1087" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F1087" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G1087" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="H1087" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1087" s="0" t="n">
         <x:v>0</x:v>
@@ -32250,13 +32250,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1088" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1088" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E1088" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1088" s="1" t="n">
         <x:v>0</x:v>
@@ -32265,7 +32265,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1088" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1088" s="0" t="n">
         <x:v>0</x:v>
@@ -32279,13 +32279,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1089" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1089" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1089" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F1089" s="1" t="n">
         <x:v>0</x:v>
@@ -32305,17 +32305,17 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B1090" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C1090" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1090" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E1090" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C1090" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D1090" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1090" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="F1090" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -32323,7 +32323,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1090" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1090" s="0" t="n">
         <x:v>0</x:v>
@@ -32337,7 +32337,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1091" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1091" s="1" t="n">
         <x:v>0</x:v>
@@ -32346,7 +32346,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1091" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1091" s="1" t="n">
         <x:v>0</x:v>
@@ -32366,7 +32366,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1092" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1092" s="1" t="n">
         <x:v>0</x:v>
@@ -32381,7 +32381,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1092" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1092" s="0" t="n">
         <x:v>0</x:v>
@@ -32389,28 +32389,28 @@
     </x:row>
     <x:row r="1093" spans="1:9">
       <x:c r="A1093" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B1093" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1093" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1093" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1093" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1093" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1093" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1093" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1093" s="0" t="n">
         <x:v>0</x:v>
@@ -32424,19 +32424,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1094" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1094" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1094" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1094" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1094" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F1094" s="1" t="n">
-        <x:v>8</x:v>
-      </x:c>
       <x:c r="G1094" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1094" s="1" t="n">
         <x:v>1</x:v>
@@ -32453,22 +32453,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1095" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1095" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1095" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1095" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1095" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1095" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1095" s="0" t="n">
         <x:v>0</x:v>
@@ -32479,25 +32479,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1096" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1096" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1096" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1096" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1096" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G1096" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H1096" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1096" s="0" t="n">
         <x:v>0</x:v>
@@ -32511,22 +32511,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1097" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1097" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1097" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1097" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1097" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1097" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1097" s="0" t="n">
         <x:v>0</x:v>
@@ -32540,22 +32540,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1098" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1098" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1098" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1098" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1098" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1098" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1098" s="0" t="n">
         <x:v>0</x:v>
@@ -32566,25 +32566,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1099" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1099" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1099" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1099" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1099" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1099" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1099" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1099" s="0" t="n">
         <x:v>0</x:v>
@@ -32598,22 +32598,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1100" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1100" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1100" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1100" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1100" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1100" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1100" s="0" t="n">
         <x:v>0</x:v>
@@ -32627,19 +32627,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1101" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1101" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1101" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1101" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1101" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1101" s="1" t="n">
         <x:v>8</x:v>
@@ -32653,25 +32653,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1102" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1102" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1102" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1102" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1102" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1102" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1102" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I1102" s="0" t="n">
         <x:v>0</x:v>
@@ -32685,7 +32685,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1103" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1103" s="1" t="n">
         <x:v>0</x:v>
@@ -32711,16 +32711,16 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1104" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1104" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1104" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1104" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1104" s="1" t="n">
         <x:v>0</x:v>
@@ -32743,13 +32743,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1105" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1105" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1105" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F1105" s="1" t="n">
         <x:v>0</x:v>
@@ -32772,13 +32772,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1106" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1106" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E1106" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F1106" s="1" t="n">
         <x:v>0</x:v>
@@ -32798,25 +32798,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1107" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1107" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1107" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E1107" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F1107" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1107" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1107" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1107" s="0" t="n">
         <x:v>0</x:v>
@@ -32830,22 +32830,22 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1108" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1108" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1108" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1108" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1108" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1108" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1108" s="0" t="n">
         <x:v>0</x:v>
@@ -32859,7 +32859,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1109" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1109" s="1" t="n">
         <x:v>0</x:v>
@@ -32871,10 +32871,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1109" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1109" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1109" s="0" t="n">
         <x:v>0</x:v>
@@ -32882,28 +32882,28 @@
     </x:row>
     <x:row r="1110" spans="1:9">
       <x:c r="A1110" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B1110" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1110" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1110" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1110" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1110" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1110" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1110" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1110" s="0" t="n">
         <x:v>0</x:v>
@@ -32917,22 +32917,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1111" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1111" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E1111" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F1111" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G1111" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H1111" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1111" s="0" t="n">
         <x:v>0</x:v>
@@ -32946,22 +32946,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1112" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1112" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E1112" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F1112" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G1112" s="1" t="n">
-        <x:v>155</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H1112" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I1112" s="0" t="n">
         <x:v>0</x:v>
@@ -32972,25 +32972,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1113" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1113" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1113" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E1113" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F1113" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G1113" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="H1113" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I1113" s="0" t="n">
         <x:v>0</x:v>
@@ -33004,10 +33004,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1114" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1114" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1114" s="1" t="n">
         <x:v>0</x:v>
@@ -33033,10 +33033,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1115" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1115" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1115" s="1" t="n">
         <x:v>0</x:v>
@@ -33059,25 +33059,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1116" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1116" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1116" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E1116" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1116" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1116" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1116" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1116" s="0" t="n">
         <x:v>0</x:v>
@@ -33091,22 +33091,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1117" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1117" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E1117" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F1117" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1117" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H1117" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1117" s="0" t="n">
         <x:v>0</x:v>
@@ -33120,22 +33120,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1118" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1118" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E1118" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F1118" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G1118" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H1118" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I1118" s="0" t="n">
         <x:v>0</x:v>
@@ -33146,25 +33146,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1119" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1119" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1119" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E1119" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F1119" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G1119" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H1119" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I1119" s="0" t="n">
         <x:v>0</x:v>
@@ -33178,22 +33178,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1120" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1120" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1120" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F1120" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G1120" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H1120" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I1120" s="0" t="n">
         <x:v>0</x:v>
@@ -33207,22 +33207,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1121" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1121" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1121" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F1121" s="1" t="n">
-        <x:v>182</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G1121" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H1121" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="I1121" s="0" t="n">
         <x:v>0</x:v>
@@ -33233,25 +33233,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1122" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1122" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1122" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E1122" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F1122" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="G1122" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="H1122" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="I1122" s="0" t="n">
         <x:v>0</x:v>
@@ -33265,7 +33265,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1123" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1123" s="1" t="n">
         <x:v>0</x:v>
@@ -33274,13 +33274,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1123" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1123" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1123" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1123" s="0" t="n">
         <x:v>0</x:v>
@@ -33294,7 +33294,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1124" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1124" s="1" t="n">
         <x:v>0</x:v>
@@ -33303,10 +33303,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1124" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1124" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1124" s="1" t="n">
         <x:v>2</x:v>
@@ -33320,25 +33320,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1125" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1125" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1125" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1125" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1125" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1125" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1125" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1125" s="0" t="n">
         <x:v>0</x:v>
@@ -33352,22 +33352,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1126" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1126" s="1" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E1126" s="1" t="n">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="E1126" s="1" t="n">
-        <x:v>17</x:v>
       </x:c>
       <x:c r="F1126" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G1126" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1126" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1126" s="0" t="n">
         <x:v>0</x:v>
@@ -33381,22 +33381,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1127" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1127" s="1" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E1127" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="E1127" s="1" t="n">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="F1127" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1127" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1127" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1127" s="0" t="n">
         <x:v>0</x:v>
@@ -33407,25 +33407,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1128" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C1128" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1128" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C1128" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D1128" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="E1128" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F1128" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G1128" s="1" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H1128" s="1" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="H1128" s="1" t="n">
-        <x:v>1</x:v>
       </x:c>
       <x:c r="I1128" s="0" t="n">
         <x:v>0</x:v>
@@ -33439,22 +33439,22 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1129" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1129" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1129" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1129" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1129" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H1129" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1129" s="0" t="n">
         <x:v>0</x:v>
@@ -33468,22 +33468,22 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1130" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1130" s="1" t="n">
         <x:v>15</x:v>
       </x:c>
       <x:c r="E1130" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1130" s="1" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G1130" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H1130" s="1" t="n">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="F1130" s="1" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G1130" s="1" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="H1130" s="1" t="n">
-        <x:v>6</x:v>
       </x:c>
       <x:c r="I1130" s="0" t="n">
         <x:v>0</x:v>
@@ -33491,28 +33491,28 @@
     </x:row>
     <x:row r="1131" spans="1:9">
       <x:c r="A1131" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B1131" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1131" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1131" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E1131" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1131" s="1" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G1131" s="1" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H1131" s="1" t="n">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="G1131" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H1131" s="1" t="n">
-        <x:v>4</x:v>
       </x:c>
       <x:c r="I1131" s="0" t="n">
         <x:v>0</x:v>
@@ -33526,22 +33526,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1132" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1132" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1132" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1132" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1132" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1132" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1132" s="0" t="n">
         <x:v>0</x:v>
@@ -33555,7 +33555,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1133" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1133" s="1" t="n">
         <x:v>0</x:v>
@@ -33564,13 +33564,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F1133" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1133" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1133" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1133" s="0" t="n">
         <x:v>0</x:v>
@@ -33581,25 +33581,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1134" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1134" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1134" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1134" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1134" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G1134" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H1134" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I1134" s="0" t="n">
         <x:v>0</x:v>
@@ -33613,7 +33613,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1135" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1135" s="1" t="n">
         <x:v>1</x:v>
@@ -33639,22 +33639,22 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1136" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1136" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1136" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1136" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1136" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1136" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1136" s="1" t="n">
         <x:v>2</x:v>
@@ -33671,19 +33671,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1137" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1137" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1137" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1137" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1137" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1137" s="1" t="n">
         <x:v>2</x:v>
@@ -33700,7 +33700,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1138" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1138" s="1" t="n">
         <x:v>1</x:v>
@@ -33709,13 +33709,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1138" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G1138" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1138" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1138" s="0" t="n">
         <x:v>0</x:v>
@@ -33726,25 +33726,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1139" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1139" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1139" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1139" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1139" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1139" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H1139" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1139" s="0" t="n">
         <x:v>0</x:v>
@@ -33758,7 +33758,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1140" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1140" s="1" t="n">
         <x:v>0</x:v>
@@ -33784,19 +33784,19 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1141" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1141" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1141" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1141" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1141" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1141" s="1" t="n">
         <x:v>0</x:v>
@@ -33816,13 +33816,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1142" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1142" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1142" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1142" s="1" t="n">
         <x:v>0</x:v>
@@ -33845,13 +33845,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1143" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1143" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1143" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1143" s="1" t="n">
         <x:v>0</x:v>
@@ -33871,22 +33871,22 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1144" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1144" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1144" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1144" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1144" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1144" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1144" s="1" t="n">
         <x:v>0</x:v>
@@ -33903,7 +33903,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1145" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1145" s="1" t="n">
         <x:v>0</x:v>
@@ -33926,28 +33926,28 @@
     </x:row>
     <x:row r="1146" spans="1:9">
       <x:c r="A1146" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B1146" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1146" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1146" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1146" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1146" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1146" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1146" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1146" s="0" t="n">
         <x:v>0</x:v>
@@ -33961,19 +33961,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1147" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1147" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1147" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1147" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1147" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1147" s="1" t="n">
         <x:v>3</x:v>
@@ -33990,22 +33990,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1148" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1148" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1148" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1148" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E1148" s="1" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F1148" s="1" t="n">
+      <x:c r="G1148" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="G1148" s="1" t="n">
-        <x:v>8</x:v>
-      </x:c>
       <x:c r="H1148" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1148" s="0" t="n">
         <x:v>0</x:v>
@@ -34016,25 +34016,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1149" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1149" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1149" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1149" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1149" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1149" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H1149" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1149" s="0" t="n">
         <x:v>0</x:v>
@@ -34048,22 +34048,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1150" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1150" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1150" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1150" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1150" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1150" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1150" s="0" t="n">
         <x:v>0</x:v>
@@ -34077,22 +34077,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1151" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1151" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1151" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1151" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1151" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1151" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1151" s="0" t="n">
         <x:v>0</x:v>
@@ -34103,22 +34103,22 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1152" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1152" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1152" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1152" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1152" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="G1152" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1152" s="1" t="n">
         <x:v>1</x:v>
@@ -34135,22 +34135,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1153" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1153" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1153" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1153" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="G1153" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1153" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1153" s="0" t="n">
         <x:v>0</x:v>
@@ -34164,22 +34164,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1154" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1154" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1154" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1154" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1154" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1154" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1154" s="0" t="n">
         <x:v>0</x:v>
@@ -34190,25 +34190,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1155" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1155" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1155" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1155" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F1155" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1155" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1155" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1155" s="0" t="n">
         <x:v>0</x:v>
@@ -34222,19 +34222,19 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1156" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1156" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1156" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1156" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1156" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1156" s="1" t="n">
         <x:v>1</x:v>
@@ -34251,22 +34251,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1157" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1157" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E1157" s="1" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F1157" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G1157" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1157" s="1" t="n">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="F1157" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G1157" s="1" t="n">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="H1157" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1157" s="0" t="n">
         <x:v>0</x:v>
@@ -34277,25 +34277,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1158" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1158" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1158" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1158" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F1158" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1158" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1158" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1158" s="0" t="n">
         <x:v>0</x:v>
@@ -34309,7 +34309,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1159" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1159" s="1" t="n">
         <x:v>0</x:v>
@@ -34332,28 +34332,28 @@
     </x:row>
     <x:row r="1160" spans="1:9">
       <x:c r="A1160" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B1160" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1160" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1160" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1160" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1160" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1160" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1160" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1160" s="0" t="n">
         <x:v>0</x:v>
@@ -34367,22 +34367,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1161" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1161" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1161" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1161" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G1161" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1161" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I1161" s="0" t="n">
         <x:v>0</x:v>
@@ -34396,22 +34396,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1162" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1162" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1162" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F1162" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G1162" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H1162" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I1162" s="0" t="n">
         <x:v>0</x:v>
@@ -34422,25 +34422,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1163" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1163" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1163" s="1" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E1163" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C1163" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D1163" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1163" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="F1163" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G1163" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H1163" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I1163" s="0" t="n">
         <x:v>0</x:v>
@@ -34454,22 +34454,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1164" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1164" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1164" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1164" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1164" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1164" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1164" s="0" t="n">
         <x:v>0</x:v>
@@ -34483,7 +34483,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1165" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1165" s="1" t="n">
         <x:v>2</x:v>
@@ -34492,7 +34492,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1165" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1165" s="1" t="n">
         <x:v>4</x:v>
@@ -34509,25 +34509,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1166" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1166" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1166" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1166" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1166" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1166" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1166" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1166" s="0" t="n">
         <x:v>0</x:v>
@@ -34541,22 +34541,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1167" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1167" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1167" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F1167" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1167" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H1167" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I1167" s="0" t="n">
         <x:v>0</x:v>
@@ -34570,22 +34570,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1168" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1168" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1168" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F1168" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G1168" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H1168" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I1168" s="0" t="n">
         <x:v>0</x:v>
@@ -34596,25 +34596,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1169" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1169" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1169" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1169" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F1169" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G1169" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H1169" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I1169" s="0" t="n">
         <x:v>0</x:v>
@@ -34628,13 +34628,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1170" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1170" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1170" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1170" s="1" t="n">
         <x:v>0</x:v>
@@ -34643,7 +34643,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1170" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1170" s="0" t="n">
         <x:v>0</x:v>
@@ -34657,13 +34657,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1171" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1171" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1171" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F1171" s="1" t="n">
         <x:v>0</x:v>
@@ -34683,22 +34683,22 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1172" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1172" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1172" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1172" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F1172" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1172" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1172" s="1" t="n">
         <x:v>1</x:v>
@@ -34715,22 +34715,22 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1173" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1173" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1173" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1173" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G1173" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1173" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1173" s="0" t="n">
         <x:v>0</x:v>
@@ -34744,7 +34744,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1174" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1174" s="1" t="n">
         <x:v>1</x:v>
@@ -34753,13 +34753,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1174" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1174" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H1174" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I1174" s="0" t="n">
         <x:v>0</x:v>
@@ -34767,28 +34767,28 @@
     </x:row>
     <x:row r="1175" spans="1:9">
       <x:c r="A1175" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B1175" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1175" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1175" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1175" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1175" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G1175" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H1175" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I1175" s="0" t="n">
         <x:v>0</x:v>
@@ -34802,22 +34802,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1176" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1176" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1176" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1176" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1176" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H1176" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1176" s="0" t="n">
         <x:v>0</x:v>
@@ -34831,22 +34831,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1177" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1177" s="1" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="E1177" s="1" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F1177" s="1" t="n">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="F1177" s="1" t="n">
-        <x:v>30</x:v>
       </x:c>
       <x:c r="G1177" s="1" t="n">
         <x:v>52</x:v>
       </x:c>
       <x:c r="H1177" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I1177" s="0" t="n">
         <x:v>0</x:v>
@@ -34857,25 +34857,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1178" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1178" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1178" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E1178" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F1178" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G1178" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H1178" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I1178" s="0" t="n">
         <x:v>0</x:v>
@@ -34889,22 +34889,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1179" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1179" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1179" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1179" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1179" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1179" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1179" s="0" t="n">
         <x:v>0</x:v>
@@ -34918,22 +34918,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1180" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1180" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E1180" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F1180" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1180" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H1180" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1180" s="0" t="n">
         <x:v>0</x:v>
@@ -34944,25 +34944,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1181" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1181" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1181" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E1181" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F1181" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1181" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H1181" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I1181" s="0" t="n">
         <x:v>0</x:v>
@@ -34976,22 +34976,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1182" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1182" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1182" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F1182" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G1182" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H1182" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I1182" s="0" t="n">
         <x:v>0</x:v>
@@ -35005,22 +35005,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1183" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1183" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1183" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F1183" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G1183" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H1183" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I1183" s="0" t="n">
         <x:v>0</x:v>
@@ -35031,25 +35031,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1184" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1184" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1184" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1184" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F1184" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G1184" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H1184" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I1184" s="0" t="n">
         <x:v>0</x:v>
@@ -35063,7 +35063,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1185" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1185" s="1" t="n">
         <x:v>0</x:v>
@@ -35089,22 +35089,22 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1186" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1186" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1186" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1186" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1186" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1186" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1186" s="1" t="n">
         <x:v>0</x:v>
@@ -35121,22 +35121,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1187" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1187" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E1187" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F1187" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1187" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1187" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1187" s="0" t="n">
         <x:v>0</x:v>
@@ -35150,22 +35150,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1188" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1188" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E1188" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F1188" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1188" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1188" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1188" s="0" t="n">
         <x:v>0</x:v>
@@ -35176,25 +35176,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1189" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1189" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1189" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E1189" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F1189" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1189" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1189" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1189" s="0" t="n">
         <x:v>0</x:v>
@@ -35208,19 +35208,19 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1190" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1190" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1190" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1190" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1190" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1190" s="1" t="n">
         <x:v>1</x:v>
@@ -35237,7 +35237,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1191" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1191" s="1" t="n">
         <x:v>6</x:v>
@@ -35246,13 +35246,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F1191" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1191" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1191" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1191" s="0" t="n">
         <x:v>0</x:v>
@@ -35260,28 +35260,28 @@
     </x:row>
     <x:row r="1192" spans="1:9">
       <x:c r="A1192" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B1192" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1192" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1192" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1192" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1192" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1192" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1192" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1192" s="0" t="n">
         <x:v>0</x:v>
@@ -35295,7 +35295,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1193" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1193" s="1" t="n">
         <x:v>0</x:v>
@@ -35304,13 +35304,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1193" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1193" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1193" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1193" s="0" t="n">
         <x:v>0</x:v>
@@ -35324,7 +35324,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1194" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1194" s="1" t="n">
         <x:v>0</x:v>
@@ -35333,13 +35333,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1194" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G1194" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1194" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1194" s="0" t="n">
         <x:v>0</x:v>
@@ -35350,10 +35350,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1195" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1195" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1195" s="1" t="n">
         <x:v>0</x:v>
@@ -35362,13 +35362,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1195" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1195" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1195" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1195" s="0" t="n">
         <x:v>0</x:v>
@@ -35382,7 +35382,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1196" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1196" s="1" t="n">
         <x:v>0</x:v>
@@ -35411,7 +35411,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1197" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1197" s="1" t="n">
         <x:v>0</x:v>
@@ -35420,7 +35420,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1197" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1197" s="1" t="n">
         <x:v>0</x:v>
@@ -35437,10 +35437,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1198" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1198" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1198" s="1" t="n">
         <x:v>0</x:v>
@@ -35449,10 +35449,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1198" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1198" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1198" s="1" t="n">
         <x:v>0</x:v>
@@ -35469,22 +35469,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1199" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1199" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1199" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1199" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1199" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1199" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1199" s="0" t="n">
         <x:v>0</x:v>
@@ -35498,7 +35498,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1200" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1200" s="1" t="n">
         <x:v>0</x:v>
@@ -35507,10 +35507,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F1200" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1200" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1200" s="1" t="n">
         <x:v>2</x:v>
@@ -35524,25 +35524,25 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1201" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1201" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1201" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1201" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1201" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1201" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1201" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1201" s="0" t="n">
         <x:v>0</x:v>
@@ -35556,13 +35556,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1202" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1202" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1202" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1202" s="1" t="n">
         <x:v>0</x:v>
@@ -35585,13 +35585,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1203" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1203" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1203" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1203" s="1" t="n">
         <x:v>0</x:v>
@@ -35611,22 +35611,22 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1204" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1204" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1204" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1204" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1204" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1204" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1204" s="1" t="n">
         <x:v>0</x:v>
@@ -35643,7 +35643,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1205" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1205" s="1" t="n">
         <x:v>0</x:v>
@@ -35661,6 +35661,35 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I1205" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1206" spans="1:9">
+      <x:c r="A1206" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B1206" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C1206" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1206" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1206" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1206" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G1206" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1206" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1206" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1200,7 +1200,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>157</x:v>
@@ -1229,7 +1229,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>198</x:v>
@@ -8392,7 +8392,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F265" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G265" s="1" t="n">
         <x:v>53</x:v>
@@ -8450,7 +8450,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="F267" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G267" s="1" t="n">
         <x:v>203</x:v>
@@ -9555,10 +9555,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G305" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H305" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I305" s="0" t="n">
         <x:v>0</x:v>
@@ -9584,10 +9584,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="G306" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H306" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I306" s="0" t="n">
         <x:v>0</x:v>
@@ -10300,7 +10300,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D331" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E331" s="1" t="n">
         <x:v>22</x:v>
@@ -10329,7 +10329,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D332" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E332" s="1" t="n">
         <x:v>24</x:v>
@@ -10399,7 +10399,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H334" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I334" s="0" t="n">
         <x:v>0</x:v>
@@ -10428,7 +10428,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H335" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I335" s="0" t="n">
         <x:v>0</x:v>
@@ -11495,7 +11495,7 @@
         <x:v>537</x:v>
       </x:c>
       <x:c r="F372" s="1" t="n">
-        <x:v>965</x:v>
+        <x:v>966</x:v>
       </x:c>
       <x:c r="G372" s="1" t="n">
         <x:v>890</x:v>
@@ -11524,7 +11524,7 @@
         <x:v>719</x:v>
       </x:c>
       <x:c r="F373" s="1" t="n">
-        <x:v>1247</x:v>
+        <x:v>1248</x:v>
       </x:c>
       <x:c r="G373" s="1" t="n">
         <x:v>1144</x:v>
@@ -11582,7 +11582,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F375" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G375" s="1" t="n">
         <x:v>18</x:v>
@@ -11611,7 +11611,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="F376" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G376" s="1" t="n">
         <x:v>20</x:v>
@@ -11666,16 +11666,16 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E378" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F378" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G378" s="1" t="n">
         <x:v>115</x:v>
       </x:c>
       <x:c r="H378" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I378" s="0" t="n">
         <x:v>0</x:v>
@@ -11695,16 +11695,16 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E379" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F379" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="G379" s="1" t="n">
         <x:v>159</x:v>
       </x:c>
       <x:c r="H379" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I379" s="0" t="n">
         <x:v>0</x:v>
@@ -11753,7 +11753,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E381" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="F381" s="1" t="n">
         <x:v>470</x:v>
@@ -11782,7 +11782,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E382" s="1" t="n">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="F382" s="1" t="n">
         <x:v>645</x:v>
@@ -11988,7 +11988,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F389" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G389" s="1" t="n">
         <x:v>101</x:v>
@@ -12014,13 +12014,13 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E390" s="1" t="n">
-        <x:v>195</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="F390" s="1" t="n">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="G390" s="1" t="n">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="H390" s="1" t="n">
         <x:v>128</x:v>
@@ -12043,13 +12043,13 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E391" s="1" t="n">
-        <x:v>252</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="F391" s="1" t="n">
-        <x:v>392</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
-        <x:v>409</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
         <x:v>166</x:v>
@@ -12542,7 +12542,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G408" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H408" s="1" t="n">
         <x:v>2</x:v>
@@ -12600,7 +12600,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G410" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H410" s="1" t="n">
         <x:v>2</x:v>
@@ -27358,7 +27358,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F919" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G919" s="1" t="n">
         <x:v>63</x:v>
@@ -27387,7 +27387,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F920" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G920" s="1" t="n">
         <x:v>73</x:v>
@@ -28892,7 +28892,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E972" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F972" s="1" t="n">
         <x:v>43</x:v>
@@ -28950,7 +28950,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E974" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F974" s="1" t="n">
         <x:v>150</x:v>
@@ -29191,7 +29191,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="H982" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I982" s="0" t="n">
         <x:v>0</x:v>
@@ -29220,7 +29220,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="H983" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I983" s="0" t="n">
         <x:v>0</x:v>
@@ -33100,7 +33100,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F1117" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1117" s="1" t="n">
         <x:v>14</x:v>
@@ -33129,7 +33129,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F1118" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G1118" s="1" t="n">
         <x:v>14</x:v>
@@ -33158,7 +33158,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F1119" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G1119" s="1" t="n">
         <x:v>28</x:v>
@@ -33274,7 +33274,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1123" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1123" s="1" t="n">
         <x:v>3</x:v>
@@ -33332,7 +33332,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1125" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1125" s="1" t="n">
         <x:v>4</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1200,7 +1200,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>157</x:v>
@@ -1229,7 +1229,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>198</x:v>
@@ -3059,7 +3059,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G81" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H81" s="1" t="n">
         <x:v>0</x:v>
@@ -3088,7 +3088,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G82" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H82" s="1" t="n">
         <x:v>0</x:v>
@@ -3117,7 +3117,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G83" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H83" s="1" t="n">
         <x:v>0</x:v>
@@ -8421,7 +8421,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="F266" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G266" s="1" t="n">
         <x:v>150</x:v>
@@ -8450,7 +8450,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="F267" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G267" s="1" t="n">
         <x:v>203</x:v>
@@ -8653,10 +8653,10 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="F274" s="1" t="n">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G274" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="H274" s="1" t="n">
         <x:v>78</x:v>
@@ -8682,10 +8682,10 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="F275" s="1" t="n">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G275" s="1" t="n">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="H275" s="1" t="n">
         <x:v>107</x:v>
@@ -10358,7 +10358,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D333" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E333" s="1" t="n">
         <x:v>1</x:v>
@@ -10416,7 +10416,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D335" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E335" s="1" t="n">
         <x:v>4</x:v>
@@ -10486,7 +10486,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H337" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I337" s="0" t="n">
         <x:v>0</x:v>
@@ -10515,7 +10515,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H338" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I338" s="0" t="n">
         <x:v>0</x:v>
@@ -10561,7 +10561,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D340" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E340" s="1" t="n">
         <x:v>10</x:v>
@@ -10590,7 +10590,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D341" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E341" s="1" t="n">
         <x:v>12</x:v>
@@ -11466,13 +11466,13 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="F371" s="1" t="n">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="G371" s="1" t="n">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="H371" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I371" s="0" t="n">
         <x:v>0</x:v>
@@ -11495,13 +11495,13 @@
         <x:v>537</x:v>
       </x:c>
       <x:c r="F372" s="1" t="n">
-        <x:v>966</x:v>
+        <x:v>967</x:v>
       </x:c>
       <x:c r="G372" s="1" t="n">
-        <x:v>890</x:v>
+        <x:v>891</x:v>
       </x:c>
       <x:c r="H372" s="1" t="n">
-        <x:v>391</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="I372" s="0" t="n">
         <x:v>0</x:v>
@@ -11524,13 +11524,13 @@
         <x:v>719</x:v>
       </x:c>
       <x:c r="F373" s="1" t="n">
-        <x:v>1248</x:v>
+        <x:v>1250</x:v>
       </x:c>
       <x:c r="G373" s="1" t="n">
-        <x:v>1144</x:v>
+        <x:v>1146</x:v>
       </x:c>
       <x:c r="H373" s="1" t="n">
-        <x:v>484</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="I373" s="0" t="n">
         <x:v>0</x:v>
@@ -11666,10 +11666,10 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E378" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F378" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G378" s="1" t="n">
         <x:v>115</x:v>
@@ -11695,10 +11695,10 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E379" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F379" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="G379" s="1" t="n">
         <x:v>159</x:v>
@@ -11753,10 +11753,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E381" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="F381" s="1" t="n">
-        <x:v>470</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="G381" s="1" t="n">
         <x:v>440</x:v>
@@ -11782,10 +11782,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E382" s="1" t="n">
-        <x:v>286</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="F382" s="1" t="n">
-        <x:v>645</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="G382" s="1" t="n">
         <x:v>595</x:v>
@@ -11898,7 +11898,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E386" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F386" s="1" t="n">
         <x:v>12</x:v>
@@ -11956,7 +11956,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E388" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F388" s="1" t="n">
         <x:v>49</x:v>
@@ -11988,10 +11988,10 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F389" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G389" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H389" s="1" t="n">
         <x:v>38</x:v>
@@ -12014,13 +12014,13 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E390" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="F390" s="1" t="n">
-        <x:v>297</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="G390" s="1" t="n">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="H390" s="1" t="n">
         <x:v>128</x:v>
@@ -12043,13 +12043,13 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E391" s="1" t="n">
-        <x:v>254</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="F391" s="1" t="n">
-        <x:v>394</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
-        <x:v>411</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
         <x:v>166</x:v>
@@ -17414,7 +17414,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="G576" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H576" s="1" t="n">
         <x:v>7</x:v>
@@ -17472,7 +17472,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="G578" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H578" s="1" t="n">
         <x:v>26</x:v>
@@ -17620,7 +17620,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H583" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I583" s="0" t="n">
         <x:v>0</x:v>
@@ -17649,7 +17649,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="H584" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I584" s="0" t="n">
         <x:v>0</x:v>
@@ -20340,7 +20340,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F677" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G677" s="1" t="n">
         <x:v>28</x:v>
@@ -20369,7 +20369,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F678" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G678" s="1" t="n">
         <x:v>37</x:v>
@@ -24081,7 +24081,7 @@
         <x:v>557</x:v>
       </x:c>
       <x:c r="F806" s="1" t="n">
-        <x:v>752</x:v>
+        <x:v>753</x:v>
       </x:c>
       <x:c r="G806" s="1" t="n">
         <x:v>990</x:v>
@@ -24110,7 +24110,7 @@
         <x:v>642</x:v>
       </x:c>
       <x:c r="F807" s="1" t="n">
-        <x:v>870</x:v>
+        <x:v>871</x:v>
       </x:c>
       <x:c r="G807" s="1" t="n">
         <x:v>1142</x:v>
@@ -26813,7 +26813,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H900" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I900" s="0" t="n">
         <x:v>0</x:v>
@@ -26871,7 +26871,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="H902" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I902" s="0" t="n">
         <x:v>0</x:v>
@@ -27448,10 +27448,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="G922" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H922" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I922" s="0" t="n">
         <x:v>0</x:v>
@@ -27477,10 +27477,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G923" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H923" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I923" s="0" t="n">
         <x:v>0</x:v>
@@ -29104,7 +29104,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="H979" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I979" s="0" t="n">
         <x:v>0</x:v>
@@ -29133,7 +29133,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="H980" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I980" s="0" t="n">
         <x:v>0</x:v>
@@ -29185,13 +29185,13 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="F982" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G982" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H982" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I982" s="0" t="n">
         <x:v>0</x:v>
@@ -29214,13 +29214,13 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="F983" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G983" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="H983" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I983" s="0" t="n">
         <x:v>0</x:v>
@@ -29507,7 +29507,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G993" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H993" s="1" t="n">
         <x:v>2</x:v>
@@ -29565,7 +29565,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G995" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H995" s="1" t="n">
         <x:v>10</x:v>
@@ -29771,7 +29771,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H1002" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1002" s="0" t="n">
         <x:v>0</x:v>
@@ -29829,7 +29829,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H1004" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I1004" s="0" t="n">
         <x:v>0</x:v>
@@ -31879,7 +31879,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1075" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F1075" s="1" t="n">
         <x:v>0</x:v>
@@ -31908,7 +31908,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1076" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F1076" s="1" t="n">
         <x:v>0</x:v>
@@ -34579,10 +34579,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F1168" s="1" t="n">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="G1168" s="1" t="n">
         <x:v>41</x:v>
-      </x:c>
-      <x:c r="G1168" s="1" t="n">
-        <x:v>40</x:v>
       </x:c>
       <x:c r="H1168" s="1" t="n">
         <x:v>22</x:v>
@@ -34608,10 +34608,10 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="F1169" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G1169" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H1169" s="1" t="n">
         <x:v>32</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1464,7 +1464,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
         <x:v>110</x:v>
@@ -1493,7 +1493,7 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
         <x:v>147</x:v>
@@ -3926,13 +3926,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F111" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G111" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H111" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I111" s="0" t="n">
         <x:v>0</x:v>
@@ -3955,13 +3955,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F112" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G112" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H112" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I112" s="0" t="n">
         <x:v>0</x:v>
@@ -8392,10 +8392,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F265" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G265" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H265" s="1" t="n">
         <x:v>13</x:v>
@@ -8418,13 +8418,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E266" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F266" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G266" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="H266" s="1" t="n">
         <x:v>58</x:v>
@@ -8447,13 +8447,13 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E267" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F267" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G267" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="H267" s="1" t="n">
         <x:v>71</x:v>
@@ -8656,7 +8656,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="G274" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="H274" s="1" t="n">
         <x:v>78</x:v>
@@ -8685,7 +8685,7 @@
         <x:v>191</x:v>
       </x:c>
       <x:c r="G275" s="1" t="n">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="H275" s="1" t="n">
         <x:v>107</x:v>
@@ -8804,7 +8804,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H279" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I279" s="0" t="n">
         <x:v>0</x:v>
@@ -8862,7 +8862,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H281" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I281" s="0" t="n">
         <x:v>0</x:v>
@@ -8911,7 +8911,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E283" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F283" s="1" t="n">
         <x:v>19</x:v>
@@ -8940,7 +8940,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E284" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F284" s="1" t="n">
         <x:v>27</x:v>
@@ -9555,7 +9555,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G305" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H305" s="1" t="n">
         <x:v>19</x:v>
@@ -9584,7 +9584,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="G306" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H306" s="1" t="n">
         <x:v>26</x:v>
@@ -10367,7 +10367,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G333" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H333" s="1" t="n">
         <x:v>2</x:v>
@@ -10425,7 +10425,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G335" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H335" s="1" t="n">
         <x:v>9</x:v>
@@ -11466,13 +11466,13 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="F371" s="1" t="n">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="G371" s="1" t="n">
         <x:v>255</x:v>
       </x:c>
       <x:c r="H371" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I371" s="0" t="n">
         <x:v>0</x:v>
@@ -11492,7 +11492,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E372" s="1" t="n">
-        <x:v>537</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="F372" s="1" t="n">
         <x:v>967</x:v>
@@ -11521,16 +11521,16 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="E373" s="1" t="n">
-        <x:v>719</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="F373" s="1" t="n">
-        <x:v>1250</x:v>
+        <x:v>1251</x:v>
       </x:c>
       <x:c r="G373" s="1" t="n">
         <x:v>1146</x:v>
       </x:c>
       <x:c r="H373" s="1" t="n">
-        <x:v>487</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="I373" s="0" t="n">
         <x:v>0</x:v>
@@ -11672,7 +11672,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="G378" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H378" s="1" t="n">
         <x:v>70</x:v>
@@ -11701,7 +11701,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="G379" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="H379" s="1" t="n">
         <x:v>88</x:v>
@@ -11985,7 +11985,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E389" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F389" s="1" t="n">
         <x:v>98</x:v>
@@ -12014,7 +12014,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E390" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F390" s="1" t="n">
         <x:v>299</x:v>
@@ -12043,7 +12043,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E391" s="1" t="n">
-        <x:v>257</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="F391" s="1" t="n">
         <x:v>397</x:v>
@@ -14340,7 +14340,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="G470" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H470" s="1" t="n">
         <x:v>13</x:v>
@@ -14369,7 +14369,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G471" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H471" s="1" t="n">
         <x:v>14</x:v>
@@ -25940,7 +25940,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G870" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H870" s="1" t="n">
         <x:v>4</x:v>
@@ -25969,7 +25969,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G871" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H871" s="1" t="n">
         <x:v>10</x:v>
@@ -28315,7 +28315,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F952" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G952" s="1" t="n">
         <x:v>40</x:v>
@@ -28373,7 +28373,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="F954" s="1" t="n">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G954" s="1" t="n">
         <x:v>177</x:v>
@@ -29182,7 +29182,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E982" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F982" s="1" t="n">
         <x:v>82</x:v>
@@ -29211,7 +29211,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E983" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F983" s="1" t="n">
         <x:v>121</x:v>
@@ -29794,7 +29794,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F1003" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G1003" s="1" t="n">
         <x:v>17</x:v>
@@ -29823,7 +29823,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F1004" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G1004" s="1" t="n">
         <x:v>23</x:v>
@@ -34002,7 +34002,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G1148" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H1148" s="1" t="n">
         <x:v>3</x:v>
@@ -34031,7 +34031,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G1149" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1149" s="1" t="n">
         <x:v>6</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -8624,7 +8624,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F273" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G273" s="1" t="n">
         <x:v>59</x:v>
@@ -8682,7 +8682,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="F275" s="1" t="n">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="G275" s="1" t="n">
         <x:v>212</x:v>
@@ -8911,7 +8911,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E283" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F283" s="1" t="n">
         <x:v>19</x:v>
@@ -8940,7 +8940,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E284" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F284" s="1" t="n">
         <x:v>27</x:v>
@@ -10309,7 +10309,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G331" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H331" s="1" t="n">
         <x:v>6</x:v>
@@ -10338,7 +10338,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G332" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H332" s="1" t="n">
         <x:v>11</x:v>
@@ -10451,7 +10451,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F336" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G336" s="1" t="n">
         <x:v>9</x:v>
@@ -10477,7 +10477,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E337" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F337" s="1" t="n">
         <x:v>19</x:v>
@@ -10506,10 +10506,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E338" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F338" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G338" s="1" t="n">
         <x:v>20</x:v>
@@ -12011,7 +12011,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D390" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E390" s="1" t="n">
         <x:v>201</x:v>
@@ -12040,7 +12040,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D391" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E391" s="1" t="n">
         <x:v>259</x:v>
@@ -12449,10 +12449,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E405" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F405" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G405" s="1" t="n">
         <x:v>54</x:v>
@@ -12484,10 +12484,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="G406" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H406" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I406" s="0" t="n">
         <x:v>0</x:v>
@@ -12507,16 +12507,16 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E407" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F407" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G407" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H407" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I407" s="0" t="n">
         <x:v>0</x:v>
@@ -12565,13 +12565,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E409" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F409" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G409" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H409" s="1" t="n">
         <x:v>0</x:v>
@@ -12594,13 +12594,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E410" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F410" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G410" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H410" s="1" t="n">
         <x:v>2</x:v>
@@ -12707,7 +12707,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D414" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E414" s="1" t="n">
         <x:v>1</x:v>
@@ -12736,10 +12736,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D415" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E415" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F415" s="1" t="n">
         <x:v>1</x:v>
@@ -12765,10 +12765,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D416" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E416" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F416" s="1" t="n">
         <x:v>2</x:v>
@@ -26839,7 +26839,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="G901" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H901" s="1" t="n">
         <x:v>36</x:v>
@@ -26868,7 +26868,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="G902" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H902" s="1" t="n">
         <x:v>43</x:v>
@@ -27413,7 +27413,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E921" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F921" s="1" t="n">
         <x:v>4</x:v>
@@ -27471,7 +27471,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E923" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F923" s="1" t="n">
         <x:v>24</x:v>
@@ -27761,7 +27761,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E933" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F933" s="1" t="n">
         <x:v>0</x:v>
@@ -27819,7 +27819,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E935" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F935" s="1" t="n">
         <x:v>2</x:v>
@@ -29159,7 +29159,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="G981" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H981" s="1" t="n">
         <x:v>14</x:v>
@@ -29217,7 +29217,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="G983" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H983" s="1" t="n">
         <x:v>71</x:v>
@@ -29765,7 +29765,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F1002" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1002" s="1" t="n">
         <x:v>6</x:v>
@@ -29823,7 +29823,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F1004" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G1004" s="1" t="n">
         <x:v>23</x:v>
@@ -32961,7 +32961,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="H1112" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I1112" s="0" t="n">
         <x:v>0</x:v>
@@ -32990,7 +32990,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="H1113" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I1113" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1206,7 +1206,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I17" s="0" t="n">
         <x:v>0</x:v>
@@ -1235,7 +1235,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I18" s="0" t="n">
         <x:v>0</x:v>
@@ -1377,7 +1377,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
         <x:v>17</x:v>
@@ -1406,7 +1406,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
         <x:v>20</x:v>
@@ -1467,7 +1467,7 @@
         <x:v>192</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
         <x:v>0</x:v>
@@ -1496,7 +1496,7 @@
         <x:v>269</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
         <x:v>0</x:v>
@@ -8392,7 +8392,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F265" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G265" s="1" t="n">
         <x:v>54</x:v>
@@ -8421,13 +8421,13 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="F266" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G266" s="1" t="n">
         <x:v>152</x:v>
       </x:c>
       <x:c r="H266" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I266" s="0" t="n">
         <x:v>0</x:v>
@@ -8450,13 +8450,13 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="F267" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G267" s="1" t="n">
         <x:v>206</x:v>
       </x:c>
       <x:c r="H267" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I267" s="0" t="n">
         <x:v>0</x:v>
@@ -9523,7 +9523,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F304" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G304" s="1" t="n">
         <x:v>13</x:v>
@@ -9558,7 +9558,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="H305" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I305" s="0" t="n">
         <x:v>0</x:v>
@@ -9581,13 +9581,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F306" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G306" s="1" t="n">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H306" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I306" s="0" t="n">
         <x:v>0</x:v>
@@ -10399,7 +10399,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H334" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I334" s="0" t="n">
         <x:v>0</x:v>
@@ -10428,7 +10428,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H335" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I335" s="0" t="n">
         <x:v>0</x:v>
@@ -10715,7 +10715,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G345" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H345" s="1" t="n">
         <x:v>5</x:v>
@@ -10773,7 +10773,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G347" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H347" s="1" t="n">
         <x:v>25</x:v>
@@ -11469,7 +11469,7 @@
         <x:v>284</x:v>
       </x:c>
       <x:c r="G371" s="1" t="n">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="H371" s="1" t="n">
         <x:v>95</x:v>
@@ -11495,10 +11495,10 @@
         <x:v>538</x:v>
       </x:c>
       <x:c r="F372" s="1" t="n">
-        <x:v>967</x:v>
+        <x:v>969</x:v>
       </x:c>
       <x:c r="G372" s="1" t="n">
-        <x:v>891</x:v>
+        <x:v>893</x:v>
       </x:c>
       <x:c r="H372" s="1" t="n">
         <x:v>393</x:v>
@@ -11524,10 +11524,10 @@
         <x:v>720</x:v>
       </x:c>
       <x:c r="F373" s="1" t="n">
-        <x:v>1251</x:v>
+        <x:v>1253</x:v>
       </x:c>
       <x:c r="G373" s="1" t="n">
-        <x:v>1146</x:v>
+        <x:v>1149</x:v>
       </x:c>
       <x:c r="H373" s="1" t="n">
         <x:v>488</x:v>
@@ -11582,7 +11582,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F375" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G375" s="1" t="n">
         <x:v>18</x:v>
@@ -11611,7 +11611,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="F376" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G376" s="1" t="n">
         <x:v>20</x:v>
@@ -11634,7 +11634,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D377" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E377" s="1" t="n">
         <x:v>19</x:v>
@@ -11643,7 +11643,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="G377" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H377" s="1" t="n">
         <x:v>18</x:v>
@@ -11672,7 +11672,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="G378" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H378" s="1" t="n">
         <x:v>70</x:v>
@@ -11692,7 +11692,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D379" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E379" s="1" t="n">
         <x:v>74</x:v>
@@ -11701,7 +11701,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="G379" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="H379" s="1" t="n">
         <x:v>88</x:v>
@@ -11724,7 +11724,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E380" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F380" s="1" t="n">
         <x:v>175</x:v>
@@ -11762,7 +11762,7 @@
         <x:v>440</x:v>
       </x:c>
       <x:c r="H381" s="1" t="n">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="I381" s="0" t="n">
         <x:v>0</x:v>
@@ -11782,7 +11782,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E382" s="1" t="n">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="F382" s="1" t="n">
         <x:v>646</x:v>
@@ -11791,7 +11791,7 @@
         <x:v>595</x:v>
       </x:c>
       <x:c r="H382" s="1" t="n">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="I382" s="0" t="n">
         <x:v>0</x:v>
@@ -12014,10 +12014,10 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E390" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="F390" s="1" t="n">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="G390" s="1" t="n">
         <x:v>311</x:v>
@@ -12043,10 +12043,10 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E391" s="1" t="n">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="F391" s="1" t="n">
-        <x:v>397</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
         <x:v>413</x:v>
@@ -12446,10 +12446,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D405" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E405" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F405" s="1" t="n">
         <x:v>27</x:v>
@@ -12504,10 +12504,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D407" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E407" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F407" s="1" t="n">
         <x:v>80</x:v>
@@ -12707,10 +12707,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D414" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E414" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F414" s="1" t="n">
         <x:v>1</x:v>
@@ -12765,10 +12765,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D416" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E416" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F416" s="1" t="n">
         <x:v>2</x:v>
@@ -15616,7 +15616,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G514" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H514" s="1" t="n">
         <x:v>7</x:v>
@@ -15645,7 +15645,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G515" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H515" s="1" t="n">
         <x:v>7</x:v>
@@ -18255,7 +18255,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G605" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H605" s="1" t="n">
         <x:v>22</x:v>
@@ -18284,7 +18284,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="G606" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H606" s="1" t="n">
         <x:v>29</x:v>
@@ -20334,7 +20334,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D677" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E677" s="1" t="n">
         <x:v>11</x:v>
@@ -20363,7 +20363,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D678" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E678" s="1" t="n">
         <x:v>16</x:v>
@@ -25235,7 +25235,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D846" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E846" s="1" t="n">
         <x:v>5</x:v>
@@ -25264,7 +25264,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D847" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E847" s="1" t="n">
         <x:v>7</x:v>
@@ -28918,7 +28918,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D973" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E973" s="1" t="n">
         <x:v>98</x:v>
@@ -28947,7 +28947,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D974" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E974" s="1" t="n">
         <x:v>124</x:v>
@@ -32958,7 +32958,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="G1112" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="H1112" s="1" t="n">
         <x:v>44</x:v>
@@ -32987,7 +32987,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="G1113" s="1" t="n">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="H1113" s="1" t="n">
         <x:v>50</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -709,7 +709,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I1208"/>
+  <x:dimension ref="A1:I1210"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1203,7 +1203,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
         <x:v>66</x:v>
@@ -1232,7 +1232,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
         <x:v>80</x:v>
@@ -1345,7 +1345,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>11</x:v>
@@ -1371,10 +1371,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>31</x:v>
@@ -1400,10 +1400,10 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>42</x:v>
@@ -1519,7 +1519,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>0</x:v>
@@ -1548,7 +1548,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
         <x:v>0</x:v>
@@ -1577,7 +1577,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>0</x:v>
@@ -3552,7 +3552,7 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="G98" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="H98" s="1" t="n">
         <x:v>67</x:v>
@@ -3581,7 +3581,7 @@
         <x:v>236</x:v>
       </x:c>
       <x:c r="G99" s="1" t="n">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="H99" s="1" t="n">
         <x:v>88</x:v>
@@ -7902,7 +7902,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G248" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H248" s="1" t="n">
         <x:v>13</x:v>
@@ -7931,7 +7931,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G249" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H249" s="1" t="n">
         <x:v>16</x:v>
@@ -8479,7 +8479,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="F268" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G268" s="1" t="n">
         <x:v>154</x:v>
@@ -8508,7 +8508,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="F269" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G269" s="1" t="n">
         <x:v>208</x:v>
@@ -8531,7 +8531,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D270" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E270" s="1" t="n">
         <x:v>0</x:v>
@@ -8560,7 +8560,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D271" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E271" s="1" t="n">
         <x:v>0</x:v>
@@ -8598,7 +8598,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G272" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H272" s="1" t="n">
         <x:v>13</x:v>
@@ -8627,7 +8627,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G273" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H273" s="1" t="n">
         <x:v>20</x:v>
@@ -8656,7 +8656,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="G274" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H274" s="1" t="n">
         <x:v>33</x:v>
@@ -8679,7 +8679,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E275" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F275" s="1" t="n">
         <x:v>34</x:v>
@@ -8714,7 +8714,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="G276" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="H276" s="1" t="n">
         <x:v>78</x:v>
@@ -8737,13 +8737,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E277" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F277" s="1" t="n">
         <x:v>192</x:v>
       </x:c>
       <x:c r="G277" s="1" t="n">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="H277" s="1" t="n">
         <x:v>107</x:v>
@@ -8879,7 +8879,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D282" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E282" s="1" t="n">
         <x:v>9</x:v>
@@ -8908,7 +8908,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D283" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E283" s="1" t="n">
         <x:v>17</x:v>
@@ -9578,7 +9578,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E306" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F306" s="1" t="n">
         <x:v>13</x:v>
@@ -9636,7 +9636,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E308" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F308" s="1" t="n">
         <x:v>35</x:v>
@@ -10364,7 +10364,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F333" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G333" s="1" t="n">
         <x:v>28</x:v>
@@ -10393,7 +10393,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F334" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G334" s="1" t="n">
         <x:v>31</x:v>
@@ -11550,7 +11550,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E374" s="1" t="n">
-        <x:v>538</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="F374" s="1" t="n">
         <x:v>968</x:v>
@@ -11579,7 +11579,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="E375" s="1" t="n">
-        <x:v>720</x:v>
+        <x:v>721</x:v>
       </x:c>
       <x:c r="F375" s="1" t="n">
         <x:v>1252</x:v>
@@ -11724,7 +11724,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E380" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F380" s="1" t="n">
         <x:v>110</x:v>
@@ -11753,7 +11753,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E381" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F381" s="1" t="n">
         <x:v>151</x:v>
@@ -14859,10 +14859,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F488" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G488" s="1" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="G488" s="1" t="n">
-        <x:v>2</x:v>
       </x:c>
       <x:c r="H488" s="1" t="n">
         <x:v>1</x:v>
@@ -14888,10 +14888,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F489" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G489" s="1" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="G489" s="1" t="n">
-        <x:v>3</x:v>
       </x:c>
       <x:c r="H489" s="1" t="n">
         <x:v>1</x:v>
@@ -14981,7 +14981,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H492" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I492" s="0" t="n">
         <x:v>0</x:v>
@@ -15039,7 +15039,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H494" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I494" s="0" t="n">
         <x:v>0</x:v>
@@ -21233,16 +21233,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D708" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E708" s="1" t="n">
         <x:v>18</x:v>
       </x:c>
       <x:c r="F708" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G708" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H708" s="1" t="n">
         <x:v>11</x:v>
@@ -21268,7 +21268,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F709" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G709" s="1" t="n">
         <x:v>139</x:v>
@@ -21291,7 +21291,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D710" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E710" s="1" t="n">
         <x:v>75</x:v>
@@ -21300,7 +21300,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="G710" s="1" t="n">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="H710" s="1" t="n">
         <x:v>76</x:v>
@@ -21384,7 +21384,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F713" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G713" s="1" t="n">
         <x:v>16</x:v>
@@ -21410,16 +21410,16 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E714" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F714" s="1" t="n">
         <x:v>24</x:v>
       </x:c>
       <x:c r="G714" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H714" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I714" s="0" t="n">
         <x:v>0</x:v>
@@ -21439,16 +21439,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E715" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F715" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G715" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H715" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I715" s="0" t="n">
         <x:v>0</x:v>
@@ -21465,16 +21465,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D716" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E716" s="1" t="n">
         <x:v>18</x:v>
       </x:c>
       <x:c r="F716" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G716" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H716" s="1" t="n">
         <x:v>18</x:v>
@@ -21500,13 +21500,13 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F717" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G717" s="1" t="n">
         <x:v>104</x:v>
       </x:c>
       <x:c r="H717" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I717" s="0" t="n">
         <x:v>0</x:v>
@@ -21523,19 +21523,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D718" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E718" s="1" t="n">
         <x:v>79</x:v>
       </x:c>
       <x:c r="F718" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G718" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="H718" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I718" s="0" t="n">
         <x:v>0</x:v>
@@ -21584,7 +21584,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E720" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F720" s="1" t="n">
         <x:v>8</x:v>
@@ -21613,7 +21613,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E721" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F721" s="1" t="n">
         <x:v>8</x:v>
@@ -21764,7 +21764,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G726" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H726" s="1" t="n">
         <x:v>13</x:v>
@@ -21793,7 +21793,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G727" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H727" s="1" t="n">
         <x:v>15</x:v>
@@ -25995,7 +25995,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F872" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G872" s="1" t="n">
         <x:v>22</x:v>
@@ -26024,7 +26024,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F873" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
         <x:v>31</x:v>
@@ -26288,7 +26288,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G882" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H882" s="1" t="n">
         <x:v>0</x:v>
@@ -26320,7 +26320,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H883" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I883" s="0" t="n">
         <x:v>0</x:v>
@@ -26346,10 +26346,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G884" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H884" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I884" s="0" t="n">
         <x:v>0</x:v>
@@ -26421,19 +26421,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C887" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D887" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E887" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F887" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G887" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H887" s="1" t="n">
         <x:v>0</x:v>
@@ -26450,7 +26450,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C888" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D888" s="1" t="n">
         <x:v>0</x:v>
@@ -26462,7 +26462,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G888" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H888" s="1" t="n">
         <x:v>0</x:v>
@@ -26473,28 +26473,28 @@
     </x:row>
     <x:row r="889" spans="1:9">
       <x:c r="A889" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B889" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C889" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D889" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E889" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F889" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G889" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H889" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I889" s="0" t="n">
         <x:v>0</x:v>
@@ -26508,22 +26508,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C890" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D890" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E890" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F890" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G890" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H890" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I890" s="0" t="n">
         <x:v>0</x:v>
@@ -26537,7 +26537,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C891" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D891" s="1" t="n">
         <x:v>1</x:v>
@@ -26546,13 +26546,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F891" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G891" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H891" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I891" s="0" t="n">
         <x:v>0</x:v>
@@ -26563,25 +26563,25 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="B892" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C892" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D892" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E892" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F892" s="1" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G892" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C892" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D892" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E892" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F892" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G892" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="H892" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I892" s="0" t="n">
         <x:v>0</x:v>
@@ -26595,7 +26595,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C893" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D893" s="1" t="n">
         <x:v>0</x:v>
@@ -26604,10 +26604,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G893" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H893" s="1" t="n">
         <x:v>0</x:v>
@@ -26624,7 +26624,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C894" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D894" s="1" t="n">
         <x:v>0</x:v>
@@ -26633,7 +26633,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F894" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G894" s="1" t="n">
         <x:v>5</x:v>
@@ -26650,10 +26650,10 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="B895" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C895" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D895" s="1" t="n">
         <x:v>0</x:v>
@@ -26662,13 +26662,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F895" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G895" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H895" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I895" s="0" t="n">
         <x:v>0</x:v>
@@ -26682,19 +26682,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C896" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D896" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E896" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F896" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G896" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H896" s="1" t="n">
         <x:v>2</x:v>
@@ -26711,7 +26711,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C897" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D897" s="1" t="n">
         <x:v>1</x:v>
@@ -26720,13 +26720,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F897" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G897" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H897" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I897" s="0" t="n">
         <x:v>0</x:v>
@@ -26737,25 +26737,25 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="B898" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C898" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D898" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E898" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F898" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G898" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H898" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I898" s="0" t="n">
         <x:v>0</x:v>
@@ -26769,7 +26769,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C899" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D899" s="1" t="n">
         <x:v>1</x:v>
@@ -26795,19 +26795,19 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="B900" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C900" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D900" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E900" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F900" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G900" s="1" t="n">
         <x:v>0</x:v>
@@ -26827,7 +26827,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C901" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D901" s="1" t="n">
         <x:v>0</x:v>
@@ -26850,28 +26850,28 @@
     </x:row>
     <x:row r="902" spans="1:9">
       <x:c r="A902" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B902" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C902" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D902" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E902" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F902" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G902" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H902" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I902" s="0" t="n">
         <x:v>0</x:v>
@@ -26885,22 +26885,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C903" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D903" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E903" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F903" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G903" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H903" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I903" s="0" t="n">
         <x:v>0</x:v>
@@ -26914,22 +26914,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C904" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D904" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E904" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F904" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G904" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H904" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I904" s="0" t="n">
         <x:v>0</x:v>
@@ -26940,25 +26940,25 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B905" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C905" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D905" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E905" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F905" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G905" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H905" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I905" s="0" t="n">
         <x:v>0</x:v>
@@ -26972,10 +26972,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C906" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D906" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E906" s="1" t="n">
         <x:v>1</x:v>
@@ -27001,13 +27001,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C907" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D907" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E907" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F907" s="1" t="n">
         <x:v>0</x:v>
@@ -27027,25 +27027,25 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B908" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C908" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D908" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C908" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D908" s="1" t="n">
-        <x:v>15</x:v>
-      </x:c>
       <x:c r="E908" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F908" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G908" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H908" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I908" s="0" t="n">
         <x:v>0</x:v>
@@ -27059,22 +27059,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C909" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D909" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E909" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F909" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G909" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="G909" s="1" t="n">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="H909" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I909" s="0" t="n">
         <x:v>0</x:v>
@@ -27088,22 +27088,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C910" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D910" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E910" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F910" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G910" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H910" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I910" s="0" t="n">
         <x:v>0</x:v>
@@ -27114,25 +27114,25 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B911" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C911" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D911" s="1" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E911" s="1" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F911" s="1" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G911" s="1" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H911" s="1" t="n">
         <x:v>15</x:v>
-      </x:c>
-      <x:c r="C911" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D911" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E911" s="1" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F911" s="1" t="n">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G911" s="1" t="n">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="H911" s="1" t="n">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="I911" s="0" t="n">
         <x:v>0</x:v>
@@ -27146,22 +27146,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C912" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D912" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E912" s="1" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F912" s="1" t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G912" s="1" t="n">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="F912" s="1" t="n">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="G912" s="1" t="n">
-        <x:v>92</x:v>
-      </x:c>
       <x:c r="H912" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I912" s="0" t="n">
         <x:v>0</x:v>
@@ -27175,22 +27175,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C913" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D913" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E913" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F913" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G913" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H913" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I913" s="0" t="n">
         <x:v>0</x:v>
@@ -27201,25 +27201,25 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B914" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C914" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D914" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E914" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F914" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G914" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="H914" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I914" s="0" t="n">
         <x:v>0</x:v>
@@ -27233,19 +27233,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C915" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D915" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E915" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F915" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G915" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H915" s="1" t="n">
         <x:v>0</x:v>
@@ -27262,19 +27262,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C916" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D916" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E916" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F916" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G916" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H916" s="1" t="n">
         <x:v>0</x:v>
@@ -27288,25 +27288,25 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B917" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C917" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D917" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E917" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F917" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G917" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E917" s="1" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F917" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G917" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="H917" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I917" s="0" t="n">
         <x:v>0</x:v>
@@ -27320,22 +27320,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C918" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D918" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E918" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F918" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G918" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H918" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I918" s="0" t="n">
         <x:v>0</x:v>
@@ -27349,22 +27349,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C919" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D919" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E919" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F919" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G919" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H919" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I919" s="0" t="n">
         <x:v>0</x:v>
@@ -27375,25 +27375,25 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B920" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C920" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D920" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E920" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F920" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G920" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H920" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I920" s="0" t="n">
         <x:v>0</x:v>
@@ -27407,22 +27407,22 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C921" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D921" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E921" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F921" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G921" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H921" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I921" s="0" t="n">
         <x:v>0</x:v>
@@ -27436,7 +27436,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C922" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D922" s="1" t="n">
         <x:v>4</x:v>
@@ -27445,13 +27445,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F922" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G922" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H922" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I922" s="0" t="n">
         <x:v>0</x:v>
@@ -27459,28 +27459,28 @@
     </x:row>
     <x:row r="923" spans="1:9">
       <x:c r="A923" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B923" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C923" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D923" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E923" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F923" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G923" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H923" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I923" s="0" t="n">
         <x:v>0</x:v>
@@ -27494,22 +27494,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C924" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D924" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E924" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F924" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G924" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H924" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I924" s="0" t="n">
         <x:v>0</x:v>
@@ -27523,22 +27523,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C925" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D925" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E925" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F925" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G925" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H925" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I925" s="0" t="n">
         <x:v>0</x:v>
@@ -27549,25 +27549,25 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B926" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C926" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D926" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E926" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F926" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G926" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H926" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I926" s="0" t="n">
         <x:v>0</x:v>
@@ -27581,10 +27581,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C927" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D927" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E927" s="1" t="n">
         <x:v>0</x:v>
@@ -27610,10 +27610,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C928" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D928" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E928" s="1" t="n">
         <x:v>0</x:v>
@@ -27636,22 +27636,22 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B929" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C929" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D929" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E929" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F929" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G929" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H929" s="1" t="n">
         <x:v>0</x:v>
@@ -27668,22 +27668,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C930" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D930" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E930" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F930" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G930" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H930" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I930" s="0" t="n">
         <x:v>0</x:v>
@@ -27697,19 +27697,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C931" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D931" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E931" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F931" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G931" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H931" s="1" t="n">
         <x:v>3</x:v>
@@ -27723,25 +27723,25 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B932" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C932" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D932" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E932" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F932" s="1" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G932" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H932" s="1" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="F932" s="1" t="n">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G932" s="1" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H932" s="1" t="n">
-        <x:v>12</x:v>
       </x:c>
       <x:c r="I932" s="0" t="n">
         <x:v>0</x:v>
@@ -27755,22 +27755,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C933" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D933" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E933" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F933" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G933" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H933" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I933" s="0" t="n">
         <x:v>0</x:v>
@@ -27784,22 +27784,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C934" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D934" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E934" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F934" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G934" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H934" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I934" s="0" t="n">
         <x:v>0</x:v>
@@ -27810,25 +27810,25 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B935" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C935" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D935" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E935" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F935" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G935" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H935" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I935" s="0" t="n">
         <x:v>0</x:v>
@@ -27842,19 +27842,19 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C936" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D936" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E936" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F936" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G936" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H936" s="1" t="n">
         <x:v>0</x:v>
@@ -27871,13 +27871,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C937" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D937" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E937" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F937" s="1" t="n">
         <x:v>2</x:v>
@@ -27897,25 +27897,25 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B938" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C938" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D938" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E938" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F938" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G938" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H938" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I938" s="0" t="n">
         <x:v>0</x:v>
@@ -27929,7 +27929,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C939" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D939" s="1" t="n">
         <x:v>2</x:v>
@@ -27952,16 +27952,16 @@
     </x:row>
     <x:row r="940" spans="1:9">
       <x:c r="A940" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B940" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C940" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D940" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E940" s="1" t="n">
         <x:v>0</x:v>
@@ -27987,22 +27987,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C941" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D941" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E941" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F941" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G941" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H941" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I941" s="0" t="n">
         <x:v>0</x:v>
@@ -28016,22 +28016,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C942" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D942" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E942" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F942" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G942" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H942" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I942" s="0" t="n">
         <x:v>0</x:v>
@@ -28042,10 +28042,10 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B943" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C943" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D943" s="1" t="n">
         <x:v>1</x:v>
@@ -28054,13 +28054,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F943" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G943" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H943" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I943" s="0" t="n">
         <x:v>0</x:v>
@@ -28074,7 +28074,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C944" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D944" s="1" t="n">
         <x:v>1</x:v>
@@ -28100,16 +28100,16 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B945" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C945" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D945" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E945" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F945" s="1" t="n">
         <x:v>0</x:v>
@@ -28132,19 +28132,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C946" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D946" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E946" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F946" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G946" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H946" s="1" t="n">
         <x:v>0</x:v>
@@ -28161,13 +28161,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C947" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D947" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E947" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F947" s="1" t="n">
         <x:v>1</x:v>
@@ -28187,25 +28187,25 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B948" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C948" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D948" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E948" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F948" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G948" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H948" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I948" s="0" t="n">
         <x:v>0</x:v>
@@ -28219,22 +28219,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C949" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D949" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E949" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F949" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G949" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H949" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I949" s="0" t="n">
         <x:v>0</x:v>
@@ -28248,7 +28248,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C950" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D950" s="1" t="n">
         <x:v>2</x:v>
@@ -28260,10 +28260,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G950" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H950" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I950" s="0" t="n">
         <x:v>0</x:v>
@@ -28274,25 +28274,25 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B951" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C951" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D951" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E951" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F951" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G951" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H951" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I951" s="0" t="n">
         <x:v>0</x:v>
@@ -28306,13 +28306,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C952" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D952" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E952" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F952" s="1" t="n">
         <x:v>0</x:v>
@@ -28335,13 +28335,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C953" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D953" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E953" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F953" s="1" t="n">
         <x:v>0</x:v>
@@ -28358,28 +28358,28 @@
     </x:row>
     <x:row r="954" spans="1:9">
       <x:c r="A954" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B954" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C954" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D954" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E954" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F954" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G954" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H954" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I954" s="0" t="n">
         <x:v>0</x:v>
@@ -28393,22 +28393,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C955" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D955" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E955" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F955" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G955" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H955" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I955" s="0" t="n">
         <x:v>0</x:v>
@@ -28422,22 +28422,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C956" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D956" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E956" s="1" t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F956" s="1" t="n">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="G956" s="1" t="n">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="H956" s="1" t="n">
         <x:v>80</x:v>
-      </x:c>
-      <x:c r="F956" s="1" t="n">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="G956" s="1" t="n">
-        <x:v>177</x:v>
-      </x:c>
-      <x:c r="H956" s="1" t="n">
-        <x:v>105</x:v>
       </x:c>
       <x:c r="I956" s="0" t="n">
         <x:v>0</x:v>
@@ -28448,25 +28448,25 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B957" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C957" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D957" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E957" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F957" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G957" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="H957" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="I957" s="0" t="n">
         <x:v>0</x:v>
@@ -28480,7 +28480,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C958" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D958" s="1" t="n">
         <x:v>2</x:v>
@@ -28506,25 +28506,25 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B959" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C959" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D959" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E959" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F959" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G959" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H959" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I959" s="0" t="n">
         <x:v>0</x:v>
@@ -28538,22 +28538,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C960" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D960" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E960" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F960" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G960" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H960" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I960" s="0" t="n">
         <x:v>0</x:v>
@@ -28567,22 +28567,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C961" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D961" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E961" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F961" s="1" t="n">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G961" s="1" t="n">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="G961" s="1" t="n">
-        <x:v>80</x:v>
-      </x:c>
       <x:c r="H961" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I961" s="0" t="n">
         <x:v>0</x:v>
@@ -28593,25 +28593,25 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B962" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C962" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D962" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E962" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F962" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G962" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H962" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I962" s="0" t="n">
         <x:v>0</x:v>
@@ -28625,22 +28625,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C963" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D963" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E963" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F963" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G963" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H963" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I963" s="0" t="n">
         <x:v>0</x:v>
@@ -28654,22 +28654,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C964" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D964" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E964" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F964" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G964" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H964" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I964" s="0" t="n">
         <x:v>0</x:v>
@@ -28680,25 +28680,25 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B965" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C965" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D965" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E965" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F965" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G965" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H965" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I965" s="0" t="n">
         <x:v>0</x:v>
@@ -28712,7 +28712,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C966" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D966" s="1" t="n">
         <x:v>0</x:v>
@@ -28724,10 +28724,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G966" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H966" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I966" s="0" t="n">
         <x:v>0</x:v>
@@ -28741,7 +28741,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C967" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D967" s="1" t="n">
         <x:v>0</x:v>
@@ -28750,10 +28750,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F967" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G967" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H967" s="1" t="n">
         <x:v>1</x:v>
@@ -28767,25 +28767,25 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B968" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C968" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D968" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E968" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F968" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G968" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H968" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I968" s="0" t="n">
         <x:v>0</x:v>
@@ -28799,19 +28799,19 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C969" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D969" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E969" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F969" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G969" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H969" s="1" t="n">
         <x:v>0</x:v>
@@ -28828,19 +28828,19 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C970" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D970" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E970" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F970" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G970" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H970" s="1" t="n">
         <x:v>0</x:v>
@@ -28854,25 +28854,25 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B971" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C971" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D971" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E971" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F971" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G971" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H971" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I971" s="0" t="n">
         <x:v>0</x:v>
@@ -28886,22 +28886,22 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C972" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D972" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E972" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F972" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G972" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H972" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I972" s="0" t="n">
         <x:v>0</x:v>
@@ -28915,22 +28915,22 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C973" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D973" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E973" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F973" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G973" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H973" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I973" s="0" t="n">
         <x:v>0</x:v>
@@ -28938,28 +28938,28 @@
     </x:row>
     <x:row r="974" spans="1:9">
       <x:c r="A974" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B974" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C974" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D974" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E974" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F974" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G974" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H974" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I974" s="0" t="n">
         <x:v>0</x:v>
@@ -28973,22 +28973,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C975" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D975" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E975" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F975" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G975" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H975" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I975" s="0" t="n">
         <x:v>0</x:v>
@@ -29002,22 +29002,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C976" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D976" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E976" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F976" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G976" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="H976" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I976" s="0" t="n">
         <x:v>0</x:v>
@@ -29028,25 +29028,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B977" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C977" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D977" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E977" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F977" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="G977" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="H977" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I977" s="0" t="n">
         <x:v>0</x:v>
@@ -29060,10 +29060,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C978" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D978" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E978" s="1" t="n">
         <x:v>0</x:v>
@@ -29089,10 +29089,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C979" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D979" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E979" s="1" t="n">
         <x:v>0</x:v>
@@ -29115,25 +29115,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B980" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C980" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D980" s="1" t="n">
         <x:v>37</x:v>
       </x:c>
       <x:c r="E980" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F980" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G980" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H980" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I980" s="0" t="n">
         <x:v>0</x:v>
@@ -29147,22 +29147,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C981" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D981" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E981" s="1" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F981" s="1" t="n">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F981" s="1" t="n">
-        <x:v>36</x:v>
-      </x:c>
       <x:c r="G981" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H981" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I981" s="0" t="n">
         <x:v>0</x:v>
@@ -29176,22 +29176,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C982" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D982" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E982" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F982" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G982" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H982" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I982" s="0" t="n">
         <x:v>0</x:v>
@@ -29202,25 +29202,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B983" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C983" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D983" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E983" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F983" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G983" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H983" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I983" s="0" t="n">
         <x:v>0</x:v>
@@ -29234,22 +29234,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C984" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D984" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E984" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F984" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G984" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H984" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I984" s="0" t="n">
         <x:v>0</x:v>
@@ -29263,22 +29263,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C985" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D985" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E985" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F985" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G985" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H985" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I985" s="0" t="n">
         <x:v>0</x:v>
@@ -29289,25 +29289,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B986" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C986" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D986" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E986" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F986" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G986" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H986" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I986" s="0" t="n">
         <x:v>0</x:v>
@@ -29321,7 +29321,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C987" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D987" s="1" t="n">
         <x:v>0</x:v>
@@ -29350,7 +29350,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C988" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D988" s="1" t="n">
         <x:v>0</x:v>
@@ -29359,10 +29359,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F988" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G988" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H988" s="1" t="n">
         <x:v>0</x:v>
@@ -29376,25 +29376,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B989" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C989" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D989" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E989" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F989" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G989" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H989" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I989" s="0" t="n">
         <x:v>0</x:v>
@@ -29408,22 +29408,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C990" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D990" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E990" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F990" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G990" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H990" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I990" s="0" t="n">
         <x:v>0</x:v>
@@ -29437,22 +29437,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C991" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D991" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E991" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F991" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G991" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H991" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I991" s="0" t="n">
         <x:v>0</x:v>
@@ -29463,25 +29463,25 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B992" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C992" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D992" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E992" s="1" t="n">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="F992" s="1" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G992" s="1" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H992" s="1" t="n">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="F992" s="1" t="n">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G992" s="1" t="n">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="H992" s="1" t="n">
-        <x:v>14</x:v>
       </x:c>
       <x:c r="I992" s="0" t="n">
         <x:v>0</x:v>
@@ -29495,22 +29495,22 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C993" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D993" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E993" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F993" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G993" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H993" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I993" s="0" t="n">
         <x:v>0</x:v>
@@ -29524,22 +29524,22 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C994" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D994" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E994" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F994" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G994" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H994" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I994" s="0" t="n">
         <x:v>0</x:v>
@@ -29547,28 +29547,28 @@
     </x:row>
     <x:row r="995" spans="1:9">
       <x:c r="A995" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B995" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C995" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D995" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E995" s="1" t="n">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F995" s="1" t="n">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="B995" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C995" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D995" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E995" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F995" s="1" t="n">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="G995" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H995" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I995" s="0" t="n">
         <x:v>0</x:v>
@@ -29582,22 +29582,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C996" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D996" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E996" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F996" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G996" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H996" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I996" s="0" t="n">
         <x:v>0</x:v>
@@ -29611,22 +29611,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C997" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D997" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E997" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F997" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G997" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H997" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I997" s="0" t="n">
         <x:v>0</x:v>
@@ -29637,25 +29637,25 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B998" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C998" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D998" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E998" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F998" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G998" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H998" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I998" s="0" t="n">
         <x:v>0</x:v>
@@ -29669,10 +29669,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C999" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D999" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E999" s="1" t="n">
         <x:v>0</x:v>
@@ -29698,10 +29698,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1000" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1000" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1000" s="1" t="n">
         <x:v>0</x:v>
@@ -29724,25 +29724,25 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B1001" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1001" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1001" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E1001" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1001" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1001" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1001" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1001" s="0" t="n">
         <x:v>0</x:v>
@@ -29756,13 +29756,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1002" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1002" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1002" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1002" s="1" t="n">
         <x:v>1</x:v>
@@ -29785,22 +29785,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1003" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1003" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1003" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1003" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1003" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1003" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1003" s="0" t="n">
         <x:v>0</x:v>
@@ -29811,25 +29811,25 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B1004" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1004" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1004" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E1004" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1004" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1004" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H1004" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1004" s="0" t="n">
         <x:v>0</x:v>
@@ -29843,22 +29843,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1005" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1005" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1005" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1005" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1005" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1005" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1005" s="0" t="n">
         <x:v>0</x:v>
@@ -29872,22 +29872,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1006" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1006" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1006" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F1006" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G1006" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H1006" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1006" s="0" t="n">
         <x:v>0</x:v>
@@ -29898,25 +29898,25 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B1007" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1007" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1007" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1007" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F1007" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G1007" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H1007" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I1007" s="0" t="n">
         <x:v>0</x:v>
@@ -29930,7 +29930,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1008" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1008" s="1" t="n">
         <x:v>0</x:v>
@@ -29956,25 +29956,25 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B1009" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1009" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1009" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1009" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1009" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1009" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1009" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1009" s="0" t="n">
         <x:v>0</x:v>
@@ -29988,13 +29988,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1010" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1010" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1010" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1010" s="1" t="n">
         <x:v>1</x:v>
@@ -30003,7 +30003,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1010" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1010" s="0" t="n">
         <x:v>0</x:v>
@@ -30017,22 +30017,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1011" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1011" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1011" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1011" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1011" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1011" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1011" s="0" t="n">
         <x:v>0</x:v>
@@ -30043,22 +30043,22 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B1012" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1012" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1012" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E1012" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1012" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1012" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1012" s="1" t="n">
         <x:v>1</x:v>
@@ -30075,7 +30075,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1013" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1013" s="1" t="n">
         <x:v>0</x:v>
@@ -30098,16 +30098,16 @@
     </x:row>
     <x:row r="1014" spans="1:9">
       <x:c r="A1014" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B1014" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1014" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1014" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1014" s="1" t="n">
         <x:v>1</x:v>
@@ -30119,7 +30119,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1014" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1014" s="0" t="n">
         <x:v>0</x:v>
@@ -30133,22 +30133,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1015" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1015" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1015" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1015" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1015" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1015" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1015" s="0" t="n">
         <x:v>0</x:v>
@@ -30162,19 +30162,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1016" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1016" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1016" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1016" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1016" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H1016" s="1" t="n">
         <x:v>5</x:v>
@@ -30188,25 +30188,25 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B1017" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1017" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1017" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E1017" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1017" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1017" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1017" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1017" s="0" t="n">
         <x:v>0</x:v>
@@ -30220,7 +30220,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1018" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1018" s="1" t="n">
         <x:v>0</x:v>
@@ -30232,10 +30232,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1018" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1018" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1018" s="0" t="n">
         <x:v>0</x:v>
@@ -30249,7 +30249,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1019" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1019" s="1" t="n">
         <x:v>0</x:v>
@@ -30258,7 +30258,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1019" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1019" s="1" t="n">
         <x:v>2</x:v>
@@ -30275,10 +30275,10 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B1020" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1020" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1020" s="1" t="n">
         <x:v>0</x:v>
@@ -30287,13 +30287,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1020" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1020" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1020" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1020" s="0" t="n">
         <x:v>0</x:v>
@@ -30307,22 +30307,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1021" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1021" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1021" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1021" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1021" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1021" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1021" s="0" t="n">
         <x:v>0</x:v>
@@ -30336,7 +30336,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1022" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1022" s="1" t="n">
         <x:v>0</x:v>
@@ -30351,7 +30351,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H1022" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1022" s="0" t="n">
         <x:v>0</x:v>
@@ -30362,25 +30362,25 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B1023" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1023" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1023" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1023" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1023" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1023" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1023" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1023" s="0" t="n">
         <x:v>0</x:v>
@@ -30394,19 +30394,19 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1024" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1024" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1024" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1024" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1024" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1024" s="1" t="n">
         <x:v>0</x:v>
@@ -30423,13 +30423,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1025" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1025" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1025" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1025" s="1" t="n">
         <x:v>0</x:v>
@@ -30449,25 +30449,25 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B1026" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1026" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1026" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1026" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1026" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1026" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1026" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1026" s="0" t="n">
         <x:v>0</x:v>
@@ -30481,7 +30481,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1027" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1027" s="1" t="n">
         <x:v>0</x:v>
@@ -30504,10 +30504,10 @@
     </x:row>
     <x:row r="1028" spans="1:9">
       <x:c r="A1028" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B1028" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1028" s="1" t="s">
         <x:v>12</x:v>
@@ -30516,16 +30516,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1028" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1028" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1028" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1028" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1028" s="0" t="n">
         <x:v>0</x:v>
@@ -30533,10 +30533,10 @@
     </x:row>
     <x:row r="1029" spans="1:9">
       <x:c r="A1029" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B1029" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1029" s="1" t="s">
         <x:v>13</x:v>
@@ -30545,13 +30545,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1029" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1029" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1029" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1029" s="1" t="n">
         <x:v>2</x:v>
@@ -30565,7 +30565,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B1030" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1030" s="1" t="s">
         <x:v>12</x:v>
@@ -30574,16 +30574,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1030" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1030" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1030" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1030" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1030" s="0" t="n">
         <x:v>0</x:v>
@@ -30594,7 +30594,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B1031" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1031" s="1" t="s">
         <x:v>13</x:v>
@@ -30603,16 +30603,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1031" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1031" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1031" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1031" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1031" s="0" t="n">
         <x:v>0</x:v>
@@ -30623,19 +30623,19 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B1032" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1032" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1032" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1032" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1032" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1032" s="1" t="n">
         <x:v>0</x:v>
@@ -30652,10 +30652,10 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B1033" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1033" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1033" s="1" t="n">
         <x:v>0</x:v>
@@ -30667,10 +30667,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G1033" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1033" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1033" s="0" t="n">
         <x:v>0</x:v>
@@ -30684,22 +30684,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1034" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1034" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1034" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1034" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1034" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1034" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1034" s="0" t="n">
         <x:v>0</x:v>
@@ -30710,7 +30710,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B1035" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1035" s="1" t="s">
         <x:v>12</x:v>
@@ -30719,16 +30719,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1035" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1035" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1035" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1035" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1035" s="0" t="n">
         <x:v>0</x:v>
@@ -30739,7 +30739,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B1036" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1036" s="1" t="s">
         <x:v>13</x:v>
@@ -30748,16 +30748,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1036" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1036" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1036" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1036" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1036" s="0" t="n">
         <x:v>0</x:v>
@@ -30768,22 +30768,22 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B1037" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1037" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1037" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1037" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1037" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1037" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1037" s="1" t="n">
         <x:v>0</x:v>
@@ -30797,7 +30797,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B1038" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1038" s="1" t="s">
         <x:v>13</x:v>
@@ -30806,13 +30806,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1038" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1038" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1038" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1038" s="1" t="n">
         <x:v>0</x:v>
@@ -30823,10 +30823,10 @@
     </x:row>
     <x:row r="1039" spans="1:9">
       <x:c r="A1039" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B1039" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1039" s="1" t="s">
         <x:v>11</x:v>
@@ -30835,16 +30835,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1039" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1039" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1039" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1039" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1039" s="0" t="n">
         <x:v>0</x:v>
@@ -30852,28 +30852,28 @@
     </x:row>
     <x:row r="1040" spans="1:9">
       <x:c r="A1040" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B1040" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1040" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1040" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1040" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1040" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1040" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1040" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1040" s="0" t="n">
         <x:v>0</x:v>
@@ -30887,22 +30887,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1041" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1041" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1041" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1041" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F1041" s="1" t="n">
-        <x:v>7</x:v>
-      </x:c>
       <x:c r="G1041" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1041" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1041" s="0" t="n">
         <x:v>0</x:v>
@@ -30913,25 +30913,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1042" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1042" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1042" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1042" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1042" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1042" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1042" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I1042" s="0" t="n">
         <x:v>0</x:v>
@@ -30942,25 +30942,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1043" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1043" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1043" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1043" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1043" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1043" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H1043" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I1043" s="0" t="n">
         <x:v>0</x:v>
@@ -30971,25 +30971,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1044" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1044" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1044" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1044" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1044" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1044" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1044" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1044" s="0" t="n">
         <x:v>0</x:v>
@@ -31000,10 +31000,10 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1045" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1045" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1045" s="1" t="n">
         <x:v>1</x:v>
@@ -31012,13 +31012,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1045" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1045" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1045" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1045" s="0" t="n">
         <x:v>0</x:v>
@@ -31032,22 +31032,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1046" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1046" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1046" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1046" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1046" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1046" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1046" s="0" t="n">
         <x:v>0</x:v>
@@ -31058,25 +31058,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1047" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1047" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1047" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1047" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1047" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1047" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1047" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1047" s="0" t="n">
         <x:v>0</x:v>
@@ -31087,25 +31087,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1048" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1048" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1048" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1048" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1048" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1048" s="1" t="n">
-        <x:v>7</x:v>
-      </x:c>
       <x:c r="G1048" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1048" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1048" s="0" t="n">
         <x:v>0</x:v>
@@ -31119,22 +31119,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1049" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1049" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1049" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1049" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1049" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1049" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1049" s="0" t="n">
         <x:v>0</x:v>
@@ -31145,25 +31145,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1050" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1050" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1050" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1050" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1050" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1050" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1050" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1050" s="0" t="n">
         <x:v>0</x:v>
@@ -31174,25 +31174,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1051" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1051" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1051" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1051" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1051" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1051" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1051" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1051" s="0" t="n">
         <x:v>0</x:v>
@@ -31203,7 +31203,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1052" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1052" s="1" t="s">
         <x:v>11</x:v>
@@ -31218,7 +31218,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1052" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1052" s="1" t="n">
         <x:v>0</x:v>
@@ -31232,22 +31232,22 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1053" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1053" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1053" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1053" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1053" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1053" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1053" s="1" t="n">
         <x:v>0</x:v>
@@ -31264,13 +31264,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1054" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1054" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1054" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1054" s="1" t="n">
         <x:v>1</x:v>
@@ -31290,25 +31290,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1055" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1055" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1055" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1055" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1055" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1055" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1055" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1055" s="0" t="n">
         <x:v>0</x:v>
@@ -31319,25 +31319,25 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B1056" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1056" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1056" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1056" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1056" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1056" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1056" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1056" s="0" t="n">
         <x:v>0</x:v>
@@ -31345,13 +31345,13 @@
     </x:row>
     <x:row r="1057" spans="1:9">
       <x:c r="A1057" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B1057" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1057" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1057" s="1" t="n">
         <x:v>0</x:v>
@@ -31366,7 +31366,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1057" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1057" s="0" t="n">
         <x:v>0</x:v>
@@ -31374,13 +31374,13 @@
     </x:row>
     <x:row r="1058" spans="1:9">
       <x:c r="A1058" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B1058" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1058" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1058" s="1" t="n">
         <x:v>0</x:v>
@@ -31389,13 +31389,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1058" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1058" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1058" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1058" s="0" t="n">
         <x:v>0</x:v>
@@ -31409,7 +31409,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1059" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1059" s="1" t="n">
         <x:v>0</x:v>
@@ -31418,10 +31418,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1059" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1059" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1059" s="1" t="n">
         <x:v>0</x:v>
@@ -31435,7 +31435,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="B1060" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1060" s="1" t="s">
         <x:v>12</x:v>
@@ -31444,16 +31444,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1060" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1060" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1060" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1060" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1060" s="0" t="n">
         <x:v>0</x:v>
@@ -31464,7 +31464,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="B1061" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1061" s="1" t="s">
         <x:v>13</x:v>
@@ -31473,16 +31473,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1061" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1061" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1061" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1061" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1061" s="0" t="n">
         <x:v>0</x:v>
@@ -31490,10 +31490,10 @@
     </x:row>
     <x:row r="1062" spans="1:9">
       <x:c r="A1062" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B1062" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1062" s="1" t="s">
         <x:v>12</x:v>
@@ -31502,7 +31502,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1062" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1062" s="1" t="n">
         <x:v>0</x:v>
@@ -31511,7 +31511,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1062" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1062" s="0" t="n">
         <x:v>0</x:v>
@@ -31519,10 +31519,10 @@
     </x:row>
     <x:row r="1063" spans="1:9">
       <x:c r="A1063" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B1063" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1063" s="1" t="s">
         <x:v>13</x:v>
@@ -31531,7 +31531,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1063" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1063" s="1" t="n">
         <x:v>0</x:v>
@@ -31540,7 +31540,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1063" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1063" s="0" t="n">
         <x:v>0</x:v>
@@ -31551,7 +31551,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B1064" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1064" s="1" t="s">
         <x:v>12</x:v>
@@ -31560,13 +31560,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1064" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1064" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1064" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1064" s="1" t="n">
         <x:v>0</x:v>
@@ -31580,7 +31580,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B1065" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1065" s="1" t="s">
         <x:v>13</x:v>
@@ -31589,13 +31589,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1065" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1065" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1065" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1065" s="1" t="n">
         <x:v>0</x:v>
@@ -31606,28 +31606,28 @@
     </x:row>
     <x:row r="1066" spans="1:9">
       <x:c r="A1066" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B1066" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1066" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1066" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1066" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1066" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1066" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1066" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1066" s="0" t="n">
         <x:v>0</x:v>
@@ -31635,28 +31635,28 @@
     </x:row>
     <x:row r="1067" spans="1:9">
       <x:c r="A1067" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B1067" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1067" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1067" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1067" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1067" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1067" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1067" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1067" s="0" t="n">
         <x:v>0</x:v>
@@ -31670,22 +31670,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1068" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1068" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1068" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1068" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1068" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1068" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1068" s="0" t="n">
         <x:v>0</x:v>
@@ -31696,25 +31696,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B1069" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1069" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1069" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1069" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1069" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1069" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F1069" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="G1069" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1069" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1069" s="0" t="n">
         <x:v>0</x:v>
@@ -31725,25 +31725,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B1070" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1070" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1070" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1070" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1070" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1070" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H1070" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1070" s="0" t="n">
         <x:v>0</x:v>
@@ -31757,7 +31757,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1071" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1071" s="1" t="n">
         <x:v>3</x:v>
@@ -31769,10 +31769,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1071" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1071" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1071" s="0" t="n">
         <x:v>0</x:v>
@@ -31783,10 +31783,10 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B1072" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1072" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1072" s="1" t="n">
         <x:v>0</x:v>
@@ -31795,13 +31795,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1072" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1072" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1072" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1072" s="0" t="n">
         <x:v>0</x:v>
@@ -31812,25 +31812,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B1073" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1073" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1073" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1073" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1073" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1073" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1073" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1073" s="0" t="n">
         <x:v>0</x:v>
@@ -31844,22 +31844,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1074" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1074" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1074" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1074" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1074" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1074" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1074" s="0" t="n">
         <x:v>0</x:v>
@@ -31870,25 +31870,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B1075" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1075" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1075" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1075" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1075" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G1075" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H1075" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I1075" s="0" t="n">
         <x:v>0</x:v>
@@ -31899,25 +31899,25 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B1076" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1076" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1076" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1076" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1076" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G1076" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H1076" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I1076" s="0" t="n">
         <x:v>0</x:v>
@@ -31928,19 +31928,19 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B1077" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1077" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1077" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1077" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1077" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1077" s="1" t="n">
         <x:v>0</x:v>
@@ -31957,7 +31957,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B1078" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1078" s="1" t="s">
         <x:v>13</x:v>
@@ -31966,10 +31966,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1078" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1078" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1078" s="1" t="n">
         <x:v>0</x:v>
@@ -31986,7 +31986,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B1079" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1079" s="1" t="s">
         <x:v>12</x:v>
@@ -31995,13 +31995,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1079" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F1079" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1079" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1079" s="1" t="n">
         <x:v>0</x:v>
@@ -32015,7 +32015,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B1080" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1080" s="1" t="s">
         <x:v>13</x:v>
@@ -32024,13 +32024,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1080" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F1080" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1080" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1080" s="1" t="n">
         <x:v>0</x:v>
@@ -32041,25 +32041,25 @@
     </x:row>
     <x:row r="1081" spans="1:9">
       <x:c r="A1081" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B1081" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1081" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1081" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1081" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1081" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1081" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1081" s="1" t="n">
         <x:v>0</x:v>
@@ -32070,28 +32070,28 @@
     </x:row>
     <x:row r="1082" spans="1:9">
       <x:c r="A1082" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B1082" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1082" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1082" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1082" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1082" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1082" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1082" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1082" s="0" t="n">
         <x:v>0</x:v>
@@ -32105,22 +32105,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1083" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1083" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1083" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1083" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1083" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1083" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1083" s="0" t="n">
         <x:v>0</x:v>
@@ -32131,25 +32131,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B1084" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1084" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1084" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1084" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1084" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1084" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H1084" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1084" s="0" t="n">
         <x:v>0</x:v>
@@ -32160,25 +32160,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B1085" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1085" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1085" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1085" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1085" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1085" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H1085" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1085" s="0" t="n">
         <x:v>0</x:v>
@@ -32192,22 +32192,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1086" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1086" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1086" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1086" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1086" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1086" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1086" s="0" t="n">
         <x:v>0</x:v>
@@ -32218,25 +32218,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B1087" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1087" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1087" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E1087" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1087" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1087" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1087" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1087" s="0" t="n">
         <x:v>0</x:v>
@@ -32247,25 +32247,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B1088" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1088" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1088" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E1088" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1088" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G1088" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1088" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1088" s="0" t="n">
         <x:v>0</x:v>
@@ -32279,22 +32279,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1089" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1089" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1089" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1089" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1089" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1089" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1089" s="0" t="n">
         <x:v>0</x:v>
@@ -32305,25 +32305,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B1090" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1090" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1090" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1090" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1090" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1090" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1090" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1090" s="0" t="n">
         <x:v>0</x:v>
@@ -32334,25 +32334,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B1091" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1091" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1091" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1091" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1091" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1091" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1091" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1091" s="0" t="n">
         <x:v>0</x:v>
@@ -32366,13 +32366,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1092" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1092" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1092" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1092" s="1" t="n">
         <x:v>0</x:v>
@@ -32381,7 +32381,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1092" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1092" s="0" t="n">
         <x:v>0</x:v>
@@ -32392,16 +32392,16 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B1093" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1093" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1093" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1093" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F1093" s="1" t="n">
         <x:v>0</x:v>
@@ -32410,7 +32410,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1093" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1093" s="0" t="n">
         <x:v>0</x:v>
@@ -32421,25 +32421,25 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B1094" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C1094" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1094" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E1094" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C1094" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D1094" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1094" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="F1094" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1094" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1094" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1094" s="0" t="n">
         <x:v>0</x:v>
@@ -32453,7 +32453,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1095" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1095" s="1" t="n">
         <x:v>0</x:v>
@@ -32462,13 +32462,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1095" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1095" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1095" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1095" s="0" t="n">
         <x:v>0</x:v>
@@ -32476,25 +32476,25 @@
     </x:row>
     <x:row r="1096" spans="1:9">
       <x:c r="A1096" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B1096" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1096" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1096" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1096" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1096" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1096" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1096" s="1" t="n">
         <x:v>1</x:v>
@@ -32505,28 +32505,28 @@
     </x:row>
     <x:row r="1097" spans="1:9">
       <x:c r="A1097" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B1097" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1097" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1097" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1097" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1097" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1097" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1097" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1097" s="0" t="n">
         <x:v>0</x:v>
@@ -32540,22 +32540,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1098" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1098" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1098" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1098" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1098" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1098" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1098" s="0" t="n">
         <x:v>0</x:v>
@@ -32566,22 +32566,22 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1099" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1099" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1099" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1099" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1099" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1099" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1099" s="1" t="n">
         <x:v>1</x:v>
@@ -32595,25 +32595,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1100" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1100" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1100" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1100" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1100" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G1100" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H1100" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1100" s="0" t="n">
         <x:v>0</x:v>
@@ -32627,19 +32627,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1101" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1101" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1101" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1101" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1101" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1101" s="1" t="n">
         <x:v>1</x:v>
@@ -32653,22 +32653,22 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1102" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1102" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1102" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1102" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1102" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1102" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1102" s="1" t="n">
         <x:v>0</x:v>
@@ -32682,25 +32682,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1103" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1103" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1103" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1103" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1103" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1103" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1103" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1103" s="0" t="n">
         <x:v>0</x:v>
@@ -32714,22 +32714,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1104" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1104" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1104" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1104" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1104" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1104" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1104" s="0" t="n">
         <x:v>0</x:v>
@@ -32740,7 +32740,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1105" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1105" s="1" t="s">
         <x:v>12</x:v>
@@ -32749,16 +32749,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1105" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1105" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1105" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1105" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I1105" s="0" t="n">
         <x:v>0</x:v>
@@ -32769,7 +32769,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1106" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1106" s="1" t="s">
         <x:v>13</x:v>
@@ -32778,16 +32778,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1106" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1106" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1106" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1106" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I1106" s="0" t="n">
         <x:v>0</x:v>
@@ -32798,16 +32798,16 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1107" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1107" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1107" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1107" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1107" s="1" t="n">
         <x:v>0</x:v>
@@ -32827,16 +32827,16 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1108" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1108" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1108" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1108" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1108" s="1" t="n">
         <x:v>0</x:v>
@@ -32859,13 +32859,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1109" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1109" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1109" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F1109" s="1" t="n">
         <x:v>0</x:v>
@@ -32885,25 +32885,25 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1110" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1110" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1110" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E1110" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F1110" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1110" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1110" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1110" s="0" t="n">
         <x:v>0</x:v>
@@ -32914,22 +32914,22 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B1111" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1111" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1111" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E1111" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F1111" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1111" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1111" s="1" t="n">
         <x:v>0</x:v>
@@ -32946,19 +32946,19 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1112" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1112" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1112" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1112" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1112" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1112" s="1" t="n">
         <x:v>2</x:v>
@@ -32969,28 +32969,28 @@
     </x:row>
     <x:row r="1113" spans="1:9">
       <x:c r="A1113" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B1113" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1113" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1113" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1113" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1113" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1113" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1113" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1113" s="0" t="n">
         <x:v>0</x:v>
@@ -32998,28 +32998,28 @@
     </x:row>
     <x:row r="1114" spans="1:9">
       <x:c r="A1114" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B1114" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1114" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1114" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1114" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1114" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1114" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1114" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1114" s="0" t="n">
         <x:v>0</x:v>
@@ -33033,22 +33033,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1115" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1115" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E1115" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F1115" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G1115" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H1115" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1115" s="0" t="n">
         <x:v>0</x:v>
@@ -33059,25 +33059,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1116" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1116" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1116" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E1116" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F1116" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G1116" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="H1116" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I1116" s="0" t="n">
         <x:v>0</x:v>
@@ -33088,25 +33088,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1117" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1117" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1117" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E1117" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F1117" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G1117" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="H1117" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I1117" s="0" t="n">
         <x:v>0</x:v>
@@ -33120,10 +33120,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1118" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1118" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1118" s="1" t="n">
         <x:v>0</x:v>
@@ -33146,25 +33146,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1119" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1119" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1119" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1119" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1119" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1119" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1119" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1119" s="0" t="n">
         <x:v>0</x:v>
@@ -33175,25 +33175,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1120" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1120" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1120" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E1120" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1120" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1120" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1120" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1120" s="0" t="n">
         <x:v>0</x:v>
@@ -33207,22 +33207,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1121" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1121" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E1121" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F1121" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1121" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H1121" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1121" s="0" t="n">
         <x:v>0</x:v>
@@ -33233,25 +33233,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1122" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1122" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1122" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E1122" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F1122" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G1122" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H1122" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I1122" s="0" t="n">
         <x:v>0</x:v>
@@ -33262,25 +33262,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1123" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1123" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1123" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E1123" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F1123" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G1123" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H1123" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I1123" s="0" t="n">
         <x:v>0</x:v>
@@ -33294,22 +33294,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1124" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1124" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1124" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F1124" s="1" t="n">
-        <x:v>183</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G1124" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H1124" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I1124" s="0" t="n">
         <x:v>0</x:v>
@@ -33320,25 +33320,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1125" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1125" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1125" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1125" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F1125" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G1125" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H1125" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="I1125" s="0" t="n">
         <x:v>0</x:v>
@@ -33349,25 +33349,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1126" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1126" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1126" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E1126" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F1126" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="G1126" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="H1126" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="I1126" s="0" t="n">
         <x:v>0</x:v>
@@ -33381,7 +33381,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1127" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1127" s="1" t="n">
         <x:v>0</x:v>
@@ -33393,10 +33393,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G1127" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1127" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1127" s="0" t="n">
         <x:v>0</x:v>
@@ -33407,25 +33407,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1128" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1128" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1128" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1128" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1128" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1128" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1128" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1128" s="0" t="n">
         <x:v>0</x:v>
@@ -33436,25 +33436,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1129" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1129" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1129" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1129" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1129" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1129" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1129" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1129" s="0" t="n">
         <x:v>0</x:v>
@@ -33468,22 +33468,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1130" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1130" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E1130" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1130" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1130" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1130" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1130" s="0" t="n">
         <x:v>0</x:v>
@@ -33494,25 +33494,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1131" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C1131" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D1131" s="1" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E1131" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C1131" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D1131" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1131" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="F1131" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1131" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1131" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1131" s="0" t="n">
         <x:v>0</x:v>
@@ -33523,25 +33523,25 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B1132" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C1132" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1132" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C1132" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D1132" s="1" t="n">
-        <x:v>15</x:v>
-      </x:c>
       <x:c r="E1132" s="1" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F1132" s="1" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G1132" s="1" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H1132" s="1" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1132" s="1" t="n">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G1132" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H1132" s="1" t="n">
-        <x:v>5</x:v>
       </x:c>
       <x:c r="I1132" s="0" t="n">
         <x:v>0</x:v>
@@ -33555,22 +33555,22 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1133" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1133" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1133" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1133" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1133" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1133" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1133" s="0" t="n">
         <x:v>0</x:v>
@@ -33578,28 +33578,28 @@
     </x:row>
     <x:row r="1134" spans="1:9">
       <x:c r="A1134" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B1134" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1134" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1134" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E1134" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1134" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G1134" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1134" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1134" s="0" t="n">
         <x:v>0</x:v>
@@ -33607,25 +33607,25 @@
     </x:row>
     <x:row r="1135" spans="1:9">
       <x:c r="A1135" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B1135" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1135" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1135" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E1135" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="F1135" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G1135" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H1135" s="1" t="n">
         <x:v>6</x:v>
@@ -33642,22 +33642,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1136" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1136" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1136" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1136" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1136" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1136" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1136" s="0" t="n">
         <x:v>0</x:v>
@@ -33668,25 +33668,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1137" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1137" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1137" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1137" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1137" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1137" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1137" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1137" s="0" t="n">
         <x:v>0</x:v>
@@ -33697,25 +33697,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1138" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1138" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1138" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1138" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1138" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G1138" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H1138" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I1138" s="0" t="n">
         <x:v>0</x:v>
@@ -33726,22 +33726,22 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1139" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1139" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1139" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1139" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1139" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1139" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1139" s="1" t="n">
         <x:v>2</x:v>
@@ -33755,25 +33755,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1140" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1140" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1140" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1140" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1140" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1140" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1140" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1140" s="0" t="n">
         <x:v>0</x:v>
@@ -33787,22 +33787,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1141" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1141" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1141" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1141" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1141" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1141" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1141" s="0" t="n">
         <x:v>0</x:v>
@@ -33813,25 +33813,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1142" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1142" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1142" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1142" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1142" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G1142" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1142" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1142" s="0" t="n">
         <x:v>0</x:v>
@@ -33842,25 +33842,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1143" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1143" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1143" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1143" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1143" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1143" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H1143" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1143" s="0" t="n">
         <x:v>0</x:v>
@@ -33871,19 +33871,19 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1144" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1144" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1144" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1144" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1144" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1144" s="1" t="n">
         <x:v>0</x:v>
@@ -33900,19 +33900,19 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1145" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1145" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1145" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1145" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1145" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1145" s="1" t="n">
         <x:v>0</x:v>
@@ -33932,13 +33932,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1146" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1146" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1146" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1146" s="1" t="n">
         <x:v>0</x:v>
@@ -33958,7 +33958,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1147" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1147" s="1" t="s">
         <x:v>12</x:v>
@@ -33967,13 +33967,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1147" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1147" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1147" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1147" s="1" t="n">
         <x:v>0</x:v>
@@ -33987,7 +33987,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B1148" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1148" s="1" t="s">
         <x:v>13</x:v>
@@ -33996,13 +33996,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1148" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1148" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1148" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1148" s="1" t="n">
         <x:v>0</x:v>
@@ -34013,28 +34013,28 @@
     </x:row>
     <x:row r="1149" spans="1:9">
       <x:c r="A1149" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B1149" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1149" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1149" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1149" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1149" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1149" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1149" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1149" s="0" t="n">
         <x:v>0</x:v>
@@ -34042,28 +34042,28 @@
     </x:row>
     <x:row r="1150" spans="1:9">
       <x:c r="A1150" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B1150" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1150" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1150" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1150" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1150" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1150" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1150" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1150" s="0" t="n">
         <x:v>0</x:v>
@@ -34077,22 +34077,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1151" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1151" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1151" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1151" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1151" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1151" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1151" s="0" t="n">
         <x:v>0</x:v>
@@ -34103,25 +34103,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1152" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1152" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1152" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1152" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1152" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1152" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H1152" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1152" s="0" t="n">
         <x:v>0</x:v>
@@ -34132,25 +34132,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1153" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1153" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1153" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1153" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1153" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1153" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1153" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1153" s="0" t="n">
         <x:v>0</x:v>
@@ -34164,7 +34164,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1154" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1154" s="1" t="n">
         <x:v>1</x:v>
@@ -34173,10 +34173,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1154" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1154" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1154" s="1" t="n">
         <x:v>1</x:v>
@@ -34190,25 +34190,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1155" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1155" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1155" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1155" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1155" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1155" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H1155" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1155" s="0" t="n">
         <x:v>0</x:v>
@@ -34219,16 +34219,16 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1156" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1156" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1156" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1156" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1156" s="1" t="n">
         <x:v>3</x:v>
@@ -34237,7 +34237,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H1156" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1156" s="0" t="n">
         <x:v>0</x:v>
@@ -34251,22 +34251,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1157" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1157" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1157" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1157" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1157" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1157" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1157" s="0" t="n">
         <x:v>0</x:v>
@@ -34277,25 +34277,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1158" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1158" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1158" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1158" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1158" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1158" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1158" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1158" s="0" t="n">
         <x:v>0</x:v>
@@ -34306,25 +34306,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1159" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1159" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1159" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1159" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F1159" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1159" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1159" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1159" s="0" t="n">
         <x:v>0</x:v>
@@ -34338,22 +34338,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1160" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1160" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1160" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1160" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1160" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1160" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1160" s="0" t="n">
         <x:v>0</x:v>
@@ -34364,25 +34364,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1161" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1161" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1161" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1161" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F1161" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1161" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1161" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1161" s="0" t="n">
         <x:v>0</x:v>
@@ -34393,25 +34393,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B1162" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1162" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1162" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1162" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F1162" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1162" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1162" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1162" s="0" t="n">
         <x:v>0</x:v>
@@ -34419,28 +34419,28 @@
     </x:row>
     <x:row r="1163" spans="1:9">
       <x:c r="A1163" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B1163" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1163" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1163" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1163" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1163" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1163" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1163" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1163" s="0" t="n">
         <x:v>0</x:v>
@@ -34448,28 +34448,28 @@
     </x:row>
     <x:row r="1164" spans="1:9">
       <x:c r="A1164" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B1164" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1164" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1164" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1164" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1164" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1164" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1164" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1164" s="0" t="n">
         <x:v>0</x:v>
@@ -34483,22 +34483,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1165" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1165" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1165" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1165" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G1165" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1165" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I1165" s="0" t="n">
         <x:v>0</x:v>
@@ -34509,25 +34509,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1166" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1166" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1166" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1166" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F1166" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G1166" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H1166" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I1166" s="0" t="n">
         <x:v>0</x:v>
@@ -34538,25 +34538,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1167" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1167" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1167" s="1" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E1167" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C1167" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D1167" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E1167" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="F1167" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G1167" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H1167" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I1167" s="0" t="n">
         <x:v>0</x:v>
@@ -34570,22 +34570,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1168" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1168" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1168" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1168" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1168" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1168" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1168" s="0" t="n">
         <x:v>0</x:v>
@@ -34596,25 +34596,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1169" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1169" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1169" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1169" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1169" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1169" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1169" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1169" s="0" t="n">
         <x:v>0</x:v>
@@ -34625,25 +34625,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1170" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1170" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1170" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1170" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1170" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1170" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1170" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1170" s="0" t="n">
         <x:v>0</x:v>
@@ -34657,22 +34657,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1171" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1171" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1171" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F1171" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1171" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H1171" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I1171" s="0" t="n">
         <x:v>0</x:v>
@@ -34683,25 +34683,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1172" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1172" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1172" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1172" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F1172" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G1172" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H1172" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I1172" s="0" t="n">
         <x:v>0</x:v>
@@ -34712,25 +34712,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1173" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1173" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1173" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1173" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F1173" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G1173" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H1173" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I1173" s="0" t="n">
         <x:v>0</x:v>
@@ -34744,14 +34744,14 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1174" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1174" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1174" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E1174" s="1" t="n">
-        <x:v>12</x:v>
-      </x:c>
       <x:c r="F1174" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -34759,7 +34759,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1174" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1174" s="0" t="n">
         <x:v>0</x:v>
@@ -34770,22 +34770,22 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1175" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1175" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1175" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1175" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F1175" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1175" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1175" s="1" t="n">
         <x:v>1</x:v>
@@ -34799,25 +34799,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1176" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1176" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1176" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1176" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F1176" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1176" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1176" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1176" s="0" t="n">
         <x:v>0</x:v>
@@ -34831,22 +34831,22 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1177" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1177" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1177" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1177" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G1177" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1177" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1177" s="0" t="n">
         <x:v>0</x:v>
@@ -34854,28 +34854,28 @@
     </x:row>
     <x:row r="1178" spans="1:9">
       <x:c r="A1178" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B1178" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C1178" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D1178" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1178" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1178" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C1178" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D1178" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1178" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1178" s="1" t="n">
-        <x:v>8</x:v>
-      </x:c>
       <x:c r="G1178" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H1178" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I1178" s="0" t="n">
         <x:v>0</x:v>
@@ -34883,28 +34883,28 @@
     </x:row>
     <x:row r="1179" spans="1:9">
       <x:c r="A1179" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B1179" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1179" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1179" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1179" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1179" s="1" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G1179" s="1" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H1179" s="1" t="n">
         <x:v>20</x:v>
-      </x:c>
-      <x:c r="E1179" s="1" t="n">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F1179" s="1" t="n">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G1179" s="1" t="n">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H1179" s="1" t="n">
-        <x:v>18</x:v>
       </x:c>
       <x:c r="I1179" s="0" t="n">
         <x:v>0</x:v>
@@ -34918,22 +34918,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1180" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1180" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1180" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1180" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1180" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H1180" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1180" s="0" t="n">
         <x:v>0</x:v>
@@ -34944,25 +34944,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1181" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1181" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1181" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E1181" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F1181" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G1181" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H1181" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I1181" s="0" t="n">
         <x:v>0</x:v>
@@ -34973,25 +34973,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1182" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1182" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1182" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E1182" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F1182" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G1182" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H1182" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I1182" s="0" t="n">
         <x:v>0</x:v>
@@ -35005,22 +35005,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1183" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1183" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1183" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1183" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1183" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1183" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1183" s="0" t="n">
         <x:v>0</x:v>
@@ -35031,25 +35031,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1184" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1184" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1184" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E1184" s="1" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F1184" s="1" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G1184" s="1" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H1184" s="1" t="n">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="F1184" s="1" t="n">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G1184" s="1" t="n">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H1184" s="1" t="n">
-        <x:v>16</x:v>
       </x:c>
       <x:c r="I1184" s="0" t="n">
         <x:v>0</x:v>
@@ -35060,25 +35060,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1185" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1185" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1185" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E1185" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F1185" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1185" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H1185" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I1185" s="0" t="n">
         <x:v>0</x:v>
@@ -35092,22 +35092,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1186" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1186" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1186" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F1186" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G1186" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H1186" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I1186" s="0" t="n">
         <x:v>0</x:v>
@@ -35118,25 +35118,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1187" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1187" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1187" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1187" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F1187" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G1187" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H1187" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I1187" s="0" t="n">
         <x:v>0</x:v>
@@ -35147,25 +35147,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1188" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1188" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1188" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1188" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F1188" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G1188" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H1188" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I1188" s="0" t="n">
         <x:v>0</x:v>
@@ -35176,22 +35176,22 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1189" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1189" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1189" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1189" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1189" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1189" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1189" s="1" t="n">
         <x:v>0</x:v>
@@ -35205,25 +35205,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1190" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1190" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1190" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1190" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1190" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1190" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1190" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1190" s="0" t="n">
         <x:v>0</x:v>
@@ -35237,22 +35237,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1191" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1191" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E1191" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F1191" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G1191" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G1191" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
       <x:c r="H1191" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1191" s="0" t="n">
         <x:v>0</x:v>
@@ -35263,25 +35263,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1192" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1192" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1192" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E1192" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F1192" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1192" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1192" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1192" s="0" t="n">
         <x:v>0</x:v>
@@ -35292,25 +35292,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1193" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1193" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1193" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E1193" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F1193" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="G1193" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1193" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1193" s="0" t="n">
         <x:v>0</x:v>
@@ -35324,22 +35324,22 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1194" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1194" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1194" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1194" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1194" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1194" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1194" s="0" t="n">
         <x:v>0</x:v>
@@ -35347,25 +35347,25 @@
     </x:row>
     <x:row r="1195" spans="1:9">
       <x:c r="A1195" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B1195" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1195" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1195" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1195" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1195" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1195" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1195" s="1" t="n">
         <x:v>1</x:v>
@@ -35376,28 +35376,28 @@
     </x:row>
     <x:row r="1196" spans="1:9">
       <x:c r="A1196" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B1196" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1196" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1196" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1196" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1196" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1196" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1196" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1196" s="0" t="n">
         <x:v>0</x:v>
@@ -35411,7 +35411,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1197" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1197" s="1" t="n">
         <x:v>0</x:v>
@@ -35420,13 +35420,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1197" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1197" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1197" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1197" s="0" t="n">
         <x:v>0</x:v>
@@ -35437,10 +35437,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1198" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1198" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1198" s="1" t="n">
         <x:v>0</x:v>
@@ -35449,13 +35449,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1198" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G1198" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1198" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1198" s="0" t="n">
         <x:v>0</x:v>
@@ -35466,10 +35466,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1199" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1199" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1199" s="1" t="n">
         <x:v>0</x:v>
@@ -35478,13 +35478,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1199" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1199" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1199" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1199" s="0" t="n">
         <x:v>0</x:v>
@@ -35498,7 +35498,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1200" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1200" s="1" t="n">
         <x:v>0</x:v>
@@ -35507,7 +35507,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1200" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1200" s="1" t="n">
         <x:v>0</x:v>
@@ -35524,10 +35524,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1201" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1201" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1201" s="1" t="n">
         <x:v>0</x:v>
@@ -35539,7 +35539,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1201" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1201" s="1" t="n">
         <x:v>0</x:v>
@@ -35553,25 +35553,25 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1202" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1202" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1202" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1202" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1202" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1202" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1202" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1202" s="0" t="n">
         <x:v>0</x:v>
@@ -35585,22 +35585,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1203" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1203" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1203" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1203" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1203" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1203" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1203" s="0" t="n">
         <x:v>0</x:v>
@@ -35611,25 +35611,25 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1204" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1204" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1204" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1204" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1204" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1204" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1204" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1204" s="0" t="n">
         <x:v>0</x:v>
@@ -35640,25 +35640,25 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1205" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1205" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1205" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1205" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1205" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1205" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1205" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1205" s="0" t="n">
         <x:v>0</x:v>
@@ -35672,10 +35672,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1206" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1206" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1206" s="1" t="n">
         <x:v>1</x:v>
@@ -35698,13 +35698,13 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1207" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1207" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1207" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1207" s="1" t="n">
         <x:v>0</x:v>
@@ -35713,7 +35713,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1207" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1207" s="1" t="n">
         <x:v>0</x:v>
@@ -35727,27 +35727,85 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1208" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C1208" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1208" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1208" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1208" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G1208" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H1208" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1208" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1209" spans="1:9">
+      <x:c r="A1209" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B1209" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C1208" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D1208" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1208" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F1208" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G1208" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H1208" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I1208" s="0" t="n">
+      <x:c r="C1209" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D1209" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1209" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1209" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G1209" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1209" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1209" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1210" spans="1:9">
+      <x:c r="A1210" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B1210" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C1210" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1210" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1210" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1210" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G1210" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1210" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1210" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1200,13 +1200,13 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>158</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I17" s="0" t="n">
         <x:v>0</x:v>
@@ -1229,13 +1229,13 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>199</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I18" s="0" t="n">
         <x:v>0</x:v>
@@ -7093,7 +7093,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H220" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I220" s="0" t="n">
         <x:v>0</x:v>
@@ -7122,7 +7122,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H221" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I221" s="0" t="n">
         <x:v>0</x:v>
@@ -7487,7 +7487,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D234" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E234" s="1" t="n">
         <x:v>3</x:v>
@@ -7545,7 +7545,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D236" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E236" s="1" t="n">
         <x:v>5</x:v>
@@ -8711,13 +8711,13 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="F276" s="1" t="n">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G276" s="1" t="n">
         <x:v>155</x:v>
       </x:c>
       <x:c r="H276" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I276" s="0" t="n">
         <x:v>0</x:v>
@@ -8740,13 +8740,13 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="F277" s="1" t="n">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="G277" s="1" t="n">
         <x:v>214</x:v>
       </x:c>
       <x:c r="H277" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I277" s="0" t="n">
         <x:v>0</x:v>
@@ -10074,7 +10074,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F323" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G323" s="1" t="n">
         <x:v>4</x:v>
@@ -10103,7 +10103,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F324" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G324" s="1" t="n">
         <x:v>6</x:v>
@@ -11530,7 +11530,7 @@
         <x:v>258</x:v>
       </x:c>
       <x:c r="H373" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I373" s="0" t="n">
         <x:v>0</x:v>
@@ -11550,7 +11550,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E374" s="1" t="n">
-        <x:v>539</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="F374" s="1" t="n">
         <x:v>968</x:v>
@@ -11559,7 +11559,7 @@
         <x:v>895</x:v>
       </x:c>
       <x:c r="H374" s="1" t="n">
-        <x:v>393</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="I374" s="0" t="n">
         <x:v>0</x:v>
@@ -11579,7 +11579,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="E375" s="1" t="n">
-        <x:v>721</x:v>
+        <x:v>722</x:v>
       </x:c>
       <x:c r="F375" s="1" t="n">
         <x:v>1252</x:v>
@@ -11588,7 +11588,7 @@
         <x:v>1153</x:v>
       </x:c>
       <x:c r="H375" s="1" t="n">
-        <x:v>488</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="I375" s="0" t="n">
         <x:v>0</x:v>
@@ -11695,7 +11695,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E379" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F379" s="1" t="n">
         <x:v>41</x:v>
@@ -11730,10 +11730,10 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="G380" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H380" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I380" s="0" t="n">
         <x:v>0</x:v>
@@ -11753,16 +11753,16 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E381" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F381" s="1" t="n">
         <x:v>151</x:v>
       </x:c>
       <x:c r="G381" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="H381" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I381" s="0" t="n">
         <x:v>0</x:v>
@@ -11788,7 +11788,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="G382" s="1" t="n">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H382" s="1" t="n">
         <x:v>99</x:v>
@@ -11846,7 +11846,7 @@
         <x:v>647</x:v>
       </x:c>
       <x:c r="G384" s="1" t="n">
-        <x:v>596</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="H384" s="1" t="n">
         <x:v>320</x:v>
@@ -12078,10 +12078,10 @@
         <x:v>300</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="H392" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="I392" s="0" t="n">
         <x:v>0</x:v>
@@ -12107,10 +12107,10 @@
         <x:v>398</x:v>
       </x:c>
       <x:c r="G393" s="1" t="n">
-        <x:v>414</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="H393" s="1" t="n">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="I393" s="0" t="n">
         <x:v>0</x:v>
@@ -28408,7 +28408,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="H955" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I955" s="0" t="n">
         <x:v>0</x:v>
@@ -28428,16 +28428,16 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E956" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F956" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G956" s="1" t="n">
         <x:v>137</x:v>
       </x:c>
       <x:c r="H956" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I956" s="0" t="n">
         <x:v>0</x:v>
@@ -28457,16 +28457,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E957" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F957" s="1" t="n">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="G957" s="1" t="n">
         <x:v>177</x:v>
       </x:c>
       <x:c r="H957" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="I957" s="0" t="n">
         <x:v>0</x:v>
@@ -28640,7 +28640,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="H963" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I963" s="0" t="n">
         <x:v>0</x:v>
@@ -28660,16 +28660,16 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E964" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F964" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G964" s="1" t="n">
         <x:v>62</x:v>
       </x:c>
       <x:c r="H964" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I964" s="0" t="n">
         <x:v>0</x:v>
@@ -28689,16 +28689,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E965" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F965" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G965" s="1" t="n">
         <x:v>86</x:v>
       </x:c>
       <x:c r="H965" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I965" s="0" t="n">
         <x:v>0</x:v>
@@ -28805,7 +28805,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E969" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F969" s="1" t="n">
         <x:v>1</x:v>
@@ -28863,7 +28863,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E971" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F971" s="1" t="n">
         <x:v>3</x:v>
@@ -28889,13 +28889,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D972" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E972" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F972" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G972" s="1" t="n">
         <x:v>24</x:v>
@@ -28947,13 +28947,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D974" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E974" s="1" t="n">
         <x:v>31</x:v>
       </x:c>
       <x:c r="F974" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G974" s="1" t="n">
         <x:v>68</x:v>
@@ -30229,7 +30229,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1018" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1018" s="1" t="n">
         <x:v>0</x:v>
@@ -30287,7 +30287,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1020" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1020" s="1" t="n">
         <x:v>2</x:v>
@@ -33077,7 +33077,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="H1116" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I1116" s="0" t="n">
         <x:v>0</x:v>
@@ -33106,7 +33106,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="H1117" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I1117" s="0" t="n">
         <x:v>0</x:v>
@@ -33248,7 +33248,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G1122" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H1122" s="1" t="n">
         <x:v>16</x:v>
@@ -33277,7 +33277,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="G1123" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H1123" s="1" t="n">
         <x:v>18</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -3517,7 +3517,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E97" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F97" s="1" t="n">
         <x:v>54</x:v>
@@ -3549,13 +3549,13 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="F98" s="1" t="n">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="G98" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="H98" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I98" s="0" t="n">
         <x:v>0</x:v>
@@ -3575,16 +3575,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E99" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="F99" s="1" t="n">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="G99" s="1" t="n">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="H99" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I99" s="0" t="n">
         <x:v>0</x:v>
@@ -3642,7 +3642,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H101" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I101" s="0" t="n">
         <x:v>0</x:v>
@@ -3671,7 +3671,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H102" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I102" s="0" t="n">
         <x:v>0</x:v>
@@ -6214,7 +6214,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E190" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F190" s="1" t="n">
         <x:v>17</x:v>
@@ -6243,7 +6243,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E191" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F191" s="1" t="n">
         <x:v>24</x:v>
@@ -8485,7 +8485,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="H268" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I268" s="0" t="n">
         <x:v>0</x:v>
@@ -8514,7 +8514,7 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="H269" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I269" s="0" t="n">
         <x:v>0</x:v>
@@ -11524,7 +11524,7 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="F373" s="1" t="n">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="G373" s="1" t="n">
         <x:v>258</x:v>
@@ -11553,7 +11553,7 @@
         <x:v>540</x:v>
       </x:c>
       <x:c r="F374" s="1" t="n">
-        <x:v>968</x:v>
+        <x:v>969</x:v>
       </x:c>
       <x:c r="G374" s="1" t="n">
         <x:v>895</x:v>
@@ -11582,7 +11582,7 @@
         <x:v>722</x:v>
       </x:c>
       <x:c r="F375" s="1" t="n">
-        <x:v>1252</x:v>
+        <x:v>1254</x:v>
       </x:c>
       <x:c r="G375" s="1" t="n">
         <x:v>1153</x:v>
@@ -11817,7 +11817,7 @@
         <x:v>472</x:v>
       </x:c>
       <x:c r="G383" s="1" t="n">
-        <x:v>441</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="H383" s="1" t="n">
         <x:v>221</x:v>
@@ -11846,7 +11846,7 @@
         <x:v>647</x:v>
       </x:c>
       <x:c r="G384" s="1" t="n">
-        <x:v>597</x:v>
+        <x:v>598</x:v>
       </x:c>
       <x:c r="H384" s="1" t="n">
         <x:v>320</x:v>
@@ -11991,7 +11991,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="G389" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H389" s="1" t="n">
         <x:v>42</x:v>
@@ -12020,7 +12020,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G390" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H390" s="1" t="n">
         <x:v>47</x:v>
@@ -12545,7 +12545,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="H408" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I408" s="0" t="n">
         <x:v>0</x:v>
@@ -12574,7 +12574,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="H409" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I409" s="0" t="n">
         <x:v>0</x:v>
@@ -12710,7 +12710,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E414" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F414" s="1" t="n">
         <x:v>17</x:v>
@@ -12739,7 +12739,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E415" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F415" s="1" t="n">
         <x:v>21</x:v>
@@ -12765,10 +12765,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D416" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E416" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F416" s="1" t="n">
         <x:v>1</x:v>
@@ -12823,10 +12823,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D418" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E418" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F418" s="1" t="n">
         <x:v>2</x:v>
@@ -26926,7 +26926,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="G904" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H904" s="1" t="n">
         <x:v>36</x:v>
@@ -26955,7 +26955,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="G905" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H905" s="1" t="n">
         <x:v>43</x:v>
@@ -32572,7 +32572,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1099" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1099" s="1" t="n">
         <x:v>2</x:v>
@@ -32601,7 +32601,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1100" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1100" s="1" t="n">
         <x:v>2</x:v>
@@ -33036,13 +33036,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D1115" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E1115" s="1" t="n">
         <x:v>18</x:v>
       </x:c>
       <x:c r="F1115" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G1115" s="1" t="n">
         <x:v>31</x:v>
@@ -33065,13 +33065,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1116" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E1116" s="1" t="n">
         <x:v>41</x:v>
       </x:c>
       <x:c r="F1116" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G1116" s="1" t="n">
         <x:v>123</x:v>
@@ -33094,13 +33094,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1117" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E1117" s="1" t="n">
         <x:v>59</x:v>
       </x:c>
       <x:c r="F1117" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G1117" s="1" t="n">
         <x:v>154</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1165,7 +1165,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>15</x:v>
@@ -1177,7 +1177,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I16" s="0" t="n">
         <x:v>0</x:v>
@@ -1203,7 +1203,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
         <x:v>74</x:v>
@@ -1223,7 +1223,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
         <x:v>85</x:v>
@@ -1232,10 +1232,10 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="I18" s="0" t="n">
         <x:v>0</x:v>
@@ -1458,10 +1458,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
         <x:v>218</x:v>
@@ -1487,10 +1487,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
         <x:v>311</x:v>
@@ -3375,7 +3375,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F92" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G92" s="1" t="n">
         <x:v>0</x:v>
@@ -3404,7 +3404,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F93" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G93" s="1" t="n">
         <x:v>0</x:v>
@@ -6043,7 +6043,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F184" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G184" s="1" t="n">
         <x:v>32</x:v>
@@ -6072,7 +6072,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F185" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G185" s="1" t="n">
         <x:v>40</x:v>
@@ -6220,7 +6220,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G190" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H190" s="1" t="n">
         <x:v>16</x:v>
@@ -6249,7 +6249,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="G191" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H191" s="1" t="n">
         <x:v>23</x:v>
@@ -9584,10 +9584,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G306" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H306" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I306" s="0" t="n">
         <x:v>0</x:v>
@@ -9616,7 +9616,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H307" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I307" s="0" t="n">
         <x:v>0</x:v>
@@ -9642,10 +9642,10 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="G308" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H308" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I308" s="0" t="n">
         <x:v>0</x:v>
@@ -11556,7 +11556,7 @@
         <x:v>323</x:v>
       </x:c>
       <x:c r="G374" s="1" t="n">
-        <x:v>295</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="H374" s="1" t="n">
         <x:v>110</x:v>
@@ -11582,10 +11582,10 @@
         <x:v>596</x:v>
       </x:c>
       <x:c r="F375" s="1" t="n">
-        <x:v>1056</x:v>
+        <x:v>1057</x:v>
       </x:c>
       <x:c r="G375" s="1" t="n">
-        <x:v>1004</x:v>
+        <x:v>1005</x:v>
       </x:c>
       <x:c r="H375" s="1" t="n">
         <x:v>456</x:v>
@@ -11611,10 +11611,10 @@
         <x:v>793</x:v>
       </x:c>
       <x:c r="F376" s="1" t="n">
-        <x:v>1379</x:v>
+        <x:v>1380</x:v>
       </x:c>
       <x:c r="G376" s="1" t="n">
-        <x:v>1299</x:v>
+        <x:v>1298</x:v>
       </x:c>
       <x:c r="H376" s="1" t="n">
         <x:v>566</x:v>
@@ -11724,13 +11724,13 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E380" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F380" s="1" t="n">
         <x:v>44</x:v>
       </x:c>
       <x:c r="G380" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H380" s="1" t="n">
         <x:v>19</x:v>
@@ -11782,13 +11782,13 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E382" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F382" s="1" t="n">
         <x:v>159</x:v>
       </x:c>
       <x:c r="G382" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="H382" s="1" t="n">
         <x:v>94</x:v>
@@ -11846,7 +11846,7 @@
         <x:v>532</x:v>
       </x:c>
       <x:c r="G384" s="1" t="n">
-        <x:v>488</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="H384" s="1" t="n">
         <x:v>252</x:v>
@@ -11875,7 +11875,7 @@
         <x:v>726</x:v>
       </x:c>
       <x:c r="G385" s="1" t="n">
-        <x:v>658</x:v>
+        <x:v>661</x:v>
       </x:c>
       <x:c r="H385" s="1" t="n">
         <x:v>362</x:v>
@@ -12072,13 +12072,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E392" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F392" s="1" t="n">
         <x:v>105</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H392" s="1" t="n">
         <x:v>46</x:v>
@@ -12101,16 +12101,16 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E393" s="1" t="n">
-        <x:v>220</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F393" s="1" t="n">
-        <x:v>336</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="G393" s="1" t="n">
-        <x:v>340</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="H393" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="I393" s="0" t="n">
         <x:v>0</x:v>
@@ -12130,16 +12130,16 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E394" s="1" t="n">
-        <x:v>283</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="F394" s="1" t="n">
-        <x:v>441</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="G394" s="1" t="n">
-        <x:v>451</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="H394" s="1" t="n">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="I394" s="0" t="n">
         <x:v>0</x:v>
@@ -12539,10 +12539,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F408" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G408" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H408" s="1" t="n">
         <x:v>10</x:v>
@@ -12562,7 +12562,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D409" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E409" s="1" t="n">
         <x:v>16</x:v>
@@ -12591,16 +12591,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D410" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E410" s="1" t="n">
         <x:v>28</x:v>
       </x:c>
       <x:c r="F410" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G410" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H410" s="1" t="n">
         <x:v>44</x:v>
@@ -13525,13 +13525,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F442" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G442" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H442" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I442" s="0" t="n">
         <x:v>0</x:v>
@@ -13583,13 +13583,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F444" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G444" s="1" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H444" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I444" s="0" t="n">
         <x:v>0</x:v>
@@ -17530,7 +17530,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G580" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H580" s="1" t="n">
         <x:v>4</x:v>
@@ -17559,7 +17559,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G581" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H581" s="1" t="n">
         <x:v>5</x:v>
@@ -22747,7 +22747,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F760" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G760" s="1" t="n">
         <x:v>12</x:v>
@@ -22776,7 +22776,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F761" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G761" s="1" t="n">
         <x:v>19</x:v>
@@ -24487,7 +24487,7 @@
         <x:v>713</x:v>
       </x:c>
       <x:c r="F820" s="1" t="n">
-        <x:v>904</x:v>
+        <x:v>905</x:v>
       </x:c>
       <x:c r="G820" s="1" t="n">
         <x:v>1137</x:v>
@@ -24516,7 +24516,7 @@
         <x:v>810</x:v>
       </x:c>
       <x:c r="F821" s="1" t="n">
-        <x:v>1038</x:v>
+        <x:v>1039</x:v>
       </x:c>
       <x:c r="G821" s="1" t="n">
         <x:v>1311</x:v>
@@ -27361,7 +27361,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="G919" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H919" s="1" t="n">
         <x:v>38</x:v>
@@ -27390,7 +27390,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="G920" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="H920" s="1" t="n">
         <x:v>47</x:v>
@@ -27535,7 +27535,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G925" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H925" s="1" t="n">
         <x:v>18</x:v>
@@ -27564,7 +27564,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G926" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H926" s="1" t="n">
         <x:v>20</x:v>
@@ -28234,7 +28234,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="H949" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I949" s="0" t="n">
         <x:v>0</x:v>
@@ -28263,7 +28263,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="H950" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I950" s="0" t="n">
         <x:v>0</x:v>
@@ -29104,7 +29104,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="H979" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I979" s="0" t="n">
         <x:v>0</x:v>
@@ -29133,7 +29133,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="H980" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I980" s="0" t="n">
         <x:v>0</x:v>
@@ -29617,7 +29617,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E997" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F997" s="1" t="n">
         <x:v>38</x:v>
@@ -29646,7 +29646,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E998" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F998" s="1" t="n">
         <x:v>66</x:v>
@@ -29707,13 +29707,13 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="F1000" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G1000" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H1000" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I1000" s="0" t="n">
         <x:v>0</x:v>
@@ -29736,13 +29736,13 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="F1001" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G1001" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H1001" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="I1001" s="0" t="n">
         <x:v>0</x:v>
@@ -33123,7 +33123,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1118" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1118" s="1" t="n">
         <x:v>2</x:v>
@@ -33152,7 +33152,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1119" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1119" s="1" t="n">
         <x:v>2</x:v>
@@ -35159,13 +35159,13 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="F1188" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G1188" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H1188" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I1188" s="0" t="n">
         <x:v>0</x:v>
@@ -35188,13 +35188,13 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="F1189" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G1189" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H1189" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I1189" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -6011,7 +6011,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E183" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F183" s="1" t="n">
         <x:v>1</x:v>
@@ -6037,7 +6037,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D184" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E184" s="1" t="n">
         <x:v>3</x:v>
@@ -6066,10 +6066,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D185" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E185" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F185" s="1" t="n">
         <x:v>14</x:v>
@@ -6194,7 +6194,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H189" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I189" s="0" t="n">
         <x:v>0</x:v>
@@ -6220,7 +6220,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G190" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H190" s="1" t="n">
         <x:v>16</x:v>
@@ -6249,10 +6249,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="G191" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H191" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I191" s="0" t="n">
         <x:v>0</x:v>
@@ -6356,7 +6356,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D195" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E195" s="1" t="n">
         <x:v>2</x:v>
@@ -6385,7 +6385,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D196" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E196" s="1" t="n">
         <x:v>2</x:v>
@@ -8160,7 +8160,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F257" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G257" s="1" t="n">
         <x:v>78</x:v>
@@ -8189,7 +8189,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F258" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G258" s="1" t="n">
         <x:v>114</x:v>
@@ -8363,7 +8363,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F264" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G264" s="1" t="n">
         <x:v>0</x:v>
@@ -8395,7 +8395,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G265" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H265" s="1" t="n">
         <x:v>3</x:v>
@@ -8421,10 +8421,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F266" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G266" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H266" s="1" t="n">
         <x:v>6</x:v>
@@ -10474,7 +10474,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D337" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E337" s="1" t="n">
         <x:v>3</x:v>
@@ -10503,7 +10503,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D338" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E338" s="1" t="n">
         <x:v>4</x:v>
@@ -11553,7 +11553,7 @@
         <x:v>197</x:v>
       </x:c>
       <x:c r="F374" s="1" t="n">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="G374" s="1" t="n">
         <x:v>293</x:v>
@@ -11576,16 +11576,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D375" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E375" s="1" t="n">
         <x:v>596</x:v>
       </x:c>
       <x:c r="F375" s="1" t="n">
-        <x:v>1057</x:v>
+        <x:v>1058</x:v>
       </x:c>
       <x:c r="G375" s="1" t="n">
-        <x:v>1005</x:v>
+        <x:v>1006</x:v>
       </x:c>
       <x:c r="H375" s="1" t="n">
         <x:v>456</x:v>
@@ -11605,16 +11605,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D376" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E376" s="1" t="n">
         <x:v>793</x:v>
       </x:c>
       <x:c r="F376" s="1" t="n">
-        <x:v>1380</x:v>
+        <x:v>1382</x:v>
       </x:c>
       <x:c r="G376" s="1" t="n">
-        <x:v>1298</x:v>
+        <x:v>1299</x:v>
       </x:c>
       <x:c r="H376" s="1" t="n">
         <x:v>566</x:v>
@@ -11721,7 +11721,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D380" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E380" s="1" t="n">
         <x:v>25</x:v>
@@ -11779,7 +11779,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D382" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E382" s="1" t="n">
         <x:v>86</x:v>
@@ -11846,7 +11846,7 @@
         <x:v>532</x:v>
       </x:c>
       <x:c r="G384" s="1" t="n">
-        <x:v>491</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="H384" s="1" t="n">
         <x:v>252</x:v>
@@ -11875,7 +11875,7 @@
         <x:v>726</x:v>
       </x:c>
       <x:c r="G385" s="1" t="n">
-        <x:v>661</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="H385" s="1" t="n">
         <x:v>362</x:v>
@@ -17530,7 +17530,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G580" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H580" s="1" t="n">
         <x:v>4</x:v>
@@ -17559,7 +17559,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G581" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H581" s="1" t="n">
         <x:v>5</x:v>
@@ -20717,7 +20717,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F690" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G690" s="1" t="n">
         <x:v>31</x:v>
@@ -20746,7 +20746,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F691" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G691" s="1" t="n">
         <x:v>43</x:v>
@@ -26407,7 +26407,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H886" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I886" s="0" t="n">
         <x:v>0</x:v>
@@ -26465,7 +26465,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="H888" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I888" s="0" t="n">
         <x:v>0</x:v>
@@ -26668,7 +26668,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H895" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I895" s="0" t="n">
         <x:v>0</x:v>
@@ -26697,7 +26697,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H896" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I896" s="0" t="n">
         <x:v>0</x:v>
@@ -28231,7 +28231,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G949" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H949" s="1" t="n">
         <x:v>23</x:v>
@@ -28260,7 +28260,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G950" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H950" s="1" t="n">
         <x:v>36</x:v>
@@ -29098,7 +29098,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F979" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G979" s="1" t="n">
         <x:v>66</x:v>
@@ -29127,7 +29127,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="F980" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G980" s="1" t="n">
         <x:v>93</x:v>
@@ -29707,10 +29707,10 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="F1000" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G1000" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H1000" s="1" t="n">
         <x:v>66</x:v>
@@ -29736,10 +29736,10 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="F1001" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="G1001" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H1001" s="1" t="n">
         <x:v>85</x:v>
@@ -31366,7 +31366,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H1057" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I1057" s="0" t="n">
         <x:v>0</x:v>
@@ -31395,7 +31395,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H1058" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I1058" s="0" t="n">
         <x:v>0</x:v>
@@ -33503,7 +33503,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E1131" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F1131" s="1" t="n">
         <x:v>37</x:v>
@@ -33561,7 +33561,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E1133" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F1133" s="1" t="n">
         <x:v>141</x:v>
@@ -33767,7 +33767,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F1140" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G1140" s="1" t="n">
         <x:v>71</x:v>
@@ -33825,7 +33825,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="F1142" s="1" t="n">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="G1142" s="1" t="n">
         <x:v>226</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1203,7 +1203,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
         <x:v>74</x:v>
@@ -1232,7 +1232,7 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
         <x:v>91</x:v>
@@ -1438,7 +1438,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I25" s="0" t="n">
         <x:v>0</x:v>
@@ -1496,7 +1496,7 @@
         <x:v>311</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
         <x:v>0</x:v>
@@ -2412,7 +2412,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
         <x:v>29</x:v>
@@ -2441,7 +2441,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E60" s="1" t="n">
         <x:v>43</x:v>
@@ -2656,7 +2656,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H67" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I67" s="0" t="n">
         <x:v>0</x:v>
@@ -2685,7 +2685,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H68" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I68" s="0" t="n">
         <x:v>0</x:v>
@@ -5022,7 +5022,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D149" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E149" s="1" t="n">
         <x:v>3</x:v>
@@ -5051,7 +5051,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D150" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E150" s="1" t="n">
         <x:v>4</x:v>
@@ -5263,7 +5263,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G157" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H157" s="1" t="n">
         <x:v>0</x:v>
@@ -5289,7 +5289,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F158" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G158" s="1" t="n">
         <x:v>1</x:v>
@@ -5318,10 +5318,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F159" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G159" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H159" s="1" t="n">
         <x:v>1</x:v>
@@ -8444,7 +8444,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D267" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E267" s="1" t="n">
         <x:v>20</x:v>
@@ -8485,7 +8485,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="H268" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I268" s="0" t="n">
         <x:v>0</x:v>
@@ -8502,7 +8502,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D269" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E269" s="1" t="n">
         <x:v>87</x:v>
@@ -8514,7 +8514,7 @@
         <x:v>231</x:v>
       </x:c>
       <x:c r="H269" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I269" s="0" t="n">
         <x:v>0</x:v>
@@ -9613,7 +9613,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G307" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H307" s="1" t="n">
         <x:v>23</x:v>
@@ -9642,7 +9642,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="G308" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H308" s="1" t="n">
         <x:v>31</x:v>
@@ -10793,7 +10793,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D348" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E348" s="1" t="n">
         <x:v>0</x:v>
@@ -10851,7 +10851,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D350" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E350" s="1" t="n">
         <x:v>14</x:v>
@@ -11559,7 +11559,7 @@
         <x:v>293</x:v>
       </x:c>
       <x:c r="H374" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="I374" s="0" t="n">
         <x:v>0</x:v>
@@ -11582,7 +11582,7 @@
         <x:v>596</x:v>
       </x:c>
       <x:c r="F375" s="1" t="n">
-        <x:v>1058</x:v>
+        <x:v>1059</x:v>
       </x:c>
       <x:c r="G375" s="1" t="n">
         <x:v>1006</x:v>
@@ -11611,13 +11611,13 @@
         <x:v>793</x:v>
       </x:c>
       <x:c r="F376" s="1" t="n">
-        <x:v>1382</x:v>
+        <x:v>1383</x:v>
       </x:c>
       <x:c r="G376" s="1" t="n">
         <x:v>1299</x:v>
       </x:c>
       <x:c r="H376" s="1" t="n">
-        <x:v>566</x:v>
+        <x:v>567</x:v>
       </x:c>
       <x:c r="I376" s="0" t="n">
         <x:v>0</x:v>
@@ -12542,7 +12542,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="G408" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H408" s="1" t="n">
         <x:v>10</x:v>
@@ -12600,7 +12600,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="G410" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H410" s="1" t="n">
         <x:v>44</x:v>
@@ -17440,7 +17440,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F577" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G577" s="1" t="n">
         <x:v>2</x:v>
@@ -17469,7 +17469,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F578" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G578" s="1" t="n">
         <x:v>2</x:v>
@@ -17788,7 +17788,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F589" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G589" s="1" t="n">
         <x:v>39</x:v>
@@ -17817,7 +17817,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F590" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G590" s="1" t="n">
         <x:v>61</x:v>
@@ -19203,7 +19203,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D638" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E638" s="1" t="n">
         <x:v>1</x:v>
@@ -19261,7 +19261,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D640" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E640" s="1" t="n">
         <x:v>3</x:v>
@@ -19409,7 +19409,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E645" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F645" s="1" t="n">
         <x:v>0</x:v>
@@ -19438,7 +19438,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E646" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F646" s="1" t="n">
         <x:v>0</x:v>
@@ -19841,7 +19841,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D660" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E660" s="1" t="n">
         <x:v>36</x:v>
@@ -19870,7 +19870,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D661" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E661" s="1" t="n">
         <x:v>43</x:v>
@@ -23678,7 +23678,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G792" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H792" s="1" t="n">
         <x:v>6</x:v>
@@ -23707,7 +23707,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G793" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H793" s="1" t="n">
         <x:v>9</x:v>
@@ -23736,7 +23736,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G794" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H794" s="1" t="n">
         <x:v>15</x:v>
@@ -23855,7 +23855,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H798" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I798" s="0" t="n">
         <x:v>0</x:v>
@@ -23878,7 +23878,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F799" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G799" s="1" t="n">
         <x:v>24</x:v>
@@ -23907,13 +23907,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F800" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G800" s="1" t="n">
         <x:v>35</x:v>
       </x:c>
       <x:c r="H800" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I800" s="0" t="n">
         <x:v>0</x:v>
@@ -24493,7 +24493,7 @@
         <x:v>1137</x:v>
       </x:c>
       <x:c r="H820" s="1" t="n">
-        <x:v>1036</x:v>
+        <x:v>1037</x:v>
       </x:c>
       <x:c r="I820" s="0" t="n">
         <x:v>0</x:v>
@@ -24522,7 +24522,7 @@
         <x:v>1311</x:v>
       </x:c>
       <x:c r="H821" s="1" t="n">
-        <x:v>1141</x:v>
+        <x:v>1142</x:v>
       </x:c>
       <x:c r="I821" s="0" t="n">
         <x:v>0</x:v>
@@ -27358,7 +27358,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F919" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G919" s="1" t="n">
         <x:v>92</x:v>
@@ -27387,7 +27387,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F920" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G920" s="1" t="n">
         <x:v>123</x:v>
@@ -28837,10 +28837,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F970" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G970" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H970" s="1" t="n">
         <x:v>29</x:v>
@@ -28866,13 +28866,13 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="F971" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="G971" s="1" t="n">
         <x:v>155</x:v>
       </x:c>
       <x:c r="H971" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I971" s="0" t="n">
         <x:v>0</x:v>
@@ -28895,13 +28895,13 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="F972" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="G972" s="1" t="n">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="H972" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I972" s="0" t="n">
         <x:v>0</x:v>
@@ -29681,7 +29681,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="G999" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H999" s="1" t="n">
         <x:v>19</x:v>
@@ -29707,7 +29707,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="F1000" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G1000" s="1" t="n">
         <x:v>86</x:v>
@@ -29736,10 +29736,10 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="F1001" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G1001" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H1001" s="1" t="n">
         <x:v>85</x:v>
@@ -29875,10 +29875,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1006" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E1006" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F1006" s="1" t="n">
         <x:v>12</x:v>
@@ -29904,10 +29904,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1007" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E1007" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F1007" s="1" t="n">
         <x:v>20</x:v>
@@ -30058,7 +30058,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G1012" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H1012" s="1" t="n">
         <x:v>8</x:v>
@@ -30087,7 +30087,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G1013" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H1013" s="1" t="n">
         <x:v>10</x:v>
@@ -33799,7 +33799,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="G1141" s="1" t="n">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H1141" s="1" t="n">
         <x:v>104</x:v>
@@ -33828,7 +33828,7 @@
         <x:v>206</x:v>
       </x:c>
       <x:c r="G1142" s="1" t="n">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="H1142" s="1" t="n">
         <x:v>135</x:v>
@@ -35423,7 +35423,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="G1197" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H1197" s="1" t="n">
         <x:v>20</x:v>
@@ -35452,7 +35452,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="G1198" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H1198" s="1" t="n">
         <x:v>22</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -709,7 +709,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I1226"/>
+  <x:dimension ref="A1:I1227"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3520,10 +3520,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F97" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G97" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H97" s="1" t="n">
         <x:v>22</x:v>
@@ -3549,7 +3549,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="F98" s="1" t="n">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G98" s="1" t="n">
         <x:v>169</x:v>
@@ -3578,10 +3578,10 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="F99" s="1" t="n">
-        <x:v>269</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="G99" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H99" s="1" t="n">
         <x:v>102</x:v>
@@ -3694,7 +3694,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F103" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G103" s="1" t="n">
         <x:v>14</x:v>
@@ -3752,7 +3752,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="F105" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G105" s="1" t="n">
         <x:v>59</x:v>
@@ -8711,7 +8711,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="F276" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G276" s="1" t="n">
         <x:v>171</x:v>
@@ -8740,7 +8740,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="F277" s="1" t="n">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="G277" s="1" t="n">
         <x:v>235</x:v>
@@ -9584,7 +9584,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G306" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H306" s="1" t="n">
         <x:v>8</x:v>
@@ -9642,7 +9642,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="G308" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H308" s="1" t="n">
         <x:v>31</x:v>
@@ -11553,7 +11553,7 @@
         <x:v>197</x:v>
       </x:c>
       <x:c r="F374" s="1" t="n">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="G374" s="1" t="n">
         <x:v>293</x:v>
@@ -11585,7 +11585,7 @@
         <x:v>1059</x:v>
       </x:c>
       <x:c r="G375" s="1" t="n">
-        <x:v>1006</x:v>
+        <x:v>1007</x:v>
       </x:c>
       <x:c r="H375" s="1" t="n">
         <x:v>456</x:v>
@@ -11611,10 +11611,10 @@
         <x:v>793</x:v>
       </x:c>
       <x:c r="F376" s="1" t="n">
-        <x:v>1383</x:v>
+        <x:v>1384</x:v>
       </x:c>
       <x:c r="G376" s="1" t="n">
-        <x:v>1299</x:v>
+        <x:v>1300</x:v>
       </x:c>
       <x:c r="H376" s="1" t="n">
         <x:v>567</x:v>
@@ -11814,7 +11814,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="F383" s="1" t="n">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="G383" s="1" t="n">
         <x:v>170</x:v>
@@ -11872,7 +11872,7 @@
         <x:v>330</x:v>
       </x:c>
       <x:c r="F385" s="1" t="n">
-        <x:v>726</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="G385" s="1" t="n">
         <x:v>662</x:v>
@@ -27361,7 +27361,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="G919" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H919" s="1" t="n">
         <x:v>38</x:v>
@@ -27390,7 +27390,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="G920" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H920" s="1" t="n">
         <x:v>47</x:v>
@@ -33042,7 +33042,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F1115" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1115" s="1" t="n">
         <x:v>7</x:v>
@@ -33071,7 +33071,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F1116" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1116" s="1" t="n">
         <x:v>10</x:v>
@@ -33503,7 +33503,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E1131" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F1131" s="1" t="n">
         <x:v>37</x:v>
@@ -33535,7 +33535,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F1132" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G1132" s="1" t="n">
         <x:v>141</x:v>
@@ -33561,10 +33561,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E1133" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F1133" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G1133" s="1" t="n">
         <x:v>177</x:v>
@@ -33802,7 +33802,7 @@
         <x:v>156</x:v>
       </x:c>
       <x:c r="H1141" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="I1141" s="0" t="n">
         <x:v>0</x:v>
@@ -33831,7 +33831,7 @@
         <x:v>227</x:v>
       </x:c>
       <x:c r="H1142" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="I1142" s="0" t="n">
         <x:v>0</x:v>
@@ -34889,7 +34889,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1179" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1179" s="1" t="n">
         <x:v>0</x:v>
@@ -34898,10 +34898,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1179" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1179" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1179" s="1" t="n">
         <x:v>0</x:v>
@@ -34918,7 +34918,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1180" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1180" s="1" t="n">
         <x:v>0</x:v>
@@ -34933,7 +34933,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1180" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1180" s="0" t="n">
         <x:v>0</x:v>
@@ -34941,28 +34941,28 @@
     </x:row>
     <x:row r="1181" spans="1:9">
       <x:c r="A1181" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B1181" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1181" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1181" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1181" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1181" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1181" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1181" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1181" s="0" t="n">
         <x:v>0</x:v>
@@ -34976,22 +34976,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1182" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1182" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E1182" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1182" s="1" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G1182" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E1182" s="1" t="n">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F1182" s="1" t="n">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G1182" s="1" t="n">
-        <x:v>38</x:v>
-      </x:c>
       <x:c r="H1182" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I1182" s="0" t="n">
         <x:v>0</x:v>
@@ -35005,22 +35005,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1183" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1183" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E1183" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F1183" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G1183" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H1183" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I1183" s="0" t="n">
         <x:v>0</x:v>
@@ -35031,25 +35031,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1184" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1184" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1184" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E1184" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F1184" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G1184" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H1184" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I1184" s="0" t="n">
         <x:v>0</x:v>
@@ -35063,22 +35063,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1185" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1185" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E1185" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1185" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1185" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1185" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1185" s="0" t="n">
         <x:v>0</x:v>
@@ -35092,22 +35092,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1186" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1186" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1186" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1186" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1186" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H1186" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1186" s="0" t="n">
         <x:v>0</x:v>
@@ -35118,25 +35118,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1187" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1187" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1187" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1187" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1187" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1187" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1187" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1187" s="0" t="n">
         <x:v>0</x:v>
@@ -35150,22 +35150,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1188" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1188" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1188" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F1188" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G1188" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H1188" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I1188" s="0" t="n">
         <x:v>0</x:v>
@@ -35179,22 +35179,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1189" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1189" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1189" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F1189" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G1189" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H1189" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I1189" s="0" t="n">
         <x:v>0</x:v>
@@ -35205,25 +35205,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1190" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1190" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1190" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1190" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F1190" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G1190" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H1190" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I1190" s="0" t="n">
         <x:v>0</x:v>
@@ -35237,14 +35237,14 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1191" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1191" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1191" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E1191" s="1" t="n">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="F1191" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -35252,7 +35252,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1191" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1191" s="0" t="n">
         <x:v>0</x:v>
@@ -35266,13 +35266,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1192" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1192" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1192" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F1192" s="1" t="n">
         <x:v>0</x:v>
@@ -35292,22 +35292,22 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B1193" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1193" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1193" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1193" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F1193" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1193" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1193" s="1" t="n">
         <x:v>1</x:v>
@@ -35324,22 +35324,22 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1194" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1194" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1194" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1194" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G1194" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1194" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1194" s="0" t="n">
         <x:v>0</x:v>
@@ -35353,7 +35353,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1195" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1195" s="1" t="n">
         <x:v>1</x:v>
@@ -35362,13 +35362,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1195" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1195" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H1195" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I1195" s="0" t="n">
         <x:v>0</x:v>
@@ -35376,28 +35376,28 @@
     </x:row>
     <x:row r="1196" spans="1:9">
       <x:c r="A1196" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B1196" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1196" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1196" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1196" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1196" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G1196" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H1196" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I1196" s="0" t="n">
         <x:v>0</x:v>
@@ -35411,22 +35411,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1197" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1197" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E1197" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1197" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G1197" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H1197" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1197" s="0" t="n">
         <x:v>0</x:v>
@@ -35440,22 +35440,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1198" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1198" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E1198" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F1198" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G1198" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H1198" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I1198" s="0" t="n">
         <x:v>0</x:v>
@@ -35466,25 +35466,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1199" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1199" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1199" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E1199" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F1199" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G1199" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H1199" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I1199" s="0" t="n">
         <x:v>0</x:v>
@@ -35498,22 +35498,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1200" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1200" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E1200" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1200" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1200" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1200" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1200" s="0" t="n">
         <x:v>0</x:v>
@@ -35527,22 +35527,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1201" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1201" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E1201" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F1201" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G1201" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H1201" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1201" s="0" t="n">
         <x:v>0</x:v>
@@ -35553,25 +35553,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1202" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1202" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1202" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E1202" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F1202" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G1202" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H1202" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I1202" s="0" t="n">
         <x:v>0</x:v>
@@ -35585,22 +35585,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1203" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1203" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1203" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F1203" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G1203" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H1203" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I1203" s="0" t="n">
         <x:v>0</x:v>
@@ -35614,22 +35614,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1204" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1204" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1204" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F1204" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G1204" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H1204" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I1204" s="0" t="n">
         <x:v>0</x:v>
@@ -35640,25 +35640,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1205" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1205" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1205" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1205" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F1205" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G1205" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H1205" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I1205" s="0" t="n">
         <x:v>0</x:v>
@@ -35672,7 +35672,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1206" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1206" s="1" t="n">
         <x:v>0</x:v>
@@ -35698,22 +35698,22 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1207" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1207" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1207" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1207" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1207" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1207" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1207" s="1" t="n">
         <x:v>0</x:v>
@@ -35730,22 +35730,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1208" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1208" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E1208" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F1208" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1208" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1208" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1208" s="0" t="n">
         <x:v>0</x:v>
@@ -35759,19 +35759,19 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1209" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1209" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E1209" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F1209" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1209" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1209" s="1" t="n">
         <x:v>4</x:v>
@@ -35785,25 +35785,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B1210" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1210" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1210" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E1210" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F1210" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1210" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1210" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1210" s="0" t="n">
         <x:v>0</x:v>
@@ -35817,19 +35817,19 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1211" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1211" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1211" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1211" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1211" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1211" s="1" t="n">
         <x:v>1</x:v>
@@ -35846,7 +35846,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1212" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1212" s="1" t="n">
         <x:v>6</x:v>
@@ -35861,7 +35861,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H1212" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1212" s="0" t="n">
         <x:v>0</x:v>
@@ -35869,28 +35869,28 @@
     </x:row>
     <x:row r="1213" spans="1:9">
       <x:c r="A1213" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B1213" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1213" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1213" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1213" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1213" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1213" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1213" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1213" s="0" t="n">
         <x:v>0</x:v>
@@ -35904,7 +35904,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1214" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1214" s="1" t="n">
         <x:v>0</x:v>
@@ -35913,13 +35913,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1214" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1214" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1214" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1214" s="0" t="n">
         <x:v>0</x:v>
@@ -35933,7 +35933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1215" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1215" s="1" t="n">
         <x:v>0</x:v>
@@ -35942,13 +35942,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1215" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G1215" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1215" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1215" s="0" t="n">
         <x:v>0</x:v>
@@ -35959,10 +35959,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1216" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1216" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1216" s="1" t="n">
         <x:v>0</x:v>
@@ -35971,13 +35971,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1216" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G1216" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1216" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1216" s="0" t="n">
         <x:v>0</x:v>
@@ -35991,7 +35991,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1217" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1217" s="1" t="n">
         <x:v>0</x:v>
@@ -36020,7 +36020,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1218" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1218" s="1" t="n">
         <x:v>0</x:v>
@@ -36029,7 +36029,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1218" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1218" s="1" t="n">
         <x:v>0</x:v>
@@ -36046,10 +36046,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1219" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1219" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1219" s="1" t="n">
         <x:v>0</x:v>
@@ -36058,10 +36058,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1219" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1219" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1219" s="1" t="n">
         <x:v>0</x:v>
@@ -36078,22 +36078,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1220" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1220" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1220" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1220" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G1220" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F1220" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G1220" s="1" t="n">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="H1220" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1220" s="0" t="n">
         <x:v>0</x:v>
@@ -36107,7 +36107,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1221" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1221" s="1" t="n">
         <x:v>0</x:v>
@@ -36116,10 +36116,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F1221" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1221" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1221" s="1" t="n">
         <x:v>2</x:v>
@@ -36133,25 +36133,25 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1222" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1222" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1222" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1222" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1222" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1222" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H1222" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1222" s="0" t="n">
         <x:v>0</x:v>
@@ -36165,13 +36165,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1223" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1223" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1223" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1223" s="1" t="n">
         <x:v>0</x:v>
@@ -36194,13 +36194,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1224" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1224" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1224" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1224" s="1" t="n">
         <x:v>0</x:v>
@@ -36220,22 +36220,22 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1225" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1225" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1225" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1225" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1225" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1225" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1225" s="1" t="n">
         <x:v>0</x:v>
@@ -36252,7 +36252,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1226" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1226" s="1" t="n">
         <x:v>0</x:v>
@@ -36270,6 +36270,35 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I1226" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1227" spans="1:9">
+      <x:c r="A1227" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B1227" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C1227" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1227" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1227" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1227" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G1227" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1227" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1227" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -8482,7 +8482,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="G268" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="H268" s="1" t="n">
         <x:v>65</x:v>
@@ -8511,7 +8511,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="G269" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="H269" s="1" t="n">
         <x:v>81</x:v>
@@ -9616,7 +9616,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H307" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I307" s="0" t="n">
         <x:v>0</x:v>
@@ -9645,7 +9645,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="H308" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I308" s="0" t="n">
         <x:v>0</x:v>
@@ -11173,10 +11173,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E361" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F361" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G361" s="1" t="n">
         <x:v>19</x:v>
@@ -11202,10 +11202,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E362" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F362" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G362" s="1" t="n">
         <x:v>30</x:v>
@@ -11669,13 +11669,13 @@
         <x:v>597</x:v>
       </x:c>
       <x:c r="F378" s="1" t="n">
-        <x:v>1061</x:v>
+        <x:v>1064</x:v>
       </x:c>
       <x:c r="G378" s="1" t="n">
         <x:v>1009</x:v>
       </x:c>
       <x:c r="H378" s="1" t="n">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="I378" s="0" t="n">
         <x:v>0</x:v>
@@ -11698,13 +11698,13 @@
         <x:v>796</x:v>
       </x:c>
       <x:c r="F379" s="1" t="n">
-        <x:v>1387</x:v>
+        <x:v>1390</x:v>
       </x:c>
       <x:c r="G379" s="1" t="n">
         <x:v>1302</x:v>
       </x:c>
       <x:c r="H379" s="1" t="n">
-        <x:v>570</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="I379" s="0" t="n">
         <x:v>0</x:v>
@@ -11837,7 +11837,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D384" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E384" s="1" t="n">
         <x:v>61</x:v>
@@ -11866,7 +11866,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D385" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E385" s="1" t="n">
         <x:v>86</x:v>
@@ -11936,7 +11936,7 @@
         <x:v>494</x:v>
       </x:c>
       <x:c r="H387" s="1" t="n">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="I387" s="0" t="n">
         <x:v>0</x:v>
@@ -11965,7 +11965,7 @@
         <x:v>665</x:v>
       </x:c>
       <x:c r="H388" s="1" t="n">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="I388" s="0" t="n">
         <x:v>0</x:v>
@@ -24568,7 +24568,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D823" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E823" s="1" t="n">
         <x:v>713</x:v>
@@ -24597,7 +24597,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D824" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E824" s="1" t="n">
         <x:v>810</x:v>
@@ -27448,7 +27448,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="G922" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H922" s="1" t="n">
         <x:v>38</x:v>
@@ -27477,7 +27477,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="G923" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="H923" s="1" t="n">
         <x:v>47</x:v>
@@ -27709,7 +27709,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="G931" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="H931" s="1" t="n">
         <x:v>77</x:v>
@@ -27738,7 +27738,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="G932" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="H932" s="1" t="n">
         <x:v>109</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1174,7 +1174,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>17</x:v>
@@ -1232,7 +1232,7 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
         <x:v>91</x:v>
@@ -3549,7 +3549,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="F98" s="1" t="n">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="G98" s="1" t="n">
         <x:v>170</x:v>
@@ -3578,7 +3578,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="F99" s="1" t="n">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="G99" s="1" t="n">
         <x:v>231</x:v>
@@ -10361,7 +10361,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E333" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F333" s="1" t="n">
         <x:v>5</x:v>
@@ -10419,7 +10419,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E335" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F335" s="1" t="n">
         <x:v>16</x:v>
@@ -11646,7 +11646,7 @@
         <x:v>293</x:v>
       </x:c>
       <x:c r="H377" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="I377" s="0" t="n">
         <x:v>0</x:v>
@@ -11672,7 +11672,7 @@
         <x:v>1064</x:v>
       </x:c>
       <x:c r="G378" s="1" t="n">
-        <x:v>1009</x:v>
+        <x:v>1010</x:v>
       </x:c>
       <x:c r="H378" s="1" t="n">
         <x:v>460</x:v>
@@ -11701,10 +11701,10 @@
         <x:v>1390</x:v>
       </x:c>
       <x:c r="G379" s="1" t="n">
-        <x:v>1302</x:v>
+        <x:v>1303</x:v>
       </x:c>
       <x:c r="H379" s="1" t="n">
-        <x:v>571</x:v>
+        <x:v>573</x:v>
       </x:c>
       <x:c r="I379" s="0" t="n">
         <x:v>0</x:v>
@@ -11930,7 +11930,7 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="F387" s="1" t="n">
-        <x:v>533</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="G387" s="1" t="n">
         <x:v>494</x:v>
@@ -11959,7 +11959,7 @@
         <x:v>330</x:v>
       </x:c>
       <x:c r="F388" s="1" t="n">
-        <x:v>728</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="G388" s="1" t="n">
         <x:v>665</x:v>
@@ -17878,7 +17878,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="G592" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H592" s="1" t="n">
         <x:v>21</x:v>
@@ -17907,7 +17907,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="G593" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H593" s="1" t="n">
         <x:v>28</x:v>
@@ -19386,7 +19386,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G644" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H644" s="1" t="n">
         <x:v>3</x:v>
@@ -19444,7 +19444,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G646" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H646" s="1" t="n">
         <x:v>16</x:v>
@@ -29768,7 +29768,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="G1002" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H1002" s="1" t="n">
         <x:v>20</x:v>
@@ -29826,7 +29826,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="G1004" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H1004" s="1" t="n">
         <x:v>86</x:v>
@@ -30032,7 +30032,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="H1011" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I1011" s="0" t="n">
         <x:v>0</x:v>
@@ -30090,7 +30090,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="H1013" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I1013" s="0" t="n">
         <x:v>0</x:v>
@@ -36122,7 +36122,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1221" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1221" s="0" t="n">
         <x:v>0</x:v>
@@ -36151,7 +36151,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1222" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1222" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1174,7 +1174,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>19</x:v>
@@ -1232,7 +1232,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
         <x:v>102</x:v>
@@ -3578,10 +3578,10 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="F99" s="1" t="n">
-        <x:v>227</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="G99" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="H99" s="1" t="n">
         <x:v>83</x:v>
@@ -3607,10 +3607,10 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="F100" s="1" t="n">
-        <x:v>293</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="G100" s="1" t="n">
-        <x:v>259</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="H100" s="1" t="n">
         <x:v>108</x:v>
@@ -7954,7 +7954,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E250" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F250" s="1" t="n">
         <x:v>19</x:v>
@@ -7983,7 +7983,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E251" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F251" s="1" t="n">
         <x:v>26</x:v>
@@ -8534,16 +8534,16 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E270" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F270" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G270" s="1" t="n">
         <x:v>190</x:v>
       </x:c>
       <x:c r="H270" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I270" s="0" t="n">
         <x:v>0</x:v>
@@ -8563,16 +8563,16 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E271" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F271" s="1" t="n">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="G271" s="1" t="n">
         <x:v>254</x:v>
       </x:c>
       <x:c r="H271" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I271" s="0" t="n">
         <x:v>0</x:v>
@@ -8743,7 +8743,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="G277" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H277" s="1" t="n">
         <x:v>40</x:v>
@@ -8769,7 +8769,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="F278" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="G278" s="1" t="n">
         <x:v>202</x:v>
@@ -8798,10 +8798,10 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="F279" s="1" t="n">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="G279" s="1" t="n">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="H279" s="1" t="n">
         <x:v>131</x:v>
@@ -8920,7 +8920,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H283" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I283" s="0" t="n">
         <x:v>0</x:v>
@@ -8978,7 +8978,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H285" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I285" s="0" t="n">
         <x:v>0</x:v>
@@ -9033,7 +9033,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G287" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H287" s="1" t="n">
         <x:v>9</x:v>
@@ -9062,7 +9062,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G288" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H288" s="1" t="n">
         <x:v>12</x:v>
@@ -9111,16 +9111,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D290" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E290" s="1" t="n">
         <x:v>19</x:v>
       </x:c>
       <x:c r="F290" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G290" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H290" s="1" t="n">
         <x:v>10</x:v>
@@ -9140,16 +9140,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D291" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E291" s="1" t="n">
         <x:v>25</x:v>
       </x:c>
       <x:c r="F291" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G291" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H291" s="1" t="n">
         <x:v>21</x:v>
@@ -9497,7 +9497,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G303" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H303" s="1" t="n">
         <x:v>5</x:v>
@@ -9520,7 +9520,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E304" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F304" s="1" t="n">
         <x:v>16</x:v>
@@ -9549,13 +9549,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E305" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F305" s="1" t="n">
         <x:v>27</x:v>
       </x:c>
       <x:c r="G305" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H305" s="1" t="n">
         <x:v>17</x:v>
@@ -9671,7 +9671,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G309" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H309" s="1" t="n">
         <x:v>8</x:v>
@@ -9729,7 +9729,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="G311" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H311" s="1" t="n">
         <x:v>36</x:v>
@@ -10567,7 +10567,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F340" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G340" s="1" t="n">
         <x:v>7</x:v>
@@ -10596,7 +10596,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F341" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G341" s="1" t="n">
         <x:v>8</x:v>
@@ -10996,7 +10996,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D355" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E355" s="1" t="n">
         <x:v>14</x:v>
@@ -11025,7 +11025,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D356" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E356" s="1" t="n">
         <x:v>14</x:v>
@@ -11727,10 +11727,10 @@
         <x:v>216</x:v>
       </x:c>
       <x:c r="F380" s="1" t="n">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="G380" s="1" t="n">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="H380" s="1" t="n">
         <x:v>135</x:v>
@@ -11750,19 +11750,19 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D381" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E381" s="1" t="n">
         <x:v>640</x:v>
       </x:c>
       <x:c r="F381" s="1" t="n">
-        <x:v>1200</x:v>
+        <x:v>1201</x:v>
       </x:c>
       <x:c r="G381" s="1" t="n">
-        <x:v>1116</x:v>
+        <x:v>1118</x:v>
       </x:c>
       <x:c r="H381" s="1" t="n">
-        <x:v>516</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="I381" s="0" t="n">
         <x:v>0</x:v>
@@ -11779,19 +11779,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D382" s="1" t="n">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E382" s="1" t="n">
         <x:v>856</x:v>
       </x:c>
       <x:c r="F382" s="1" t="n">
-        <x:v>1555</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="G382" s="1" t="n">
-        <x:v>1447</x:v>
+        <x:v>1450</x:v>
       </x:c>
       <x:c r="H382" s="1" t="n">
-        <x:v>651</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="I382" s="0" t="n">
         <x:v>0</x:v>
@@ -11924,13 +11924,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D387" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E387" s="1" t="n">
         <x:v>68</x:v>
       </x:c>
       <x:c r="F387" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G387" s="1" t="n">
         <x:v>140</x:v>
@@ -11953,13 +11953,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D388" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E388" s="1" t="n">
         <x:v>97</x:v>
       </x:c>
       <x:c r="F388" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G388" s="1" t="n">
         <x:v>195</x:v>
@@ -11991,7 +11991,7 @@
         <x:v>215</x:v>
       </x:c>
       <x:c r="G389" s="1" t="n">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="H389" s="1" t="n">
         <x:v>124</x:v>
@@ -12049,7 +12049,7 @@
         <x:v>806</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
-        <x:v>728</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
         <x:v>402</x:v>
@@ -13319,7 +13319,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E435" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F435" s="1" t="n">
         <x:v>8</x:v>
@@ -13377,7 +13377,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E437" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F437" s="1" t="n">
         <x:v>27</x:v>
@@ -15039,7 +15039,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H494" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I494" s="0" t="n">
         <x:v>0</x:v>
@@ -15068,7 +15068,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H495" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I495" s="0" t="n">
         <x:v>0</x:v>
@@ -15120,7 +15120,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F497" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G497" s="1" t="n">
         <x:v>1</x:v>
@@ -15149,7 +15149,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F498" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G498" s="1" t="n">
         <x:v>2</x:v>
@@ -16248,7 +16248,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E536" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F536" s="1" t="n">
         <x:v>3</x:v>
@@ -16277,7 +16277,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E537" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F537" s="1" t="n">
         <x:v>5</x:v>
@@ -16312,7 +16312,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G538" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H538" s="1" t="n">
         <x:v>5</x:v>
@@ -16370,7 +16370,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="G540" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H540" s="1" t="n">
         <x:v>16</x:v>
@@ -16489,7 +16489,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H544" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I544" s="0" t="n">
         <x:v>0</x:v>
@@ -16518,7 +16518,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H545" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I545" s="0" t="n">
         <x:v>0</x:v>
@@ -18229,7 +18229,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H604" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I604" s="0" t="n">
         <x:v>0</x:v>
@@ -18287,7 +18287,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="H606" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I606" s="0" t="n">
         <x:v>0</x:v>
@@ -22428,7 +22428,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F749" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G749" s="1" t="n">
         <x:v>34</x:v>
@@ -22457,7 +22457,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F750" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G750" s="1" t="n">
         <x:v>44</x:v>
@@ -24806,7 +24806,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="F831" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="G831" s="1" t="n">
         <x:v>183</x:v>
@@ -24864,7 +24864,7 @@
         <x:v>917</x:v>
       </x:c>
       <x:c r="F833" s="1" t="n">
-        <x:v>1141</x:v>
+        <x:v>1142</x:v>
       </x:c>
       <x:c r="G833" s="1" t="n">
         <x:v>1430</x:v>
@@ -26575,7 +26575,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F892" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G892" s="1" t="n">
         <x:v>25</x:v>
@@ -26604,7 +26604,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G893" s="1" t="n">
         <x:v>35</x:v>
@@ -26804,7 +26804,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E900" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F900" s="1" t="n">
         <x:v>31</x:v>
@@ -26833,7 +26833,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E901" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F901" s="1" t="n">
         <x:v>38</x:v>
@@ -27729,16 +27729,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D932" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E932" s="1" t="n">
         <x:v>30</x:v>
       </x:c>
       <x:c r="F932" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G932" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H932" s="1" t="n">
         <x:v>46</x:v>
@@ -27758,16 +27758,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D933" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E933" s="1" t="n">
         <x:v>37</x:v>
       </x:c>
       <x:c r="F933" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G933" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="H933" s="1" t="n">
         <x:v>56</x:v>
@@ -28260,7 +28260,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G950" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H950" s="1" t="n">
         <x:v>41</x:v>
@@ -28289,7 +28289,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G951" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H951" s="1" t="n">
         <x:v>52</x:v>
@@ -29217,7 +29217,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="G983" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H983" s="1" t="n">
         <x:v>32</x:v>
@@ -29275,7 +29275,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="G985" s="1" t="n">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="H985" s="1" t="n">
         <x:v>131</x:v>
@@ -30667,7 +30667,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G1033" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H1033" s="1" t="n">
         <x:v>7</x:v>
@@ -30725,7 +30725,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G1035" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H1035" s="1" t="n">
         <x:v>13</x:v>
@@ -30983,7 +30983,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1044" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1044" s="1" t="n">
         <x:v>8</x:v>
@@ -31012,7 +31012,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F1045" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G1045" s="1" t="n">
         <x:v>11</x:v>
@@ -31134,7 +31134,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1049" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1049" s="0" t="n">
         <x:v>0</x:v>
@@ -31192,7 +31192,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H1051" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1051" s="0" t="n">
         <x:v>0</x:v>
@@ -33587,10 +33587,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1134" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1134" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1134" s="1" t="n">
         <x:v>4</x:v>
@@ -33616,10 +33616,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1135" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E1135" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1135" s="1" t="n">
         <x:v>5</x:v>
@@ -34257,13 +34257,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E1157" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F1157" s="1" t="n">
         <x:v>157</x:v>
       </x:c>
       <x:c r="G1157" s="1" t="n">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="H1157" s="1" t="n">
         <x:v>115</x:v>
@@ -34286,13 +34286,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E1158" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F1158" s="1" t="n">
         <x:v>233</x:v>
       </x:c>
       <x:c r="G1158" s="1" t="n">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="H1158" s="1" t="n">
         <x:v>150</x:v>
@@ -34724,7 +34724,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1173" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1173" s="1" t="n">
         <x:v>3</x:v>
@@ -34782,7 +34782,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1175" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G1175" s="1" t="n">
         <x:v>14</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1165,7 +1165,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>18</x:v>
@@ -1197,7 +1197,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>150</x:v>
@@ -1223,10 +1223,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
         <x:v>193</x:v>
@@ -1432,7 +1432,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G25" s="1" t="n">
         <x:v>101</x:v>
@@ -1455,7 +1455,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
         <x:v>115</x:v>
@@ -1467,7 +1467,7 @@
         <x:v>240</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
         <x:v>0</x:v>
@@ -1484,19 +1484,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
         <x:v>146</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
         <x:v>341</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
         <x:v>0</x:v>
@@ -3546,7 +3546,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E98" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F98" s="1" t="n">
         <x:v>66</x:v>
@@ -3555,7 +3555,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="H98" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I98" s="0" t="n">
         <x:v>0</x:v>
@@ -3575,13 +3575,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E99" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="F99" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="G99" s="1" t="n">
-        <x:v>190</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="H99" s="1" t="n">
         <x:v>83</x:v>
@@ -3604,16 +3604,16 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E100" s="1" t="n">
-        <x:v>187</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="F100" s="1" t="n">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="G100" s="1" t="n">
-        <x:v>261</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="H100" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I100" s="0" t="n">
         <x:v>0</x:v>
@@ -3642,7 +3642,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H101" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I101" s="0" t="n">
         <x:v>0</x:v>
@@ -3662,7 +3662,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E102" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F102" s="1" t="n">
         <x:v>20</x:v>
@@ -3691,7 +3691,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E103" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F103" s="1" t="n">
         <x:v>38</x:v>
@@ -3700,7 +3700,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H103" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I103" s="0" t="n">
         <x:v>0</x:v>
@@ -4013,7 +4013,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F114" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G114" s="1" t="n">
         <x:v>10</x:v>
@@ -4042,7 +4042,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F115" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G115" s="1" t="n">
         <x:v>13</x:v>
@@ -4683,7 +4683,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G137" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H137" s="1" t="n">
         <x:v>14</x:v>
@@ -4741,7 +4741,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="G139" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H139" s="1" t="n">
         <x:v>31</x:v>
@@ -6272,7 +6272,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E192" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F192" s="1" t="n">
         <x:v>19</x:v>
@@ -6301,7 +6301,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E193" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F193" s="1" t="n">
         <x:v>28</x:v>
@@ -8502,7 +8502,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D269" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E269" s="1" t="n">
         <x:v>22</x:v>
@@ -8537,7 +8537,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="F270" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G270" s="1" t="n">
         <x:v>190</x:v>
@@ -8560,13 +8560,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D271" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E271" s="1" t="n">
         <x:v>104</x:v>
       </x:c>
       <x:c r="F271" s="1" t="n">
-        <x:v>175</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="G271" s="1" t="n">
         <x:v>254</x:v>
@@ -8775,7 +8775,7 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="H278" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I278" s="0" t="n">
         <x:v>0</x:v>
@@ -8804,7 +8804,7 @@
         <x:v>272</x:v>
       </x:c>
       <x:c r="H279" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="I279" s="0" t="n">
         <x:v>0</x:v>
@@ -8937,7 +8937,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D284" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E284" s="1" t="n">
         <x:v>10</x:v>
@@ -8966,7 +8966,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D285" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E285" s="1" t="n">
         <x:v>18</x:v>
@@ -9671,7 +9671,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G309" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H309" s="1" t="n">
         <x:v>8</x:v>
@@ -9697,13 +9697,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F310" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G310" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H310" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I310" s="0" t="n">
         <x:v>0</x:v>
@@ -9726,13 +9726,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F311" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G311" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H311" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I311" s="0" t="n">
         <x:v>0</x:v>
@@ -10454,7 +10454,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G336" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H336" s="1" t="n">
         <x:v>5</x:v>
@@ -10512,7 +10512,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="G338" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H338" s="1" t="n">
         <x:v>19</x:v>
@@ -11263,7 +11263,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F364" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G364" s="1" t="n">
         <x:v>23</x:v>
@@ -11292,7 +11292,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F365" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G365" s="1" t="n">
         <x:v>37</x:v>
@@ -11721,19 +11721,19 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D380" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E380" s="1" t="n">
-        <x:v>216</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="F380" s="1" t="n">
         <x:v>356</x:v>
       </x:c>
       <x:c r="G380" s="1" t="n">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="H380" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="I380" s="0" t="n">
         <x:v>0</x:v>
@@ -11750,16 +11750,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D381" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E381" s="1" t="n">
-        <x:v>640</x:v>
+        <x:v>641</x:v>
       </x:c>
       <x:c r="F381" s="1" t="n">
-        <x:v>1201</x:v>
+        <x:v>1205</x:v>
       </x:c>
       <x:c r="G381" s="1" t="n">
-        <x:v>1118</x:v>
+        <x:v>1119</x:v>
       </x:c>
       <x:c r="H381" s="1" t="n">
         <x:v>517</x:v>
@@ -11779,19 +11779,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D382" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="E382" s="1" t="n">
-        <x:v>856</x:v>
+        <x:v>859</x:v>
       </x:c>
       <x:c r="F382" s="1" t="n">
-        <x:v>1557</x:v>
+        <x:v>1561</x:v>
       </x:c>
       <x:c r="G382" s="1" t="n">
-        <x:v>1450</x:v>
+        <x:v>1452</x:v>
       </x:c>
       <x:c r="H382" s="1" t="n">
-        <x:v>652</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="I382" s="0" t="n">
         <x:v>0</x:v>
@@ -11895,7 +11895,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D386" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E386" s="1" t="n">
         <x:v>29</x:v>
@@ -11927,13 +11927,13 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E387" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F387" s="1" t="n">
         <x:v>132</x:v>
       </x:c>
       <x:c r="G387" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="H387" s="1" t="n">
         <x:v>89</x:v>
@@ -11953,16 +11953,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D388" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E388" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F388" s="1" t="n">
         <x:v>178</x:v>
       </x:c>
       <x:c r="G388" s="1" t="n">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="H388" s="1" t="n">
         <x:v>109</x:v>
@@ -11985,7 +11985,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E389" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F389" s="1" t="n">
         <x:v>215</x:v>
@@ -12020,7 +12020,7 @@
         <x:v>591</x:v>
       </x:c>
       <x:c r="G390" s="1" t="n">
-        <x:v>538</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="H390" s="1" t="n">
         <x:v>278</x:v>
@@ -12043,13 +12043,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E391" s="1" t="n">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="F391" s="1" t="n">
         <x:v>806</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
-        <x:v>729</x:v>
+        <x:v>731</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
         <x:v>402</x:v>
@@ -12159,7 +12159,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E395" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F395" s="1" t="n">
         <x:v>15</x:v>
@@ -12188,7 +12188,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E396" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F396" s="1" t="n">
         <x:v>48</x:v>
@@ -12217,7 +12217,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E397" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F397" s="1" t="n">
         <x:v>63</x:v>
@@ -12243,13 +12243,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D398" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E398" s="1" t="n">
         <x:v>69</x:v>
       </x:c>
       <x:c r="F398" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G398" s="1" t="n">
         <x:v>115</x:v>
@@ -12278,13 +12278,13 @@
         <x:v>243</x:v>
       </x:c>
       <x:c r="F399" s="1" t="n">
-        <x:v>363</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="G399" s="1" t="n">
-        <x:v>381</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="H399" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="I399" s="0" t="n">
         <x:v>0</x:v>
@@ -12301,19 +12301,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D400" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E400" s="1" t="n">
         <x:v>312</x:v>
       </x:c>
       <x:c r="F400" s="1" t="n">
-        <x:v>481</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="G400" s="1" t="n">
-        <x:v>496</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="H400" s="1" t="n">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="I400" s="0" t="n">
         <x:v>0</x:v>
@@ -12748,7 +12748,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="H415" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I415" s="0" t="n">
         <x:v>0</x:v>
@@ -12777,7 +12777,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="H416" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I416" s="0" t="n">
         <x:v>0</x:v>
@@ -18078,7 +18078,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F599" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G599" s="1" t="n">
         <x:v>45</x:v>
@@ -18107,7 +18107,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F600" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G600" s="1" t="n">
         <x:v>67</x:v>
@@ -18249,7 +18249,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E605" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F605" s="1" t="n">
         <x:v>22</x:v>
@@ -18278,7 +18278,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E606" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F606" s="1" t="n">
         <x:v>25</x:v>
@@ -19667,7 +19667,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D654" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E654" s="1" t="n">
         <x:v>5</x:v>
@@ -19696,10 +19696,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D655" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E655" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F655" s="1" t="n">
         <x:v>0</x:v>
@@ -19725,10 +19725,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D656" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E656" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F656" s="1" t="n">
         <x:v>0</x:v>
@@ -24829,10 +24829,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D832" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E832" s="1" t="n">
-        <x:v>814</x:v>
+        <x:v>816</x:v>
       </x:c>
       <x:c r="F832" s="1" t="n">
         <x:v>989</x:v>
@@ -24858,10 +24858,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D833" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E833" s="1" t="n">
-        <x:v>917</x:v>
+        <x:v>919</x:v>
       </x:c>
       <x:c r="F833" s="1" t="n">
         <x:v>1142</x:v>
@@ -25015,7 +25015,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="H838" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I838" s="0" t="n">
         <x:v>0</x:v>
@@ -25044,7 +25044,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="H839" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I839" s="0" t="n">
         <x:v>0</x:v>
@@ -27738,7 +27738,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="G932" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H932" s="1" t="n">
         <x:v>46</x:v>
@@ -27767,7 +27767,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="G933" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H933" s="1" t="n">
         <x:v>56</x:v>
@@ -27909,7 +27909,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F938" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G938" s="1" t="n">
         <x:v>35</x:v>
@@ -27938,7 +27938,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F939" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G939" s="1" t="n">
         <x:v>44</x:v>
@@ -28002,7 +28002,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="H941" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I941" s="0" t="n">
         <x:v>0</x:v>
@@ -28031,7 +28031,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="H942" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="I942" s="0" t="n">
         <x:v>0</x:v>
@@ -28573,7 +28573,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E961" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F961" s="1" t="n">
         <x:v>12</x:v>
@@ -28631,7 +28631,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E963" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F963" s="1" t="n">
         <x:v>47</x:v>
@@ -29449,7 +29449,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G991" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H991" s="1" t="n">
         <x:v>18</x:v>
@@ -29507,7 +29507,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="G993" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H993" s="1" t="n">
         <x:v>69</x:v>
@@ -32749,7 +32749,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E1105" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F1105" s="1" t="n">
         <x:v>18</x:v>
@@ -32778,7 +32778,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E1106" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F1106" s="1" t="n">
         <x:v>26</x:v>
@@ -32862,7 +32862,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D1109" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1109" s="1" t="n">
         <x:v>0</x:v>
@@ -32891,7 +32891,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1110" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1110" s="1" t="n">
         <x:v>10</x:v>
@@ -32920,7 +32920,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1111" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1111" s="1" t="n">
         <x:v>10</x:v>
@@ -32990,7 +32990,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1113" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1113" s="0" t="n">
         <x:v>0</x:v>
@@ -33019,7 +33019,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H1114" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1114" s="0" t="n">
         <x:v>0</x:v>
@@ -33587,7 +33587,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1134" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E1134" s="1" t="n">
         <x:v>1</x:v>
@@ -33616,7 +33616,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1135" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E1135" s="1" t="n">
         <x:v>1</x:v>
@@ -33967,16 +33967,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E1147" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F1147" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G1147" s="1" t="n">
         <x:v>44</x:v>
       </x:c>
       <x:c r="H1147" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I1147" s="0" t="n">
         <x:v>0</x:v>
@@ -33993,10 +33993,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1148" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E1148" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F1148" s="1" t="n">
         <x:v>113</x:v>
@@ -34022,19 +34022,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1149" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E1149" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F1149" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G1149" s="1" t="n">
         <x:v>201</x:v>
       </x:c>
       <x:c r="H1149" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I1149" s="0" t="n">
         <x:v>0</x:v>
@@ -34263,10 +34263,10 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="G1157" s="1" t="n">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="H1157" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="I1157" s="0" t="n">
         <x:v>0</x:v>
@@ -34292,10 +34292,10 @@
         <x:v>233</x:v>
       </x:c>
       <x:c r="G1158" s="1" t="n">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="H1158" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="I1158" s="0" t="n">
         <x:v>0</x:v>
@@ -34434,7 +34434,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F1163" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1163" s="1" t="n">
         <x:v>7</x:v>
@@ -34463,7 +34463,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F1164" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G1164" s="1" t="n">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1168,7 +1168,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>43</x:v>
@@ -1206,7 +1206,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I17" s="0" t="n">
         <x:v>0</x:v>
@@ -1226,7 +1226,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
         <x:v>193</x:v>
@@ -1235,7 +1235,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="I18" s="0" t="n">
         <x:v>0</x:v>
@@ -5701,7 +5701,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H172" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I172" s="0" t="n">
         <x:v>0</x:v>
@@ -5730,7 +5730,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H173" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I173" s="0" t="n">
         <x:v>0</x:v>
@@ -6278,7 +6278,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G192" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H192" s="1" t="n">
         <x:v>17</x:v>
@@ -6307,7 +6307,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G193" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H193" s="1" t="n">
         <x:v>27</x:v>
@@ -8917,7 +8917,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G283" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H283" s="1" t="n">
         <x:v>4</x:v>
@@ -8975,7 +8975,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G285" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H285" s="1" t="n">
         <x:v>10</x:v>
@@ -11762,7 +11762,7 @@
         <x:v>1119</x:v>
       </x:c>
       <x:c r="H381" s="1" t="n">
-        <x:v>517</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="I381" s="0" t="n">
         <x:v>0</x:v>
@@ -11791,7 +11791,7 @@
         <x:v>1452</x:v>
       </x:c>
       <x:c r="H382" s="1" t="n">
-        <x:v>653</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="I382" s="0" t="n">
         <x:v>0</x:v>
@@ -11994,7 +11994,7 @@
         <x:v>191</x:v>
       </x:c>
       <x:c r="H389" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="I389" s="0" t="n">
         <x:v>0</x:v>
@@ -12020,7 +12020,7 @@
         <x:v>591</x:v>
       </x:c>
       <x:c r="G390" s="1" t="n">
-        <x:v>540</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="H390" s="1" t="n">
         <x:v>278</x:v>
@@ -12049,10 +12049,10 @@
         <x:v>806</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
-        <x:v>731</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
-        <x:v>402</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="I391" s="0" t="n">
         <x:v>0</x:v>
@@ -12246,7 +12246,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E398" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F398" s="1" t="n">
         <x:v>120</x:v>
@@ -12272,19 +12272,19 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D399" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E399" s="1" t="n">
-        <x:v>243</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="F399" s="1" t="n">
-        <x:v>365</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="G399" s="1" t="n">
         <x:v>383</x:v>
       </x:c>
       <x:c r="H399" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="I399" s="0" t="n">
         <x:v>0</x:v>
@@ -12301,19 +12301,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D400" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E400" s="1" t="n">
-        <x:v>312</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="F400" s="1" t="n">
-        <x:v>485</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="G400" s="1" t="n">
         <x:v>498</x:v>
       </x:c>
       <x:c r="H400" s="1" t="n">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="I400" s="0" t="n">
         <x:v>0</x:v>
@@ -19383,10 +19383,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F644" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G644" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H644" s="1" t="n">
         <x:v>12</x:v>
@@ -19412,10 +19412,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F645" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G645" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H645" s="1" t="n">
         <x:v>14</x:v>
@@ -24806,7 +24806,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="F831" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G831" s="1" t="n">
         <x:v>183</x:v>
@@ -24864,7 +24864,7 @@
         <x:v>919</x:v>
       </x:c>
       <x:c r="F833" s="1" t="n">
-        <x:v>1142</x:v>
+        <x:v>1141</x:v>
       </x:c>
       <x:c r="G833" s="1" t="n">
         <x:v>1430</x:v>
@@ -27880,7 +27880,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F937" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G937" s="1" t="n">
         <x:v>9</x:v>
@@ -27938,7 +27938,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F939" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G939" s="1" t="n">
         <x:v>44</x:v>
@@ -27996,7 +27996,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F941" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G941" s="1" t="n">
         <x:v>120</x:v>
@@ -28025,7 +28025,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="F942" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G942" s="1" t="n">
         <x:v>166</x:v>
@@ -28257,7 +28257,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F950" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G950" s="1" t="n">
         <x:v>72</x:v>
@@ -28286,7 +28286,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F951" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G951" s="1" t="n">
         <x:v>84</x:v>
@@ -29243,7 +29243,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="F984" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G984" s="1" t="n">
         <x:v>178</x:v>
@@ -29272,7 +29272,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="F985" s="1" t="n">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="G985" s="1" t="n">
         <x:v>240</x:v>
@@ -34002,7 +34002,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="G1148" s="1" t="n">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="H1148" s="1" t="n">
         <x:v>56</x:v>
@@ -34031,7 +34031,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="G1149" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="H1149" s="1" t="n">
         <x:v>64</x:v>
@@ -35704,7 +35704,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1207" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1207" s="1" t="n">
         <x:v>49</x:v>
@@ -35733,7 +35733,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1208" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1208" s="1" t="n">
         <x:v>75</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -2296,7 +2296,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
         <x:v>2</x:v>
@@ -2305,7 +2305,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G55" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H55" s="1" t="n">
         <x:v>1</x:v>
@@ -2334,10 +2334,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G56" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H56" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I56" s="0" t="n">
         <x:v>0</x:v>
@@ -2354,7 +2354,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
         <x:v>4</x:v>
@@ -2363,10 +2363,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G57" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H57" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I57" s="0" t="n">
         <x:v>0</x:v>
@@ -8914,7 +8914,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F283" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G283" s="1" t="n">
         <x:v>2</x:v>
@@ -8946,7 +8946,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G284" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H284" s="1" t="n">
         <x:v>6</x:v>
@@ -8972,10 +8972,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F285" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G285" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H285" s="1" t="n">
         <x:v>10</x:v>
@@ -9529,7 +9529,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="H304" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I304" s="0" t="n">
         <x:v>0</x:v>
@@ -9558,7 +9558,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="H305" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I305" s="0" t="n">
         <x:v>0</x:v>
@@ -11724,10 +11724,10 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E380" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="F380" s="1" t="n">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="G380" s="1" t="n">
         <x:v>333</x:v>
@@ -11753,7 +11753,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="E381" s="1" t="n">
-        <x:v>641</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="F381" s="1" t="n">
         <x:v>1205</x:v>
@@ -11782,10 +11782,10 @@
         <x:v>234</x:v>
       </x:c>
       <x:c r="E382" s="1" t="n">
-        <x:v>859</x:v>
+        <x:v>861</x:v>
       </x:c>
       <x:c r="F382" s="1" t="n">
-        <x:v>1561</x:v>
+        <x:v>1563</x:v>
       </x:c>
       <x:c r="G382" s="1" t="n">
         <x:v>1452</x:v>
@@ -11837,7 +11837,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D384" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E384" s="1" t="n">
         <x:v>34</x:v>
@@ -11866,7 +11866,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D385" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E385" s="1" t="n">
         <x:v>48</x:v>
@@ -12020,7 +12020,7 @@
         <x:v>591</x:v>
       </x:c>
       <x:c r="G390" s="1" t="n">
-        <x:v>541</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="H390" s="1" t="n">
         <x:v>278</x:v>
@@ -12049,7 +12049,7 @@
         <x:v>806</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
-        <x:v>732</x:v>
+        <x:v>733</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
         <x:v>403</x:v>
@@ -12252,10 +12252,10 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="G398" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H398" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I398" s="0" t="n">
         <x:v>0</x:v>
@@ -12275,16 +12275,16 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E399" s="1" t="n">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="F399" s="1" t="n">
-        <x:v>367</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="G399" s="1" t="n">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="H399" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I399" s="0" t="n">
         <x:v>0</x:v>
@@ -12304,16 +12304,16 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E400" s="1" t="n">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="F400" s="1" t="n">
-        <x:v>487</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="G400" s="1" t="n">
-        <x:v>498</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="H400" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="I400" s="0" t="n">
         <x:v>0</x:v>
@@ -12745,7 +12745,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="G415" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H415" s="1" t="n">
         <x:v>42</x:v>
@@ -12774,7 +12774,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="G416" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="H416" s="1" t="n">
         <x:v>55</x:v>
@@ -20276,7 +20276,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D675" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E675" s="1" t="n">
         <x:v>3</x:v>
@@ -20305,7 +20305,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D676" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E676" s="1" t="n">
         <x:v>7</x:v>
@@ -24835,7 +24835,7 @@
         <x:v>816</x:v>
       </x:c>
       <x:c r="F832" s="1" t="n">
-        <x:v>989</x:v>
+        <x:v>988</x:v>
       </x:c>
       <x:c r="G832" s="1" t="n">
         <x:v>1247</x:v>
@@ -24864,7 +24864,7 @@
         <x:v>919</x:v>
       </x:c>
       <x:c r="F833" s="1" t="n">
-        <x:v>1141</x:v>
+        <x:v>1140</x:v>
       </x:c>
       <x:c r="G833" s="1" t="n">
         <x:v>1430</x:v>
@@ -27706,7 +27706,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F931" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G931" s="1" t="n">
         <x:v>34</x:v>
@@ -27738,7 +27738,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="G932" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H932" s="1" t="n">
         <x:v>46</x:v>
@@ -27764,10 +27764,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F933" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G933" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H933" s="1" t="n">
         <x:v>56</x:v>
@@ -29075,7 +29075,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H978" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I978" s="0" t="n">
         <x:v>0</x:v>
@@ -29104,7 +29104,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H979" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I979" s="0" t="n">
         <x:v>0</x:v>
@@ -29246,7 +29246,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="G984" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="H984" s="1" t="n">
         <x:v>99</x:v>
@@ -29275,7 +29275,7 @@
         <x:v>212</x:v>
       </x:c>
       <x:c r="G985" s="1" t="n">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="H985" s="1" t="n">
         <x:v>131</x:v>
@@ -29994,7 +29994,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E1010" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F1010" s="1" t="n">
         <x:v>49</x:v>
@@ -30023,7 +30023,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E1011" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F1011" s="1" t="n">
         <x:v>80</x:v>
@@ -30432,7 +30432,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F1025" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G1025" s="1" t="n">
         <x:v>22</x:v>
@@ -30461,7 +30461,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F1026" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G1026" s="1" t="n">
         <x:v>29</x:v>
@@ -33074,10 +33074,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G1116" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H1116" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1116" s="0" t="n">
         <x:v>0</x:v>
@@ -33103,10 +33103,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G1117" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H1117" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1117" s="0" t="n">
         <x:v>0</x:v>
@@ -33213,7 +33213,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1121" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1121" s="1" t="n">
         <x:v>2</x:v>
@@ -33242,7 +33242,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1122" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1122" s="1" t="n">
         <x:v>3</x:v>
@@ -33271,7 +33271,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1123" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1123" s="1" t="n">
         <x:v>5</x:v>
@@ -33999,7 +33999,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="F1148" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G1148" s="1" t="n">
         <x:v>158</x:v>
@@ -34028,7 +34028,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="F1149" s="1" t="n">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G1149" s="1" t="n">
         <x:v>202</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -788,7 +788,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>0</x:v>
@@ -797,10 +797,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
         <x:v>0</x:v>
@@ -817,7 +817,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>0</x:v>
@@ -826,10 +826,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I4" s="0" t="n">
         <x:v>0</x:v>
@@ -852,7 +852,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
         <x:v>3</x:v>
@@ -878,7 +878,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>5</x:v>
@@ -907,10 +907,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>5</x:v>
@@ -1197,7 +1197,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>150</x:v>
@@ -1226,7 +1226,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
         <x:v>193</x:v>
@@ -1348,7 +1348,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
         <x:v>5</x:v>
@@ -1377,7 +1377,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
         <x:v>22</x:v>
@@ -1464,7 +1464,7 @@
         <x:v>247</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
         <x:v>134</x:v>
@@ -1493,7 +1493,7 @@
         <x:v>311</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
         <x:v>178</x:v>
@@ -2215,10 +2215,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F52" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G52" s="1" t="n">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="G52" s="1" t="n">
-        <x:v>3</x:v>
       </x:c>
       <x:c r="H52" s="1" t="n">
         <x:v>1</x:v>
@@ -2241,16 +2241,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E53" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F53" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G53" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H53" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I53" s="0" t="n">
         <x:v>0</x:v>
@@ -2270,16 +2270,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E54" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F54" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G54" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H54" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I54" s="0" t="n">
         <x:v>0</x:v>
@@ -2299,7 +2299,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F55" s="1" t="n">
         <x:v>1</x:v>
@@ -2325,7 +2325,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
         <x:v>2</x:v>
@@ -2337,7 +2337,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H56" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I56" s="0" t="n">
         <x:v>0</x:v>
@@ -2354,10 +2354,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F57" s="1" t="n">
         <x:v>9</x:v>
@@ -2366,7 +2366,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H57" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I57" s="0" t="n">
         <x:v>0</x:v>
@@ -2389,7 +2389,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F58" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G58" s="1" t="n">
         <x:v>25</x:v>
@@ -2415,16 +2415,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F59" s="1" t="n">
         <x:v>40</x:v>
       </x:c>
       <x:c r="G59" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H59" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I59" s="0" t="n">
         <x:v>0</x:v>
@@ -2444,16 +2444,16 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E60" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F60" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G60" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I60" s="0" t="n">
         <x:v>0</x:v>
@@ -2589,7 +2589,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F65" s="1" t="n">
         <x:v>2</x:v>
@@ -2618,7 +2618,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E66" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F66" s="1" t="n">
         <x:v>2</x:v>
@@ -2656,7 +2656,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H67" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I67" s="0" t="n">
         <x:v>0</x:v>
@@ -2682,7 +2682,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G68" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H68" s="1" t="n">
         <x:v>1</x:v>
@@ -2711,10 +2711,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G69" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H69" s="1" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="H69" s="1" t="n">
-        <x:v>2</x:v>
       </x:c>
       <x:c r="I69" s="0" t="n">
         <x:v>0</x:v>
@@ -6246,13 +6246,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F191" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G191" s="1" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H191" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I191" s="0" t="n">
         <x:v>0</x:v>
@@ -6304,13 +6304,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F193" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G193" s="1" t="n">
         <x:v>33</x:v>
       </x:c>
       <x:c r="H193" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I193" s="0" t="n">
         <x:v>0</x:v>
@@ -6597,7 +6597,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="G203" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H203" s="1" t="n">
         <x:v>52</x:v>
@@ -6626,7 +6626,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="G204" s="1" t="n">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="H204" s="1" t="n">
         <x:v>60</x:v>
@@ -6713,7 +6713,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G207" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H207" s="1" t="n">
         <x:v>1</x:v>
@@ -6733,7 +6733,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D208" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E208" s="1" t="n">
         <x:v>4</x:v>
@@ -6762,7 +6762,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D209" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E209" s="1" t="n">
         <x:v>7</x:v>
@@ -6771,7 +6771,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G209" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H209" s="1" t="n">
         <x:v>3</x:v>
@@ -6936,7 +6936,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D215" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E215" s="1" t="n">
         <x:v>3</x:v>
@@ -6965,7 +6965,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D216" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E216" s="1" t="n">
         <x:v>1</x:v>
@@ -6994,7 +6994,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D217" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E217" s="1" t="n">
         <x:v>4</x:v>
@@ -7032,7 +7032,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G218" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H218" s="1" t="n">
         <x:v>1</x:v>
@@ -7058,10 +7058,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F219" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G219" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H219" s="1" t="n">
         <x:v>8</x:v>
@@ -7087,10 +7087,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F220" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G220" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H220" s="1" t="n">
         <x:v>9</x:v>
@@ -7148,7 +7148,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G222" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H222" s="1" t="n">
         <x:v>6</x:v>
@@ -7177,7 +7177,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G223" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H223" s="1" t="n">
         <x:v>6</x:v>
@@ -8511,7 +8511,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="G269" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H269" s="1" t="n">
         <x:v>18</x:v>
@@ -8543,7 +8543,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="H270" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I270" s="0" t="n">
         <x:v>0</x:v>
@@ -8569,10 +8569,10 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="G271" s="1" t="n">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="H271" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I271" s="0" t="n">
         <x:v>0</x:v>
@@ -8766,10 +8766,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E278" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F278" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="G278" s="1" t="n">
         <x:v>202</x:v>
@@ -8795,10 +8795,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E279" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F279" s="1" t="n">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="G279" s="1" t="n">
         <x:v>272</x:v>
@@ -8937,7 +8937,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D284" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E284" s="1" t="n">
         <x:v>10</x:v>
@@ -8949,7 +8949,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H284" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I284" s="0" t="n">
         <x:v>0</x:v>
@@ -8966,7 +8966,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D285" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E285" s="1" t="n">
         <x:v>18</x:v>
@@ -8978,7 +8978,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H285" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I285" s="0" t="n">
         <x:v>0</x:v>
@@ -9671,7 +9671,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G309" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H309" s="1" t="n">
         <x:v>8</x:v>
@@ -9694,13 +9694,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E310" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F310" s="1" t="n">
         <x:v>31</x:v>
       </x:c>
       <x:c r="G310" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H310" s="1" t="n">
         <x:v>29</x:v>
@@ -9723,13 +9723,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E311" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F311" s="1" t="n">
         <x:v>46</x:v>
       </x:c>
       <x:c r="G311" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H311" s="1" t="n">
         <x:v>37</x:v>
@@ -10477,7 +10477,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E337" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F337" s="1" t="n">
         <x:v>13</x:v>
@@ -10506,7 +10506,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E338" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F338" s="1" t="n">
         <x:v>20</x:v>
@@ -11727,7 +11727,7 @@
         <x:v>219</x:v>
       </x:c>
       <x:c r="F380" s="1" t="n">
-        <x:v>358</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="G380" s="1" t="n">
         <x:v>333</x:v>
@@ -11750,19 +11750,19 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D381" s="1" t="n">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E381" s="1" t="n">
         <x:v>642</x:v>
       </x:c>
       <x:c r="F381" s="1" t="n">
-        <x:v>1205</x:v>
+        <x:v>1209</x:v>
       </x:c>
       <x:c r="G381" s="1" t="n">
-        <x:v>1119</x:v>
+        <x:v>1127</x:v>
       </x:c>
       <x:c r="H381" s="1" t="n">
-        <x:v>518</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="I381" s="0" t="n">
         <x:v>0</x:v>
@@ -11779,19 +11779,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D382" s="1" t="n">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="E382" s="1" t="n">
         <x:v>861</x:v>
       </x:c>
       <x:c r="F382" s="1" t="n">
-        <x:v>1563</x:v>
+        <x:v>1570</x:v>
       </x:c>
       <x:c r="G382" s="1" t="n">
-        <x:v>1452</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="H382" s="1" t="n">
-        <x:v>654</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="I382" s="0" t="n">
         <x:v>0</x:v>
@@ -11808,7 +11808,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D383" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E383" s="1" t="n">
         <x:v>14</x:v>
@@ -11837,7 +11837,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D384" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E384" s="1" t="n">
         <x:v>34</x:v>
@@ -11866,7 +11866,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D385" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E385" s="1" t="n">
         <x:v>48</x:v>
@@ -11924,7 +11924,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D387" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E387" s="1" t="n">
         <x:v>70</x:v>
@@ -11936,7 +11936,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="H387" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I387" s="0" t="n">
         <x:v>0</x:v>
@@ -11953,7 +11953,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D388" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E388" s="1" t="n">
         <x:v>99</x:v>
@@ -11965,7 +11965,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="H388" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I388" s="0" t="n">
         <x:v>0</x:v>
@@ -11994,7 +11994,7 @@
         <x:v>191</x:v>
       </x:c>
       <x:c r="H389" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="I389" s="0" t="n">
         <x:v>0</x:v>
@@ -12014,16 +12014,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E390" s="1" t="n">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="F390" s="1" t="n">
-        <x:v>591</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="G390" s="1" t="n">
         <x:v>542</x:v>
       </x:c>
       <x:c r="H390" s="1" t="n">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="I390" s="0" t="n">
         <x:v>0</x:v>
@@ -12043,16 +12043,16 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E391" s="1" t="n">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="F391" s="1" t="n">
-        <x:v>806</x:v>
+        <x:v>807</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
         <x:v>733</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
-        <x:v>403</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="I391" s="0" t="n">
         <x:v>0</x:v>
@@ -12072,7 +12072,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E392" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F392" s="1" t="n">
         <x:v>10</x:v>
@@ -12130,7 +12130,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E394" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F394" s="1" t="n">
         <x:v>13</x:v>
@@ -18893,7 +18893,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="G627" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H627" s="1" t="n">
         <x:v>27</x:v>
@@ -18922,7 +18922,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="G628" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H628" s="1" t="n">
         <x:v>37</x:v>
@@ -22396,7 +22396,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E748" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F748" s="1" t="n">
         <x:v>3</x:v>
@@ -22428,10 +22428,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F749" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G749" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H749" s="1" t="n">
         <x:v>16</x:v>
@@ -22454,13 +22454,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E750" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F750" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G750" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H750" s="1" t="n">
         <x:v>18</x:v>
@@ -22570,13 +22570,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E754" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F754" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G754" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H754" s="1" t="n">
         <x:v>9</x:v>
@@ -22599,16 +22599,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E755" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F755" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G755" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H755" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I755" s="0" t="n">
         <x:v>0</x:v>
@@ -22628,16 +22628,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E756" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F756" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G756" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H756" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I756" s="0" t="n">
         <x:v>0</x:v>
@@ -23069,7 +23069,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G771" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H771" s="1" t="n">
         <x:v>4</x:v>
@@ -23127,7 +23127,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G773" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H773" s="1" t="n">
         <x:v>12</x:v>
@@ -24832,16 +24832,16 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E832" s="1" t="n">
-        <x:v>816</x:v>
+        <x:v>817</x:v>
       </x:c>
       <x:c r="F832" s="1" t="n">
         <x:v>988</x:v>
       </x:c>
       <x:c r="G832" s="1" t="n">
-        <x:v>1247</x:v>
+        <x:v>1251</x:v>
       </x:c>
       <x:c r="H832" s="1" t="n">
-        <x:v>1139</x:v>
+        <x:v>1140</x:v>
       </x:c>
       <x:c r="I832" s="0" t="n">
         <x:v>0</x:v>
@@ -24861,16 +24861,16 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E833" s="1" t="n">
-        <x:v>919</x:v>
+        <x:v>920</x:v>
       </x:c>
       <x:c r="F833" s="1" t="n">
         <x:v>1140</x:v>
       </x:c>
       <x:c r="G833" s="1" t="n">
-        <x:v>1430</x:v>
+        <x:v>1434</x:v>
       </x:c>
       <x:c r="H833" s="1" t="n">
-        <x:v>1257</x:v>
+        <x:v>1258</x:v>
       </x:c>
       <x:c r="I833" s="0" t="n">
         <x:v>0</x:v>
@@ -25093,13 +25093,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E841" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F841" s="1" t="n">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="G841" s="1" t="n">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="H841" s="1" t="n">
         <x:v>112</x:v>
@@ -25122,13 +25122,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E842" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F842" s="1" t="n">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="G842" s="1" t="n">
         <x:v>339</x:v>
-      </x:c>
-      <x:c r="G842" s="1" t="n">
-        <x:v>338</x:v>
       </x:c>
       <x:c r="H842" s="1" t="n">
         <x:v>148</x:v>
@@ -25363,7 +25363,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="H850" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I850" s="0" t="n">
         <x:v>0</x:v>
@@ -25392,7 +25392,7 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="H851" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I851" s="0" t="n">
         <x:v>0</x:v>
@@ -27738,7 +27738,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="G932" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H932" s="1" t="n">
         <x:v>46</x:v>
@@ -27767,7 +27767,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="G933" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H933" s="1" t="n">
         <x:v>56</x:v>
@@ -28167,7 +28167,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E947" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F947" s="1" t="n">
         <x:v>7</x:v>
@@ -28196,7 +28196,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E948" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F948" s="1" t="n">
         <x:v>11</x:v>
@@ -29217,7 +29217,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="G983" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H983" s="1" t="n">
         <x:v>32</x:v>
@@ -29243,13 +29243,13 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="F984" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G984" s="1" t="n">
         <x:v>179</x:v>
       </x:c>
       <x:c r="H984" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="I984" s="0" t="n">
         <x:v>0</x:v>
@@ -29272,13 +29272,13 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="F985" s="1" t="n">
-        <x:v>212</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="G985" s="1" t="n">
-        <x:v>241</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="H985" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I985" s="0" t="n">
         <x:v>0</x:v>
@@ -29356,10 +29356,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E988" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F988" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G988" s="1" t="n">
         <x:v>25</x:v>
@@ -29388,10 +29388,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F989" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G989" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H989" s="1" t="n">
         <x:v>45</x:v>
@@ -29414,13 +29414,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E990" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F990" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G990" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H990" s="1" t="n">
         <x:v>58</x:v>
@@ -29443,7 +29443,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E991" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F991" s="1" t="n">
         <x:v>22</x:v>
@@ -29501,7 +29501,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E993" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F993" s="1" t="n">
         <x:v>82</x:v>
@@ -29617,7 +29617,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E997" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F997" s="1" t="n">
         <x:v>1</x:v>
@@ -29675,7 +29675,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E999" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F999" s="1" t="n">
         <x:v>5</x:v>
@@ -29710,7 +29710,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="G1000" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H1000" s="1" t="n">
         <x:v>7</x:v>
@@ -29768,7 +29768,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="G1002" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H1002" s="1" t="n">
         <x:v>29</x:v>
@@ -30406,7 +30406,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G1024" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H1024" s="1" t="n">
         <x:v>2</x:v>
@@ -30464,7 +30464,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G1026" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H1026" s="1" t="n">
         <x:v>11</x:v>
@@ -31711,7 +31711,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G1069" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1069" s="1" t="n">
         <x:v>3</x:v>
@@ -31740,10 +31740,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G1070" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H1070" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I1070" s="0" t="n">
         <x:v>0</x:v>
@@ -31769,10 +31769,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G1071" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H1071" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I1071" s="0" t="n">
         <x:v>0</x:v>
@@ -31963,7 +31963,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1078" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1078" s="1" t="n">
         <x:v>4</x:v>
@@ -31972,7 +31972,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G1078" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1078" s="1" t="n">
         <x:v>8</x:v>
@@ -31992,7 +31992,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1079" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1079" s="1" t="n">
         <x:v>4</x:v>
@@ -32001,7 +32001,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G1079" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H1079" s="1" t="n">
         <x:v>9</x:v>
@@ -32172,7 +32172,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1085" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1085" s="1" t="n">
         <x:v>0</x:v>
@@ -32201,7 +32201,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1086" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1086" s="1" t="n">
         <x:v>0</x:v>
@@ -33558,7 +33558,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D1133" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1133" s="1" t="n">
         <x:v>0</x:v>
@@ -33587,19 +33587,19 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1134" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E1134" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1134" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="G1134" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1134" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1134" s="0" t="n">
         <x:v>0</x:v>
@@ -33616,19 +33616,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1135" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E1135" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1135" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G1135" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1135" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1135" s="0" t="n">
         <x:v>0</x:v>
@@ -34002,7 +34002,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="G1148" s="1" t="n">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="H1148" s="1" t="n">
         <x:v>56</x:v>
@@ -34031,7 +34031,7 @@
         <x:v>156</x:v>
       </x:c>
       <x:c r="G1149" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="H1149" s="1" t="n">
         <x:v>64</x:v>
@@ -34263,7 +34263,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="G1157" s="1" t="n">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="H1157" s="1" t="n">
         <x:v>116</x:v>
@@ -34292,7 +34292,7 @@
         <x:v>233</x:v>
       </x:c>
       <x:c r="G1158" s="1" t="n">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="H1158" s="1" t="n">
         <x:v>151</x:v>
@@ -35678,7 +35678,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1206" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F1206" s="1" t="n">
         <x:v>12</x:v>
@@ -35710,7 +35710,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F1207" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G1207" s="1" t="n">
         <x:v>50</x:v>
@@ -35736,10 +35736,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E1208" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F1208" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G1208" s="1" t="n">
         <x:v>63</x:v>
@@ -36461,7 +36461,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1233" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1233" s="1" t="n">
         <x:v>10</x:v>
@@ -36490,7 +36490,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1234" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1234" s="1" t="n">
         <x:v>13</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -412,10 +412,7 @@
     <x:t>152</x:t>
   </x:si>
   <x:si>
-    <x:t>167</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
+    <x:t>168</x:t>
   </x:si>
   <x:si>
     <x:t>Clearwater</x:t>
@@ -428,6 +425,9 @@
   </x:si>
   <x:si>
     <x:t>Crow Wing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
   </x:si>
   <x:si>
     <x:t>90</x:t>
@@ -445,9 +445,6 @@
     <x:t>73</x:t>
   </x:si>
   <x:si>
-    <x:t>74</x:t>
-  </x:si>
-  <x:si>
     <x:t>60</x:t>
   </x:si>
   <x:si>
@@ -457,16 +454,16 @@
     <x:t>278</x:t>
   </x:si>
   <x:si>
-    <x:t>95</x:t>
-  </x:si>
-  <x:si>
     <x:t>78</x:t>
   </x:si>
   <x:si>
-    <x:t>50</x:t>
+    <x:t>74</x:t>
   </x:si>
   <x:si>
-    <x:t>223</x:t>
+    <x:t>100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>224</x:t>
   </x:si>
   <x:si>
     <x:t>222</x:t>
@@ -475,10 +472,10 @@
     <x:t>102</x:t>
   </x:si>
   <x:si>
-    <x:t>127</x:t>
+    <x:t>128</x:t>
   </x:si>
   <x:si>
-    <x:t>273</x:t>
+    <x:t>276</x:t>
   </x:si>
   <x:si>
     <x:t>296</x:t>
@@ -488,9 +485,6 @@
   </x:si>
   <x:si>
     <x:t>Douglas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66</x:t>
   </x:si>
   <x:si>
     <x:t>Faribault</x:t>
@@ -520,7 +514,7 @@
     <x:t>389</x:t>
   </x:si>
   <x:si>
-    <x:t>364</x:t>
+    <x:t>363</x:t>
   </x:si>
   <x:si>
     <x:t>149</x:t>
@@ -535,7 +529,7 @@
     <x:t>1305</x:t>
   </x:si>
   <x:si>
-    <x:t>1239</x:t>
+    <x:t>1241</x:t>
   </x:si>
   <x:si>
     <x:t>565</x:t>
@@ -550,10 +544,16 @@
     <x:t>1694</x:t>
   </x:si>
   <x:si>
-    <x:t>1603</x:t>
+    <x:t>1604</x:t>
   </x:si>
   <x:si>
     <x:t>714</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
   </x:si>
   <x:si>
     <x:t>76</x:t>
@@ -565,7 +565,7 @@
     <x:t>98</x:t>
   </x:si>
   <x:si>
-    <x:t>163</x:t>
+    <x:t>164</x:t>
   </x:si>
   <x:si>
     <x:t>193</x:t>
@@ -586,10 +586,10 @@
     <x:t>280</x:t>
   </x:si>
   <x:si>
-    <x:t>659</x:t>
+    <x:t>661</x:t>
   </x:si>
   <x:si>
-    <x:t>582</x:t>
+    <x:t>583</x:t>
   </x:si>
   <x:si>
     <x:t>308</x:t>
@@ -598,10 +598,10 @@
     <x:t>400</x:t>
   </x:si>
   <x:si>
-    <x:t>885</x:t>
+    <x:t>887</x:t>
   </x:si>
   <x:si>
-    <x:t>795</x:t>
+    <x:t>796</x:t>
   </x:si>
   <x:si>
     <x:t>454</x:t>
@@ -616,13 +616,13 @@
     <x:t>118</x:t>
   </x:si>
   <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
     <x:t>77</x:t>
   </x:si>
   <x:si>
     <x:t>138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>127</x:t>
   </x:si>
   <x:si>
     <x:t>81</x:t>
@@ -631,7 +631,7 @@
     <x:t>265</x:t>
   </x:si>
   <x:si>
-    <x:t>402</x:t>
+    <x:t>404</x:t>
   </x:si>
   <x:si>
     <x:t>434</x:t>
@@ -643,7 +643,7 @@
     <x:t>342</x:t>
   </x:si>
   <x:si>
-    <x:t>540</x:t>
+    <x:t>542</x:t>
   </x:si>
   <x:si>
     <x:t>561</x:t>
@@ -715,6 +715,9 @@
     <x:t>Mille Lacs</x:t>
   </x:si>
   <x:si>
+    <x:t>66</x:t>
+  </x:si>
+  <x:si>
     <x:t>Morrison</x:t>
   </x:si>
   <x:si>
@@ -760,25 +763,25 @@
     <x:t>57</x:t>
   </x:si>
   <x:si>
-    <x:t>202</x:t>
+    <x:t>203</x:t>
   </x:si>
   <x:si>
     <x:t>219</x:t>
   </x:si>
   <x:si>
-    <x:t>253</x:t>
+    <x:t>254</x:t>
   </x:si>
   <x:si>
     <x:t>142</x:t>
   </x:si>
   <x:si>
-    <x:t>139</x:t>
+    <x:t>140</x:t>
   </x:si>
   <x:si>
     <x:t>191</x:t>
   </x:si>
   <x:si>
-    <x:t>195</x:t>
+    <x:t>196</x:t>
   </x:si>
   <x:si>
     <x:t>94</x:t>
@@ -883,6 +886,9 @@
     <x:t>Scott</x:t>
   </x:si>
   <x:si>
+    <x:t>95</x:t>
+  </x:si>
+  <x:si>
     <x:t>188</x:t>
   </x:si>
   <x:si>
@@ -901,22 +907,19 @@
     <x:t>St. Louis</x:t>
   </x:si>
   <x:si>
-    <x:t>158</x:t>
+    <x:t>160</x:t>
   </x:si>
   <x:si>
     <x:t>197</x:t>
   </x:si>
   <x:si>
-    <x:t>235</x:t>
-  </x:si>
-  <x:si>
     <x:t>260</x:t>
   </x:si>
   <x:si>
-    <x:t>104</x:t>
+    <x:t>147</x:t>
   </x:si>
   <x:si>
-    <x:t>100</x:t>
+    <x:t>104</x:t>
   </x:si>
   <x:si>
     <x:t>Stearns</x:t>
@@ -925,10 +928,16 @@
     <x:t>180</x:t>
   </x:si>
   <x:si>
+    <x:t>223</x:t>
+  </x:si>
+  <x:si>
     <x:t>97</x:t>
   </x:si>
   <x:si>
     <x:t>108</x:t>
+  </x:si>
+  <x:si>
+    <x:t>167</x:t>
   </x:si>
   <x:si>
     <x:t>88</x:t>
@@ -967,22 +976,16 @@
     <x:t>125</x:t>
   </x:si>
   <x:si>
-    <x:t>171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>217</x:t>
+    <x:t>170</x:t>
   </x:si>
   <x:si>
     <x:t>89</x:t>
   </x:si>
   <x:si>
-    <x:t>189</x:t>
+    <x:t>190</x:t>
   </x:si>
   <x:si>
-    <x:t>204</x:t>
+    <x:t>206</x:t>
   </x:si>
   <x:si>
     <x:t>133</x:t>
@@ -991,7 +994,10 @@
     <x:t>145</x:t>
   </x:si>
   <x:si>
-    <x:t>293</x:t>
+    <x:t>275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>295</x:t>
   </x:si>
   <x:si>
     <x:t>172</x:t>
@@ -2893,7 +2899,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E52" s="1" t="s">
         <x:v>14</x:v>
@@ -2922,13 +2928,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E53" s="1" t="s">
         <x:v>68</x:v>
       </x:c>
       <x:c r="F53" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G53" s="1" t="s">
         <x:v>47</x:v>
@@ -2951,13 +2957,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="F54" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G54" s="1" t="s">
         <x:v>48</x:v>
@@ -2989,7 +2995,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G55" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H55" s="1" t="s">
         <x:v>14</x:v>
@@ -3009,7 +3015,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
         <x:v>17</x:v>
@@ -3021,7 +3027,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="H56" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I56" s="0" t="s">
         <x:v>13</x:v>
@@ -3038,7 +3044,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
         <x:v>21</x:v>
@@ -3047,10 +3053,10 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="G57" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H57" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I57" s="0" t="s">
         <x:v>13</x:v>
@@ -3076,7 +3082,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="G58" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
         <x:v>86</x:v>
@@ -3105,7 +3111,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="G59" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
         <x:v>53</x:v>
@@ -3160,7 +3166,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F61" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G61" s="1" t="s">
         <x:v>24</x:v>
@@ -3192,7 +3198,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G62" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
         <x:v>13</x:v>
@@ -3218,10 +3224,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
         <x:v>13</x:v>
@@ -3337,7 +3343,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G67" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H67" s="1" t="s">
         <x:v>14</x:v>
@@ -3395,7 +3401,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G69" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H69" s="1" t="s">
         <x:v>68</x:v>
@@ -3685,7 +3691,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="G79" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H79" s="1" t="s">
         <x:v>75</x:v>
@@ -3714,7 +3720,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G80" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H80" s="1" t="s">
         <x:v>74</x:v>
@@ -4088,7 +4094,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F93" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G93" s="1" t="s">
         <x:v>13</x:v>
@@ -4146,7 +4152,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F95" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G95" s="1" t="s">
         <x:v>13</x:v>
@@ -4639,7 +4645,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F112" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G112" s="1" t="s">
         <x:v>25</x:v>
@@ -4668,7 +4674,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="F113" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G113" s="1" t="s">
         <x:v>18</x:v>
@@ -7281,7 +7287,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="G203" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H203" s="1" t="s">
         <x:v>68</x:v>
@@ -7417,13 +7423,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D208" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E208" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="F208" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G208" s="1" t="s">
         <x:v>18</x:v>
@@ -7475,13 +7481,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D210" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E210" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F210" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G210" s="1" t="s">
         <x:v>47</x:v>
@@ -7510,7 +7516,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F211" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G211" s="1" t="s">
         <x:v>27</x:v>
@@ -7568,7 +7574,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F213" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G213" s="1" t="s">
         <x:v>90</x:v>
@@ -7771,7 +7777,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F220" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G220" s="1" t="s">
         <x:v>35</x:v>
@@ -7800,7 +7806,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F221" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G221" s="1" t="s">
         <x:v>79</x:v>
@@ -7814,7 +7820,7 @@
     </x:row>
     <x:row r="222" spans="1:9">
       <x:c r="A222" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B222" s="0" t="s">
         <x:v>10</x:v>
@@ -7843,7 +7849,7 @@
     </x:row>
     <x:row r="223" spans="1:9">
       <x:c r="A223" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B223" s="0" t="s">
         <x:v>10</x:v>
@@ -7872,7 +7878,7 @@
     </x:row>
     <x:row r="224" spans="1:9">
       <x:c r="A224" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B224" s="0" t="s">
         <x:v>10</x:v>
@@ -7901,7 +7907,7 @@
     </x:row>
     <x:row r="225" spans="1:9">
       <x:c r="A225" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B225" s="0" t="s">
         <x:v>23</x:v>
@@ -7930,7 +7936,7 @@
     </x:row>
     <x:row r="226" spans="1:9">
       <x:c r="A226" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B226" s="0" t="s">
         <x:v>23</x:v>
@@ -7959,7 +7965,7 @@
     </x:row>
     <x:row r="227" spans="1:9">
       <x:c r="A227" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B227" s="0" t="s">
         <x:v>26</x:v>
@@ -7988,7 +7994,7 @@
     </x:row>
     <x:row r="228" spans="1:9">
       <x:c r="A228" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B228" s="0" t="s">
         <x:v>26</x:v>
@@ -8017,7 +8023,7 @@
     </x:row>
     <x:row r="229" spans="1:9">
       <x:c r="A229" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B229" s="0" t="s">
         <x:v>26</x:v>
@@ -8046,7 +8052,7 @@
     </x:row>
     <x:row r="230" spans="1:9">
       <x:c r="A230" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B230" s="0" t="s">
         <x:v>10</x:v>
@@ -8075,7 +8081,7 @@
     </x:row>
     <x:row r="231" spans="1:9">
       <x:c r="A231" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B231" s="0" t="s">
         <x:v>10</x:v>
@@ -8104,7 +8110,7 @@
     </x:row>
     <x:row r="232" spans="1:9">
       <x:c r="A232" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B232" s="0" t="s">
         <x:v>23</x:v>
@@ -8133,7 +8139,7 @@
     </x:row>
     <x:row r="233" spans="1:9">
       <x:c r="A233" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B233" s="0" t="s">
         <x:v>23</x:v>
@@ -8162,7 +8168,7 @@
     </x:row>
     <x:row r="234" spans="1:9">
       <x:c r="A234" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B234" s="0" t="s">
         <x:v>26</x:v>
@@ -8191,7 +8197,7 @@
     </x:row>
     <x:row r="235" spans="1:9">
       <x:c r="A235" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B235" s="0" t="s">
         <x:v>26</x:v>
@@ -8220,7 +8226,7 @@
     </x:row>
     <x:row r="236" spans="1:9">
       <x:c r="A236" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B236" s="0" t="s">
         <x:v>26</x:v>
@@ -8249,7 +8255,7 @@
     </x:row>
     <x:row r="237" spans="1:9">
       <x:c r="A237" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B237" s="0" t="s">
         <x:v>30</x:v>
@@ -8278,7 +8284,7 @@
     </x:row>
     <x:row r="238" spans="1:9">
       <x:c r="A238" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B238" s="0" t="s">
         <x:v>30</x:v>
@@ -8307,7 +8313,7 @@
     </x:row>
     <x:row r="239" spans="1:9">
       <x:c r="A239" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B239" s="0" t="s">
         <x:v>10</x:v>
@@ -8336,7 +8342,7 @@
     </x:row>
     <x:row r="240" spans="1:9">
       <x:c r="A240" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B240" s="0" t="s">
         <x:v>10</x:v>
@@ -8365,7 +8371,7 @@
     </x:row>
     <x:row r="241" spans="1:9">
       <x:c r="A241" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B241" s="0" t="s">
         <x:v>10</x:v>
@@ -8394,7 +8400,7 @@
     </x:row>
     <x:row r="242" spans="1:9">
       <x:c r="A242" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B242" s="0" t="s">
         <x:v>23</x:v>
@@ -8423,7 +8429,7 @@
     </x:row>
     <x:row r="243" spans="1:9">
       <x:c r="A243" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B243" s="0" t="s">
         <x:v>23</x:v>
@@ -8452,7 +8458,7 @@
     </x:row>
     <x:row r="244" spans="1:9">
       <x:c r="A244" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B244" s="0" t="s">
         <x:v>26</x:v>
@@ -8481,7 +8487,7 @@
     </x:row>
     <x:row r="245" spans="1:9">
       <x:c r="A245" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B245" s="0" t="s">
         <x:v>26</x:v>
@@ -8510,7 +8516,7 @@
     </x:row>
     <x:row r="246" spans="1:9">
       <x:c r="A246" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B246" s="0" t="s">
         <x:v>26</x:v>
@@ -8539,7 +8545,7 @@
     </x:row>
     <x:row r="247" spans="1:9">
       <x:c r="A247" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B247" s="0" t="s">
         <x:v>29</x:v>
@@ -8568,7 +8574,7 @@
     </x:row>
     <x:row r="248" spans="1:9">
       <x:c r="A248" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B248" s="0" t="s">
         <x:v>29</x:v>
@@ -8597,7 +8603,7 @@
     </x:row>
     <x:row r="249" spans="1:9">
       <x:c r="A249" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B249" s="0" t="s">
         <x:v>29</x:v>
@@ -8626,7 +8632,7 @@
     </x:row>
     <x:row r="250" spans="1:9">
       <x:c r="A250" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B250" s="0" t="s">
         <x:v>30</x:v>
@@ -8655,7 +8661,7 @@
     </x:row>
     <x:row r="251" spans="1:9">
       <x:c r="A251" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B251" s="0" t="s">
         <x:v>30</x:v>
@@ -8684,7 +8690,7 @@
     </x:row>
     <x:row r="252" spans="1:9">
       <x:c r="A252" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B252" s="0" t="s">
         <x:v>10</x:v>
@@ -8713,7 +8719,7 @@
     </x:row>
     <x:row r="253" spans="1:9">
       <x:c r="A253" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B253" s="0" t="s">
         <x:v>10</x:v>
@@ -8742,7 +8748,7 @@
     </x:row>
     <x:row r="254" spans="1:9">
       <x:c r="A254" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B254" s="0" t="s">
         <x:v>10</x:v>
@@ -8754,7 +8760,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E254" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F254" s="1" t="s">
         <x:v>59</x:v>
@@ -8771,7 +8777,7 @@
     </x:row>
     <x:row r="255" spans="1:9">
       <x:c r="A255" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B255" s="0" t="s">
         <x:v>46</x:v>
@@ -8800,7 +8806,7 @@
     </x:row>
     <x:row r="256" spans="1:9">
       <x:c r="A256" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B256" s="0" t="s">
         <x:v>46</x:v>
@@ -8829,7 +8835,7 @@
     </x:row>
     <x:row r="257" spans="1:9">
       <x:c r="A257" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B257" s="0" t="s">
         <x:v>46</x:v>
@@ -8858,7 +8864,7 @@
     </x:row>
     <x:row r="258" spans="1:9">
       <x:c r="A258" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B258" s="0" t="s">
         <x:v>23</x:v>
@@ -8887,7 +8893,7 @@
     </x:row>
     <x:row r="259" spans="1:9">
       <x:c r="A259" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B259" s="0" t="s">
         <x:v>23</x:v>
@@ -8916,7 +8922,7 @@
     </x:row>
     <x:row r="260" spans="1:9">
       <x:c r="A260" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B260" s="0" t="s">
         <x:v>23</x:v>
@@ -8945,7 +8951,7 @@
     </x:row>
     <x:row r="261" spans="1:9">
       <x:c r="A261" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B261" s="0" t="s">
         <x:v>26</x:v>
@@ -8974,7 +8980,7 @@
     </x:row>
     <x:row r="262" spans="1:9">
       <x:c r="A262" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B262" s="0" t="s">
         <x:v>26</x:v>
@@ -9003,7 +9009,7 @@
     </x:row>
     <x:row r="263" spans="1:9">
       <x:c r="A263" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B263" s="0" t="s">
         <x:v>26</x:v>
@@ -9032,7 +9038,7 @@
     </x:row>
     <x:row r="264" spans="1:9">
       <x:c r="A264" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B264" s="0" t="s">
         <x:v>73</x:v>
@@ -9061,7 +9067,7 @@
     </x:row>
     <x:row r="265" spans="1:9">
       <x:c r="A265" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B265" s="0" t="s">
         <x:v>73</x:v>
@@ -9090,7 +9096,7 @@
     </x:row>
     <x:row r="266" spans="1:9">
       <x:c r="A266" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B266" s="0" t="s">
         <x:v>29</x:v>
@@ -9119,7 +9125,7 @@
     </x:row>
     <x:row r="267" spans="1:9">
       <x:c r="A267" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B267" s="0" t="s">
         <x:v>29</x:v>
@@ -9148,7 +9154,7 @@
     </x:row>
     <x:row r="268" spans="1:9">
       <x:c r="A268" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B268" s="0" t="s">
         <x:v>29</x:v>
@@ -9177,7 +9183,7 @@
     </x:row>
     <x:row r="269" spans="1:9">
       <x:c r="A269" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B269" s="0" t="s">
         <x:v>30</x:v>
@@ -9206,7 +9212,7 @@
     </x:row>
     <x:row r="270" spans="1:9">
       <x:c r="A270" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B270" s="0" t="s">
         <x:v>30</x:v>
@@ -9235,7 +9241,7 @@
     </x:row>
     <x:row r="271" spans="1:9">
       <x:c r="A271" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B271" s="0" t="s">
         <x:v>30</x:v>
@@ -9276,7 +9282,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E272" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F272" s="1" t="s">
         <x:v>117</x:v>
@@ -9314,7 +9320,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="H273" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="I273" s="0" t="s">
         <x:v>13</x:v>
@@ -9331,19 +9337,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D274" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="E274" s="1" t="s">
         <x:v>144</x:v>
-      </x:c>
-      <x:c r="E274" s="1" t="s">
-        <x:v>145</x:v>
       </x:c>
       <x:c r="F274" s="1" t="s">
         <x:v>72</x:v>
       </x:c>
       <x:c r="G274" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="H274" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I274" s="0" t="s">
         <x:v>13</x:v>
@@ -9485,7 +9491,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="G279" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="H279" s="1" t="s">
         <x:v>90</x:v>
@@ -9511,10 +9517,10 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="F280" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G280" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="H280" s="1" t="s">
         <x:v>112</x:v>
@@ -9537,16 +9543,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E281" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F281" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="G281" s="1" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="G281" s="1" t="s">
+      <x:c r="H281" s="1" t="s">
         <x:v>151</x:v>
-      </x:c>
-      <x:c r="H281" s="1" t="s">
-        <x:v>152</x:v>
       </x:c>
       <x:c r="I281" s="0" t="s">
         <x:v>13</x:v>
@@ -9566,13 +9572,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E282" s="1" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="F282" s="1" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="F282" s="1" t="s">
+      <x:c r="G282" s="1" t="s">
         <x:v>154</x:v>
-      </x:c>
-      <x:c r="G282" s="1" t="s">
-        <x:v>155</x:v>
       </x:c>
       <x:c r="H282" s="1" t="s">
         <x:v>67</x:v>
@@ -9801,7 +9807,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F290" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G290" s="1" t="s">
         <x:v>92</x:v>
@@ -9833,7 +9839,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="G291" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="H291" s="1" t="s">
         <x:v>75</x:v>
@@ -9844,7 +9850,7 @@
     </x:row>
     <x:row r="292" spans="1:9">
       <x:c r="A292" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B292" s="0" t="s">
         <x:v>10</x:v>
@@ -9873,7 +9879,7 @@
     </x:row>
     <x:row r="293" spans="1:9">
       <x:c r="A293" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B293" s="0" t="s">
         <x:v>10</x:v>
@@ -9902,7 +9908,7 @@
     </x:row>
     <x:row r="294" spans="1:9">
       <x:c r="A294" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B294" s="0" t="s">
         <x:v>10</x:v>
@@ -9914,7 +9920,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="E294" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F294" s="1" t="s">
         <x:v>48</x:v>
@@ -9931,7 +9937,7 @@
     </x:row>
     <x:row r="295" spans="1:9">
       <x:c r="A295" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B295" s="0" t="s">
         <x:v>23</x:v>
@@ -9960,7 +9966,7 @@
     </x:row>
     <x:row r="296" spans="1:9">
       <x:c r="A296" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B296" s="0" t="s">
         <x:v>23</x:v>
@@ -9989,7 +9995,7 @@
     </x:row>
     <x:row r="297" spans="1:9">
       <x:c r="A297" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B297" s="0" t="s">
         <x:v>23</x:v>
@@ -10018,7 +10024,7 @@
     </x:row>
     <x:row r="298" spans="1:9">
       <x:c r="A298" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B298" s="0" t="s">
         <x:v>26</x:v>
@@ -10047,7 +10053,7 @@
     </x:row>
     <x:row r="299" spans="1:9">
       <x:c r="A299" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B299" s="0" t="s">
         <x:v>26</x:v>
@@ -10076,7 +10082,7 @@
     </x:row>
     <x:row r="300" spans="1:9">
       <x:c r="A300" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B300" s="0" t="s">
         <x:v>26</x:v>
@@ -10105,7 +10111,7 @@
     </x:row>
     <x:row r="301" spans="1:9">
       <x:c r="A301" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B301" s="0" t="s">
         <x:v>73</x:v>
@@ -10134,7 +10140,7 @@
     </x:row>
     <x:row r="302" spans="1:9">
       <x:c r="A302" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B302" s="0" t="s">
         <x:v>73</x:v>
@@ -10163,7 +10169,7 @@
     </x:row>
     <x:row r="303" spans="1:9">
       <x:c r="A303" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B303" s="0" t="s">
         <x:v>29</x:v>
@@ -10192,7 +10198,7 @@
     </x:row>
     <x:row r="304" spans="1:9">
       <x:c r="A304" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B304" s="0" t="s">
         <x:v>29</x:v>
@@ -10221,7 +10227,7 @@
     </x:row>
     <x:row r="305" spans="1:9">
       <x:c r="A305" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B305" s="0" t="s">
         <x:v>30</x:v>
@@ -10250,7 +10256,7 @@
     </x:row>
     <x:row r="306" spans="1:9">
       <x:c r="A306" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B306" s="0" t="s">
         <x:v>30</x:v>
@@ -10279,7 +10285,7 @@
     </x:row>
     <x:row r="307" spans="1:9">
       <x:c r="A307" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B307" s="0" t="s">
         <x:v>30</x:v>
@@ -10308,7 +10314,7 @@
     </x:row>
     <x:row r="308" spans="1:9">
       <x:c r="A308" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B308" s="0" t="s">
         <x:v>10</x:v>
@@ -10337,7 +10343,7 @@
     </x:row>
     <x:row r="309" spans="1:9">
       <x:c r="A309" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B309" s="0" t="s">
         <x:v>10</x:v>
@@ -10366,7 +10372,7 @@
     </x:row>
     <x:row r="310" spans="1:9">
       <x:c r="A310" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B310" s="0" t="s">
         <x:v>10</x:v>
@@ -10395,7 +10401,7 @@
     </x:row>
     <x:row r="311" spans="1:9">
       <x:c r="A311" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B311" s="0" t="s">
         <x:v>23</x:v>
@@ -10424,7 +10430,7 @@
     </x:row>
     <x:row r="312" spans="1:9">
       <x:c r="A312" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B312" s="0" t="s">
         <x:v>23</x:v>
@@ -10453,7 +10459,7 @@
     </x:row>
     <x:row r="313" spans="1:9">
       <x:c r="A313" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B313" s="0" t="s">
         <x:v>23</x:v>
@@ -10482,7 +10488,7 @@
     </x:row>
     <x:row r="314" spans="1:9">
       <x:c r="A314" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B314" s="0" t="s">
         <x:v>26</x:v>
@@ -10500,7 +10506,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G314" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="H314" s="1" t="s">
         <x:v>18</x:v>
@@ -10511,7 +10517,7 @@
     </x:row>
     <x:row r="315" spans="1:9">
       <x:c r="A315" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B315" s="0" t="s">
         <x:v>26</x:v>
@@ -10529,7 +10535,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="G315" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H315" s="1" t="s">
         <x:v>88</x:v>
@@ -10540,7 +10546,7 @@
     </x:row>
     <x:row r="316" spans="1:9">
       <x:c r="A316" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B316" s="0" t="s">
         <x:v>26</x:v>
@@ -10558,7 +10564,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="G316" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H316" s="1" t="s">
         <x:v>112</x:v>
@@ -10569,7 +10575,7 @@
     </x:row>
     <x:row r="317" spans="1:9">
       <x:c r="A317" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B317" s="0" t="s">
         <x:v>73</x:v>
@@ -10598,7 +10604,7 @@
     </x:row>
     <x:row r="318" spans="1:9">
       <x:c r="A318" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B318" s="0" t="s">
         <x:v>73</x:v>
@@ -10627,7 +10633,7 @@
     </x:row>
     <x:row r="319" spans="1:9">
       <x:c r="A319" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B319" s="0" t="s">
         <x:v>29</x:v>
@@ -10656,7 +10662,7 @@
     </x:row>
     <x:row r="320" spans="1:9">
       <x:c r="A320" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B320" s="0" t="s">
         <x:v>29</x:v>
@@ -10685,7 +10691,7 @@
     </x:row>
     <x:row r="321" spans="1:9">
       <x:c r="A321" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B321" s="0" t="s">
         <x:v>29</x:v>
@@ -10714,7 +10720,7 @@
     </x:row>
     <x:row r="322" spans="1:9">
       <x:c r="A322" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B322" s="0" t="s">
         <x:v>30</x:v>
@@ -10743,7 +10749,7 @@
     </x:row>
     <x:row r="323" spans="1:9">
       <x:c r="A323" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B323" s="0" t="s">
         <x:v>30</x:v>
@@ -10772,7 +10778,7 @@
     </x:row>
     <x:row r="324" spans="1:9">
       <x:c r="A324" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B324" s="0" t="s">
         <x:v>30</x:v>
@@ -10801,7 +10807,7 @@
     </x:row>
     <x:row r="325" spans="1:9">
       <x:c r="A325" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B325" s="0" t="s">
         <x:v>10</x:v>
@@ -10830,7 +10836,7 @@
     </x:row>
     <x:row r="326" spans="1:9">
       <x:c r="A326" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B326" s="0" t="s">
         <x:v>10</x:v>
@@ -10859,7 +10865,7 @@
     </x:row>
     <x:row r="327" spans="1:9">
       <x:c r="A327" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B327" s="0" t="s">
         <x:v>10</x:v>
@@ -10888,7 +10894,7 @@
     </x:row>
     <x:row r="328" spans="1:9">
       <x:c r="A328" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B328" s="0" t="s">
         <x:v>23</x:v>
@@ -10917,7 +10923,7 @@
     </x:row>
     <x:row r="329" spans="1:9">
       <x:c r="A329" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B329" s="0" t="s">
         <x:v>23</x:v>
@@ -10946,7 +10952,7 @@
     </x:row>
     <x:row r="330" spans="1:9">
       <x:c r="A330" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B330" s="0" t="s">
         <x:v>23</x:v>
@@ -10975,7 +10981,7 @@
     </x:row>
     <x:row r="331" spans="1:9">
       <x:c r="A331" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B331" s="0" t="s">
         <x:v>26</x:v>
@@ -11004,7 +11010,7 @@
     </x:row>
     <x:row r="332" spans="1:9">
       <x:c r="A332" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B332" s="0" t="s">
         <x:v>26</x:v>
@@ -11033,7 +11039,7 @@
     </x:row>
     <x:row r="333" spans="1:9">
       <x:c r="A333" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B333" s="0" t="s">
         <x:v>26</x:v>
@@ -11062,7 +11068,7 @@
     </x:row>
     <x:row r="334" spans="1:9">
       <x:c r="A334" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B334" s="0" t="s">
         <x:v>29</x:v>
@@ -11091,7 +11097,7 @@
     </x:row>
     <x:row r="335" spans="1:9">
       <x:c r="A335" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B335" s="0" t="s">
         <x:v>29</x:v>
@@ -11120,7 +11126,7 @@
     </x:row>
     <x:row r="336" spans="1:9">
       <x:c r="A336" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B336" s="0" t="s">
         <x:v>10</x:v>
@@ -11149,7 +11155,7 @@
     </x:row>
     <x:row r="337" spans="1:9">
       <x:c r="A337" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B337" s="0" t="s">
         <x:v>10</x:v>
@@ -11178,7 +11184,7 @@
     </x:row>
     <x:row r="338" spans="1:9">
       <x:c r="A338" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B338" s="0" t="s">
         <x:v>23</x:v>
@@ -11207,7 +11213,7 @@
     </x:row>
     <x:row r="339" spans="1:9">
       <x:c r="A339" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B339" s="0" t="s">
         <x:v>23</x:v>
@@ -11236,7 +11242,7 @@
     </x:row>
     <x:row r="340" spans="1:9">
       <x:c r="A340" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B340" s="0" t="s">
         <x:v>23</x:v>
@@ -11265,7 +11271,7 @@
     </x:row>
     <x:row r="341" spans="1:9">
       <x:c r="A341" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B341" s="0" t="s">
         <x:v>26</x:v>
@@ -11294,7 +11300,7 @@
     </x:row>
     <x:row r="342" spans="1:9">
       <x:c r="A342" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B342" s="0" t="s">
         <x:v>26</x:v>
@@ -11323,7 +11329,7 @@
     </x:row>
     <x:row r="343" spans="1:9">
       <x:c r="A343" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B343" s="0" t="s">
         <x:v>26</x:v>
@@ -11352,7 +11358,7 @@
     </x:row>
     <x:row r="344" spans="1:9">
       <x:c r="A344" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B344" s="0" t="s">
         <x:v>10</x:v>
@@ -11381,7 +11387,7 @@
     </x:row>
     <x:row r="345" spans="1:9">
       <x:c r="A345" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B345" s="0" t="s">
         <x:v>10</x:v>
@@ -11410,7 +11416,7 @@
     </x:row>
     <x:row r="346" spans="1:9">
       <x:c r="A346" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B346" s="0" t="s">
         <x:v>10</x:v>
@@ -11439,7 +11445,7 @@
     </x:row>
     <x:row r="347" spans="1:9">
       <x:c r="A347" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B347" s="0" t="s">
         <x:v>23</x:v>
@@ -11468,7 +11474,7 @@
     </x:row>
     <x:row r="348" spans="1:9">
       <x:c r="A348" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B348" s="0" t="s">
         <x:v>23</x:v>
@@ -11497,7 +11503,7 @@
     </x:row>
     <x:row r="349" spans="1:9">
       <x:c r="A349" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B349" s="0" t="s">
         <x:v>23</x:v>
@@ -11526,7 +11532,7 @@
     </x:row>
     <x:row r="350" spans="1:9">
       <x:c r="A350" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B350" s="0" t="s">
         <x:v>26</x:v>
@@ -11555,7 +11561,7 @@
     </x:row>
     <x:row r="351" spans="1:9">
       <x:c r="A351" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B351" s="0" t="s">
         <x:v>26</x:v>
@@ -11584,7 +11590,7 @@
     </x:row>
     <x:row r="352" spans="1:9">
       <x:c r="A352" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B352" s="0" t="s">
         <x:v>26</x:v>
@@ -11613,7 +11619,7 @@
     </x:row>
     <x:row r="353" spans="1:9">
       <x:c r="A353" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B353" s="0" t="s">
         <x:v>73</x:v>
@@ -11642,7 +11648,7 @@
     </x:row>
     <x:row r="354" spans="1:9">
       <x:c r="A354" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B354" s="0" t="s">
         <x:v>73</x:v>
@@ -11671,7 +11677,7 @@
     </x:row>
     <x:row r="355" spans="1:9">
       <x:c r="A355" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B355" s="0" t="s">
         <x:v>73</x:v>
@@ -11700,7 +11706,7 @@
     </x:row>
     <x:row r="356" spans="1:9">
       <x:c r="A356" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B356" s="0" t="s">
         <x:v>29</x:v>
@@ -11712,13 +11718,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E356" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F356" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G356" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H356" s="1" t="s">
         <x:v>13</x:v>
@@ -11729,7 +11735,7 @@
     </x:row>
     <x:row r="357" spans="1:9">
       <x:c r="A357" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B357" s="0" t="s">
         <x:v>29</x:v>
@@ -11758,7 +11764,7 @@
     </x:row>
     <x:row r="358" spans="1:9">
       <x:c r="A358" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B358" s="0" t="s">
         <x:v>29</x:v>
@@ -11767,16 +11773,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D358" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E358" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F358" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="G358" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H358" s="1" t="s">
         <x:v>13</x:v>
@@ -11787,7 +11793,7 @@
     </x:row>
     <x:row r="359" spans="1:9">
       <x:c r="A359" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B359" s="0" t="s">
         <x:v>30</x:v>
@@ -11816,7 +11822,7 @@
     </x:row>
     <x:row r="360" spans="1:9">
       <x:c r="A360" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B360" s="0" t="s">
         <x:v>30</x:v>
@@ -11845,7 +11851,7 @@
     </x:row>
     <x:row r="361" spans="1:9">
       <x:c r="A361" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B361" s="0" t="s">
         <x:v>30</x:v>
@@ -11874,7 +11880,7 @@
     </x:row>
     <x:row r="362" spans="1:9">
       <x:c r="A362" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B362" s="0" t="s">
         <x:v>10</x:v>
@@ -11903,7 +11909,7 @@
     </x:row>
     <x:row r="363" spans="1:9">
       <x:c r="A363" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B363" s="0" t="s">
         <x:v>10</x:v>
@@ -11932,7 +11938,7 @@
     </x:row>
     <x:row r="364" spans="1:9">
       <x:c r="A364" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B364" s="0" t="s">
         <x:v>10</x:v>
@@ -11961,7 +11967,7 @@
     </x:row>
     <x:row r="365" spans="1:9">
       <x:c r="A365" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B365" s="0" t="s">
         <x:v>46</x:v>
@@ -11990,7 +11996,7 @@
     </x:row>
     <x:row r="366" spans="1:9">
       <x:c r="A366" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B366" s="0" t="s">
         <x:v>46</x:v>
@@ -12019,7 +12025,7 @@
     </x:row>
     <x:row r="367" spans="1:9">
       <x:c r="A367" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B367" s="0" t="s">
         <x:v>46</x:v>
@@ -12048,7 +12054,7 @@
     </x:row>
     <x:row r="368" spans="1:9">
       <x:c r="A368" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B368" s="0" t="s">
         <x:v>23</x:v>
@@ -12077,7 +12083,7 @@
     </x:row>
     <x:row r="369" spans="1:9">
       <x:c r="A369" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B369" s="0" t="s">
         <x:v>23</x:v>
@@ -12106,7 +12112,7 @@
     </x:row>
     <x:row r="370" spans="1:9">
       <x:c r="A370" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B370" s="0" t="s">
         <x:v>23</x:v>
@@ -12135,7 +12141,7 @@
     </x:row>
     <x:row r="371" spans="1:9">
       <x:c r="A371" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B371" s="0" t="s">
         <x:v>26</x:v>
@@ -12164,7 +12170,7 @@
     </x:row>
     <x:row r="372" spans="1:9">
       <x:c r="A372" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B372" s="0" t="s">
         <x:v>26</x:v>
@@ -12193,7 +12199,7 @@
     </x:row>
     <x:row r="373" spans="1:9">
       <x:c r="A373" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B373" s="0" t="s">
         <x:v>26</x:v>
@@ -12214,7 +12220,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="H373" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I373" s="0" t="s">
         <x:v>13</x:v>
@@ -12222,7 +12228,7 @@
     </x:row>
     <x:row r="374" spans="1:9">
       <x:c r="A374" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B374" s="0" t="s">
         <x:v>29</x:v>
@@ -12251,7 +12257,7 @@
     </x:row>
     <x:row r="375" spans="1:9">
       <x:c r="A375" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B375" s="0" t="s">
         <x:v>29</x:v>
@@ -12280,7 +12286,7 @@
     </x:row>
     <x:row r="376" spans="1:9">
       <x:c r="A376" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B376" s="0" t="s">
         <x:v>29</x:v>
@@ -12309,7 +12315,7 @@
     </x:row>
     <x:row r="377" spans="1:9">
       <x:c r="A377" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B377" s="0" t="s">
         <x:v>30</x:v>
@@ -12338,7 +12344,7 @@
     </x:row>
     <x:row r="378" spans="1:9">
       <x:c r="A378" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B378" s="0" t="s">
         <x:v>30</x:v>
@@ -12367,7 +12373,7 @@
     </x:row>
     <x:row r="379" spans="1:9">
       <x:c r="A379" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B379" s="0" t="s">
         <x:v>30</x:v>
@@ -12396,7 +12402,7 @@
     </x:row>
     <x:row r="380" spans="1:9">
       <x:c r="A380" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B380" s="0" t="s">
         <x:v>10</x:v>
@@ -12425,7 +12431,7 @@
     </x:row>
     <x:row r="381" spans="1:9">
       <x:c r="A381" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B381" s="0" t="s">
         <x:v>10</x:v>
@@ -12454,7 +12460,7 @@
     </x:row>
     <x:row r="382" spans="1:9">
       <x:c r="A382" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B382" s="0" t="s">
         <x:v>10</x:v>
@@ -12483,7 +12489,7 @@
     </x:row>
     <x:row r="383" spans="1:9">
       <x:c r="A383" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B383" s="0" t="s">
         <x:v>23</x:v>
@@ -12512,7 +12518,7 @@
     </x:row>
     <x:row r="384" spans="1:9">
       <x:c r="A384" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B384" s="0" t="s">
         <x:v>23</x:v>
@@ -12541,7 +12547,7 @@
     </x:row>
     <x:row r="385" spans="1:9">
       <x:c r="A385" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B385" s="0" t="s">
         <x:v>26</x:v>
@@ -12570,7 +12576,7 @@
     </x:row>
     <x:row r="386" spans="1:9">
       <x:c r="A386" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B386" s="0" t="s">
         <x:v>26</x:v>
@@ -12599,7 +12605,7 @@
     </x:row>
     <x:row r="387" spans="1:9">
       <x:c r="A387" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B387" s="0" t="s">
         <x:v>26</x:v>
@@ -12628,7 +12634,7 @@
     </x:row>
     <x:row r="388" spans="1:9">
       <x:c r="A388" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B388" s="0" t="s">
         <x:v>10</x:v>
@@ -12637,19 +12643,19 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D388" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="E388" s="1" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="F388" s="1" t="s">
         <x:v>165</x:v>
       </x:c>
-      <x:c r="E388" s="1" t="s">
+      <x:c r="G388" s="1" t="s">
         <x:v>166</x:v>
       </x:c>
-      <x:c r="F388" s="1" t="s">
+      <x:c r="H388" s="1" t="s">
         <x:v>167</x:v>
-      </x:c>
-      <x:c r="G388" s="1" t="s">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="H388" s="1" t="s">
-        <x:v>169</x:v>
       </x:c>
       <x:c r="I388" s="0" t="s">
         <x:v>13</x:v>
@@ -12657,7 +12663,7 @@
     </x:row>
     <x:row r="389" spans="1:9">
       <x:c r="A389" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B389" s="0" t="s">
         <x:v>10</x:v>
@@ -12666,19 +12672,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D389" s="1" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="E389" s="1" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="F389" s="1" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="E389" s="1" t="s">
+      <x:c r="G389" s="1" t="s">
         <x:v>171</x:v>
       </x:c>
-      <x:c r="F389" s="1" t="s">
+      <x:c r="H389" s="1" t="s">
         <x:v>172</x:v>
-      </x:c>
-      <x:c r="G389" s="1" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="H389" s="1" t="s">
-        <x:v>174</x:v>
       </x:c>
       <x:c r="I389" s="0" t="s">
         <x:v>13</x:v>
@@ -12686,7 +12692,7 @@
     </x:row>
     <x:row r="390" spans="1:9">
       <x:c r="A390" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B390" s="0" t="s">
         <x:v>10</x:v>
@@ -12695,19 +12701,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D390" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="E390" s="1" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="F390" s="1" t="s">
         <x:v>175</x:v>
       </x:c>
-      <x:c r="E390" s="1" t="s">
+      <x:c r="G390" s="1" t="s">
         <x:v>176</x:v>
       </x:c>
-      <x:c r="F390" s="1" t="s">
+      <x:c r="H390" s="1" t="s">
         <x:v>177</x:v>
-      </x:c>
-      <x:c r="G390" s="1" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="H390" s="1" t="s">
-        <x:v>179</x:v>
       </x:c>
       <x:c r="I390" s="0" t="s">
         <x:v>13</x:v>
@@ -12715,7 +12721,7 @@
     </x:row>
     <x:row r="391" spans="1:9">
       <x:c r="A391" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B391" s="0" t="s">
         <x:v>46</x:v>
@@ -12744,7 +12750,7 @@
     </x:row>
     <x:row r="392" spans="1:9">
       <x:c r="A392" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B392" s="0" t="s">
         <x:v>46</x:v>
@@ -12773,7 +12779,7 @@
     </x:row>
     <x:row r="393" spans="1:9">
       <x:c r="A393" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B393" s="0" t="s">
         <x:v>46</x:v>
@@ -12802,7 +12808,7 @@
     </x:row>
     <x:row r="394" spans="1:9">
       <x:c r="A394" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B394" s="0" t="s">
         <x:v>23</x:v>
@@ -12817,7 +12823,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="F394" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G394" s="1" t="s">
         <x:v>83</x:v>
@@ -12831,7 +12837,7 @@
     </x:row>
     <x:row r="395" spans="1:9">
       <x:c r="A395" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B395" s="0" t="s">
         <x:v>23</x:v>
@@ -12840,7 +12846,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D395" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E395" s="1" t="s">
         <x:v>180</x:v>
@@ -12860,7 +12866,7 @@
     </x:row>
     <x:row r="396" spans="1:9">
       <x:c r="A396" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B396" s="0" t="s">
         <x:v>23</x:v>
@@ -12889,7 +12895,7 @@
     </x:row>
     <x:row r="397" spans="1:9">
       <x:c r="A397" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B397" s="0" t="s">
         <x:v>26</x:v>
@@ -12918,7 +12924,7 @@
     </x:row>
     <x:row r="398" spans="1:9">
       <x:c r="A398" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B398" s="0" t="s">
         <x:v>26</x:v>
@@ -12947,7 +12953,7 @@
     </x:row>
     <x:row r="399" spans="1:9">
       <x:c r="A399" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B399" s="0" t="s">
         <x:v>26</x:v>
@@ -12976,7 +12982,7 @@
     </x:row>
     <x:row r="400" spans="1:9">
       <x:c r="A400" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B400" s="0" t="s">
         <x:v>73</x:v>
@@ -13005,7 +13011,7 @@
     </x:row>
     <x:row r="401" spans="1:9">
       <x:c r="A401" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B401" s="0" t="s">
         <x:v>73</x:v>
@@ -13034,7 +13040,7 @@
     </x:row>
     <x:row r="402" spans="1:9">
       <x:c r="A402" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B402" s="0" t="s">
         <x:v>73</x:v>
@@ -13063,7 +13069,7 @@
     </x:row>
     <x:row r="403" spans="1:9">
       <x:c r="A403" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B403" s="0" t="s">
         <x:v>29</x:v>
@@ -13092,7 +13098,7 @@
     </x:row>
     <x:row r="404" spans="1:9">
       <x:c r="A404" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B404" s="0" t="s">
         <x:v>29</x:v>
@@ -13121,7 +13127,7 @@
     </x:row>
     <x:row r="405" spans="1:9">
       <x:c r="A405" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B405" s="0" t="s">
         <x:v>29</x:v>
@@ -13139,10 +13145,10 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="G405" s="1" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="H405" s="1" t="s">
         <x:v>200</x:v>
-      </x:c>
-      <x:c r="H405" s="1" t="s">
-        <x:v>201</x:v>
       </x:c>
       <x:c r="I405" s="0" t="s">
         <x:v>13</x:v>
@@ -13150,7 +13156,7 @@
     </x:row>
     <x:row r="406" spans="1:9">
       <x:c r="A406" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B406" s="0" t="s">
         <x:v>30</x:v>
@@ -13162,13 +13168,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E406" s="1" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="F406" s="1" t="s">
         <x:v>201</x:v>
       </x:c>
-      <x:c r="F406" s="1" t="s">
+      <x:c r="G406" s="1" t="s">
         <x:v>202</x:v>
-      </x:c>
-      <x:c r="G406" s="1" t="s">
-        <x:v>153</x:v>
       </x:c>
       <x:c r="H406" s="1" t="s">
         <x:v>122</x:v>
@@ -13179,7 +13185,7 @@
     </x:row>
     <x:row r="407" spans="1:9">
       <x:c r="A407" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B407" s="0" t="s">
         <x:v>30</x:v>
@@ -13208,7 +13214,7 @@
     </x:row>
     <x:row r="408" spans="1:9">
       <x:c r="A408" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B408" s="0" t="s">
         <x:v>30</x:v>
@@ -13287,7 +13293,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="H410" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I410" s="0" t="s">
         <x:v>13</x:v>
@@ -13693,7 +13699,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="H424" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I424" s="0" t="s">
         <x:v>13</x:v>
@@ -15433,7 +15439,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H484" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I484" s="0" t="s">
         <x:v>13</x:v>
@@ -15491,7 +15497,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="H486" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I486" s="0" t="s">
         <x:v>13</x:v>
@@ -15720,7 +15726,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="G494" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="H494" s="1" t="s">
         <x:v>28</x:v>
@@ -18127,7 +18133,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G577" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="H577" s="1" t="s">
         <x:v>21</x:v>
@@ -19954,7 +19960,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="G640" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="H640" s="1" t="s">
         <x:v>112</x:v>
@@ -20371,7 +20377,7 @@
     </x:row>
     <x:row r="655" spans="1:9">
       <x:c r="A655" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B655" s="0" t="s">
         <x:v>10</x:v>
@@ -20400,7 +20406,7 @@
     </x:row>
     <x:row r="656" spans="1:9">
       <x:c r="A656" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B656" s="0" t="s">
         <x:v>10</x:v>
@@ -20418,7 +20424,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="G656" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H656" s="1" t="s">
         <x:v>27</x:v>
@@ -20429,7 +20435,7 @@
     </x:row>
     <x:row r="657" spans="1:9">
       <x:c r="A657" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B657" s="0" t="s">
         <x:v>10</x:v>
@@ -20447,7 +20453,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G657" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H657" s="1" t="s">
         <x:v>74</x:v>
@@ -20458,7 +20464,7 @@
     </x:row>
     <x:row r="658" spans="1:9">
       <x:c r="A658" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B658" s="0" t="s">
         <x:v>46</x:v>
@@ -20487,7 +20493,7 @@
     </x:row>
     <x:row r="659" spans="1:9">
       <x:c r="A659" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B659" s="0" t="s">
         <x:v>46</x:v>
@@ -20516,7 +20522,7 @@
     </x:row>
     <x:row r="660" spans="1:9">
       <x:c r="A660" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B660" s="0" t="s">
         <x:v>23</x:v>
@@ -20545,7 +20551,7 @@
     </x:row>
     <x:row r="661" spans="1:9">
       <x:c r="A661" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B661" s="0" t="s">
         <x:v>23</x:v>
@@ -20574,7 +20580,7 @@
     </x:row>
     <x:row r="662" spans="1:9">
       <x:c r="A662" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B662" s="0" t="s">
         <x:v>23</x:v>
@@ -20603,7 +20609,7 @@
     </x:row>
     <x:row r="663" spans="1:9">
       <x:c r="A663" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B663" s="0" t="s">
         <x:v>26</x:v>
@@ -20632,7 +20638,7 @@
     </x:row>
     <x:row r="664" spans="1:9">
       <x:c r="A664" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B664" s="0" t="s">
         <x:v>26</x:v>
@@ -20661,7 +20667,7 @@
     </x:row>
     <x:row r="665" spans="1:9">
       <x:c r="A665" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B665" s="0" t="s">
         <x:v>26</x:v>
@@ -20690,7 +20696,7 @@
     </x:row>
     <x:row r="666" spans="1:9">
       <x:c r="A666" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B666" s="0" t="s">
         <x:v>29</x:v>
@@ -20719,7 +20725,7 @@
     </x:row>
     <x:row r="667" spans="1:9">
       <x:c r="A667" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B667" s="0" t="s">
         <x:v>29</x:v>
@@ -20748,7 +20754,7 @@
     </x:row>
     <x:row r="668" spans="1:9">
       <x:c r="A668" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B668" s="0" t="s">
         <x:v>29</x:v>
@@ -20777,7 +20783,7 @@
     </x:row>
     <x:row r="669" spans="1:9">
       <x:c r="A669" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B669" s="0" t="s">
         <x:v>30</x:v>
@@ -20806,7 +20812,7 @@
     </x:row>
     <x:row r="670" spans="1:9">
       <x:c r="A670" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B670" s="0" t="s">
         <x:v>30</x:v>
@@ -20835,7 +20841,7 @@
     </x:row>
     <x:row r="671" spans="1:9">
       <x:c r="A671" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B671" s="0" t="s">
         <x:v>30</x:v>
@@ -20864,7 +20870,7 @@
     </x:row>
     <x:row r="672" spans="1:9">
       <x:c r="A672" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B672" s="0" t="s">
         <x:v>10</x:v>
@@ -20893,7 +20899,7 @@
     </x:row>
     <x:row r="673" spans="1:9">
       <x:c r="A673" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B673" s="0" t="s">
         <x:v>10</x:v>
@@ -20908,13 +20914,13 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F673" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="G673" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H673" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="I673" s="0" t="s">
         <x:v>13</x:v>
@@ -20922,7 +20928,7 @@
     </x:row>
     <x:row r="674" spans="1:9">
       <x:c r="A674" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B674" s="0" t="s">
         <x:v>10</x:v>
@@ -20934,16 +20940,16 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E674" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="F674" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="G674" s="1" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="H674" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="I674" s="0" t="s">
         <x:v>13</x:v>
@@ -20951,7 +20957,7 @@
     </x:row>
     <x:row r="675" spans="1:9">
       <x:c r="A675" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B675" s="0" t="s">
         <x:v>46</x:v>
@@ -20980,7 +20986,7 @@
     </x:row>
     <x:row r="676" spans="1:9">
       <x:c r="A676" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B676" s="0" t="s">
         <x:v>46</x:v>
@@ -21009,7 +21015,7 @@
     </x:row>
     <x:row r="677" spans="1:9">
       <x:c r="A677" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B677" s="0" t="s">
         <x:v>46</x:v>
@@ -21038,7 +21044,7 @@
     </x:row>
     <x:row r="678" spans="1:9">
       <x:c r="A678" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B678" s="0" t="s">
         <x:v>23</x:v>
@@ -21067,7 +21073,7 @@
     </x:row>
     <x:row r="679" spans="1:9">
       <x:c r="A679" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B679" s="0" t="s">
         <x:v>23</x:v>
@@ -21096,7 +21102,7 @@
     </x:row>
     <x:row r="680" spans="1:9">
       <x:c r="A680" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B680" s="0" t="s">
         <x:v>23</x:v>
@@ -21125,7 +21131,7 @@
     </x:row>
     <x:row r="681" spans="1:9">
       <x:c r="A681" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B681" s="0" t="s">
         <x:v>26</x:v>
@@ -21154,7 +21160,7 @@
     </x:row>
     <x:row r="682" spans="1:9">
       <x:c r="A682" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B682" s="0" t="s">
         <x:v>26</x:v>
@@ -21166,7 +21172,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E682" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F682" s="1" t="s">
         <x:v>130</x:v>
@@ -21175,7 +21181,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="H682" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="I682" s="0" t="s">
         <x:v>13</x:v>
@@ -21183,7 +21189,7 @@
     </x:row>
     <x:row r="683" spans="1:9">
       <x:c r="A683" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B683" s="0" t="s">
         <x:v>26</x:v>
@@ -21201,10 +21207,10 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="G683" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="H683" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I683" s="0" t="s">
         <x:v>13</x:v>
@@ -21212,7 +21218,7 @@
     </x:row>
     <x:row r="684" spans="1:9">
       <x:c r="A684" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B684" s="0" t="s">
         <x:v>73</x:v>
@@ -21241,7 +21247,7 @@
     </x:row>
     <x:row r="685" spans="1:9">
       <x:c r="A685" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B685" s="0" t="s">
         <x:v>73</x:v>
@@ -21270,7 +21276,7 @@
     </x:row>
     <x:row r="686" spans="1:9">
       <x:c r="A686" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B686" s="0" t="s">
         <x:v>29</x:v>
@@ -21299,7 +21305,7 @@
     </x:row>
     <x:row r="687" spans="1:9">
       <x:c r="A687" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B687" s="0" t="s">
         <x:v>29</x:v>
@@ -21328,7 +21334,7 @@
     </x:row>
     <x:row r="688" spans="1:9">
       <x:c r="A688" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B688" s="0" t="s">
         <x:v>29</x:v>
@@ -21357,7 +21363,7 @@
     </x:row>
     <x:row r="689" spans="1:9">
       <x:c r="A689" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B689" s="0" t="s">
         <x:v>30</x:v>
@@ -21386,7 +21392,7 @@
     </x:row>
     <x:row r="690" spans="1:9">
       <x:c r="A690" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B690" s="0" t="s">
         <x:v>30</x:v>
@@ -21415,7 +21421,7 @@
     </x:row>
     <x:row r="691" spans="1:9">
       <x:c r="A691" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B691" s="0" t="s">
         <x:v>30</x:v>
@@ -21444,7 +21450,7 @@
     </x:row>
     <x:row r="692" spans="1:9">
       <x:c r="A692" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B692" s="0" t="s">
         <x:v>10</x:v>
@@ -21473,7 +21479,7 @@
     </x:row>
     <x:row r="693" spans="1:9">
       <x:c r="A693" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B693" s="0" t="s">
         <x:v>10</x:v>
@@ -21502,7 +21508,7 @@
     </x:row>
     <x:row r="694" spans="1:9">
       <x:c r="A694" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B694" s="0" t="s">
         <x:v>23</x:v>
@@ -21531,7 +21537,7 @@
     </x:row>
     <x:row r="695" spans="1:9">
       <x:c r="A695" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B695" s="0" t="s">
         <x:v>23</x:v>
@@ -21560,7 +21566,7 @@
     </x:row>
     <x:row r="696" spans="1:9">
       <x:c r="A696" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B696" s="0" t="s">
         <x:v>23</x:v>
@@ -21589,7 +21595,7 @@
     </x:row>
     <x:row r="697" spans="1:9">
       <x:c r="A697" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B697" s="0" t="s">
         <x:v>26</x:v>
@@ -21618,7 +21624,7 @@
     </x:row>
     <x:row r="698" spans="1:9">
       <x:c r="A698" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B698" s="0" t="s">
         <x:v>26</x:v>
@@ -21647,7 +21653,7 @@
     </x:row>
     <x:row r="699" spans="1:9">
       <x:c r="A699" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B699" s="0" t="s">
         <x:v>29</x:v>
@@ -21676,7 +21682,7 @@
     </x:row>
     <x:row r="700" spans="1:9">
       <x:c r="A700" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B700" s="0" t="s">
         <x:v>29</x:v>
@@ -21705,7 +21711,7 @@
     </x:row>
     <x:row r="701" spans="1:9">
       <x:c r="A701" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B701" s="0" t="s">
         <x:v>29</x:v>
@@ -21734,7 +21740,7 @@
     </x:row>
     <x:row r="702" spans="1:9">
       <x:c r="A702" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B702" s="0" t="s">
         <x:v>10</x:v>
@@ -21763,7 +21769,7 @@
  